--- a/docs/SSNoC REST API.xlsx
+++ b/docs/SSNoC REST API.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyu/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26423"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines and Notes" sheetId="1" r:id="rId1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="159">
   <si>
     <t>Rules</t>
   </si>
@@ -240,9 +235,6 @@
   </si>
   <si>
     <t>Post an announcement</t>
-  </si>
-  <si>
-    <t>/messages/announcements</t>
   </si>
   <si>
     <t>Post Announcement</t>
@@ -522,6 +514,25 @@
   <si>
     <t>Administer User Profile</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>/announcements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">author, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>content, postedAt</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -709,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -828,33 +839,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -865,9 +849,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -922,7 +935,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -957,7 +970,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1134,7 +1147,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1146,42 +1159,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1190,14 +1203,14 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1205,36 +1218,36 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="52" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1248,6 +1261,11 @@
     <hyperlink ref="A15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1255,12 +1273,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y951"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
@@ -1273,7 +1291,7 @@
     <col min="10" max="10" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" ht="36">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -1320,51 +1338,51 @@
       <c r="X1" s="12"/>
       <c r="Y1" s="12"/>
     </row>
-    <row r="2" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:25" ht="12">
+      <c r="A2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="61"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61" t="s">
+      <c r="H2" s="63"/>
+      <c r="I2" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="58" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+    <row r="3" spans="1:25" ht="24" customHeight="1">
+      <c r="A3" s="61"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-    </row>
-    <row r="4" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+    </row>
+    <row r="4" spans="1:25" ht="12">
       <c r="A4" s="17" t="s">
         <v>34</v>
       </c>
@@ -1388,7 +1406,7 @@
       </c>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="24">
       <c r="A5" s="17" t="s">
         <v>38</v>
       </c>
@@ -1416,7 +1434,7 @@
       </c>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:25" ht="39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" ht="36">
       <c r="A6" s="25" t="s">
         <v>42</v>
       </c>
@@ -1461,7 +1479,7 @@
       <c r="X6" s="32"/>
       <c r="Y6" s="32"/>
     </row>
-    <row r="7" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="24">
       <c r="A7" s="25" t="s">
         <v>48</v>
       </c>
@@ -1502,7 +1520,7 @@
       <c r="X7" s="32"/>
       <c r="Y7" s="32"/>
     </row>
-    <row r="8" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" ht="33" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>51</v>
       </c>
@@ -1530,7 +1548,7 @@
       <c r="I8" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="63"/>
+      <c r="J8" s="60"/>
       <c r="K8" s="40"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
@@ -1547,7 +1565,7 @@
       <c r="X8" s="40"/>
       <c r="Y8" s="40"/>
     </row>
-    <row r="9" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" ht="24">
       <c r="A9" s="25" t="s">
         <v>56</v>
       </c>
@@ -1569,7 +1587,7 @@
       <c r="I9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="57"/>
+      <c r="J9" s="61"/>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
@@ -1586,7 +1604,7 @@
       <c r="X9" s="32"/>
       <c r="Y9" s="32"/>
     </row>
-    <row r="10" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" ht="24">
       <c r="A10" s="42" t="s">
         <v>59</v>
       </c>
@@ -1621,7 +1639,7 @@
       <c r="X10" s="32"/>
       <c r="Y10" s="32"/>
     </row>
-    <row r="11" spans="1:25" ht="39" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" ht="36">
       <c r="A11" s="33" t="s">
         <v>60</v>
       </c>
@@ -1666,7 +1684,7 @@
       <c r="X11" s="40"/>
       <c r="Y11" s="40"/>
     </row>
-    <row r="12" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" ht="24">
       <c r="A12" s="42" t="s">
         <v>65</v>
       </c>
@@ -1707,7 +1725,7 @@
       <c r="X12" s="32"/>
       <c r="Y12" s="32"/>
     </row>
-    <row r="13" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" ht="24">
       <c r="A13" s="42" t="s">
         <v>67</v>
       </c>
@@ -1748,18 +1766,18 @@
       <c r="X13" s="32"/>
       <c r="Y13" s="32"/>
     </row>
-    <row r="14" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" ht="24">
       <c r="A14" s="33" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>53</v>
+      <c r="C14" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>158</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38" t="s">
@@ -1770,7 +1788,7 @@
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="31"/>
       <c r="K14" s="40"/>
@@ -1789,15 +1807,15 @@
       <c r="X14" s="40"/>
       <c r="Y14" s="40"/>
     </row>
-    <row r="15" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" ht="24">
       <c r="A15" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>70</v>
+      <c r="C15" s="70" t="s">
+        <v>157</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="28" t="s">
@@ -1809,7 +1827,7 @@
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="31"/>
       <c r="K15" s="40"/>
@@ -1828,20 +1846,20 @@
       <c r="X15" s="40"/>
       <c r="Y15" s="40"/>
     </row>
-    <row r="16" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" ht="24">
       <c r="A16" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="C16" s="35" t="s">
         <v>74</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>75</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="37"/>
       <c r="F16" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>33</v>
@@ -1850,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="40"/>
@@ -1869,20 +1887,20 @@
       <c r="X16" s="40"/>
       <c r="Y16" s="40"/>
     </row>
-    <row r="17" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" ht="24">
       <c r="A17" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>78</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>79</v>
       </c>
       <c r="D17" s="34"/>
       <c r="E17" s="37"/>
       <c r="F17" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>33</v>
@@ -1891,7 +1909,7 @@
         <v>41</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="40"/>
@@ -1910,31 +1928,31 @@
       <c r="X17" s="40"/>
       <c r="Y17" s="40"/>
     </row>
-    <row r="18" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="59" t="s">
+    <row r="18" spans="1:25" ht="12">
+      <c r="A18" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="58" t="s">
+      <c r="E18" s="67"/>
+      <c r="F18" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="58" t="s">
-        <v>77</v>
+      <c r="I18" s="64" t="s">
+        <v>76</v>
       </c>
       <c r="J18" s="31"/>
       <c r="K18" s="32"/>
@@ -1953,16 +1971,16 @@
       <c r="X18" s="32"/>
       <c r="Y18" s="32"/>
     </row>
-    <row r="19" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
+    <row r="19" spans="1:25" ht="12">
+      <c r="A19" s="61"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="31"/>
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
@@ -1980,15 +1998,15 @@
       <c r="X19" s="40"/>
       <c r="Y19" s="40"/>
     </row>
-    <row r="20" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" ht="24">
       <c r="A20" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="37" t="s">
@@ -2000,7 +2018,7 @@
       </c>
       <c r="H20" s="44"/>
       <c r="I20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J20" s="31"/>
       <c r="K20" s="40"/>
@@ -2019,15 +2037,15 @@
       <c r="X20" s="40"/>
       <c r="Y20" s="40"/>
     </row>
-    <row r="21" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" ht="24">
       <c r="A21" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="37" t="s">
@@ -2039,7 +2057,7 @@
       </c>
       <c r="H21" s="44"/>
       <c r="I21" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J21" s="31"/>
       <c r="K21" s="40"/>
@@ -2058,33 +2076,33 @@
       <c r="X21" s="40"/>
       <c r="Y21" s="40"/>
     </row>
-    <row r="22" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" ht="29" customHeight="1">
       <c r="A22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="65" t="s">
+      <c r="D22" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="53" t="s">
         <v>148</v>
-      </c>
-      <c r="I22" s="66" t="s">
-        <v>149</v>
       </c>
       <c r="J22" s="48"/>
       <c r="K22" s="40"/>
@@ -2103,33 +2121,33 @@
       <c r="X22" s="40"/>
       <c r="Y22" s="40"/>
     </row>
-    <row r="23" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" ht="24">
       <c r="A23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="C23" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="D23" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="J23" s="48"/>
       <c r="K23" s="40"/>
@@ -2148,7 +2166,7 @@
       <c r="X23" s="40"/>
       <c r="Y23" s="40"/>
     </row>
-    <row r="24" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" ht="12">
       <c r="A24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2158,7 +2176,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="48"/>
     </row>
-    <row r="25" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" ht="12">
       <c r="A25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2168,7 +2186,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="48"/>
     </row>
-    <row r="26" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" ht="12">
       <c r="A26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2178,7 +2196,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="48"/>
     </row>
-    <row r="27" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" ht="12">
       <c r="A27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2188,7 +2206,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="48"/>
     </row>
-    <row r="28" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25" ht="12">
       <c r="A28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2198,7 +2216,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="48"/>
     </row>
-    <row r="29" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25" ht="12">
       <c r="A29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2208,7 +2226,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="48"/>
     </row>
-    <row r="30" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" ht="12">
       <c r="A30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2218,7 +2236,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="48"/>
     </row>
-    <row r="31" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" ht="12">
       <c r="A31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2228,7 +2246,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="48"/>
     </row>
-    <row r="32" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25" ht="12">
       <c r="A32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2238,7 +2256,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="48"/>
     </row>
-    <row r="33" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="12">
       <c r="A33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2248,7 +2266,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="48"/>
     </row>
-    <row r="34" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="12">
       <c r="A34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2258,7 +2276,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="48"/>
     </row>
-    <row r="35" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="12">
       <c r="A35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2268,7 +2286,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="48"/>
     </row>
-    <row r="36" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="12">
       <c r="A36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2278,7 +2296,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="48"/>
     </row>
-    <row r="37" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="12">
       <c r="A37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2288,7 +2306,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="48"/>
     </row>
-    <row r="38" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="12">
       <c r="A38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2298,7 +2316,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="48"/>
     </row>
-    <row r="39" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="12">
       <c r="A39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2308,7 +2326,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="48"/>
     </row>
-    <row r="40" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="12">
       <c r="A40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2318,7 +2336,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="48"/>
     </row>
-    <row r="41" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="12">
       <c r="A41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2328,7 +2346,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="48"/>
     </row>
-    <row r="42" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="12">
       <c r="A42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2338,7 +2356,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="48"/>
     </row>
-    <row r="43" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="12">
       <c r="A43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2348,7 +2366,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="48"/>
     </row>
-    <row r="44" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="12">
       <c r="A44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2358,7 +2376,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="48"/>
     </row>
-    <row r="45" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="12">
       <c r="A45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2368,7 +2386,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="48"/>
     </row>
-    <row r="46" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="12">
       <c r="A46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2378,7 +2396,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="48"/>
     </row>
-    <row r="47" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="12">
       <c r="A47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2388,7 +2406,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="48"/>
     </row>
-    <row r="48" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="12">
       <c r="A48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2398,7 +2416,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="48"/>
     </row>
-    <row r="49" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="12">
       <c r="A49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2408,7 +2426,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="48"/>
     </row>
-    <row r="50" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="12">
       <c r="A50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2418,7 +2436,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="48"/>
     </row>
-    <row r="51" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="12">
       <c r="A51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2428,7 +2446,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="48"/>
     </row>
-    <row r="52" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="12">
       <c r="A52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2438,7 +2456,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="48"/>
     </row>
-    <row r="53" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="12">
       <c r="A53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2448,7 +2466,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="48"/>
     </row>
-    <row r="54" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="12">
       <c r="A54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2458,7 +2476,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="48"/>
     </row>
-    <row r="55" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="12">
       <c r="A55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2468,7 +2486,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="48"/>
     </row>
-    <row r="56" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="12">
       <c r="A56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2478,7 +2496,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="48"/>
     </row>
-    <row r="57" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="12">
       <c r="A57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2488,7 +2506,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="48"/>
     </row>
-    <row r="58" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="12">
       <c r="A58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2498,7 +2516,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="48"/>
     </row>
-    <row r="59" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="12">
       <c r="A59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2508,7 +2526,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="48"/>
     </row>
-    <row r="60" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="12">
       <c r="A60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2518,7 +2536,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="48"/>
     </row>
-    <row r="61" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" ht="12">
       <c r="A61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2528,7 +2546,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="48"/>
     </row>
-    <row r="62" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="12">
       <c r="A62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2538,7 +2556,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="48"/>
     </row>
-    <row r="63" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" ht="12">
       <c r="A63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2548,7 +2566,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="48"/>
     </row>
-    <row r="64" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" ht="12">
       <c r="A64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2558,7 +2576,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="48"/>
     </row>
-    <row r="65" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" ht="12">
       <c r="A65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2568,7 +2586,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="48"/>
     </row>
-    <row r="66" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" ht="12">
       <c r="A66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2578,7 +2596,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="48"/>
     </row>
-    <row r="67" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" ht="12">
       <c r="A67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2588,7 +2606,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="48"/>
     </row>
-    <row r="68" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="12">
       <c r="A68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2598,7 +2616,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="48"/>
     </row>
-    <row r="69" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" ht="12">
       <c r="A69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2608,7 +2626,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="48"/>
     </row>
-    <row r="70" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" ht="12">
       <c r="A70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2618,7 +2636,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="48"/>
     </row>
-    <row r="71" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" ht="12">
       <c r="A71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2628,7 +2646,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="48"/>
     </row>
-    <row r="72" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" ht="12">
       <c r="A72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2638,7 +2656,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="48"/>
     </row>
-    <row r="73" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" ht="12">
       <c r="A73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2648,7 +2666,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="48"/>
     </row>
-    <row r="74" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" ht="12">
       <c r="A74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2658,7 +2676,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="48"/>
     </row>
-    <row r="75" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="12">
       <c r="A75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2668,7 +2686,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="48"/>
     </row>
-    <row r="76" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" ht="12">
       <c r="A76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2678,7 +2696,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="48"/>
     </row>
-    <row r="77" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" ht="12">
       <c r="A77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2688,7 +2706,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="48"/>
     </row>
-    <row r="78" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" ht="12">
       <c r="A78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2698,7 +2716,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="48"/>
     </row>
-    <row r="79" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" ht="12">
       <c r="A79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2708,7 +2726,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="48"/>
     </row>
-    <row r="80" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" ht="12">
       <c r="A80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2718,7 +2736,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="48"/>
     </row>
-    <row r="81" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" ht="12">
       <c r="A81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2728,7 +2746,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="48"/>
     </row>
-    <row r="82" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" ht="12">
       <c r="A82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2738,7 +2756,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="48"/>
     </row>
-    <row r="83" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" ht="12">
       <c r="A83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2748,7 +2766,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="48"/>
     </row>
-    <row r="84" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" ht="12">
       <c r="A84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2758,7 +2776,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="48"/>
     </row>
-    <row r="85" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" ht="12">
       <c r="A85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2768,7 +2786,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="48"/>
     </row>
-    <row r="86" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" ht="12">
       <c r="A86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2778,7 +2796,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="48"/>
     </row>
-    <row r="87" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" ht="12">
       <c r="A87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2788,7 +2806,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="48"/>
     </row>
-    <row r="88" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" ht="12">
       <c r="A88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2798,7 +2816,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="48"/>
     </row>
-    <row r="89" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="12">
       <c r="A89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -2808,7 +2826,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="48"/>
     </row>
-    <row r="90" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" ht="12">
       <c r="A90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -2818,7 +2836,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="48"/>
     </row>
-    <row r="91" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" ht="12">
       <c r="A91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -2828,7 +2846,7 @@
       <c r="I91" s="2"/>
       <c r="J91" s="48"/>
     </row>
-    <row r="92" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" ht="12">
       <c r="A92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -2838,7 +2856,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="48"/>
     </row>
-    <row r="93" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" ht="12">
       <c r="A93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -2848,7 +2866,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="48"/>
     </row>
-    <row r="94" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" ht="12">
       <c r="A94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -2858,7 +2876,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="48"/>
     </row>
-    <row r="95" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" ht="12">
       <c r="A95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -2868,7 +2886,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="48"/>
     </row>
-    <row r="96" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" ht="12">
       <c r="A96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -2878,7 +2896,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="48"/>
     </row>
-    <row r="97" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" ht="12">
       <c r="A97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -2888,7 +2906,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="48"/>
     </row>
-    <row r="98" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" ht="12">
       <c r="A98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -2898,7 +2916,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="48"/>
     </row>
-    <row r="99" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" ht="12">
       <c r="A99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -2908,7 +2926,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="48"/>
     </row>
-    <row r="100" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" ht="12">
       <c r="A100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -2918,7 +2936,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="48"/>
     </row>
-    <row r="101" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" ht="12">
       <c r="A101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -2928,7 +2946,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="48"/>
     </row>
-    <row r="102" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" ht="12">
       <c r="A102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -2938,7 +2956,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="48"/>
     </row>
-    <row r="103" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" ht="12">
       <c r="A103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -2948,7 +2966,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="48"/>
     </row>
-    <row r="104" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" ht="12">
       <c r="A104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -2958,7 +2976,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="48"/>
     </row>
-    <row r="105" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" ht="12">
       <c r="A105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -2968,7 +2986,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="48"/>
     </row>
-    <row r="106" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" ht="12">
       <c r="A106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -2978,7 +2996,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="48"/>
     </row>
-    <row r="107" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" ht="12">
       <c r="A107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -2988,7 +3006,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="48"/>
     </row>
-    <row r="108" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" ht="12">
       <c r="A108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -2998,7 +3016,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="48"/>
     </row>
-    <row r="109" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" ht="12">
       <c r="A109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -3008,7 +3026,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="48"/>
     </row>
-    <row r="110" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" ht="12">
       <c r="A110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -3018,7 +3036,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="48"/>
     </row>
-    <row r="111" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" ht="12">
       <c r="A111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -3028,7 +3046,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="48"/>
     </row>
-    <row r="112" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" ht="12">
       <c r="A112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -3038,7 +3056,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="48"/>
     </row>
-    <row r="113" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" ht="12">
       <c r="A113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -3048,7 +3066,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="48"/>
     </row>
-    <row r="114" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" ht="12">
       <c r="A114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -3058,7 +3076,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="48"/>
     </row>
-    <row r="115" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" ht="12">
       <c r="A115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -3068,7 +3086,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="48"/>
     </row>
-    <row r="116" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" ht="12">
       <c r="A116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -3078,7 +3096,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="48"/>
     </row>
-    <row r="117" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" ht="12">
       <c r="A117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -3088,7 +3106,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="48"/>
     </row>
-    <row r="118" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" ht="12">
       <c r="A118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -3098,7 +3116,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="48"/>
     </row>
-    <row r="119" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" ht="12">
       <c r="A119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -3108,7 +3126,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="48"/>
     </row>
-    <row r="120" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" ht="12">
       <c r="A120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -3118,7 +3136,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="48"/>
     </row>
-    <row r="121" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" ht="12">
       <c r="A121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -3128,7 +3146,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="48"/>
     </row>
-    <row r="122" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" ht="12">
       <c r="A122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -3138,7 +3156,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="48"/>
     </row>
-    <row r="123" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" ht="12">
       <c r="A123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -3148,7 +3166,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="48"/>
     </row>
-    <row r="124" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" ht="12">
       <c r="A124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -3158,7 +3176,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="48"/>
     </row>
-    <row r="125" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" ht="12">
       <c r="A125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -3168,7 +3186,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="48"/>
     </row>
-    <row r="126" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" ht="12">
       <c r="A126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -3178,7 +3196,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="48"/>
     </row>
-    <row r="127" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" ht="12">
       <c r="A127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -3188,7 +3206,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="48"/>
     </row>
-    <row r="128" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" ht="12">
       <c r="A128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -3198,7 +3216,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="48"/>
     </row>
-    <row r="129" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" ht="12">
       <c r="A129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -3208,7 +3226,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="48"/>
     </row>
-    <row r="130" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" ht="12">
       <c r="A130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -3218,7 +3236,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="48"/>
     </row>
-    <row r="131" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" ht="12">
       <c r="A131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -3228,7 +3246,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="48"/>
     </row>
-    <row r="132" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" ht="12">
       <c r="A132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -3238,7 +3256,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="48"/>
     </row>
-    <row r="133" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" ht="12">
       <c r="A133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -3248,7 +3266,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="48"/>
     </row>
-    <row r="134" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" ht="12">
       <c r="A134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -3258,7 +3276,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="48"/>
     </row>
-    <row r="135" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" ht="12">
       <c r="A135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -3268,7 +3286,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="48"/>
     </row>
-    <row r="136" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" ht="12">
       <c r="A136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -3278,7 +3296,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="48"/>
     </row>
-    <row r="137" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" ht="12">
       <c r="A137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -3288,7 +3306,7 @@
       <c r="I137" s="2"/>
       <c r="J137" s="48"/>
     </row>
-    <row r="138" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" ht="12">
       <c r="A138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -3298,7 +3316,7 @@
       <c r="I138" s="2"/>
       <c r="J138" s="48"/>
     </row>
-    <row r="139" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" ht="12">
       <c r="A139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -3308,7 +3326,7 @@
       <c r="I139" s="2"/>
       <c r="J139" s="48"/>
     </row>
-    <row r="140" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" ht="12">
       <c r="A140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -3318,7 +3336,7 @@
       <c r="I140" s="2"/>
       <c r="J140" s="48"/>
     </row>
-    <row r="141" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" ht="12">
       <c r="A141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -3328,7 +3346,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="48"/>
     </row>
-    <row r="142" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" ht="12">
       <c r="A142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -3338,7 +3356,7 @@
       <c r="I142" s="2"/>
       <c r="J142" s="48"/>
     </row>
-    <row r="143" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" ht="12">
       <c r="A143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -3348,7 +3366,7 @@
       <c r="I143" s="2"/>
       <c r="J143" s="48"/>
     </row>
-    <row r="144" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" ht="12">
       <c r="A144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -3358,7 +3376,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="48"/>
     </row>
-    <row r="145" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" ht="12">
       <c r="A145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -3368,7 +3386,7 @@
       <c r="I145" s="2"/>
       <c r="J145" s="48"/>
     </row>
-    <row r="146" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10" ht="12">
       <c r="A146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -3378,7 +3396,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="48"/>
     </row>
-    <row r="147" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10" ht="12">
       <c r="A147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -3388,7 +3406,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="48"/>
     </row>
-    <row r="148" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" ht="12">
       <c r="A148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -3398,7 +3416,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="48"/>
     </row>
-    <row r="149" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10" ht="12">
       <c r="A149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -3408,7 +3426,7 @@
       <c r="I149" s="2"/>
       <c r="J149" s="48"/>
     </row>
-    <row r="150" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10" ht="12">
       <c r="A150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -3418,7 +3436,7 @@
       <c r="I150" s="2"/>
       <c r="J150" s="48"/>
     </row>
-    <row r="151" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10" ht="12">
       <c r="A151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -3428,7 +3446,7 @@
       <c r="I151" s="2"/>
       <c r="J151" s="48"/>
     </row>
-    <row r="152" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" ht="12">
       <c r="A152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -3438,7 +3456,7 @@
       <c r="I152" s="2"/>
       <c r="J152" s="48"/>
     </row>
-    <row r="153" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" ht="12">
       <c r="A153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -3448,7 +3466,7 @@
       <c r="I153" s="2"/>
       <c r="J153" s="48"/>
     </row>
-    <row r="154" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10" ht="12">
       <c r="A154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -3458,7 +3476,7 @@
       <c r="I154" s="2"/>
       <c r="J154" s="48"/>
     </row>
-    <row r="155" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" ht="12">
       <c r="A155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -3468,7 +3486,7 @@
       <c r="I155" s="2"/>
       <c r="J155" s="48"/>
     </row>
-    <row r="156" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10" ht="12">
       <c r="A156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -3478,7 +3496,7 @@
       <c r="I156" s="2"/>
       <c r="J156" s="48"/>
     </row>
-    <row r="157" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" ht="12">
       <c r="A157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -3488,7 +3506,7 @@
       <c r="I157" s="2"/>
       <c r="J157" s="48"/>
     </row>
-    <row r="158" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10" ht="12">
       <c r="A158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -3498,7 +3516,7 @@
       <c r="I158" s="2"/>
       <c r="J158" s="48"/>
     </row>
-    <row r="159" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:10" ht="12">
       <c r="A159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -3508,7 +3526,7 @@
       <c r="I159" s="2"/>
       <c r="J159" s="48"/>
     </row>
-    <row r="160" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10" ht="12">
       <c r="A160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -3518,7 +3536,7 @@
       <c r="I160" s="2"/>
       <c r="J160" s="48"/>
     </row>
-    <row r="161" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" ht="12">
       <c r="A161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -3528,7 +3546,7 @@
       <c r="I161" s="2"/>
       <c r="J161" s="48"/>
     </row>
-    <row r="162" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" ht="12">
       <c r="A162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -3538,7 +3556,7 @@
       <c r="I162" s="2"/>
       <c r="J162" s="48"/>
     </row>
-    <row r="163" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" ht="12">
       <c r="A163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -3548,7 +3566,7 @@
       <c r="I163" s="2"/>
       <c r="J163" s="48"/>
     </row>
-    <row r="164" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" ht="12">
       <c r="A164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -3558,7 +3576,7 @@
       <c r="I164" s="2"/>
       <c r="J164" s="48"/>
     </row>
-    <row r="165" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" ht="12">
       <c r="A165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -3568,7 +3586,7 @@
       <c r="I165" s="2"/>
       <c r="J165" s="48"/>
     </row>
-    <row r="166" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" ht="12">
       <c r="A166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -3578,7 +3596,7 @@
       <c r="I166" s="2"/>
       <c r="J166" s="48"/>
     </row>
-    <row r="167" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" ht="12">
       <c r="A167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -3588,7 +3606,7 @@
       <c r="I167" s="2"/>
       <c r="J167" s="48"/>
     </row>
-    <row r="168" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" ht="12">
       <c r="A168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -3598,7 +3616,7 @@
       <c r="I168" s="2"/>
       <c r="J168" s="48"/>
     </row>
-    <row r="169" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" ht="12">
       <c r="A169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -3608,7 +3626,7 @@
       <c r="I169" s="2"/>
       <c r="J169" s="48"/>
     </row>
-    <row r="170" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" ht="12">
       <c r="A170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -3618,7 +3636,7 @@
       <c r="I170" s="2"/>
       <c r="J170" s="48"/>
     </row>
-    <row r="171" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" ht="12">
       <c r="A171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -3628,7 +3646,7 @@
       <c r="I171" s="2"/>
       <c r="J171" s="48"/>
     </row>
-    <row r="172" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" ht="12">
       <c r="A172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -3638,7 +3656,7 @@
       <c r="I172" s="2"/>
       <c r="J172" s="48"/>
     </row>
-    <row r="173" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" ht="12">
       <c r="A173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -3648,7 +3666,7 @@
       <c r="I173" s="2"/>
       <c r="J173" s="48"/>
     </row>
-    <row r="174" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" ht="12">
       <c r="A174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -3658,7 +3676,7 @@
       <c r="I174" s="2"/>
       <c r="J174" s="48"/>
     </row>
-    <row r="175" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" ht="12">
       <c r="A175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -3668,7 +3686,7 @@
       <c r="I175" s="2"/>
       <c r="J175" s="48"/>
     </row>
-    <row r="176" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" ht="12">
       <c r="A176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -3678,7 +3696,7 @@
       <c r="I176" s="2"/>
       <c r="J176" s="48"/>
     </row>
-    <row r="177" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10" ht="12">
       <c r="A177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -3688,7 +3706,7 @@
       <c r="I177" s="2"/>
       <c r="J177" s="48"/>
     </row>
-    <row r="178" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10" ht="12">
       <c r="A178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -3698,7 +3716,7 @@
       <c r="I178" s="2"/>
       <c r="J178" s="48"/>
     </row>
-    <row r="179" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10" ht="12">
       <c r="A179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -3708,7 +3726,7 @@
       <c r="I179" s="2"/>
       <c r="J179" s="48"/>
     </row>
-    <row r="180" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" ht="12">
       <c r="A180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -3718,7 +3736,7 @@
       <c r="I180" s="2"/>
       <c r="J180" s="48"/>
     </row>
-    <row r="181" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10" ht="12">
       <c r="A181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -3728,7 +3746,7 @@
       <c r="I181" s="2"/>
       <c r="J181" s="48"/>
     </row>
-    <row r="182" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" ht="12">
       <c r="A182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -3738,7 +3756,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="48"/>
     </row>
-    <row r="183" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10" ht="12">
       <c r="A183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -3748,7 +3766,7 @@
       <c r="I183" s="2"/>
       <c r="J183" s="48"/>
     </row>
-    <row r="184" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10" ht="12">
       <c r="A184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -3758,7 +3776,7 @@
       <c r="I184" s="2"/>
       <c r="J184" s="48"/>
     </row>
-    <row r="185" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:10" ht="12">
       <c r="A185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -3768,7 +3786,7 @@
       <c r="I185" s="2"/>
       <c r="J185" s="48"/>
     </row>
-    <row r="186" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10" ht="12">
       <c r="A186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -3778,7 +3796,7 @@
       <c r="I186" s="2"/>
       <c r="J186" s="48"/>
     </row>
-    <row r="187" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10" ht="12">
       <c r="A187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -3788,7 +3806,7 @@
       <c r="I187" s="2"/>
       <c r="J187" s="48"/>
     </row>
-    <row r="188" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" ht="12">
       <c r="A188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -3798,7 +3816,7 @@
       <c r="I188" s="2"/>
       <c r="J188" s="48"/>
     </row>
-    <row r="189" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" ht="12">
       <c r="A189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -3808,7 +3826,7 @@
       <c r="I189" s="2"/>
       <c r="J189" s="48"/>
     </row>
-    <row r="190" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10" ht="12">
       <c r="A190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -3818,7 +3836,7 @@
       <c r="I190" s="2"/>
       <c r="J190" s="48"/>
     </row>
-    <row r="191" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10" ht="12">
       <c r="A191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -3828,7 +3846,7 @@
       <c r="I191" s="2"/>
       <c r="J191" s="48"/>
     </row>
-    <row r="192" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" ht="12">
       <c r="A192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -3838,7 +3856,7 @@
       <c r="I192" s="2"/>
       <c r="J192" s="48"/>
     </row>
-    <row r="193" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" ht="12">
       <c r="A193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -3848,7 +3866,7 @@
       <c r="I193" s="2"/>
       <c r="J193" s="48"/>
     </row>
-    <row r="194" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" ht="12">
       <c r="A194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -3858,7 +3876,7 @@
       <c r="I194" s="2"/>
       <c r="J194" s="48"/>
     </row>
-    <row r="195" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:10" ht="12">
       <c r="A195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -3868,7 +3886,7 @@
       <c r="I195" s="2"/>
       <c r="J195" s="48"/>
     </row>
-    <row r="196" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" ht="12">
       <c r="A196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -3878,7 +3896,7 @@
       <c r="I196" s="2"/>
       <c r="J196" s="48"/>
     </row>
-    <row r="197" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" ht="12">
       <c r="A197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -3888,7 +3906,7 @@
       <c r="I197" s="2"/>
       <c r="J197" s="48"/>
     </row>
-    <row r="198" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" ht="12">
       <c r="A198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -3898,7 +3916,7 @@
       <c r="I198" s="2"/>
       <c r="J198" s="48"/>
     </row>
-    <row r="199" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:10" ht="12">
       <c r="A199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -3908,7 +3926,7 @@
       <c r="I199" s="2"/>
       <c r="J199" s="48"/>
     </row>
-    <row r="200" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" ht="12">
       <c r="A200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -3918,7 +3936,7 @@
       <c r="I200" s="2"/>
       <c r="J200" s="48"/>
     </row>
-    <row r="201" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" ht="12">
       <c r="A201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -3928,7 +3946,7 @@
       <c r="I201" s="2"/>
       <c r="J201" s="48"/>
     </row>
-    <row r="202" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" ht="12">
       <c r="A202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -3938,7 +3956,7 @@
       <c r="I202" s="2"/>
       <c r="J202" s="48"/>
     </row>
-    <row r="203" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" ht="12">
       <c r="A203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -3948,7 +3966,7 @@
       <c r="I203" s="2"/>
       <c r="J203" s="48"/>
     </row>
-    <row r="204" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" ht="12">
       <c r="A204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -3958,7 +3976,7 @@
       <c r="I204" s="2"/>
       <c r="J204" s="48"/>
     </row>
-    <row r="205" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" ht="12">
       <c r="A205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -3968,7 +3986,7 @@
       <c r="I205" s="2"/>
       <c r="J205" s="48"/>
     </row>
-    <row r="206" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" ht="12">
       <c r="A206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -3978,7 +3996,7 @@
       <c r="I206" s="2"/>
       <c r="J206" s="48"/>
     </row>
-    <row r="207" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" ht="12">
       <c r="A207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -3988,7 +4006,7 @@
       <c r="I207" s="2"/>
       <c r="J207" s="48"/>
     </row>
-    <row r="208" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" ht="12">
       <c r="A208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -3998,7 +4016,7 @@
       <c r="I208" s="2"/>
       <c r="J208" s="48"/>
     </row>
-    <row r="209" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:10" ht="12">
       <c r="A209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -4008,7 +4026,7 @@
       <c r="I209" s="2"/>
       <c r="J209" s="48"/>
     </row>
-    <row r="210" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:10" ht="12">
       <c r="A210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -4018,7 +4036,7 @@
       <c r="I210" s="2"/>
       <c r="J210" s="48"/>
     </row>
-    <row r="211" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:10" ht="12">
       <c r="A211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -4028,7 +4046,7 @@
       <c r="I211" s="2"/>
       <c r="J211" s="48"/>
     </row>
-    <row r="212" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:10" ht="12">
       <c r="A212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -4038,7 +4056,7 @@
       <c r="I212" s="2"/>
       <c r="J212" s="48"/>
     </row>
-    <row r="213" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:10" ht="12">
       <c r="A213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -4048,7 +4066,7 @@
       <c r="I213" s="2"/>
       <c r="J213" s="48"/>
     </row>
-    <row r="214" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:10" ht="12">
       <c r="A214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -4058,7 +4076,7 @@
       <c r="I214" s="2"/>
       <c r="J214" s="48"/>
     </row>
-    <row r="215" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:10" ht="12">
       <c r="A215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -4068,7 +4086,7 @@
       <c r="I215" s="2"/>
       <c r="J215" s="48"/>
     </row>
-    <row r="216" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" ht="12">
       <c r="A216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -4078,7 +4096,7 @@
       <c r="I216" s="2"/>
       <c r="J216" s="48"/>
     </row>
-    <row r="217" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:10" ht="12">
       <c r="A217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -4088,7 +4106,7 @@
       <c r="I217" s="2"/>
       <c r="J217" s="48"/>
     </row>
-    <row r="218" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:10" ht="12">
       <c r="A218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -4098,7 +4116,7 @@
       <c r="I218" s="2"/>
       <c r="J218" s="48"/>
     </row>
-    <row r="219" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:10" ht="12">
       <c r="A219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -4108,7 +4126,7 @@
       <c r="I219" s="2"/>
       <c r="J219" s="48"/>
     </row>
-    <row r="220" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:10" ht="12">
       <c r="A220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -4118,7 +4136,7 @@
       <c r="I220" s="2"/>
       <c r="J220" s="48"/>
     </row>
-    <row r="221" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:10" ht="12">
       <c r="A221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -4128,7 +4146,7 @@
       <c r="I221" s="2"/>
       <c r="J221" s="48"/>
     </row>
-    <row r="222" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:10" ht="12">
       <c r="A222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -4138,7 +4156,7 @@
       <c r="I222" s="2"/>
       <c r="J222" s="48"/>
     </row>
-    <row r="223" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:10" ht="12">
       <c r="A223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -4148,7 +4166,7 @@
       <c r="I223" s="2"/>
       <c r="J223" s="48"/>
     </row>
-    <row r="224" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:10" ht="12">
       <c r="A224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -4158,7 +4176,7 @@
       <c r="I224" s="2"/>
       <c r="J224" s="48"/>
     </row>
-    <row r="225" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" ht="12">
       <c r="A225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -4168,7 +4186,7 @@
       <c r="I225" s="2"/>
       <c r="J225" s="48"/>
     </row>
-    <row r="226" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:10" ht="12">
       <c r="A226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -4178,7 +4196,7 @@
       <c r="I226" s="2"/>
       <c r="J226" s="48"/>
     </row>
-    <row r="227" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" ht="12">
       <c r="A227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -4188,7 +4206,7 @@
       <c r="I227" s="2"/>
       <c r="J227" s="48"/>
     </row>
-    <row r="228" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" ht="12">
       <c r="A228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -4198,7 +4216,7 @@
       <c r="I228" s="2"/>
       <c r="J228" s="48"/>
     </row>
-    <row r="229" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" ht="12">
       <c r="A229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -4208,7 +4226,7 @@
       <c r="I229" s="2"/>
       <c r="J229" s="48"/>
     </row>
-    <row r="230" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" ht="12">
       <c r="A230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -4218,7 +4236,7 @@
       <c r="I230" s="2"/>
       <c r="J230" s="48"/>
     </row>
-    <row r="231" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:10" ht="12">
       <c r="A231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -4228,7 +4246,7 @@
       <c r="I231" s="2"/>
       <c r="J231" s="48"/>
     </row>
-    <row r="232" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" ht="12">
       <c r="A232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -4238,7 +4256,7 @@
       <c r="I232" s="2"/>
       <c r="J232" s="48"/>
     </row>
-    <row r="233" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" ht="12">
       <c r="A233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -4248,7 +4266,7 @@
       <c r="I233" s="2"/>
       <c r="J233" s="48"/>
     </row>
-    <row r="234" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" ht="12">
       <c r="A234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -4258,7 +4276,7 @@
       <c r="I234" s="2"/>
       <c r="J234" s="48"/>
     </row>
-    <row r="235" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" ht="12">
       <c r="A235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -4268,7 +4286,7 @@
       <c r="I235" s="2"/>
       <c r="J235" s="48"/>
     </row>
-    <row r="236" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" ht="12">
       <c r="A236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -4278,7 +4296,7 @@
       <c r="I236" s="2"/>
       <c r="J236" s="48"/>
     </row>
-    <row r="237" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" ht="12">
       <c r="A237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -4288,7 +4306,7 @@
       <c r="I237" s="2"/>
       <c r="J237" s="48"/>
     </row>
-    <row r="238" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" ht="12">
       <c r="A238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -4298,7 +4316,7 @@
       <c r="I238" s="2"/>
       <c r="J238" s="48"/>
     </row>
-    <row r="239" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:10" ht="12">
       <c r="A239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -4308,7 +4326,7 @@
       <c r="I239" s="2"/>
       <c r="J239" s="48"/>
     </row>
-    <row r="240" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" ht="12">
       <c r="A240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -4318,7 +4336,7 @@
       <c r="I240" s="2"/>
       <c r="J240" s="48"/>
     </row>
-    <row r="241" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" ht="12">
       <c r="A241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -4328,7 +4346,7 @@
       <c r="I241" s="2"/>
       <c r="J241" s="48"/>
     </row>
-    <row r="242" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" ht="12">
       <c r="A242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -4338,7 +4356,7 @@
       <c r="I242" s="2"/>
       <c r="J242" s="48"/>
     </row>
-    <row r="243" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:10" ht="12">
       <c r="A243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -4348,7 +4366,7 @@
       <c r="I243" s="2"/>
       <c r="J243" s="48"/>
     </row>
-    <row r="244" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" ht="12">
       <c r="A244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -4358,7 +4376,7 @@
       <c r="I244" s="2"/>
       <c r="J244" s="48"/>
     </row>
-    <row r="245" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" ht="12">
       <c r="A245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -4368,7 +4386,7 @@
       <c r="I245" s="2"/>
       <c r="J245" s="48"/>
     </row>
-    <row r="246" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" ht="12">
       <c r="A246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -4378,7 +4396,7 @@
       <c r="I246" s="2"/>
       <c r="J246" s="48"/>
     </row>
-    <row r="247" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" ht="12">
       <c r="A247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -4388,7 +4406,7 @@
       <c r="I247" s="2"/>
       <c r="J247" s="48"/>
     </row>
-    <row r="248" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:10" ht="12">
       <c r="A248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -4398,7 +4416,7 @@
       <c r="I248" s="2"/>
       <c r="J248" s="48"/>
     </row>
-    <row r="249" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" ht="12">
       <c r="A249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -4408,7 +4426,7 @@
       <c r="I249" s="2"/>
       <c r="J249" s="48"/>
     </row>
-    <row r="250" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" ht="12">
       <c r="A250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -4418,7 +4436,7 @@
       <c r="I250" s="2"/>
       <c r="J250" s="48"/>
     </row>
-    <row r="251" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:10" ht="12">
       <c r="A251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -4428,7 +4446,7 @@
       <c r="I251" s="2"/>
       <c r="J251" s="48"/>
     </row>
-    <row r="252" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" ht="12">
       <c r="A252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -4438,7 +4456,7 @@
       <c r="I252" s="2"/>
       <c r="J252" s="48"/>
     </row>
-    <row r="253" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" ht="12">
       <c r="A253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -4448,7 +4466,7 @@
       <c r="I253" s="2"/>
       <c r="J253" s="48"/>
     </row>
-    <row r="254" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:10" ht="12">
       <c r="A254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -4458,7 +4476,7 @@
       <c r="I254" s="2"/>
       <c r="J254" s="48"/>
     </row>
-    <row r="255" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" ht="12">
       <c r="A255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -4468,7 +4486,7 @@
       <c r="I255" s="2"/>
       <c r="J255" s="48"/>
     </row>
-    <row r="256" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:10" ht="12">
       <c r="A256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -4478,7 +4496,7 @@
       <c r="I256" s="2"/>
       <c r="J256" s="48"/>
     </row>
-    <row r="257" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:10" ht="12">
       <c r="A257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -4488,7 +4506,7 @@
       <c r="I257" s="2"/>
       <c r="J257" s="48"/>
     </row>
-    <row r="258" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" ht="12">
       <c r="A258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -4498,7 +4516,7 @@
       <c r="I258" s="2"/>
       <c r="J258" s="48"/>
     </row>
-    <row r="259" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" ht="12">
       <c r="A259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -4508,7 +4526,7 @@
       <c r="I259" s="2"/>
       <c r="J259" s="48"/>
     </row>
-    <row r="260" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" ht="12">
       <c r="A260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -4518,7 +4536,7 @@
       <c r="I260" s="2"/>
       <c r="J260" s="48"/>
     </row>
-    <row r="261" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" ht="12">
       <c r="A261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -4528,7 +4546,7 @@
       <c r="I261" s="2"/>
       <c r="J261" s="48"/>
     </row>
-    <row r="262" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" ht="12">
       <c r="A262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -4538,7 +4556,7 @@
       <c r="I262" s="2"/>
       <c r="J262" s="48"/>
     </row>
-    <row r="263" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" ht="12">
       <c r="A263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -4548,7 +4566,7 @@
       <c r="I263" s="2"/>
       <c r="J263" s="48"/>
     </row>
-    <row r="264" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" ht="12">
       <c r="A264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -4558,7 +4576,7 @@
       <c r="I264" s="2"/>
       <c r="J264" s="48"/>
     </row>
-    <row r="265" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" ht="12">
       <c r="A265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -4568,7 +4586,7 @@
       <c r="I265" s="2"/>
       <c r="J265" s="48"/>
     </row>
-    <row r="266" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" ht="12">
       <c r="A266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -4578,7 +4596,7 @@
       <c r="I266" s="2"/>
       <c r="J266" s="48"/>
     </row>
-    <row r="267" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:10" ht="12">
       <c r="A267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -4588,7 +4606,7 @@
       <c r="I267" s="2"/>
       <c r="J267" s="48"/>
     </row>
-    <row r="268" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:10" ht="12">
       <c r="A268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -4598,7 +4616,7 @@
       <c r="I268" s="2"/>
       <c r="J268" s="48"/>
     </row>
-    <row r="269" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" ht="12">
       <c r="A269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -4608,7 +4626,7 @@
       <c r="I269" s="2"/>
       <c r="J269" s="48"/>
     </row>
-    <row r="270" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:10" ht="12">
       <c r="A270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -4618,7 +4636,7 @@
       <c r="I270" s="2"/>
       <c r="J270" s="48"/>
     </row>
-    <row r="271" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" ht="12">
       <c r="A271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -4628,7 +4646,7 @@
       <c r="I271" s="2"/>
       <c r="J271" s="48"/>
     </row>
-    <row r="272" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:10" ht="12">
       <c r="A272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -4638,7 +4656,7 @@
       <c r="I272" s="2"/>
       <c r="J272" s="48"/>
     </row>
-    <row r="273" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:10" ht="12">
       <c r="A273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -4648,7 +4666,7 @@
       <c r="I273" s="2"/>
       <c r="J273" s="48"/>
     </row>
-    <row r="274" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:10" ht="12">
       <c r="A274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -4658,7 +4676,7 @@
       <c r="I274" s="2"/>
       <c r="J274" s="48"/>
     </row>
-    <row r="275" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:10" ht="12">
       <c r="A275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -4668,7 +4686,7 @@
       <c r="I275" s="2"/>
       <c r="J275" s="48"/>
     </row>
-    <row r="276" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:10" ht="12">
       <c r="A276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -4678,7 +4696,7 @@
       <c r="I276" s="2"/>
       <c r="J276" s="48"/>
     </row>
-    <row r="277" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10" ht="12">
       <c r="A277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -4688,7 +4706,7 @@
       <c r="I277" s="2"/>
       <c r="J277" s="48"/>
     </row>
-    <row r="278" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:10" ht="12">
       <c r="A278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -4698,7 +4716,7 @@
       <c r="I278" s="2"/>
       <c r="J278" s="48"/>
     </row>
-    <row r="279" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:10" ht="12">
       <c r="A279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -4708,7 +4726,7 @@
       <c r="I279" s="2"/>
       <c r="J279" s="48"/>
     </row>
-    <row r="280" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:10" ht="12">
       <c r="A280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -4718,7 +4736,7 @@
       <c r="I280" s="2"/>
       <c r="J280" s="48"/>
     </row>
-    <row r="281" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:10" ht="12">
       <c r="A281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -4728,7 +4746,7 @@
       <c r="I281" s="2"/>
       <c r="J281" s="48"/>
     </row>
-    <row r="282" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:10" ht="12">
       <c r="A282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -4738,7 +4756,7 @@
       <c r="I282" s="2"/>
       <c r="J282" s="48"/>
     </row>
-    <row r="283" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:10" ht="12">
       <c r="A283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -4748,7 +4766,7 @@
       <c r="I283" s="2"/>
       <c r="J283" s="48"/>
     </row>
-    <row r="284" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:10" ht="12">
       <c r="A284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -4758,7 +4776,7 @@
       <c r="I284" s="2"/>
       <c r="J284" s="48"/>
     </row>
-    <row r="285" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:10" ht="12">
       <c r="A285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -4768,7 +4786,7 @@
       <c r="I285" s="2"/>
       <c r="J285" s="48"/>
     </row>
-    <row r="286" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:10" ht="12">
       <c r="A286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -4778,7 +4796,7 @@
       <c r="I286" s="2"/>
       <c r="J286" s="48"/>
     </row>
-    <row r="287" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:10" ht="12">
       <c r="A287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -4788,7 +4806,7 @@
       <c r="I287" s="2"/>
       <c r="J287" s="48"/>
     </row>
-    <row r="288" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:10" ht="12">
       <c r="A288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -4798,7 +4816,7 @@
       <c r="I288" s="2"/>
       <c r="J288" s="48"/>
     </row>
-    <row r="289" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:10" ht="12">
       <c r="A289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -4808,7 +4826,7 @@
       <c r="I289" s="2"/>
       <c r="J289" s="48"/>
     </row>
-    <row r="290" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:10" ht="12">
       <c r="A290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -4818,7 +4836,7 @@
       <c r="I290" s="2"/>
       <c r="J290" s="48"/>
     </row>
-    <row r="291" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:10" ht="12">
       <c r="A291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -4828,7 +4846,7 @@
       <c r="I291" s="2"/>
       <c r="J291" s="48"/>
     </row>
-    <row r="292" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:10" ht="12">
       <c r="A292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -4838,7 +4856,7 @@
       <c r="I292" s="2"/>
       <c r="J292" s="48"/>
     </row>
-    <row r="293" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:10" ht="12">
       <c r="A293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -4848,7 +4866,7 @@
       <c r="I293" s="2"/>
       <c r="J293" s="48"/>
     </row>
-    <row r="294" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:10" ht="12">
       <c r="A294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -4858,7 +4876,7 @@
       <c r="I294" s="2"/>
       <c r="J294" s="48"/>
     </row>
-    <row r="295" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:10" ht="12">
       <c r="A295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -4868,7 +4886,7 @@
       <c r="I295" s="2"/>
       <c r="J295" s="48"/>
     </row>
-    <row r="296" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:10" ht="12">
       <c r="A296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -4878,7 +4896,7 @@
       <c r="I296" s="2"/>
       <c r="J296" s="48"/>
     </row>
-    <row r="297" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:10" ht="12">
       <c r="A297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -4888,7 +4906,7 @@
       <c r="I297" s="2"/>
       <c r="J297" s="48"/>
     </row>
-    <row r="298" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:10" ht="12">
       <c r="A298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -4898,7 +4916,7 @@
       <c r="I298" s="2"/>
       <c r="J298" s="48"/>
     </row>
-    <row r="299" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:10" ht="12">
       <c r="A299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -4908,7 +4926,7 @@
       <c r="I299" s="2"/>
       <c r="J299" s="48"/>
     </row>
-    <row r="300" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:10" ht="12">
       <c r="A300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -4918,7 +4936,7 @@
       <c r="I300" s="2"/>
       <c r="J300" s="48"/>
     </row>
-    <row r="301" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:10" ht="12">
       <c r="A301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -4928,7 +4946,7 @@
       <c r="I301" s="2"/>
       <c r="J301" s="48"/>
     </row>
-    <row r="302" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:10" ht="12">
       <c r="A302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -4938,7 +4956,7 @@
       <c r="I302" s="2"/>
       <c r="J302" s="48"/>
     </row>
-    <row r="303" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:10" ht="12">
       <c r="A303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -4948,7 +4966,7 @@
       <c r="I303" s="2"/>
       <c r="J303" s="48"/>
     </row>
-    <row r="304" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:10" ht="12">
       <c r="A304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -4958,7 +4976,7 @@
       <c r="I304" s="2"/>
       <c r="J304" s="48"/>
     </row>
-    <row r="305" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:10" ht="12">
       <c r="A305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -4968,7 +4986,7 @@
       <c r="I305" s="2"/>
       <c r="J305" s="48"/>
     </row>
-    <row r="306" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:10" ht="12">
       <c r="A306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -4978,7 +4996,7 @@
       <c r="I306" s="2"/>
       <c r="J306" s="48"/>
     </row>
-    <row r="307" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:10" ht="12">
       <c r="A307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -4988,7 +5006,7 @@
       <c r="I307" s="2"/>
       <c r="J307" s="48"/>
     </row>
-    <row r="308" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:10" ht="12">
       <c r="A308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -4998,7 +5016,7 @@
       <c r="I308" s="2"/>
       <c r="J308" s="48"/>
     </row>
-    <row r="309" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:10" ht="12">
       <c r="A309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -5008,7 +5026,7 @@
       <c r="I309" s="2"/>
       <c r="J309" s="48"/>
     </row>
-    <row r="310" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:10" ht="12">
       <c r="A310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -5018,7 +5036,7 @@
       <c r="I310" s="2"/>
       <c r="J310" s="48"/>
     </row>
-    <row r="311" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:10" ht="12">
       <c r="A311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -5028,7 +5046,7 @@
       <c r="I311" s="2"/>
       <c r="J311" s="48"/>
     </row>
-    <row r="312" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:10" ht="12">
       <c r="A312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -5038,7 +5056,7 @@
       <c r="I312" s="2"/>
       <c r="J312" s="48"/>
     </row>
-    <row r="313" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:10" ht="12">
       <c r="A313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -5048,7 +5066,7 @@
       <c r="I313" s="2"/>
       <c r="J313" s="48"/>
     </row>
-    <row r="314" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:10" ht="12">
       <c r="A314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -5058,7 +5076,7 @@
       <c r="I314" s="2"/>
       <c r="J314" s="48"/>
     </row>
-    <row r="315" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:10" ht="12">
       <c r="A315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -5068,7 +5086,7 @@
       <c r="I315" s="2"/>
       <c r="J315" s="48"/>
     </row>
-    <row r="316" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:10" ht="12">
       <c r="A316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -5078,7 +5096,7 @@
       <c r="I316" s="2"/>
       <c r="J316" s="48"/>
     </row>
-    <row r="317" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:10" ht="12">
       <c r="A317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -5088,7 +5106,7 @@
       <c r="I317" s="2"/>
       <c r="J317" s="48"/>
     </row>
-    <row r="318" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:10" ht="12">
       <c r="A318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -5098,7 +5116,7 @@
       <c r="I318" s="2"/>
       <c r="J318" s="48"/>
     </row>
-    <row r="319" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:10" ht="12">
       <c r="A319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -5108,7 +5126,7 @@
       <c r="I319" s="2"/>
       <c r="J319" s="48"/>
     </row>
-    <row r="320" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:10" ht="12">
       <c r="A320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -5118,7 +5136,7 @@
       <c r="I320" s="2"/>
       <c r="J320" s="48"/>
     </row>
-    <row r="321" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:10" ht="12">
       <c r="A321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -5128,7 +5146,7 @@
       <c r="I321" s="2"/>
       <c r="J321" s="48"/>
     </row>
-    <row r="322" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:10" ht="12">
       <c r="A322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -5138,7 +5156,7 @@
       <c r="I322" s="2"/>
       <c r="J322" s="48"/>
     </row>
-    <row r="323" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:10" ht="12">
       <c r="A323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -5148,7 +5166,7 @@
       <c r="I323" s="2"/>
       <c r="J323" s="48"/>
     </row>
-    <row r="324" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:10" ht="12">
       <c r="A324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -5158,7 +5176,7 @@
       <c r="I324" s="2"/>
       <c r="J324" s="48"/>
     </row>
-    <row r="325" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:10" ht="12">
       <c r="A325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -5168,7 +5186,7 @@
       <c r="I325" s="2"/>
       <c r="J325" s="48"/>
     </row>
-    <row r="326" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:10" ht="12">
       <c r="A326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -5178,7 +5196,7 @@
       <c r="I326" s="2"/>
       <c r="J326" s="48"/>
     </row>
-    <row r="327" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:10" ht="12">
       <c r="A327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -5188,7 +5206,7 @@
       <c r="I327" s="2"/>
       <c r="J327" s="48"/>
     </row>
-    <row r="328" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:10" ht="12">
       <c r="A328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -5198,7 +5216,7 @@
       <c r="I328" s="2"/>
       <c r="J328" s="48"/>
     </row>
-    <row r="329" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:10" ht="12">
       <c r="A329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -5208,7 +5226,7 @@
       <c r="I329" s="2"/>
       <c r="J329" s="48"/>
     </row>
-    <row r="330" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:10" ht="12">
       <c r="A330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -5218,7 +5236,7 @@
       <c r="I330" s="2"/>
       <c r="J330" s="48"/>
     </row>
-    <row r="331" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:10" ht="12">
       <c r="A331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -5228,7 +5246,7 @@
       <c r="I331" s="2"/>
       <c r="J331" s="48"/>
     </row>
-    <row r="332" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:10" ht="12">
       <c r="A332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -5238,7 +5256,7 @@
       <c r="I332" s="2"/>
       <c r="J332" s="48"/>
     </row>
-    <row r="333" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:10" ht="12">
       <c r="A333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -5248,7 +5266,7 @@
       <c r="I333" s="2"/>
       <c r="J333" s="48"/>
     </row>
-    <row r="334" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:10" ht="12">
       <c r="A334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -5258,7 +5276,7 @@
       <c r="I334" s="2"/>
       <c r="J334" s="48"/>
     </row>
-    <row r="335" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:10" ht="12">
       <c r="A335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -5268,7 +5286,7 @@
       <c r="I335" s="2"/>
       <c r="J335" s="48"/>
     </row>
-    <row r="336" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:10" ht="12">
       <c r="A336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -5278,7 +5296,7 @@
       <c r="I336" s="2"/>
       <c r="J336" s="48"/>
     </row>
-    <row r="337" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:10" ht="12">
       <c r="A337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -5288,7 +5306,7 @@
       <c r="I337" s="2"/>
       <c r="J337" s="48"/>
     </row>
-    <row r="338" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:10" ht="12">
       <c r="A338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -5298,7 +5316,7 @@
       <c r="I338" s="2"/>
       <c r="J338" s="48"/>
     </row>
-    <row r="339" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:10" ht="12">
       <c r="A339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -5308,7 +5326,7 @@
       <c r="I339" s="2"/>
       <c r="J339" s="48"/>
     </row>
-    <row r="340" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:10" ht="12">
       <c r="A340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -5318,7 +5336,7 @@
       <c r="I340" s="2"/>
       <c r="J340" s="48"/>
     </row>
-    <row r="341" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:10" ht="12">
       <c r="A341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -5328,7 +5346,7 @@
       <c r="I341" s="2"/>
       <c r="J341" s="48"/>
     </row>
-    <row r="342" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:10" ht="12">
       <c r="A342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -5338,7 +5356,7 @@
       <c r="I342" s="2"/>
       <c r="J342" s="48"/>
     </row>
-    <row r="343" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:10" ht="12">
       <c r="A343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -5348,7 +5366,7 @@
       <c r="I343" s="2"/>
       <c r="J343" s="48"/>
     </row>
-    <row r="344" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:10" ht="12">
       <c r="A344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -5358,7 +5376,7 @@
       <c r="I344" s="2"/>
       <c r="J344" s="48"/>
     </row>
-    <row r="345" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:10" ht="12">
       <c r="A345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -5368,7 +5386,7 @@
       <c r="I345" s="2"/>
       <c r="J345" s="48"/>
     </row>
-    <row r="346" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:10" ht="12">
       <c r="A346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -5378,7 +5396,7 @@
       <c r="I346" s="2"/>
       <c r="J346" s="48"/>
     </row>
-    <row r="347" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:10" ht="12">
       <c r="A347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -5388,7 +5406,7 @@
       <c r="I347" s="2"/>
       <c r="J347" s="48"/>
     </row>
-    <row r="348" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:10" ht="12">
       <c r="A348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -5398,7 +5416,7 @@
       <c r="I348" s="2"/>
       <c r="J348" s="48"/>
     </row>
-    <row r="349" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:10" ht="12">
       <c r="A349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -5408,7 +5426,7 @@
       <c r="I349" s="2"/>
       <c r="J349" s="48"/>
     </row>
-    <row r="350" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:10" ht="12">
       <c r="A350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -5418,7 +5436,7 @@
       <c r="I350" s="2"/>
       <c r="J350" s="48"/>
     </row>
-    <row r="351" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:10" ht="12">
       <c r="A351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -5428,7 +5446,7 @@
       <c r="I351" s="2"/>
       <c r="J351" s="48"/>
     </row>
-    <row r="352" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:10" ht="12">
       <c r="A352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -5438,7 +5456,7 @@
       <c r="I352" s="2"/>
       <c r="J352" s="48"/>
     </row>
-    <row r="353" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:10" ht="12">
       <c r="A353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -5448,7 +5466,7 @@
       <c r="I353" s="2"/>
       <c r="J353" s="48"/>
     </row>
-    <row r="354" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:10" ht="12">
       <c r="A354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -5458,7 +5476,7 @@
       <c r="I354" s="2"/>
       <c r="J354" s="48"/>
     </row>
-    <row r="355" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:10" ht="12">
       <c r="A355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -5468,7 +5486,7 @@
       <c r="I355" s="2"/>
       <c r="J355" s="48"/>
     </row>
-    <row r="356" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:10" ht="12">
       <c r="A356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -5478,7 +5496,7 @@
       <c r="I356" s="2"/>
       <c r="J356" s="48"/>
     </row>
-    <row r="357" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:10" ht="12">
       <c r="A357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -5488,7 +5506,7 @@
       <c r="I357" s="2"/>
       <c r="J357" s="48"/>
     </row>
-    <row r="358" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:10" ht="12">
       <c r="A358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -5498,7 +5516,7 @@
       <c r="I358" s="2"/>
       <c r="J358" s="48"/>
     </row>
-    <row r="359" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:10" ht="12">
       <c r="A359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -5508,7 +5526,7 @@
       <c r="I359" s="2"/>
       <c r="J359" s="48"/>
     </row>
-    <row r="360" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:10" ht="12">
       <c r="A360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -5518,7 +5536,7 @@
       <c r="I360" s="2"/>
       <c r="J360" s="48"/>
     </row>
-    <row r="361" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:10" ht="12">
       <c r="A361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -5528,7 +5546,7 @@
       <c r="I361" s="2"/>
       <c r="J361" s="48"/>
     </row>
-    <row r="362" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:10" ht="12">
       <c r="A362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -5538,7 +5556,7 @@
       <c r="I362" s="2"/>
       <c r="J362" s="48"/>
     </row>
-    <row r="363" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:10" ht="12">
       <c r="A363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -5548,7 +5566,7 @@
       <c r="I363" s="2"/>
       <c r="J363" s="48"/>
     </row>
-    <row r="364" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:10" ht="12">
       <c r="A364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -5558,7 +5576,7 @@
       <c r="I364" s="2"/>
       <c r="J364" s="48"/>
     </row>
-    <row r="365" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:10" ht="12">
       <c r="A365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -5568,7 +5586,7 @@
       <c r="I365" s="2"/>
       <c r="J365" s="48"/>
     </row>
-    <row r="366" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:10" ht="12">
       <c r="A366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -5578,7 +5596,7 @@
       <c r="I366" s="2"/>
       <c r="J366" s="48"/>
     </row>
-    <row r="367" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:10" ht="12">
       <c r="A367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -5588,7 +5606,7 @@
       <c r="I367" s="2"/>
       <c r="J367" s="48"/>
     </row>
-    <row r="368" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:10" ht="12">
       <c r="A368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -5598,7 +5616,7 @@
       <c r="I368" s="2"/>
       <c r="J368" s="48"/>
     </row>
-    <row r="369" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:10" ht="12">
       <c r="A369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -5608,7 +5626,7 @@
       <c r="I369" s="2"/>
       <c r="J369" s="48"/>
     </row>
-    <row r="370" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:10" ht="12">
       <c r="A370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -5618,7 +5636,7 @@
       <c r="I370" s="2"/>
       <c r="J370" s="48"/>
     </row>
-    <row r="371" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:10" ht="12">
       <c r="A371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -5628,7 +5646,7 @@
       <c r="I371" s="2"/>
       <c r="J371" s="48"/>
     </row>
-    <row r="372" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:10" ht="12">
       <c r="A372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -5638,7 +5656,7 @@
       <c r="I372" s="2"/>
       <c r="J372" s="48"/>
     </row>
-    <row r="373" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:10" ht="12">
       <c r="A373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -5648,7 +5666,7 @@
       <c r="I373" s="2"/>
       <c r="J373" s="48"/>
     </row>
-    <row r="374" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:10" ht="12">
       <c r="A374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -5658,7 +5676,7 @@
       <c r="I374" s="2"/>
       <c r="J374" s="48"/>
     </row>
-    <row r="375" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:10" ht="12">
       <c r="A375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -5668,7 +5686,7 @@
       <c r="I375" s="2"/>
       <c r="J375" s="48"/>
     </row>
-    <row r="376" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:10" ht="12">
       <c r="A376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -5678,7 +5696,7 @@
       <c r="I376" s="2"/>
       <c r="J376" s="48"/>
     </row>
-    <row r="377" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:10" ht="12">
       <c r="A377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -5688,7 +5706,7 @@
       <c r="I377" s="2"/>
       <c r="J377" s="48"/>
     </row>
-    <row r="378" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:10" ht="12">
       <c r="A378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -5698,7 +5716,7 @@
       <c r="I378" s="2"/>
       <c r="J378" s="48"/>
     </row>
-    <row r="379" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:10" ht="12">
       <c r="A379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -5708,7 +5726,7 @@
       <c r="I379" s="2"/>
       <c r="J379" s="48"/>
     </row>
-    <row r="380" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:10" ht="12">
       <c r="A380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -5718,7 +5736,7 @@
       <c r="I380" s="2"/>
       <c r="J380" s="48"/>
     </row>
-    <row r="381" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:10" ht="12">
       <c r="A381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -5728,7 +5746,7 @@
       <c r="I381" s="2"/>
       <c r="J381" s="48"/>
     </row>
-    <row r="382" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:10" ht="12">
       <c r="A382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -5738,7 +5756,7 @@
       <c r="I382" s="2"/>
       <c r="J382" s="48"/>
     </row>
-    <row r="383" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:10" ht="12">
       <c r="A383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -5748,7 +5766,7 @@
       <c r="I383" s="2"/>
       <c r="J383" s="48"/>
     </row>
-    <row r="384" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:10" ht="12">
       <c r="A384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -5758,7 +5776,7 @@
       <c r="I384" s="2"/>
       <c r="J384" s="48"/>
     </row>
-    <row r="385" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:10" ht="12">
       <c r="A385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -5768,7 +5786,7 @@
       <c r="I385" s="2"/>
       <c r="J385" s="48"/>
     </row>
-    <row r="386" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:10" ht="12">
       <c r="A386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -5778,7 +5796,7 @@
       <c r="I386" s="2"/>
       <c r="J386" s="48"/>
     </row>
-    <row r="387" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:10" ht="12">
       <c r="A387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -5788,7 +5806,7 @@
       <c r="I387" s="2"/>
       <c r="J387" s="48"/>
     </row>
-    <row r="388" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:10" ht="12">
       <c r="A388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -5798,7 +5816,7 @@
       <c r="I388" s="2"/>
       <c r="J388" s="48"/>
     </row>
-    <row r="389" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:10" ht="12">
       <c r="A389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -5808,7 +5826,7 @@
       <c r="I389" s="2"/>
       <c r="J389" s="48"/>
     </row>
-    <row r="390" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:10" ht="12">
       <c r="A390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -5818,7 +5836,7 @@
       <c r="I390" s="2"/>
       <c r="J390" s="48"/>
     </row>
-    <row r="391" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:10" ht="12">
       <c r="A391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -5828,7 +5846,7 @@
       <c r="I391" s="2"/>
       <c r="J391" s="48"/>
     </row>
-    <row r="392" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:10" ht="12">
       <c r="A392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -5838,7 +5856,7 @@
       <c r="I392" s="2"/>
       <c r="J392" s="48"/>
     </row>
-    <row r="393" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:10" ht="12">
       <c r="A393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -5848,7 +5866,7 @@
       <c r="I393" s="2"/>
       <c r="J393" s="48"/>
     </row>
-    <row r="394" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:10" ht="12">
       <c r="A394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -5858,7 +5876,7 @@
       <c r="I394" s="2"/>
       <c r="J394" s="48"/>
     </row>
-    <row r="395" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:10" ht="12">
       <c r="A395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -5868,7 +5886,7 @@
       <c r="I395" s="2"/>
       <c r="J395" s="48"/>
     </row>
-    <row r="396" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:10" ht="12">
       <c r="A396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -5878,7 +5896,7 @@
       <c r="I396" s="2"/>
       <c r="J396" s="48"/>
     </row>
-    <row r="397" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:10" ht="12">
       <c r="A397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -5888,7 +5906,7 @@
       <c r="I397" s="2"/>
       <c r="J397" s="48"/>
     </row>
-    <row r="398" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:10" ht="12">
       <c r="A398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -5898,7 +5916,7 @@
       <c r="I398" s="2"/>
       <c r="J398" s="48"/>
     </row>
-    <row r="399" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:10" ht="12">
       <c r="A399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -5908,7 +5926,7 @@
       <c r="I399" s="2"/>
       <c r="J399" s="48"/>
     </row>
-    <row r="400" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:10" ht="12">
       <c r="A400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -5918,7 +5936,7 @@
       <c r="I400" s="2"/>
       <c r="J400" s="48"/>
     </row>
-    <row r="401" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:10" ht="12">
       <c r="A401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -5928,7 +5946,7 @@
       <c r="I401" s="2"/>
       <c r="J401" s="48"/>
     </row>
-    <row r="402" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:10" ht="12">
       <c r="A402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -5938,7 +5956,7 @@
       <c r="I402" s="2"/>
       <c r="J402" s="48"/>
     </row>
-    <row r="403" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:10" ht="12">
       <c r="A403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -5948,7 +5966,7 @@
       <c r="I403" s="2"/>
       <c r="J403" s="48"/>
     </row>
-    <row r="404" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:10" ht="12">
       <c r="A404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -5958,7 +5976,7 @@
       <c r="I404" s="2"/>
       <c r="J404" s="48"/>
     </row>
-    <row r="405" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:10" ht="12">
       <c r="A405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -5968,7 +5986,7 @@
       <c r="I405" s="2"/>
       <c r="J405" s="48"/>
     </row>
-    <row r="406" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:10" ht="12">
       <c r="A406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -5978,7 +5996,7 @@
       <c r="I406" s="2"/>
       <c r="J406" s="48"/>
     </row>
-    <row r="407" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:10" ht="12">
       <c r="A407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -5988,7 +6006,7 @@
       <c r="I407" s="2"/>
       <c r="J407" s="48"/>
     </row>
-    <row r="408" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:10" ht="12">
       <c r="A408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -5998,7 +6016,7 @@
       <c r="I408" s="2"/>
       <c r="J408" s="48"/>
     </row>
-    <row r="409" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:10" ht="12">
       <c r="A409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -6008,7 +6026,7 @@
       <c r="I409" s="2"/>
       <c r="J409" s="48"/>
     </row>
-    <row r="410" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:10" ht="12">
       <c r="A410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -6018,7 +6036,7 @@
       <c r="I410" s="2"/>
       <c r="J410" s="48"/>
     </row>
-    <row r="411" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:10" ht="12">
       <c r="A411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
@@ -6028,7 +6046,7 @@
       <c r="I411" s="2"/>
       <c r="J411" s="48"/>
     </row>
-    <row r="412" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:10" ht="12">
       <c r="A412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -6038,7 +6056,7 @@
       <c r="I412" s="2"/>
       <c r="J412" s="48"/>
     </row>
-    <row r="413" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:10" ht="12">
       <c r="A413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -6048,7 +6066,7 @@
       <c r="I413" s="2"/>
       <c r="J413" s="48"/>
     </row>
-    <row r="414" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:10" ht="12">
       <c r="A414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -6058,7 +6076,7 @@
       <c r="I414" s="2"/>
       <c r="J414" s="48"/>
     </row>
-    <row r="415" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:10" ht="12">
       <c r="A415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -6068,7 +6086,7 @@
       <c r="I415" s="2"/>
       <c r="J415" s="48"/>
     </row>
-    <row r="416" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:10" ht="12">
       <c r="A416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -6078,7 +6096,7 @@
       <c r="I416" s="2"/>
       <c r="J416" s="48"/>
     </row>
-    <row r="417" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:10" ht="12">
       <c r="A417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -6088,7 +6106,7 @@
       <c r="I417" s="2"/>
       <c r="J417" s="48"/>
     </row>
-    <row r="418" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:10" ht="12">
       <c r="A418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -6098,7 +6116,7 @@
       <c r="I418" s="2"/>
       <c r="J418" s="48"/>
     </row>
-    <row r="419" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:10" ht="12">
       <c r="A419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -6108,7 +6126,7 @@
       <c r="I419" s="2"/>
       <c r="J419" s="48"/>
     </row>
-    <row r="420" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:10" ht="12">
       <c r="A420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -6118,7 +6136,7 @@
       <c r="I420" s="2"/>
       <c r="J420" s="48"/>
     </row>
-    <row r="421" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:10" ht="12">
       <c r="A421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -6128,7 +6146,7 @@
       <c r="I421" s="2"/>
       <c r="J421" s="48"/>
     </row>
-    <row r="422" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:10" ht="12">
       <c r="A422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -6138,7 +6156,7 @@
       <c r="I422" s="2"/>
       <c r="J422" s="48"/>
     </row>
-    <row r="423" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:10" ht="12">
       <c r="A423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -6148,7 +6166,7 @@
       <c r="I423" s="2"/>
       <c r="J423" s="48"/>
     </row>
-    <row r="424" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:10" ht="12">
       <c r="A424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -6158,7 +6176,7 @@
       <c r="I424" s="2"/>
       <c r="J424" s="48"/>
     </row>
-    <row r="425" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:10" ht="12">
       <c r="A425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -6168,7 +6186,7 @@
       <c r="I425" s="2"/>
       <c r="J425" s="48"/>
     </row>
-    <row r="426" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:10" ht="12">
       <c r="A426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -6178,7 +6196,7 @@
       <c r="I426" s="2"/>
       <c r="J426" s="48"/>
     </row>
-    <row r="427" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:10" ht="12">
       <c r="A427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -6188,7 +6206,7 @@
       <c r="I427" s="2"/>
       <c r="J427" s="48"/>
     </row>
-    <row r="428" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:10" ht="12">
       <c r="A428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -6198,7 +6216,7 @@
       <c r="I428" s="2"/>
       <c r="J428" s="48"/>
     </row>
-    <row r="429" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:10" ht="12">
       <c r="A429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -6208,7 +6226,7 @@
       <c r="I429" s="2"/>
       <c r="J429" s="48"/>
     </row>
-    <row r="430" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:10" ht="12">
       <c r="A430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -6218,7 +6236,7 @@
       <c r="I430" s="2"/>
       <c r="J430" s="48"/>
     </row>
-    <row r="431" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:10" ht="12">
       <c r="A431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -6228,7 +6246,7 @@
       <c r="I431" s="2"/>
       <c r="J431" s="48"/>
     </row>
-    <row r="432" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:10" ht="12">
       <c r="A432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -6238,7 +6256,7 @@
       <c r="I432" s="2"/>
       <c r="J432" s="48"/>
     </row>
-    <row r="433" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:10" ht="12">
       <c r="A433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -6248,7 +6266,7 @@
       <c r="I433" s="2"/>
       <c r="J433" s="48"/>
     </row>
-    <row r="434" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:10" ht="12">
       <c r="A434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -6258,7 +6276,7 @@
       <c r="I434" s="2"/>
       <c r="J434" s="48"/>
     </row>
-    <row r="435" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:10" ht="12">
       <c r="A435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -6268,7 +6286,7 @@
       <c r="I435" s="2"/>
       <c r="J435" s="48"/>
     </row>
-    <row r="436" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:10" ht="12">
       <c r="A436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -6278,7 +6296,7 @@
       <c r="I436" s="2"/>
       <c r="J436" s="48"/>
     </row>
-    <row r="437" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:10" ht="12">
       <c r="A437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -6288,7 +6306,7 @@
       <c r="I437" s="2"/>
       <c r="J437" s="48"/>
     </row>
-    <row r="438" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:10" ht="12">
       <c r="A438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -6298,7 +6316,7 @@
       <c r="I438" s="2"/>
       <c r="J438" s="48"/>
     </row>
-    <row r="439" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:10" ht="12">
       <c r="A439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -6308,7 +6326,7 @@
       <c r="I439" s="2"/>
       <c r="J439" s="48"/>
     </row>
-    <row r="440" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:10" ht="12">
       <c r="A440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -6318,7 +6336,7 @@
       <c r="I440" s="2"/>
       <c r="J440" s="48"/>
     </row>
-    <row r="441" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:10" ht="12">
       <c r="A441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -6328,7 +6346,7 @@
       <c r="I441" s="2"/>
       <c r="J441" s="48"/>
     </row>
-    <row r="442" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:10" ht="12">
       <c r="A442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -6338,7 +6356,7 @@
       <c r="I442" s="2"/>
       <c r="J442" s="48"/>
     </row>
-    <row r="443" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:10" ht="12">
       <c r="A443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -6348,7 +6366,7 @@
       <c r="I443" s="2"/>
       <c r="J443" s="48"/>
     </row>
-    <row r="444" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:10" ht="12">
       <c r="A444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -6358,7 +6376,7 @@
       <c r="I444" s="2"/>
       <c r="J444" s="48"/>
     </row>
-    <row r="445" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:10" ht="12">
       <c r="A445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -6368,7 +6386,7 @@
       <c r="I445" s="2"/>
       <c r="J445" s="48"/>
     </row>
-    <row r="446" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:10" ht="12">
       <c r="A446" s="2"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -6378,7 +6396,7 @@
       <c r="I446" s="2"/>
       <c r="J446" s="48"/>
     </row>
-    <row r="447" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:10" ht="12">
       <c r="A447" s="2"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -6388,7 +6406,7 @@
       <c r="I447" s="2"/>
       <c r="J447" s="48"/>
     </row>
-    <row r="448" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:10" ht="12">
       <c r="A448" s="2"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -6398,7 +6416,7 @@
       <c r="I448" s="2"/>
       <c r="J448" s="48"/>
     </row>
-    <row r="449" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:10" ht="12">
       <c r="A449" s="2"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -6408,7 +6426,7 @@
       <c r="I449" s="2"/>
       <c r="J449" s="48"/>
     </row>
-    <row r="450" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:10" ht="12">
       <c r="A450" s="2"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -6418,7 +6436,7 @@
       <c r="I450" s="2"/>
       <c r="J450" s="48"/>
     </row>
-    <row r="451" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:10" ht="12">
       <c r="A451" s="2"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -6428,7 +6446,7 @@
       <c r="I451" s="2"/>
       <c r="J451" s="48"/>
     </row>
-    <row r="452" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:10" ht="12">
       <c r="A452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -6438,7 +6456,7 @@
       <c r="I452" s="2"/>
       <c r="J452" s="48"/>
     </row>
-    <row r="453" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:10" ht="12">
       <c r="A453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -6448,7 +6466,7 @@
       <c r="I453" s="2"/>
       <c r="J453" s="48"/>
     </row>
-    <row r="454" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:10" ht="12">
       <c r="A454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -6458,7 +6476,7 @@
       <c r="I454" s="2"/>
       <c r="J454" s="48"/>
     </row>
-    <row r="455" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:10" ht="12">
       <c r="A455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -6468,7 +6486,7 @@
       <c r="I455" s="2"/>
       <c r="J455" s="48"/>
     </row>
-    <row r="456" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:10" ht="12">
       <c r="A456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -6478,7 +6496,7 @@
       <c r="I456" s="2"/>
       <c r="J456" s="48"/>
     </row>
-    <row r="457" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:10" ht="12">
       <c r="A457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -6488,7 +6506,7 @@
       <c r="I457" s="2"/>
       <c r="J457" s="48"/>
     </row>
-    <row r="458" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:10" ht="12">
       <c r="A458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -6498,7 +6516,7 @@
       <c r="I458" s="2"/>
       <c r="J458" s="48"/>
     </row>
-    <row r="459" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:10" ht="12">
       <c r="A459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -6508,7 +6526,7 @@
       <c r="I459" s="2"/>
       <c r="J459" s="48"/>
     </row>
-    <row r="460" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:10" ht="12">
       <c r="A460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -6518,7 +6536,7 @@
       <c r="I460" s="2"/>
       <c r="J460" s="48"/>
     </row>
-    <row r="461" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:10" ht="12">
       <c r="A461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -6528,7 +6546,7 @@
       <c r="I461" s="2"/>
       <c r="J461" s="48"/>
     </row>
-    <row r="462" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:10" ht="12">
       <c r="A462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -6538,7 +6556,7 @@
       <c r="I462" s="2"/>
       <c r="J462" s="48"/>
     </row>
-    <row r="463" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:10" ht="12">
       <c r="A463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -6548,7 +6566,7 @@
       <c r="I463" s="2"/>
       <c r="J463" s="48"/>
     </row>
-    <row r="464" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:10" ht="12">
       <c r="A464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -6558,7 +6576,7 @@
       <c r="I464" s="2"/>
       <c r="J464" s="48"/>
     </row>
-    <row r="465" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:10" ht="12">
       <c r="A465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -6568,7 +6586,7 @@
       <c r="I465" s="2"/>
       <c r="J465" s="48"/>
     </row>
-    <row r="466" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:10" ht="12">
       <c r="A466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -6578,7 +6596,7 @@
       <c r="I466" s="2"/>
       <c r="J466" s="48"/>
     </row>
-    <row r="467" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:10" ht="12">
       <c r="A467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -6588,7 +6606,7 @@
       <c r="I467" s="2"/>
       <c r="J467" s="48"/>
     </row>
-    <row r="468" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:10" ht="12">
       <c r="A468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -6598,7 +6616,7 @@
       <c r="I468" s="2"/>
       <c r="J468" s="48"/>
     </row>
-    <row r="469" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:10" ht="12">
       <c r="A469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -6608,7 +6626,7 @@
       <c r="I469" s="2"/>
       <c r="J469" s="48"/>
     </row>
-    <row r="470" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:10" ht="12">
       <c r="A470" s="2"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -6618,7 +6636,7 @@
       <c r="I470" s="2"/>
       <c r="J470" s="48"/>
     </row>
-    <row r="471" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:10" ht="12">
       <c r="A471" s="2"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -6628,7 +6646,7 @@
       <c r="I471" s="2"/>
       <c r="J471" s="48"/>
     </row>
-    <row r="472" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:10" ht="12">
       <c r="A472" s="2"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -6638,7 +6656,7 @@
       <c r="I472" s="2"/>
       <c r="J472" s="48"/>
     </row>
-    <row r="473" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:10" ht="12">
       <c r="A473" s="2"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -6648,7 +6666,7 @@
       <c r="I473" s="2"/>
       <c r="J473" s="48"/>
     </row>
-    <row r="474" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:10" ht="12">
       <c r="A474" s="2"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -6658,7 +6676,7 @@
       <c r="I474" s="2"/>
       <c r="J474" s="48"/>
     </row>
-    <row r="475" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:10" ht="12">
       <c r="A475" s="2"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
@@ -6668,7 +6686,7 @@
       <c r="I475" s="2"/>
       <c r="J475" s="48"/>
     </row>
-    <row r="476" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:10" ht="12">
       <c r="A476" s="2"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -6678,7 +6696,7 @@
       <c r="I476" s="2"/>
       <c r="J476" s="48"/>
     </row>
-    <row r="477" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:10" ht="12">
       <c r="A477" s="2"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -6688,7 +6706,7 @@
       <c r="I477" s="2"/>
       <c r="J477" s="48"/>
     </row>
-    <row r="478" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:10" ht="12">
       <c r="A478" s="2"/>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -6698,7 +6716,7 @@
       <c r="I478" s="2"/>
       <c r="J478" s="48"/>
     </row>
-    <row r="479" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:10" ht="12">
       <c r="A479" s="2"/>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -6708,7 +6726,7 @@
       <c r="I479" s="2"/>
       <c r="J479" s="48"/>
     </row>
-    <row r="480" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:10" ht="12">
       <c r="A480" s="2"/>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -6718,7 +6736,7 @@
       <c r="I480" s="2"/>
       <c r="J480" s="48"/>
     </row>
-    <row r="481" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:10" ht="12">
       <c r="A481" s="2"/>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -6728,7 +6746,7 @@
       <c r="I481" s="2"/>
       <c r="J481" s="48"/>
     </row>
-    <row r="482" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:10" ht="12">
       <c r="A482" s="2"/>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -6738,7 +6756,7 @@
       <c r="I482" s="2"/>
       <c r="J482" s="48"/>
     </row>
-    <row r="483" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:10" ht="12">
       <c r="A483" s="2"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -6748,7 +6766,7 @@
       <c r="I483" s="2"/>
       <c r="J483" s="48"/>
     </row>
-    <row r="484" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:10" ht="12">
       <c r="A484" s="2"/>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -6758,7 +6776,7 @@
       <c r="I484" s="2"/>
       <c r="J484" s="48"/>
     </row>
-    <row r="485" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:10" ht="12">
       <c r="A485" s="2"/>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -6768,7 +6786,7 @@
       <c r="I485" s="2"/>
       <c r="J485" s="48"/>
     </row>
-    <row r="486" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:10" ht="12">
       <c r="A486" s="2"/>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -6778,7 +6796,7 @@
       <c r="I486" s="2"/>
       <c r="J486" s="48"/>
     </row>
-    <row r="487" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:10" ht="12">
       <c r="A487" s="2"/>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -6788,7 +6806,7 @@
       <c r="I487" s="2"/>
       <c r="J487" s="48"/>
     </row>
-    <row r="488" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:10" ht="12">
       <c r="A488" s="2"/>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -6798,7 +6816,7 @@
       <c r="I488" s="2"/>
       <c r="J488" s="48"/>
     </row>
-    <row r="489" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:10" ht="12">
       <c r="A489" s="2"/>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -6808,7 +6826,7 @@
       <c r="I489" s="2"/>
       <c r="J489" s="48"/>
     </row>
-    <row r="490" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:10" ht="12">
       <c r="A490" s="2"/>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -6818,7 +6836,7 @@
       <c r="I490" s="2"/>
       <c r="J490" s="48"/>
     </row>
-    <row r="491" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:10" ht="12">
       <c r="A491" s="2"/>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -6828,7 +6846,7 @@
       <c r="I491" s="2"/>
       <c r="J491" s="48"/>
     </row>
-    <row r="492" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:10" ht="12">
       <c r="A492" s="2"/>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -6838,7 +6856,7 @@
       <c r="I492" s="2"/>
       <c r="J492" s="48"/>
     </row>
-    <row r="493" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:10" ht="12">
       <c r="A493" s="2"/>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -6848,7 +6866,7 @@
       <c r="I493" s="2"/>
       <c r="J493" s="48"/>
     </row>
-    <row r="494" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:10" ht="12">
       <c r="A494" s="2"/>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -6858,7 +6876,7 @@
       <c r="I494" s="2"/>
       <c r="J494" s="48"/>
     </row>
-    <row r="495" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:10" ht="12">
       <c r="A495" s="2"/>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -6868,7 +6886,7 @@
       <c r="I495" s="2"/>
       <c r="J495" s="48"/>
     </row>
-    <row r="496" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:10" ht="12">
       <c r="A496" s="2"/>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
@@ -6878,7 +6896,7 @@
       <c r="I496" s="2"/>
       <c r="J496" s="48"/>
     </row>
-    <row r="497" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:10" ht="12">
       <c r="A497" s="2"/>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -6888,7 +6906,7 @@
       <c r="I497" s="2"/>
       <c r="J497" s="48"/>
     </row>
-    <row r="498" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:10" ht="12">
       <c r="A498" s="2"/>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
@@ -6898,7 +6916,7 @@
       <c r="I498" s="2"/>
       <c r="J498" s="48"/>
     </row>
-    <row r="499" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:10" ht="12">
       <c r="A499" s="2"/>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
@@ -6908,7 +6926,7 @@
       <c r="I499" s="2"/>
       <c r="J499" s="48"/>
     </row>
-    <row r="500" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:10" ht="12">
       <c r="A500" s="2"/>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
@@ -6918,7 +6936,7 @@
       <c r="I500" s="2"/>
       <c r="J500" s="48"/>
     </row>
-    <row r="501" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:10" ht="12">
       <c r="A501" s="2"/>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
@@ -6928,7 +6946,7 @@
       <c r="I501" s="2"/>
       <c r="J501" s="48"/>
     </row>
-    <row r="502" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:10" ht="12">
       <c r="A502" s="2"/>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
@@ -6938,7 +6956,7 @@
       <c r="I502" s="2"/>
       <c r="J502" s="48"/>
     </row>
-    <row r="503" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:10" ht="12">
       <c r="A503" s="2"/>
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
@@ -6948,7 +6966,7 @@
       <c r="I503" s="2"/>
       <c r="J503" s="48"/>
     </row>
-    <row r="504" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:10" ht="12">
       <c r="A504" s="2"/>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
@@ -6958,7 +6976,7 @@
       <c r="I504" s="2"/>
       <c r="J504" s="48"/>
     </row>
-    <row r="505" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:10" ht="12">
       <c r="A505" s="2"/>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
@@ -6968,7 +6986,7 @@
       <c r="I505" s="2"/>
       <c r="J505" s="48"/>
     </row>
-    <row r="506" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:10" ht="12">
       <c r="A506" s="2"/>
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
@@ -6978,7 +6996,7 @@
       <c r="I506" s="2"/>
       <c r="J506" s="48"/>
     </row>
-    <row r="507" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:10" ht="12">
       <c r="A507" s="2"/>
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
@@ -6988,7 +7006,7 @@
       <c r="I507" s="2"/>
       <c r="J507" s="48"/>
     </row>
-    <row r="508" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:10" ht="12">
       <c r="A508" s="2"/>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
@@ -6998,7 +7016,7 @@
       <c r="I508" s="2"/>
       <c r="J508" s="48"/>
     </row>
-    <row r="509" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:10" ht="12">
       <c r="A509" s="2"/>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
@@ -7008,7 +7026,7 @@
       <c r="I509" s="2"/>
       <c r="J509" s="48"/>
     </row>
-    <row r="510" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:10" ht="12">
       <c r="A510" s="2"/>
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
@@ -7018,7 +7036,7 @@
       <c r="I510" s="2"/>
       <c r="J510" s="48"/>
     </row>
-    <row r="511" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:10" ht="12">
       <c r="A511" s="2"/>
       <c r="D511" s="2"/>
       <c r="E511" s="2"/>
@@ -7028,7 +7046,7 @@
       <c r="I511" s="2"/>
       <c r="J511" s="48"/>
     </row>
-    <row r="512" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:10" ht="12">
       <c r="A512" s="2"/>
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
@@ -7038,7 +7056,7 @@
       <c r="I512" s="2"/>
       <c r="J512" s="48"/>
     </row>
-    <row r="513" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:10" ht="12">
       <c r="A513" s="2"/>
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
@@ -7048,7 +7066,7 @@
       <c r="I513" s="2"/>
       <c r="J513" s="48"/>
     </row>
-    <row r="514" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:10" ht="12">
       <c r="A514" s="2"/>
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
@@ -7058,7 +7076,7 @@
       <c r="I514" s="2"/>
       <c r="J514" s="48"/>
     </row>
-    <row r="515" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:10" ht="12">
       <c r="A515" s="2"/>
       <c r="D515" s="2"/>
       <c r="E515" s="2"/>
@@ -7068,7 +7086,7 @@
       <c r="I515" s="2"/>
       <c r="J515" s="48"/>
     </row>
-    <row r="516" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:10" ht="12">
       <c r="A516" s="2"/>
       <c r="D516" s="2"/>
       <c r="E516" s="2"/>
@@ -7078,7 +7096,7 @@
       <c r="I516" s="2"/>
       <c r="J516" s="48"/>
     </row>
-    <row r="517" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:10" ht="12">
       <c r="A517" s="2"/>
       <c r="D517" s="2"/>
       <c r="E517" s="2"/>
@@ -7088,7 +7106,7 @@
       <c r="I517" s="2"/>
       <c r="J517" s="48"/>
     </row>
-    <row r="518" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:10" ht="12">
       <c r="A518" s="2"/>
       <c r="D518" s="2"/>
       <c r="E518" s="2"/>
@@ -7098,7 +7116,7 @@
       <c r="I518" s="2"/>
       <c r="J518" s="48"/>
     </row>
-    <row r="519" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:10" ht="12">
       <c r="A519" s="2"/>
       <c r="D519" s="2"/>
       <c r="E519" s="2"/>
@@ -7108,7 +7126,7 @@
       <c r="I519" s="2"/>
       <c r="J519" s="48"/>
     </row>
-    <row r="520" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:10" ht="12">
       <c r="A520" s="2"/>
       <c r="D520" s="2"/>
       <c r="E520" s="2"/>
@@ -7118,7 +7136,7 @@
       <c r="I520" s="2"/>
       <c r="J520" s="48"/>
     </row>
-    <row r="521" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:10" ht="12">
       <c r="A521" s="2"/>
       <c r="D521" s="2"/>
       <c r="E521" s="2"/>
@@ -7128,7 +7146,7 @@
       <c r="I521" s="2"/>
       <c r="J521" s="48"/>
     </row>
-    <row r="522" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:10" ht="12">
       <c r="A522" s="2"/>
       <c r="D522" s="2"/>
       <c r="E522" s="2"/>
@@ -7138,7 +7156,7 @@
       <c r="I522" s="2"/>
       <c r="J522" s="48"/>
     </row>
-    <row r="523" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:10" ht="12">
       <c r="A523" s="2"/>
       <c r="D523" s="2"/>
       <c r="E523" s="2"/>
@@ -7148,7 +7166,7 @@
       <c r="I523" s="2"/>
       <c r="J523" s="48"/>
     </row>
-    <row r="524" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:10" ht="12">
       <c r="A524" s="2"/>
       <c r="D524" s="2"/>
       <c r="E524" s="2"/>
@@ -7158,7 +7176,7 @@
       <c r="I524" s="2"/>
       <c r="J524" s="48"/>
     </row>
-    <row r="525" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:10" ht="12">
       <c r="A525" s="2"/>
       <c r="D525" s="2"/>
       <c r="E525" s="2"/>
@@ -7168,7 +7186,7 @@
       <c r="I525" s="2"/>
       <c r="J525" s="48"/>
     </row>
-    <row r="526" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:10" ht="12">
       <c r="A526" s="2"/>
       <c r="D526" s="2"/>
       <c r="E526" s="2"/>
@@ -7178,7 +7196,7 @@
       <c r="I526" s="2"/>
       <c r="J526" s="48"/>
     </row>
-    <row r="527" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:10" ht="12">
       <c r="A527" s="2"/>
       <c r="D527" s="2"/>
       <c r="E527" s="2"/>
@@ -7188,7 +7206,7 @@
       <c r="I527" s="2"/>
       <c r="J527" s="48"/>
     </row>
-    <row r="528" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:10" ht="12">
       <c r="A528" s="2"/>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
@@ -7198,7 +7216,7 @@
       <c r="I528" s="2"/>
       <c r="J528" s="48"/>
     </row>
-    <row r="529" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:10" ht="12">
       <c r="A529" s="2"/>
       <c r="D529" s="2"/>
       <c r="E529" s="2"/>
@@ -7208,7 +7226,7 @@
       <c r="I529" s="2"/>
       <c r="J529" s="48"/>
     </row>
-    <row r="530" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:10" ht="12">
       <c r="A530" s="2"/>
       <c r="D530" s="2"/>
       <c r="E530" s="2"/>
@@ -7218,7 +7236,7 @@
       <c r="I530" s="2"/>
       <c r="J530" s="48"/>
     </row>
-    <row r="531" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:10" ht="12">
       <c r="A531" s="2"/>
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
@@ -7228,7 +7246,7 @@
       <c r="I531" s="2"/>
       <c r="J531" s="48"/>
     </row>
-    <row r="532" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:10" ht="12">
       <c r="A532" s="2"/>
       <c r="D532" s="2"/>
       <c r="E532" s="2"/>
@@ -7238,7 +7256,7 @@
       <c r="I532" s="2"/>
       <c r="J532" s="48"/>
     </row>
-    <row r="533" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:10" ht="12">
       <c r="A533" s="2"/>
       <c r="D533" s="2"/>
       <c r="E533" s="2"/>
@@ -7248,7 +7266,7 @@
       <c r="I533" s="2"/>
       <c r="J533" s="48"/>
     </row>
-    <row r="534" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:10" ht="12">
       <c r="A534" s="2"/>
       <c r="D534" s="2"/>
       <c r="E534" s="2"/>
@@ -7258,7 +7276,7 @@
       <c r="I534" s="2"/>
       <c r="J534" s="48"/>
     </row>
-    <row r="535" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:10" ht="12">
       <c r="A535" s="2"/>
       <c r="D535" s="2"/>
       <c r="E535" s="2"/>
@@ -7268,7 +7286,7 @@
       <c r="I535" s="2"/>
       <c r="J535" s="48"/>
     </row>
-    <row r="536" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:10" ht="12">
       <c r="A536" s="2"/>
       <c r="D536" s="2"/>
       <c r="E536" s="2"/>
@@ -7278,7 +7296,7 @@
       <c r="I536" s="2"/>
       <c r="J536" s="48"/>
     </row>
-    <row r="537" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:10" ht="12">
       <c r="A537" s="2"/>
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
@@ -7288,7 +7306,7 @@
       <c r="I537" s="2"/>
       <c r="J537" s="48"/>
     </row>
-    <row r="538" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:10" ht="12">
       <c r="A538" s="2"/>
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
@@ -7298,7 +7316,7 @@
       <c r="I538" s="2"/>
       <c r="J538" s="48"/>
     </row>
-    <row r="539" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:10" ht="12">
       <c r="A539" s="2"/>
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
@@ -7308,7 +7326,7 @@
       <c r="I539" s="2"/>
       <c r="J539" s="48"/>
     </row>
-    <row r="540" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:10" ht="12">
       <c r="A540" s="2"/>
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
@@ -7318,7 +7336,7 @@
       <c r="I540" s="2"/>
       <c r="J540" s="48"/>
     </row>
-    <row r="541" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:10" ht="12">
       <c r="A541" s="2"/>
       <c r="D541" s="2"/>
       <c r="E541" s="2"/>
@@ -7328,7 +7346,7 @@
       <c r="I541" s="2"/>
       <c r="J541" s="48"/>
     </row>
-    <row r="542" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:10" ht="12">
       <c r="A542" s="2"/>
       <c r="D542" s="2"/>
       <c r="E542" s="2"/>
@@ -7338,7 +7356,7 @@
       <c r="I542" s="2"/>
       <c r="J542" s="48"/>
     </row>
-    <row r="543" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:10" ht="12">
       <c r="A543" s="2"/>
       <c r="D543" s="2"/>
       <c r="E543" s="2"/>
@@ -7348,7 +7366,7 @@
       <c r="I543" s="2"/>
       <c r="J543" s="48"/>
     </row>
-    <row r="544" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:10" ht="12">
       <c r="A544" s="2"/>
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
@@ -7358,7 +7376,7 @@
       <c r="I544" s="2"/>
       <c r="J544" s="48"/>
     </row>
-    <row r="545" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:10" ht="12">
       <c r="A545" s="2"/>
       <c r="D545" s="2"/>
       <c r="E545" s="2"/>
@@ -7368,7 +7386,7 @@
       <c r="I545" s="2"/>
       <c r="J545" s="48"/>
     </row>
-    <row r="546" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:10" ht="12">
       <c r="A546" s="2"/>
       <c r="D546" s="2"/>
       <c r="E546" s="2"/>
@@ -7378,7 +7396,7 @@
       <c r="I546" s="2"/>
       <c r="J546" s="48"/>
     </row>
-    <row r="547" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:10" ht="12">
       <c r="A547" s="2"/>
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
@@ -7388,7 +7406,7 @@
       <c r="I547" s="2"/>
       <c r="J547" s="48"/>
     </row>
-    <row r="548" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:10" ht="12">
       <c r="A548" s="2"/>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
@@ -7398,7 +7416,7 @@
       <c r="I548" s="2"/>
       <c r="J548" s="48"/>
     </row>
-    <row r="549" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:10" ht="12">
       <c r="A549" s="2"/>
       <c r="D549" s="2"/>
       <c r="E549" s="2"/>
@@ -7408,7 +7426,7 @@
       <c r="I549" s="2"/>
       <c r="J549" s="48"/>
     </row>
-    <row r="550" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:10" ht="12">
       <c r="A550" s="2"/>
       <c r="D550" s="2"/>
       <c r="E550" s="2"/>
@@ -7418,7 +7436,7 @@
       <c r="I550" s="2"/>
       <c r="J550" s="48"/>
     </row>
-    <row r="551" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:10" ht="12">
       <c r="A551" s="2"/>
       <c r="D551" s="2"/>
       <c r="E551" s="2"/>
@@ -7428,7 +7446,7 @@
       <c r="I551" s="2"/>
       <c r="J551" s="48"/>
     </row>
-    <row r="552" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:10" ht="12">
       <c r="A552" s="2"/>
       <c r="D552" s="2"/>
       <c r="E552" s="2"/>
@@ -7438,7 +7456,7 @@
       <c r="I552" s="2"/>
       <c r="J552" s="48"/>
     </row>
-    <row r="553" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:10" ht="12">
       <c r="A553" s="2"/>
       <c r="D553" s="2"/>
       <c r="E553" s="2"/>
@@ -7448,7 +7466,7 @@
       <c r="I553" s="2"/>
       <c r="J553" s="48"/>
     </row>
-    <row r="554" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:10" ht="12">
       <c r="A554" s="2"/>
       <c r="D554" s="2"/>
       <c r="E554" s="2"/>
@@ -7458,7 +7476,7 @@
       <c r="I554" s="2"/>
       <c r="J554" s="48"/>
     </row>
-    <row r="555" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:10" ht="12">
       <c r="A555" s="2"/>
       <c r="D555" s="2"/>
       <c r="E555" s="2"/>
@@ -7468,7 +7486,7 @@
       <c r="I555" s="2"/>
       <c r="J555" s="48"/>
     </row>
-    <row r="556" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:10" ht="12">
       <c r="A556" s="2"/>
       <c r="D556" s="2"/>
       <c r="E556" s="2"/>
@@ -7478,7 +7496,7 @@
       <c r="I556" s="2"/>
       <c r="J556" s="48"/>
     </row>
-    <row r="557" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:10" ht="12">
       <c r="A557" s="2"/>
       <c r="D557" s="2"/>
       <c r="E557" s="2"/>
@@ -7488,7 +7506,7 @@
       <c r="I557" s="2"/>
       <c r="J557" s="48"/>
     </row>
-    <row r="558" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:10" ht="12">
       <c r="A558" s="2"/>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
@@ -7498,7 +7516,7 @@
       <c r="I558" s="2"/>
       <c r="J558" s="48"/>
     </row>
-    <row r="559" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:10" ht="12">
       <c r="A559" s="2"/>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
@@ -7508,7 +7526,7 @@
       <c r="I559" s="2"/>
       <c r="J559" s="48"/>
     </row>
-    <row r="560" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:10" ht="12">
       <c r="A560" s="2"/>
       <c r="D560" s="2"/>
       <c r="E560" s="2"/>
@@ -7518,7 +7536,7 @@
       <c r="I560" s="2"/>
       <c r="J560" s="48"/>
     </row>
-    <row r="561" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:10" ht="12">
       <c r="A561" s="2"/>
       <c r="D561" s="2"/>
       <c r="E561" s="2"/>
@@ -7528,7 +7546,7 @@
       <c r="I561" s="2"/>
       <c r="J561" s="48"/>
     </row>
-    <row r="562" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:10" ht="12">
       <c r="A562" s="2"/>
       <c r="D562" s="2"/>
       <c r="E562" s="2"/>
@@ -7538,7 +7556,7 @@
       <c r="I562" s="2"/>
       <c r="J562" s="48"/>
     </row>
-    <row r="563" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:10" ht="12">
       <c r="A563" s="2"/>
       <c r="D563" s="2"/>
       <c r="E563" s="2"/>
@@ -7548,7 +7566,7 @@
       <c r="I563" s="2"/>
       <c r="J563" s="48"/>
     </row>
-    <row r="564" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:10" ht="12">
       <c r="A564" s="2"/>
       <c r="D564" s="2"/>
       <c r="E564" s="2"/>
@@ -7558,7 +7576,7 @@
       <c r="I564" s="2"/>
       <c r="J564" s="48"/>
     </row>
-    <row r="565" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:10" ht="12">
       <c r="A565" s="2"/>
       <c r="D565" s="2"/>
       <c r="E565" s="2"/>
@@ -7568,7 +7586,7 @@
       <c r="I565" s="2"/>
       <c r="J565" s="48"/>
     </row>
-    <row r="566" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:10" ht="12">
       <c r="A566" s="2"/>
       <c r="D566" s="2"/>
       <c r="E566" s="2"/>
@@ -7578,7 +7596,7 @@
       <c r="I566" s="2"/>
       <c r="J566" s="48"/>
     </row>
-    <row r="567" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:10" ht="12">
       <c r="A567" s="2"/>
       <c r="D567" s="2"/>
       <c r="E567" s="2"/>
@@ -7588,7 +7606,7 @@
       <c r="I567" s="2"/>
       <c r="J567" s="48"/>
     </row>
-    <row r="568" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:10" ht="12">
       <c r="A568" s="2"/>
       <c r="D568" s="2"/>
       <c r="E568" s="2"/>
@@ -7598,7 +7616,7 @@
       <c r="I568" s="2"/>
       <c r="J568" s="48"/>
     </row>
-    <row r="569" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:10" ht="12">
       <c r="A569" s="2"/>
       <c r="D569" s="2"/>
       <c r="E569" s="2"/>
@@ -7608,7 +7626,7 @@
       <c r="I569" s="2"/>
       <c r="J569" s="48"/>
     </row>
-    <row r="570" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:10" ht="12">
       <c r="A570" s="2"/>
       <c r="D570" s="2"/>
       <c r="E570" s="2"/>
@@ -7618,7 +7636,7 @@
       <c r="I570" s="2"/>
       <c r="J570" s="48"/>
     </row>
-    <row r="571" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:10" ht="12">
       <c r="A571" s="2"/>
       <c r="D571" s="2"/>
       <c r="E571" s="2"/>
@@ -7628,7 +7646,7 @@
       <c r="I571" s="2"/>
       <c r="J571" s="48"/>
     </row>
-    <row r="572" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:10" ht="12">
       <c r="A572" s="2"/>
       <c r="D572" s="2"/>
       <c r="E572" s="2"/>
@@ -7638,7 +7656,7 @@
       <c r="I572" s="2"/>
       <c r="J572" s="48"/>
     </row>
-    <row r="573" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:10" ht="12">
       <c r="A573" s="2"/>
       <c r="D573" s="2"/>
       <c r="E573" s="2"/>
@@ -7648,7 +7666,7 @@
       <c r="I573" s="2"/>
       <c r="J573" s="48"/>
     </row>
-    <row r="574" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:10" ht="12">
       <c r="A574" s="2"/>
       <c r="D574" s="2"/>
       <c r="E574" s="2"/>
@@ -7658,7 +7676,7 @@
       <c r="I574" s="2"/>
       <c r="J574" s="48"/>
     </row>
-    <row r="575" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:10" ht="12">
       <c r="A575" s="2"/>
       <c r="D575" s="2"/>
       <c r="E575" s="2"/>
@@ -7668,7 +7686,7 @@
       <c r="I575" s="2"/>
       <c r="J575" s="48"/>
     </row>
-    <row r="576" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:10" ht="12">
       <c r="A576" s="2"/>
       <c r="D576" s="2"/>
       <c r="E576" s="2"/>
@@ -7678,7 +7696,7 @@
       <c r="I576" s="2"/>
       <c r="J576" s="48"/>
     </row>
-    <row r="577" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:10" ht="12">
       <c r="A577" s="2"/>
       <c r="D577" s="2"/>
       <c r="E577" s="2"/>
@@ -7688,7 +7706,7 @@
       <c r="I577" s="2"/>
       <c r="J577" s="48"/>
     </row>
-    <row r="578" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:10" ht="12">
       <c r="A578" s="2"/>
       <c r="D578" s="2"/>
       <c r="E578" s="2"/>
@@ -7698,7 +7716,7 @@
       <c r="I578" s="2"/>
       <c r="J578" s="48"/>
     </row>
-    <row r="579" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:10" ht="12">
       <c r="A579" s="2"/>
       <c r="D579" s="2"/>
       <c r="E579" s="2"/>
@@ -7708,7 +7726,7 @@
       <c r="I579" s="2"/>
       <c r="J579" s="48"/>
     </row>
-    <row r="580" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:10" ht="12">
       <c r="A580" s="2"/>
       <c r="D580" s="2"/>
       <c r="E580" s="2"/>
@@ -7718,7 +7736,7 @@
       <c r="I580" s="2"/>
       <c r="J580" s="48"/>
     </row>
-    <row r="581" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:10" ht="12">
       <c r="A581" s="2"/>
       <c r="D581" s="2"/>
       <c r="E581" s="2"/>
@@ -7728,7 +7746,7 @@
       <c r="I581" s="2"/>
       <c r="J581" s="48"/>
     </row>
-    <row r="582" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:10" ht="12">
       <c r="A582" s="2"/>
       <c r="D582" s="2"/>
       <c r="E582" s="2"/>
@@ -7738,7 +7756,7 @@
       <c r="I582" s="2"/>
       <c r="J582" s="48"/>
     </row>
-    <row r="583" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:10" ht="12">
       <c r="A583" s="2"/>
       <c r="D583" s="2"/>
       <c r="E583" s="2"/>
@@ -7748,7 +7766,7 @@
       <c r="I583" s="2"/>
       <c r="J583" s="48"/>
     </row>
-    <row r="584" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:10" ht="12">
       <c r="A584" s="2"/>
       <c r="D584" s="2"/>
       <c r="E584" s="2"/>
@@ -7758,7 +7776,7 @@
       <c r="I584" s="2"/>
       <c r="J584" s="48"/>
     </row>
-    <row r="585" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:10" ht="12">
       <c r="A585" s="2"/>
       <c r="D585" s="2"/>
       <c r="E585" s="2"/>
@@ -7768,7 +7786,7 @@
       <c r="I585" s="2"/>
       <c r="J585" s="48"/>
     </row>
-    <row r="586" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:10" ht="12">
       <c r="A586" s="2"/>
       <c r="D586" s="2"/>
       <c r="E586" s="2"/>
@@ -7778,7 +7796,7 @@
       <c r="I586" s="2"/>
       <c r="J586" s="48"/>
     </row>
-    <row r="587" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:10" ht="12">
       <c r="A587" s="2"/>
       <c r="D587" s="2"/>
       <c r="E587" s="2"/>
@@ -7788,7 +7806,7 @@
       <c r="I587" s="2"/>
       <c r="J587" s="48"/>
     </row>
-    <row r="588" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:10" ht="12">
       <c r="A588" s="2"/>
       <c r="D588" s="2"/>
       <c r="E588" s="2"/>
@@ -7798,7 +7816,7 @@
       <c r="I588" s="2"/>
       <c r="J588" s="48"/>
     </row>
-    <row r="589" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:10" ht="12">
       <c r="A589" s="2"/>
       <c r="D589" s="2"/>
       <c r="E589" s="2"/>
@@ -7808,7 +7826,7 @@
       <c r="I589" s="2"/>
       <c r="J589" s="48"/>
     </row>
-    <row r="590" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:10" ht="12">
       <c r="A590" s="2"/>
       <c r="D590" s="2"/>
       <c r="E590" s="2"/>
@@ -7818,7 +7836,7 @@
       <c r="I590" s="2"/>
       <c r="J590" s="48"/>
     </row>
-    <row r="591" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:10" ht="12">
       <c r="A591" s="2"/>
       <c r="D591" s="2"/>
       <c r="E591" s="2"/>
@@ -7828,7 +7846,7 @@
       <c r="I591" s="2"/>
       <c r="J591" s="48"/>
     </row>
-    <row r="592" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:10" ht="12">
       <c r="A592" s="2"/>
       <c r="D592" s="2"/>
       <c r="E592" s="2"/>
@@ -7838,7 +7856,7 @@
       <c r="I592" s="2"/>
       <c r="J592" s="48"/>
     </row>
-    <row r="593" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:10" ht="12">
       <c r="A593" s="2"/>
       <c r="D593" s="2"/>
       <c r="E593" s="2"/>
@@ -7848,7 +7866,7 @@
       <c r="I593" s="2"/>
       <c r="J593" s="48"/>
     </row>
-    <row r="594" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:10" ht="12">
       <c r="A594" s="2"/>
       <c r="D594" s="2"/>
       <c r="E594" s="2"/>
@@ -7858,7 +7876,7 @@
       <c r="I594" s="2"/>
       <c r="J594" s="48"/>
     </row>
-    <row r="595" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:10" ht="12">
       <c r="A595" s="2"/>
       <c r="D595" s="2"/>
       <c r="E595" s="2"/>
@@ -7868,7 +7886,7 @@
       <c r="I595" s="2"/>
       <c r="J595" s="48"/>
     </row>
-    <row r="596" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:10" ht="12">
       <c r="A596" s="2"/>
       <c r="D596" s="2"/>
       <c r="E596" s="2"/>
@@ -7878,7 +7896,7 @@
       <c r="I596" s="2"/>
       <c r="J596" s="48"/>
     </row>
-    <row r="597" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:10" ht="12">
       <c r="A597" s="2"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
@@ -7888,7 +7906,7 @@
       <c r="I597" s="2"/>
       <c r="J597" s="48"/>
     </row>
-    <row r="598" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:10" ht="12">
       <c r="A598" s="2"/>
       <c r="D598" s="2"/>
       <c r="E598" s="2"/>
@@ -7898,7 +7916,7 @@
       <c r="I598" s="2"/>
       <c r="J598" s="48"/>
     </row>
-    <row r="599" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:10" ht="12">
       <c r="A599" s="2"/>
       <c r="D599" s="2"/>
       <c r="E599" s="2"/>
@@ -7908,7 +7926,7 @@
       <c r="I599" s="2"/>
       <c r="J599" s="48"/>
     </row>
-    <row r="600" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:10" ht="12">
       <c r="A600" s="2"/>
       <c r="D600" s="2"/>
       <c r="E600" s="2"/>
@@ -7918,7 +7936,7 @@
       <c r="I600" s="2"/>
       <c r="J600" s="48"/>
     </row>
-    <row r="601" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:10" ht="12">
       <c r="A601" s="2"/>
       <c r="D601" s="2"/>
       <c r="E601" s="2"/>
@@ -7928,7 +7946,7 @@
       <c r="I601" s="2"/>
       <c r="J601" s="48"/>
     </row>
-    <row r="602" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:10" ht="12">
       <c r="A602" s="2"/>
       <c r="D602" s="2"/>
       <c r="E602" s="2"/>
@@ -7938,7 +7956,7 @@
       <c r="I602" s="2"/>
       <c r="J602" s="48"/>
     </row>
-    <row r="603" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:10" ht="12">
       <c r="A603" s="2"/>
       <c r="D603" s="2"/>
       <c r="E603" s="2"/>
@@ -7948,7 +7966,7 @@
       <c r="I603" s="2"/>
       <c r="J603" s="48"/>
     </row>
-    <row r="604" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:10" ht="12">
       <c r="A604" s="2"/>
       <c r="D604" s="2"/>
       <c r="E604" s="2"/>
@@ -7958,7 +7976,7 @@
       <c r="I604" s="2"/>
       <c r="J604" s="48"/>
     </row>
-    <row r="605" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:10" ht="12">
       <c r="A605" s="2"/>
       <c r="D605" s="2"/>
       <c r="E605" s="2"/>
@@ -7968,7 +7986,7 @@
       <c r="I605" s="2"/>
       <c r="J605" s="48"/>
     </row>
-    <row r="606" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:10" ht="12">
       <c r="A606" s="2"/>
       <c r="D606" s="2"/>
       <c r="E606" s="2"/>
@@ -7978,7 +7996,7 @@
       <c r="I606" s="2"/>
       <c r="J606" s="48"/>
     </row>
-    <row r="607" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:10" ht="12">
       <c r="A607" s="2"/>
       <c r="D607" s="2"/>
       <c r="E607" s="2"/>
@@ -7988,7 +8006,7 @@
       <c r="I607" s="2"/>
       <c r="J607" s="48"/>
     </row>
-    <row r="608" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:10" ht="12">
       <c r="A608" s="2"/>
       <c r="D608" s="2"/>
       <c r="E608" s="2"/>
@@ -7998,7 +8016,7 @@
       <c r="I608" s="2"/>
       <c r="J608" s="48"/>
     </row>
-    <row r="609" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:10" ht="12">
       <c r="A609" s="2"/>
       <c r="D609" s="2"/>
       <c r="E609" s="2"/>
@@ -8008,7 +8026,7 @@
       <c r="I609" s="2"/>
       <c r="J609" s="48"/>
     </row>
-    <row r="610" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:10" ht="12">
       <c r="A610" s="2"/>
       <c r="D610" s="2"/>
       <c r="E610" s="2"/>
@@ -8018,7 +8036,7 @@
       <c r="I610" s="2"/>
       <c r="J610" s="48"/>
     </row>
-    <row r="611" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:10" ht="12">
       <c r="A611" s="2"/>
       <c r="D611" s="2"/>
       <c r="E611" s="2"/>
@@ -8028,7 +8046,7 @@
       <c r="I611" s="2"/>
       <c r="J611" s="48"/>
     </row>
-    <row r="612" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:10" ht="12">
       <c r="A612" s="2"/>
       <c r="D612" s="2"/>
       <c r="E612" s="2"/>
@@ -8038,7 +8056,7 @@
       <c r="I612" s="2"/>
       <c r="J612" s="48"/>
     </row>
-    <row r="613" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:10" ht="12">
       <c r="A613" s="2"/>
       <c r="D613" s="2"/>
       <c r="E613" s="2"/>
@@ -8048,7 +8066,7 @@
       <c r="I613" s="2"/>
       <c r="J613" s="48"/>
     </row>
-    <row r="614" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:10" ht="12">
       <c r="A614" s="2"/>
       <c r="D614" s="2"/>
       <c r="E614" s="2"/>
@@ -8058,7 +8076,7 @@
       <c r="I614" s="2"/>
       <c r="J614" s="48"/>
     </row>
-    <row r="615" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:10" ht="12">
       <c r="A615" s="2"/>
       <c r="D615" s="2"/>
       <c r="E615" s="2"/>
@@ -8068,7 +8086,7 @@
       <c r="I615" s="2"/>
       <c r="J615" s="48"/>
     </row>
-    <row r="616" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:10" ht="12">
       <c r="A616" s="2"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
@@ -8078,7 +8096,7 @@
       <c r="I616" s="2"/>
       <c r="J616" s="48"/>
     </row>
-    <row r="617" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:10" ht="12">
       <c r="A617" s="2"/>
       <c r="D617" s="2"/>
       <c r="E617" s="2"/>
@@ -8088,7 +8106,7 @@
       <c r="I617" s="2"/>
       <c r="J617" s="48"/>
     </row>
-    <row r="618" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:10" ht="12">
       <c r="A618" s="2"/>
       <c r="D618" s="2"/>
       <c r="E618" s="2"/>
@@ -8098,7 +8116,7 @@
       <c r="I618" s="2"/>
       <c r="J618" s="48"/>
     </row>
-    <row r="619" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:10" ht="12">
       <c r="A619" s="2"/>
       <c r="D619" s="2"/>
       <c r="E619" s="2"/>
@@ -8108,7 +8126,7 @@
       <c r="I619" s="2"/>
       <c r="J619" s="48"/>
     </row>
-    <row r="620" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:10" ht="12">
       <c r="A620" s="2"/>
       <c r="D620" s="2"/>
       <c r="E620" s="2"/>
@@ -8118,7 +8136,7 @@
       <c r="I620" s="2"/>
       <c r="J620" s="48"/>
     </row>
-    <row r="621" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:10" ht="12">
       <c r="A621" s="2"/>
       <c r="D621" s="2"/>
       <c r="E621" s="2"/>
@@ -8128,7 +8146,7 @@
       <c r="I621" s="2"/>
       <c r="J621" s="48"/>
     </row>
-    <row r="622" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:10" ht="12">
       <c r="A622" s="2"/>
       <c r="D622" s="2"/>
       <c r="E622" s="2"/>
@@ -8138,7 +8156,7 @@
       <c r="I622" s="2"/>
       <c r="J622" s="48"/>
     </row>
-    <row r="623" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:10" ht="12">
       <c r="A623" s="2"/>
       <c r="D623" s="2"/>
       <c r="E623" s="2"/>
@@ -8148,7 +8166,7 @@
       <c r="I623" s="2"/>
       <c r="J623" s="48"/>
     </row>
-    <row r="624" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:10" ht="12">
       <c r="A624" s="2"/>
       <c r="D624" s="2"/>
       <c r="E624" s="2"/>
@@ -8158,7 +8176,7 @@
       <c r="I624" s="2"/>
       <c r="J624" s="48"/>
     </row>
-    <row r="625" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:10" ht="12">
       <c r="A625" s="2"/>
       <c r="D625" s="2"/>
       <c r="E625" s="2"/>
@@ -8168,7 +8186,7 @@
       <c r="I625" s="2"/>
       <c r="J625" s="48"/>
     </row>
-    <row r="626" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:10" ht="12">
       <c r="A626" s="2"/>
       <c r="D626" s="2"/>
       <c r="E626" s="2"/>
@@ -8178,7 +8196,7 @@
       <c r="I626" s="2"/>
       <c r="J626" s="48"/>
     </row>
-    <row r="627" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:10" ht="12">
       <c r="A627" s="2"/>
       <c r="D627" s="2"/>
       <c r="E627" s="2"/>
@@ -8188,7 +8206,7 @@
       <c r="I627" s="2"/>
       <c r="J627" s="48"/>
     </row>
-    <row r="628" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:10" ht="12">
       <c r="A628" s="2"/>
       <c r="D628" s="2"/>
       <c r="E628" s="2"/>
@@ -8198,7 +8216,7 @@
       <c r="I628" s="2"/>
       <c r="J628" s="48"/>
     </row>
-    <row r="629" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:10" ht="12">
       <c r="A629" s="2"/>
       <c r="D629" s="2"/>
       <c r="E629" s="2"/>
@@ -8208,7 +8226,7 @@
       <c r="I629" s="2"/>
       <c r="J629" s="48"/>
     </row>
-    <row r="630" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:10" ht="12">
       <c r="A630" s="2"/>
       <c r="D630" s="2"/>
       <c r="E630" s="2"/>
@@ -8218,7 +8236,7 @@
       <c r="I630" s="2"/>
       <c r="J630" s="48"/>
     </row>
-    <row r="631" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:10" ht="12">
       <c r="A631" s="2"/>
       <c r="D631" s="2"/>
       <c r="E631" s="2"/>
@@ -8228,7 +8246,7 @@
       <c r="I631" s="2"/>
       <c r="J631" s="48"/>
     </row>
-    <row r="632" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:10" ht="12">
       <c r="A632" s="2"/>
       <c r="D632" s="2"/>
       <c r="E632" s="2"/>
@@ -8238,7 +8256,7 @@
       <c r="I632" s="2"/>
       <c r="J632" s="48"/>
     </row>
-    <row r="633" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:10" ht="12">
       <c r="A633" s="2"/>
       <c r="D633" s="2"/>
       <c r="E633" s="2"/>
@@ -8248,7 +8266,7 @@
       <c r="I633" s="2"/>
       <c r="J633" s="48"/>
     </row>
-    <row r="634" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:10" ht="12">
       <c r="A634" s="2"/>
       <c r="D634" s="2"/>
       <c r="E634" s="2"/>
@@ -8258,7 +8276,7 @@
       <c r="I634" s="2"/>
       <c r="J634" s="48"/>
     </row>
-    <row r="635" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:10" ht="12">
       <c r="A635" s="2"/>
       <c r="D635" s="2"/>
       <c r="E635" s="2"/>
@@ -8268,7 +8286,7 @@
       <c r="I635" s="2"/>
       <c r="J635" s="48"/>
     </row>
-    <row r="636" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:10" ht="12">
       <c r="A636" s="2"/>
       <c r="D636" s="2"/>
       <c r="E636" s="2"/>
@@ -8278,7 +8296,7 @@
       <c r="I636" s="2"/>
       <c r="J636" s="48"/>
     </row>
-    <row r="637" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:10" ht="12">
       <c r="A637" s="2"/>
       <c r="D637" s="2"/>
       <c r="E637" s="2"/>
@@ -8288,7 +8306,7 @@
       <c r="I637" s="2"/>
       <c r="J637" s="48"/>
     </row>
-    <row r="638" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:10" ht="12">
       <c r="A638" s="2"/>
       <c r="D638" s="2"/>
       <c r="E638" s="2"/>
@@ -8298,7 +8316,7 @@
       <c r="I638" s="2"/>
       <c r="J638" s="48"/>
     </row>
-    <row r="639" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:10" ht="12">
       <c r="A639" s="2"/>
       <c r="D639" s="2"/>
       <c r="E639" s="2"/>
@@ -8308,7 +8326,7 @@
       <c r="I639" s="2"/>
       <c r="J639" s="48"/>
     </row>
-    <row r="640" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:10" ht="12">
       <c r="A640" s="2"/>
       <c r="D640" s="2"/>
       <c r="E640" s="2"/>
@@ -8318,7 +8336,7 @@
       <c r="I640" s="2"/>
       <c r="J640" s="48"/>
     </row>
-    <row r="641" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:10" ht="12">
       <c r="A641" s="2"/>
       <c r="D641" s="2"/>
       <c r="E641" s="2"/>
@@ -8328,7 +8346,7 @@
       <c r="I641" s="2"/>
       <c r="J641" s="48"/>
     </row>
-    <row r="642" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:10" ht="12">
       <c r="A642" s="2"/>
       <c r="D642" s="2"/>
       <c r="E642" s="2"/>
@@ -8338,7 +8356,7 @@
       <c r="I642" s="2"/>
       <c r="J642" s="48"/>
     </row>
-    <row r="643" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:10" ht="12">
       <c r="A643" s="2"/>
       <c r="D643" s="2"/>
       <c r="E643" s="2"/>
@@ -8348,7 +8366,7 @@
       <c r="I643" s="2"/>
       <c r="J643" s="48"/>
     </row>
-    <row r="644" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:10" ht="12">
       <c r="A644" s="2"/>
       <c r="D644" s="2"/>
       <c r="E644" s="2"/>
@@ -8358,7 +8376,7 @@
       <c r="I644" s="2"/>
       <c r="J644" s="48"/>
     </row>
-    <row r="645" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:10" ht="12">
       <c r="A645" s="2"/>
       <c r="D645" s="2"/>
       <c r="E645" s="2"/>
@@ -8368,7 +8386,7 @@
       <c r="I645" s="2"/>
       <c r="J645" s="48"/>
     </row>
-    <row r="646" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:10" ht="12">
       <c r="A646" s="2"/>
       <c r="D646" s="2"/>
       <c r="E646" s="2"/>
@@ -8378,7 +8396,7 @@
       <c r="I646" s="2"/>
       <c r="J646" s="48"/>
     </row>
-    <row r="647" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:10" ht="12">
       <c r="A647" s="2"/>
       <c r="D647" s="2"/>
       <c r="E647" s="2"/>
@@ -8388,7 +8406,7 @@
       <c r="I647" s="2"/>
       <c r="J647" s="48"/>
     </row>
-    <row r="648" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:10" ht="12">
       <c r="A648" s="2"/>
       <c r="D648" s="2"/>
       <c r="E648" s="2"/>
@@ -8398,7 +8416,7 @@
       <c r="I648" s="2"/>
       <c r="J648" s="48"/>
     </row>
-    <row r="649" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:10" ht="12">
       <c r="A649" s="2"/>
       <c r="D649" s="2"/>
       <c r="E649" s="2"/>
@@ -8408,7 +8426,7 @@
       <c r="I649" s="2"/>
       <c r="J649" s="48"/>
     </row>
-    <row r="650" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:10" ht="12">
       <c r="A650" s="2"/>
       <c r="D650" s="2"/>
       <c r="E650" s="2"/>
@@ -8418,7 +8436,7 @@
       <c r="I650" s="2"/>
       <c r="J650" s="48"/>
     </row>
-    <row r="651" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:10" ht="12">
       <c r="A651" s="2"/>
       <c r="D651" s="2"/>
       <c r="E651" s="2"/>
@@ -8428,7 +8446,7 @@
       <c r="I651" s="2"/>
       <c r="J651" s="48"/>
     </row>
-    <row r="652" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:10" ht="12">
       <c r="A652" s="2"/>
       <c r="D652" s="2"/>
       <c r="E652" s="2"/>
@@ -8438,7 +8456,7 @@
       <c r="I652" s="2"/>
       <c r="J652" s="48"/>
     </row>
-    <row r="653" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:10" ht="12">
       <c r="A653" s="2"/>
       <c r="D653" s="2"/>
       <c r="E653" s="2"/>
@@ -8448,7 +8466,7 @@
       <c r="I653" s="2"/>
       <c r="J653" s="48"/>
     </row>
-    <row r="654" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:10" ht="12">
       <c r="A654" s="2"/>
       <c r="D654" s="2"/>
       <c r="E654" s="2"/>
@@ -8458,7 +8476,7 @@
       <c r="I654" s="2"/>
       <c r="J654" s="48"/>
     </row>
-    <row r="655" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:10" ht="12">
       <c r="A655" s="2"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
@@ -8468,7 +8486,7 @@
       <c r="I655" s="2"/>
       <c r="J655" s="48"/>
     </row>
-    <row r="656" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:10" ht="12">
       <c r="A656" s="2"/>
       <c r="D656" s="2"/>
       <c r="E656" s="2"/>
@@ -8478,7 +8496,7 @@
       <c r="I656" s="2"/>
       <c r="J656" s="48"/>
     </row>
-    <row r="657" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:10" ht="12">
       <c r="A657" s="2"/>
       <c r="D657" s="2"/>
       <c r="E657" s="2"/>
@@ -8488,7 +8506,7 @@
       <c r="I657" s="2"/>
       <c r="J657" s="48"/>
     </row>
-    <row r="658" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:10" ht="12">
       <c r="A658" s="2"/>
       <c r="D658" s="2"/>
       <c r="E658" s="2"/>
@@ -8498,7 +8516,7 @@
       <c r="I658" s="2"/>
       <c r="J658" s="48"/>
     </row>
-    <row r="659" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:10" ht="12">
       <c r="A659" s="2"/>
       <c r="D659" s="2"/>
       <c r="E659" s="2"/>
@@ -8508,7 +8526,7 @@
       <c r="I659" s="2"/>
       <c r="J659" s="48"/>
     </row>
-    <row r="660" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:10" ht="12">
       <c r="A660" s="2"/>
       <c r="D660" s="2"/>
       <c r="E660" s="2"/>
@@ -8518,7 +8536,7 @@
       <c r="I660" s="2"/>
       <c r="J660" s="48"/>
     </row>
-    <row r="661" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:10" ht="12">
       <c r="A661" s="2"/>
       <c r="D661" s="2"/>
       <c r="E661" s="2"/>
@@ -8528,7 +8546,7 @@
       <c r="I661" s="2"/>
       <c r="J661" s="48"/>
     </row>
-    <row r="662" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:10" ht="12">
       <c r="A662" s="2"/>
       <c r="D662" s="2"/>
       <c r="E662" s="2"/>
@@ -8538,7 +8556,7 @@
       <c r="I662" s="2"/>
       <c r="J662" s="48"/>
     </row>
-    <row r="663" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:10" ht="12">
       <c r="A663" s="2"/>
       <c r="D663" s="2"/>
       <c r="E663" s="2"/>
@@ -8548,7 +8566,7 @@
       <c r="I663" s="2"/>
       <c r="J663" s="48"/>
     </row>
-    <row r="664" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:10" ht="12">
       <c r="A664" s="2"/>
       <c r="D664" s="2"/>
       <c r="E664" s="2"/>
@@ -8558,7 +8576,7 @@
       <c r="I664" s="2"/>
       <c r="J664" s="48"/>
     </row>
-    <row r="665" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:10" ht="12">
       <c r="A665" s="2"/>
       <c r="D665" s="2"/>
       <c r="E665" s="2"/>
@@ -8568,7 +8586,7 @@
       <c r="I665" s="2"/>
       <c r="J665" s="48"/>
     </row>
-    <row r="666" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:10" ht="12">
       <c r="A666" s="2"/>
       <c r="D666" s="2"/>
       <c r="E666" s="2"/>
@@ -8578,7 +8596,7 @@
       <c r="I666" s="2"/>
       <c r="J666" s="48"/>
     </row>
-    <row r="667" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:10" ht="12">
       <c r="A667" s="2"/>
       <c r="D667" s="2"/>
       <c r="E667" s="2"/>
@@ -8588,7 +8606,7 @@
       <c r="I667" s="2"/>
       <c r="J667" s="48"/>
     </row>
-    <row r="668" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:10" ht="12">
       <c r="A668" s="2"/>
       <c r="D668" s="2"/>
       <c r="E668" s="2"/>
@@ -8598,7 +8616,7 @@
       <c r="I668" s="2"/>
       <c r="J668" s="48"/>
     </row>
-    <row r="669" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:10" ht="12">
       <c r="A669" s="2"/>
       <c r="D669" s="2"/>
       <c r="E669" s="2"/>
@@ -8608,7 +8626,7 @@
       <c r="I669" s="2"/>
       <c r="J669" s="48"/>
     </row>
-    <row r="670" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:10" ht="12">
       <c r="A670" s="2"/>
       <c r="D670" s="2"/>
       <c r="E670" s="2"/>
@@ -8618,7 +8636,7 @@
       <c r="I670" s="2"/>
       <c r="J670" s="48"/>
     </row>
-    <row r="671" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:10" ht="12">
       <c r="A671" s="2"/>
       <c r="D671" s="2"/>
       <c r="E671" s="2"/>
@@ -8628,7 +8646,7 @@
       <c r="I671" s="2"/>
       <c r="J671" s="48"/>
     </row>
-    <row r="672" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:10" ht="12">
       <c r="A672" s="2"/>
       <c r="D672" s="2"/>
       <c r="E672" s="2"/>
@@ -8638,7 +8656,7 @@
       <c r="I672" s="2"/>
       <c r="J672" s="48"/>
     </row>
-    <row r="673" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:10" ht="12">
       <c r="A673" s="2"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
@@ -8648,7 +8666,7 @@
       <c r="I673" s="2"/>
       <c r="J673" s="48"/>
     </row>
-    <row r="674" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:10" ht="12">
       <c r="A674" s="2"/>
       <c r="D674" s="2"/>
       <c r="E674" s="2"/>
@@ -8658,7 +8676,7 @@
       <c r="I674" s="2"/>
       <c r="J674" s="48"/>
     </row>
-    <row r="675" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:10" ht="12">
       <c r="A675" s="2"/>
       <c r="D675" s="2"/>
       <c r="E675" s="2"/>
@@ -8668,7 +8686,7 @@
       <c r="I675" s="2"/>
       <c r="J675" s="48"/>
     </row>
-    <row r="676" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:10" ht="12">
       <c r="A676" s="2"/>
       <c r="D676" s="2"/>
       <c r="E676" s="2"/>
@@ -8678,7 +8696,7 @@
       <c r="I676" s="2"/>
       <c r="J676" s="48"/>
     </row>
-    <row r="677" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:10" ht="12">
       <c r="A677" s="2"/>
       <c r="D677" s="2"/>
       <c r="E677" s="2"/>
@@ -8688,7 +8706,7 @@
       <c r="I677" s="2"/>
       <c r="J677" s="48"/>
     </row>
-    <row r="678" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:10" ht="12">
       <c r="A678" s="2"/>
       <c r="D678" s="2"/>
       <c r="E678" s="2"/>
@@ -8698,7 +8716,7 @@
       <c r="I678" s="2"/>
       <c r="J678" s="48"/>
     </row>
-    <row r="679" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:10" ht="12">
       <c r="A679" s="2"/>
       <c r="D679" s="2"/>
       <c r="E679" s="2"/>
@@ -8708,7 +8726,7 @@
       <c r="I679" s="2"/>
       <c r="J679" s="48"/>
     </row>
-    <row r="680" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:10" ht="12">
       <c r="A680" s="2"/>
       <c r="D680" s="2"/>
       <c r="E680" s="2"/>
@@ -8718,7 +8736,7 @@
       <c r="I680" s="2"/>
       <c r="J680" s="48"/>
     </row>
-    <row r="681" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:10" ht="12">
       <c r="A681" s="2"/>
       <c r="D681" s="2"/>
       <c r="E681" s="2"/>
@@ -8728,7 +8746,7 @@
       <c r="I681" s="2"/>
       <c r="J681" s="48"/>
     </row>
-    <row r="682" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:10" ht="12">
       <c r="A682" s="2"/>
       <c r="D682" s="2"/>
       <c r="E682" s="2"/>
@@ -8738,7 +8756,7 @@
       <c r="I682" s="2"/>
       <c r="J682" s="48"/>
     </row>
-    <row r="683" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:10" ht="12">
       <c r="A683" s="2"/>
       <c r="D683" s="2"/>
       <c r="E683" s="2"/>
@@ -8748,7 +8766,7 @@
       <c r="I683" s="2"/>
       <c r="J683" s="48"/>
     </row>
-    <row r="684" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:10" ht="12">
       <c r="A684" s="2"/>
       <c r="D684" s="2"/>
       <c r="E684" s="2"/>
@@ -8758,7 +8776,7 @@
       <c r="I684" s="2"/>
       <c r="J684" s="48"/>
     </row>
-    <row r="685" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:10" ht="12">
       <c r="A685" s="2"/>
       <c r="D685" s="2"/>
       <c r="E685" s="2"/>
@@ -8768,7 +8786,7 @@
       <c r="I685" s="2"/>
       <c r="J685" s="48"/>
     </row>
-    <row r="686" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:10" ht="12">
       <c r="A686" s="2"/>
       <c r="D686" s="2"/>
       <c r="E686" s="2"/>
@@ -8778,7 +8796,7 @@
       <c r="I686" s="2"/>
       <c r="J686" s="48"/>
     </row>
-    <row r="687" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:10" ht="12">
       <c r="A687" s="2"/>
       <c r="D687" s="2"/>
       <c r="E687" s="2"/>
@@ -8788,7 +8806,7 @@
       <c r="I687" s="2"/>
       <c r="J687" s="48"/>
     </row>
-    <row r="688" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:10" ht="12">
       <c r="A688" s="2"/>
       <c r="D688" s="2"/>
       <c r="E688" s="2"/>
@@ -8798,7 +8816,7 @@
       <c r="I688" s="2"/>
       <c r="J688" s="48"/>
     </row>
-    <row r="689" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:10" ht="12">
       <c r="A689" s="2"/>
       <c r="D689" s="2"/>
       <c r="E689" s="2"/>
@@ -8808,7 +8826,7 @@
       <c r="I689" s="2"/>
       <c r="J689" s="48"/>
     </row>
-    <row r="690" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:10" ht="12">
       <c r="A690" s="2"/>
       <c r="D690" s="2"/>
       <c r="E690" s="2"/>
@@ -8818,7 +8836,7 @@
       <c r="I690" s="2"/>
       <c r="J690" s="48"/>
     </row>
-    <row r="691" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:10" ht="12">
       <c r="A691" s="2"/>
       <c r="D691" s="2"/>
       <c r="E691" s="2"/>
@@ -8828,7 +8846,7 @@
       <c r="I691" s="2"/>
       <c r="J691" s="48"/>
     </row>
-    <row r="692" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:10" ht="12">
       <c r="A692" s="2"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
@@ -8838,7 +8856,7 @@
       <c r="I692" s="2"/>
       <c r="J692" s="48"/>
     </row>
-    <row r="693" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:10" ht="12">
       <c r="A693" s="2"/>
       <c r="D693" s="2"/>
       <c r="E693" s="2"/>
@@ -8848,7 +8866,7 @@
       <c r="I693" s="2"/>
       <c r="J693" s="48"/>
     </row>
-    <row r="694" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:10" ht="12">
       <c r="A694" s="2"/>
       <c r="D694" s="2"/>
       <c r="E694" s="2"/>
@@ -8858,7 +8876,7 @@
       <c r="I694" s="2"/>
       <c r="J694" s="48"/>
     </row>
-    <row r="695" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:10" ht="12">
       <c r="A695" s="2"/>
       <c r="D695" s="2"/>
       <c r="E695" s="2"/>
@@ -8868,7 +8886,7 @@
       <c r="I695" s="2"/>
       <c r="J695" s="48"/>
     </row>
-    <row r="696" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:10" ht="12">
       <c r="A696" s="2"/>
       <c r="D696" s="2"/>
       <c r="E696" s="2"/>
@@ -8878,7 +8896,7 @@
       <c r="I696" s="2"/>
       <c r="J696" s="48"/>
     </row>
-    <row r="697" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:10" ht="12">
       <c r="A697" s="2"/>
       <c r="D697" s="2"/>
       <c r="E697" s="2"/>
@@ -8888,7 +8906,7 @@
       <c r="I697" s="2"/>
       <c r="J697" s="48"/>
     </row>
-    <row r="698" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:10" ht="12">
       <c r="A698" s="2"/>
       <c r="D698" s="2"/>
       <c r="E698" s="2"/>
@@ -8898,7 +8916,7 @@
       <c r="I698" s="2"/>
       <c r="J698" s="48"/>
     </row>
-    <row r="699" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:10" ht="12">
       <c r="A699" s="2"/>
       <c r="D699" s="2"/>
       <c r="E699" s="2"/>
@@ -8908,7 +8926,7 @@
       <c r="I699" s="2"/>
       <c r="J699" s="48"/>
     </row>
-    <row r="700" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:10" ht="12">
       <c r="A700" s="2"/>
       <c r="D700" s="2"/>
       <c r="E700" s="2"/>
@@ -8918,7 +8936,7 @@
       <c r="I700" s="2"/>
       <c r="J700" s="48"/>
     </row>
-    <row r="701" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:10" ht="12">
       <c r="A701" s="2"/>
       <c r="D701" s="2"/>
       <c r="E701" s="2"/>
@@ -8928,7 +8946,7 @@
       <c r="I701" s="2"/>
       <c r="J701" s="48"/>
     </row>
-    <row r="702" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:10" ht="12">
       <c r="A702" s="2"/>
       <c r="D702" s="2"/>
       <c r="E702" s="2"/>
@@ -8938,7 +8956,7 @@
       <c r="I702" s="2"/>
       <c r="J702" s="48"/>
     </row>
-    <row r="703" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:10" ht="12">
       <c r="A703" s="2"/>
       <c r="D703" s="2"/>
       <c r="E703" s="2"/>
@@ -8948,7 +8966,7 @@
       <c r="I703" s="2"/>
       <c r="J703" s="48"/>
     </row>
-    <row r="704" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:10" ht="12">
       <c r="A704" s="2"/>
       <c r="D704" s="2"/>
       <c r="E704" s="2"/>
@@ -8958,7 +8976,7 @@
       <c r="I704" s="2"/>
       <c r="J704" s="48"/>
     </row>
-    <row r="705" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:10" ht="12">
       <c r="A705" s="2"/>
       <c r="D705" s="2"/>
       <c r="E705" s="2"/>
@@ -8968,7 +8986,7 @@
       <c r="I705" s="2"/>
       <c r="J705" s="48"/>
     </row>
-    <row r="706" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:10" ht="12">
       <c r="A706" s="2"/>
       <c r="D706" s="2"/>
       <c r="E706" s="2"/>
@@ -8978,7 +8996,7 @@
       <c r="I706" s="2"/>
       <c r="J706" s="48"/>
     </row>
-    <row r="707" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:10" ht="12">
       <c r="A707" s="2"/>
       <c r="D707" s="2"/>
       <c r="E707" s="2"/>
@@ -8988,7 +9006,7 @@
       <c r="I707" s="2"/>
       <c r="J707" s="48"/>
     </row>
-    <row r="708" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:10" ht="12">
       <c r="A708" s="2"/>
       <c r="D708" s="2"/>
       <c r="E708" s="2"/>
@@ -8998,7 +9016,7 @@
       <c r="I708" s="2"/>
       <c r="J708" s="48"/>
     </row>
-    <row r="709" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:10" ht="12">
       <c r="A709" s="2"/>
       <c r="D709" s="2"/>
       <c r="E709" s="2"/>
@@ -9008,7 +9026,7 @@
       <c r="I709" s="2"/>
       <c r="J709" s="48"/>
     </row>
-    <row r="710" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:10" ht="12">
       <c r="A710" s="2"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
@@ -9018,7 +9036,7 @@
       <c r="I710" s="2"/>
       <c r="J710" s="48"/>
     </row>
-    <row r="711" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:10" ht="12">
       <c r="A711" s="2"/>
       <c r="D711" s="2"/>
       <c r="E711" s="2"/>
@@ -9028,7 +9046,7 @@
       <c r="I711" s="2"/>
       <c r="J711" s="48"/>
     </row>
-    <row r="712" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:10" ht="12">
       <c r="A712" s="2"/>
       <c r="D712" s="2"/>
       <c r="E712" s="2"/>
@@ -9038,7 +9056,7 @@
       <c r="I712" s="2"/>
       <c r="J712" s="48"/>
     </row>
-    <row r="713" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:10" ht="12">
       <c r="A713" s="2"/>
       <c r="D713" s="2"/>
       <c r="E713" s="2"/>
@@ -9048,7 +9066,7 @@
       <c r="I713" s="2"/>
       <c r="J713" s="48"/>
     </row>
-    <row r="714" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:10" ht="12">
       <c r="A714" s="2"/>
       <c r="D714" s="2"/>
       <c r="E714" s="2"/>
@@ -9058,7 +9076,7 @@
       <c r="I714" s="2"/>
       <c r="J714" s="48"/>
     </row>
-    <row r="715" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:10" ht="12">
       <c r="A715" s="2"/>
       <c r="D715" s="2"/>
       <c r="E715" s="2"/>
@@ -9068,7 +9086,7 @@
       <c r="I715" s="2"/>
       <c r="J715" s="48"/>
     </row>
-    <row r="716" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:10" ht="12">
       <c r="A716" s="2"/>
       <c r="D716" s="2"/>
       <c r="E716" s="2"/>
@@ -9078,7 +9096,7 @@
       <c r="I716" s="2"/>
       <c r="J716" s="48"/>
     </row>
-    <row r="717" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:10" ht="12">
       <c r="A717" s="2"/>
       <c r="D717" s="2"/>
       <c r="E717" s="2"/>
@@ -9088,7 +9106,7 @@
       <c r="I717" s="2"/>
       <c r="J717" s="48"/>
     </row>
-    <row r="718" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:10" ht="12">
       <c r="A718" s="2"/>
       <c r="D718" s="2"/>
       <c r="E718" s="2"/>
@@ -9098,7 +9116,7 @@
       <c r="I718" s="2"/>
       <c r="J718" s="48"/>
     </row>
-    <row r="719" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:10" ht="12">
       <c r="A719" s="2"/>
       <c r="D719" s="2"/>
       <c r="E719" s="2"/>
@@ -9108,7 +9126,7 @@
       <c r="I719" s="2"/>
       <c r="J719" s="48"/>
     </row>
-    <row r="720" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:10" ht="12">
       <c r="A720" s="2"/>
       <c r="D720" s="2"/>
       <c r="E720" s="2"/>
@@ -9118,7 +9136,7 @@
       <c r="I720" s="2"/>
       <c r="J720" s="48"/>
     </row>
-    <row r="721" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:10" ht="12">
       <c r="A721" s="2"/>
       <c r="D721" s="2"/>
       <c r="E721" s="2"/>
@@ -9128,7 +9146,7 @@
       <c r="I721" s="2"/>
       <c r="J721" s="48"/>
     </row>
-    <row r="722" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:10" ht="12">
       <c r="A722" s="2"/>
       <c r="D722" s="2"/>
       <c r="E722" s="2"/>
@@ -9138,7 +9156,7 @@
       <c r="I722" s="2"/>
       <c r="J722" s="48"/>
     </row>
-    <row r="723" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:10" ht="12">
       <c r="A723" s="2"/>
       <c r="D723" s="2"/>
       <c r="E723" s="2"/>
@@ -9148,7 +9166,7 @@
       <c r="I723" s="2"/>
       <c r="J723" s="48"/>
     </row>
-    <row r="724" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:10" ht="12">
       <c r="A724" s="2"/>
       <c r="D724" s="2"/>
       <c r="E724" s="2"/>
@@ -9158,7 +9176,7 @@
       <c r="I724" s="2"/>
       <c r="J724" s="48"/>
     </row>
-    <row r="725" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:10" ht="12">
       <c r="A725" s="2"/>
       <c r="D725" s="2"/>
       <c r="E725" s="2"/>
@@ -9168,7 +9186,7 @@
       <c r="I725" s="2"/>
       <c r="J725" s="48"/>
     </row>
-    <row r="726" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:10" ht="12">
       <c r="A726" s="2"/>
       <c r="D726" s="2"/>
       <c r="E726" s="2"/>
@@ -9178,7 +9196,7 @@
       <c r="I726" s="2"/>
       <c r="J726" s="48"/>
     </row>
-    <row r="727" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:10" ht="12">
       <c r="A727" s="2"/>
       <c r="D727" s="2"/>
       <c r="E727" s="2"/>
@@ -9188,7 +9206,7 @@
       <c r="I727" s="2"/>
       <c r="J727" s="48"/>
     </row>
-    <row r="728" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:10" ht="12">
       <c r="A728" s="2"/>
       <c r="D728" s="2"/>
       <c r="E728" s="2"/>
@@ -9198,7 +9216,7 @@
       <c r="I728" s="2"/>
       <c r="J728" s="48"/>
     </row>
-    <row r="729" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:10" ht="12">
       <c r="A729" s="2"/>
       <c r="D729" s="2"/>
       <c r="E729" s="2"/>
@@ -9208,7 +9226,7 @@
       <c r="I729" s="2"/>
       <c r="J729" s="48"/>
     </row>
-    <row r="730" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:10" ht="12">
       <c r="A730" s="2"/>
       <c r="D730" s="2"/>
       <c r="E730" s="2"/>
@@ -9218,7 +9236,7 @@
       <c r="I730" s="2"/>
       <c r="J730" s="48"/>
     </row>
-    <row r="731" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:10" ht="12">
       <c r="A731" s="2"/>
       <c r="D731" s="2"/>
       <c r="E731" s="2"/>
@@ -9228,7 +9246,7 @@
       <c r="I731" s="2"/>
       <c r="J731" s="48"/>
     </row>
-    <row r="732" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:10" ht="12">
       <c r="A732" s="2"/>
       <c r="D732" s="2"/>
       <c r="E732" s="2"/>
@@ -9238,7 +9256,7 @@
       <c r="I732" s="2"/>
       <c r="J732" s="48"/>
     </row>
-    <row r="733" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:10" ht="12">
       <c r="A733" s="2"/>
       <c r="D733" s="2"/>
       <c r="E733" s="2"/>
@@ -9248,7 +9266,7 @@
       <c r="I733" s="2"/>
       <c r="J733" s="48"/>
     </row>
-    <row r="734" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:10" ht="12">
       <c r="A734" s="2"/>
       <c r="D734" s="2"/>
       <c r="E734" s="2"/>
@@ -9258,7 +9276,7 @@
       <c r="I734" s="2"/>
       <c r="J734" s="48"/>
     </row>
-    <row r="735" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:10" ht="12">
       <c r="A735" s="2"/>
       <c r="D735" s="2"/>
       <c r="E735" s="2"/>
@@ -9268,7 +9286,7 @@
       <c r="I735" s="2"/>
       <c r="J735" s="48"/>
     </row>
-    <row r="736" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:10" ht="12">
       <c r="A736" s="2"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
@@ -9278,7 +9296,7 @@
       <c r="I736" s="2"/>
       <c r="J736" s="48"/>
     </row>
-    <row r="737" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:10" ht="12">
       <c r="A737" s="2"/>
       <c r="D737" s="2"/>
       <c r="E737" s="2"/>
@@ -9288,7 +9306,7 @@
       <c r="I737" s="2"/>
       <c r="J737" s="48"/>
     </row>
-    <row r="738" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:10" ht="12">
       <c r="A738" s="2"/>
       <c r="D738" s="2"/>
       <c r="E738" s="2"/>
@@ -9298,7 +9316,7 @@
       <c r="I738" s="2"/>
       <c r="J738" s="48"/>
     </row>
-    <row r="739" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:10" ht="12">
       <c r="A739" s="2"/>
       <c r="D739" s="2"/>
       <c r="E739" s="2"/>
@@ -9308,7 +9326,7 @@
       <c r="I739" s="2"/>
       <c r="J739" s="48"/>
     </row>
-    <row r="740" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:10" ht="12">
       <c r="A740" s="2"/>
       <c r="D740" s="2"/>
       <c r="E740" s="2"/>
@@ -9318,7 +9336,7 @@
       <c r="I740" s="2"/>
       <c r="J740" s="48"/>
     </row>
-    <row r="741" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:10" ht="12">
       <c r="A741" s="2"/>
       <c r="D741" s="2"/>
       <c r="E741" s="2"/>
@@ -9328,7 +9346,7 @@
       <c r="I741" s="2"/>
       <c r="J741" s="48"/>
     </row>
-    <row r="742" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:10" ht="12">
       <c r="A742" s="2"/>
       <c r="D742" s="2"/>
       <c r="E742" s="2"/>
@@ -9338,7 +9356,7 @@
       <c r="I742" s="2"/>
       <c r="J742" s="48"/>
     </row>
-    <row r="743" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:10" ht="12">
       <c r="A743" s="2"/>
       <c r="D743" s="2"/>
       <c r="E743" s="2"/>
@@ -9348,7 +9366,7 @@
       <c r="I743" s="2"/>
       <c r="J743" s="48"/>
     </row>
-    <row r="744" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:10" ht="12">
       <c r="A744" s="2"/>
       <c r="D744" s="2"/>
       <c r="E744" s="2"/>
@@ -9358,7 +9376,7 @@
       <c r="I744" s="2"/>
       <c r="J744" s="48"/>
     </row>
-    <row r="745" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:10" ht="12">
       <c r="A745" s="2"/>
       <c r="D745" s="2"/>
       <c r="E745" s="2"/>
@@ -9368,7 +9386,7 @@
       <c r="I745" s="2"/>
       <c r="J745" s="48"/>
     </row>
-    <row r="746" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:10" ht="12">
       <c r="A746" s="2"/>
       <c r="D746" s="2"/>
       <c r="E746" s="2"/>
@@ -9378,7 +9396,7 @@
       <c r="I746" s="2"/>
       <c r="J746" s="48"/>
     </row>
-    <row r="747" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:10" ht="12">
       <c r="A747" s="2"/>
       <c r="D747" s="2"/>
       <c r="E747" s="2"/>
@@ -9388,7 +9406,7 @@
       <c r="I747" s="2"/>
       <c r="J747" s="48"/>
     </row>
-    <row r="748" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:10" ht="12">
       <c r="A748" s="2"/>
       <c r="D748" s="2"/>
       <c r="E748" s="2"/>
@@ -9398,7 +9416,7 @@
       <c r="I748" s="2"/>
       <c r="J748" s="48"/>
     </row>
-    <row r="749" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:10" ht="12">
       <c r="A749" s="2"/>
       <c r="D749" s="2"/>
       <c r="E749" s="2"/>
@@ -9408,7 +9426,7 @@
       <c r="I749" s="2"/>
       <c r="J749" s="48"/>
     </row>
-    <row r="750" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:10" ht="12">
       <c r="A750" s="2"/>
       <c r="D750" s="2"/>
       <c r="E750" s="2"/>
@@ -9418,7 +9436,7 @@
       <c r="I750" s="2"/>
       <c r="J750" s="48"/>
     </row>
-    <row r="751" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:10" ht="12">
       <c r="A751" s="2"/>
       <c r="D751" s="2"/>
       <c r="E751" s="2"/>
@@ -9428,7 +9446,7 @@
       <c r="I751" s="2"/>
       <c r="J751" s="48"/>
     </row>
-    <row r="752" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:10" ht="12">
       <c r="A752" s="2"/>
       <c r="D752" s="2"/>
       <c r="E752" s="2"/>
@@ -9438,7 +9456,7 @@
       <c r="I752" s="2"/>
       <c r="J752" s="48"/>
     </row>
-    <row r="753" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:10" ht="12">
       <c r="A753" s="2"/>
       <c r="D753" s="2"/>
       <c r="E753" s="2"/>
@@ -9448,7 +9466,7 @@
       <c r="I753" s="2"/>
       <c r="J753" s="48"/>
     </row>
-    <row r="754" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:10" ht="12">
       <c r="A754" s="2"/>
       <c r="D754" s="2"/>
       <c r="E754" s="2"/>
@@ -9458,7 +9476,7 @@
       <c r="I754" s="2"/>
       <c r="J754" s="48"/>
     </row>
-    <row r="755" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:10" ht="12">
       <c r="A755" s="2"/>
       <c r="D755" s="2"/>
       <c r="E755" s="2"/>
@@ -9468,7 +9486,7 @@
       <c r="I755" s="2"/>
       <c r="J755" s="48"/>
     </row>
-    <row r="756" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:10" ht="12">
       <c r="A756" s="2"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
@@ -9478,7 +9496,7 @@
       <c r="I756" s="2"/>
       <c r="J756" s="48"/>
     </row>
-    <row r="757" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:10" ht="12">
       <c r="A757" s="2"/>
       <c r="D757" s="2"/>
       <c r="E757" s="2"/>
@@ -9488,7 +9506,7 @@
       <c r="I757" s="2"/>
       <c r="J757" s="48"/>
     </row>
-    <row r="758" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:10" ht="12">
       <c r="A758" s="2"/>
       <c r="D758" s="2"/>
       <c r="E758" s="2"/>
@@ -9498,7 +9516,7 @@
       <c r="I758" s="2"/>
       <c r="J758" s="48"/>
     </row>
-    <row r="759" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:10" ht="12">
       <c r="A759" s="2"/>
       <c r="D759" s="2"/>
       <c r="E759" s="2"/>
@@ -9508,7 +9526,7 @@
       <c r="I759" s="2"/>
       <c r="J759" s="48"/>
     </row>
-    <row r="760" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:10" ht="12">
       <c r="A760" s="2"/>
       <c r="D760" s="2"/>
       <c r="E760" s="2"/>
@@ -9518,7 +9536,7 @@
       <c r="I760" s="2"/>
       <c r="J760" s="48"/>
     </row>
-    <row r="761" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:10" ht="12">
       <c r="A761" s="2"/>
       <c r="D761" s="2"/>
       <c r="E761" s="2"/>
@@ -9528,7 +9546,7 @@
       <c r="I761" s="2"/>
       <c r="J761" s="48"/>
     </row>
-    <row r="762" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:10" ht="12">
       <c r="A762" s="2"/>
       <c r="D762" s="2"/>
       <c r="E762" s="2"/>
@@ -9538,7 +9556,7 @@
       <c r="I762" s="2"/>
       <c r="J762" s="48"/>
     </row>
-    <row r="763" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:10" ht="12">
       <c r="A763" s="2"/>
       <c r="D763" s="2"/>
       <c r="E763" s="2"/>
@@ -9548,7 +9566,7 @@
       <c r="I763" s="2"/>
       <c r="J763" s="48"/>
     </row>
-    <row r="764" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:10" ht="12">
       <c r="A764" s="2"/>
       <c r="D764" s="2"/>
       <c r="E764" s="2"/>
@@ -9558,7 +9576,7 @@
       <c r="I764" s="2"/>
       <c r="J764" s="48"/>
     </row>
-    <row r="765" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:10" ht="12">
       <c r="A765" s="2"/>
       <c r="D765" s="2"/>
       <c r="E765" s="2"/>
@@ -9568,7 +9586,7 @@
       <c r="I765" s="2"/>
       <c r="J765" s="48"/>
     </row>
-    <row r="766" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:10" ht="12">
       <c r="A766" s="2"/>
       <c r="D766" s="2"/>
       <c r="E766" s="2"/>
@@ -9578,7 +9596,7 @@
       <c r="I766" s="2"/>
       <c r="J766" s="48"/>
     </row>
-    <row r="767" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:10" ht="12">
       <c r="A767" s="2"/>
       <c r="D767" s="2"/>
       <c r="E767" s="2"/>
@@ -9588,7 +9606,7 @@
       <c r="I767" s="2"/>
       <c r="J767" s="48"/>
     </row>
-    <row r="768" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:10" ht="12">
       <c r="A768" s="2"/>
       <c r="D768" s="2"/>
       <c r="E768" s="2"/>
@@ -9598,7 +9616,7 @@
       <c r="I768" s="2"/>
       <c r="J768" s="48"/>
     </row>
-    <row r="769" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:10" ht="12">
       <c r="A769" s="2"/>
       <c r="D769" s="2"/>
       <c r="E769" s="2"/>
@@ -9608,7 +9626,7 @@
       <c r="I769" s="2"/>
       <c r="J769" s="48"/>
     </row>
-    <row r="770" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:10" ht="12">
       <c r="A770" s="2"/>
       <c r="D770" s="2"/>
       <c r="E770" s="2"/>
@@ -9618,7 +9636,7 @@
       <c r="I770" s="2"/>
       <c r="J770" s="48"/>
     </row>
-    <row r="771" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:10" ht="12">
       <c r="A771" s="2"/>
       <c r="D771" s="2"/>
       <c r="E771" s="2"/>
@@ -9628,7 +9646,7 @@
       <c r="I771" s="2"/>
       <c r="J771" s="48"/>
     </row>
-    <row r="772" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:10" ht="12">
       <c r="A772" s="2"/>
       <c r="D772" s="2"/>
       <c r="E772" s="2"/>
@@ -9638,7 +9656,7 @@
       <c r="I772" s="2"/>
       <c r="J772" s="48"/>
     </row>
-    <row r="773" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:10" ht="12">
       <c r="A773" s="2"/>
       <c r="D773" s="2"/>
       <c r="E773" s="2"/>
@@ -9648,7 +9666,7 @@
       <c r="I773" s="2"/>
       <c r="J773" s="48"/>
     </row>
-    <row r="774" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:10" ht="12">
       <c r="A774" s="2"/>
       <c r="D774" s="2"/>
       <c r="E774" s="2"/>
@@ -9658,7 +9676,7 @@
       <c r="I774" s="2"/>
       <c r="J774" s="48"/>
     </row>
-    <row r="775" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:10" ht="12">
       <c r="A775" s="2"/>
       <c r="D775" s="2"/>
       <c r="E775" s="2"/>
@@ -9668,7 +9686,7 @@
       <c r="I775" s="2"/>
       <c r="J775" s="48"/>
     </row>
-    <row r="776" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:10" ht="12">
       <c r="A776" s="2"/>
       <c r="D776" s="2"/>
       <c r="E776" s="2"/>
@@ -9678,7 +9696,7 @@
       <c r="I776" s="2"/>
       <c r="J776" s="48"/>
     </row>
-    <row r="777" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:10" ht="12">
       <c r="A777" s="2"/>
       <c r="D777" s="2"/>
       <c r="E777" s="2"/>
@@ -9688,7 +9706,7 @@
       <c r="I777" s="2"/>
       <c r="J777" s="48"/>
     </row>
-    <row r="778" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:10" ht="12">
       <c r="A778" s="2"/>
       <c r="D778" s="2"/>
       <c r="E778" s="2"/>
@@ -9698,7 +9716,7 @@
       <c r="I778" s="2"/>
       <c r="J778" s="48"/>
     </row>
-    <row r="779" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:10" ht="12">
       <c r="A779" s="2"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
@@ -9708,7 +9726,7 @@
       <c r="I779" s="2"/>
       <c r="J779" s="48"/>
     </row>
-    <row r="780" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:10" ht="12">
       <c r="A780" s="2"/>
       <c r="D780" s="2"/>
       <c r="E780" s="2"/>
@@ -9718,7 +9736,7 @@
       <c r="I780" s="2"/>
       <c r="J780" s="48"/>
     </row>
-    <row r="781" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:10" ht="12">
       <c r="A781" s="2"/>
       <c r="D781" s="2"/>
       <c r="E781" s="2"/>
@@ -9728,7 +9746,7 @@
       <c r="I781" s="2"/>
       <c r="J781" s="48"/>
     </row>
-    <row r="782" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:10" ht="12">
       <c r="A782" s="2"/>
       <c r="D782" s="2"/>
       <c r="E782" s="2"/>
@@ -9738,7 +9756,7 @@
       <c r="I782" s="2"/>
       <c r="J782" s="48"/>
     </row>
-    <row r="783" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:10" ht="12">
       <c r="A783" s="2"/>
       <c r="D783" s="2"/>
       <c r="E783" s="2"/>
@@ -9748,7 +9766,7 @@
       <c r="I783" s="2"/>
       <c r="J783" s="48"/>
     </row>
-    <row r="784" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:10" ht="12">
       <c r="A784" s="2"/>
       <c r="D784" s="2"/>
       <c r="E784" s="2"/>
@@ -9758,7 +9776,7 @@
       <c r="I784" s="2"/>
       <c r="J784" s="48"/>
     </row>
-    <row r="785" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:10" ht="12">
       <c r="A785" s="2"/>
       <c r="D785" s="2"/>
       <c r="E785" s="2"/>
@@ -9768,7 +9786,7 @@
       <c r="I785" s="2"/>
       <c r="J785" s="48"/>
     </row>
-    <row r="786" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:10" ht="12">
       <c r="A786" s="2"/>
       <c r="D786" s="2"/>
       <c r="E786" s="2"/>
@@ -9778,7 +9796,7 @@
       <c r="I786" s="2"/>
       <c r="J786" s="48"/>
     </row>
-    <row r="787" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:10" ht="12">
       <c r="A787" s="2"/>
       <c r="D787" s="2"/>
       <c r="E787" s="2"/>
@@ -9788,7 +9806,7 @@
       <c r="I787" s="2"/>
       <c r="J787" s="48"/>
     </row>
-    <row r="788" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:10" ht="12">
       <c r="A788" s="2"/>
       <c r="D788" s="2"/>
       <c r="E788" s="2"/>
@@ -9798,7 +9816,7 @@
       <c r="I788" s="2"/>
       <c r="J788" s="48"/>
     </row>
-    <row r="789" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:10" ht="12">
       <c r="A789" s="2"/>
       <c r="D789" s="2"/>
       <c r="E789" s="2"/>
@@ -9808,7 +9826,7 @@
       <c r="I789" s="2"/>
       <c r="J789" s="48"/>
     </row>
-    <row r="790" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:10" ht="12">
       <c r="A790" s="2"/>
       <c r="D790" s="2"/>
       <c r="E790" s="2"/>
@@ -9818,7 +9836,7 @@
       <c r="I790" s="2"/>
       <c r="J790" s="48"/>
     </row>
-    <row r="791" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:10" ht="12">
       <c r="A791" s="2"/>
       <c r="D791" s="2"/>
       <c r="E791" s="2"/>
@@ -9828,7 +9846,7 @@
       <c r="I791" s="2"/>
       <c r="J791" s="48"/>
     </row>
-    <row r="792" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:10" ht="12">
       <c r="A792" s="2"/>
       <c r="D792" s="2"/>
       <c r="E792" s="2"/>
@@ -9838,7 +9856,7 @@
       <c r="I792" s="2"/>
       <c r="J792" s="48"/>
     </row>
-    <row r="793" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:10" ht="12">
       <c r="A793" s="2"/>
       <c r="D793" s="2"/>
       <c r="E793" s="2"/>
@@ -9848,7 +9866,7 @@
       <c r="I793" s="2"/>
       <c r="J793" s="48"/>
     </row>
-    <row r="794" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:10" ht="12">
       <c r="A794" s="2"/>
       <c r="D794" s="2"/>
       <c r="E794" s="2"/>
@@ -9858,7 +9876,7 @@
       <c r="I794" s="2"/>
       <c r="J794" s="48"/>
     </row>
-    <row r="795" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:10" ht="12">
       <c r="A795" s="2"/>
       <c r="D795" s="2"/>
       <c r="E795" s="2"/>
@@ -9868,7 +9886,7 @@
       <c r="I795" s="2"/>
       <c r="J795" s="48"/>
     </row>
-    <row r="796" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:10" ht="12">
       <c r="A796" s="2"/>
       <c r="D796" s="2"/>
       <c r="E796" s="2"/>
@@ -9878,7 +9896,7 @@
       <c r="I796" s="2"/>
       <c r="J796" s="48"/>
     </row>
-    <row r="797" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:10" ht="12">
       <c r="A797" s="2"/>
       <c r="D797" s="2"/>
       <c r="E797" s="2"/>
@@ -9888,7 +9906,7 @@
       <c r="I797" s="2"/>
       <c r="J797" s="48"/>
     </row>
-    <row r="798" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:10" ht="12">
       <c r="A798" s="2"/>
       <c r="D798" s="2"/>
       <c r="E798" s="2"/>
@@ -9898,7 +9916,7 @@
       <c r="I798" s="2"/>
       <c r="J798" s="48"/>
     </row>
-    <row r="799" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:10" ht="12">
       <c r="A799" s="2"/>
       <c r="D799" s="2"/>
       <c r="E799" s="2"/>
@@ -9908,7 +9926,7 @@
       <c r="I799" s="2"/>
       <c r="J799" s="48"/>
     </row>
-    <row r="800" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:10" ht="12">
       <c r="A800" s="2"/>
       <c r="D800" s="2"/>
       <c r="E800" s="2"/>
@@ -9918,7 +9936,7 @@
       <c r="I800" s="2"/>
       <c r="J800" s="48"/>
     </row>
-    <row r="801" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:10" ht="12">
       <c r="A801" s="2"/>
       <c r="D801" s="2"/>
       <c r="E801" s="2"/>
@@ -9928,7 +9946,7 @@
       <c r="I801" s="2"/>
       <c r="J801" s="48"/>
     </row>
-    <row r="802" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:10" ht="12">
       <c r="A802" s="2"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
@@ -9938,7 +9956,7 @@
       <c r="I802" s="2"/>
       <c r="J802" s="48"/>
     </row>
-    <row r="803" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:10" ht="12">
       <c r="A803" s="2"/>
       <c r="D803" s="2"/>
       <c r="E803" s="2"/>
@@ -9948,7 +9966,7 @@
       <c r="I803" s="2"/>
       <c r="J803" s="48"/>
     </row>
-    <row r="804" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:10" ht="12">
       <c r="A804" s="2"/>
       <c r="D804" s="2"/>
       <c r="E804" s="2"/>
@@ -9958,7 +9976,7 @@
       <c r="I804" s="2"/>
       <c r="J804" s="48"/>
     </row>
-    <row r="805" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:10" ht="12">
       <c r="A805" s="2"/>
       <c r="D805" s="2"/>
       <c r="E805" s="2"/>
@@ -9968,7 +9986,7 @@
       <c r="I805" s="2"/>
       <c r="J805" s="48"/>
     </row>
-    <row r="806" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:10" ht="12">
       <c r="A806" s="2"/>
       <c r="D806" s="2"/>
       <c r="E806" s="2"/>
@@ -9978,7 +9996,7 @@
       <c r="I806" s="2"/>
       <c r="J806" s="48"/>
     </row>
-    <row r="807" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:10" ht="12">
       <c r="A807" s="2"/>
       <c r="D807" s="2"/>
       <c r="E807" s="2"/>
@@ -9988,7 +10006,7 @@
       <c r="I807" s="2"/>
       <c r="J807" s="48"/>
     </row>
-    <row r="808" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:10" ht="12">
       <c r="A808" s="2"/>
       <c r="D808" s="2"/>
       <c r="E808" s="2"/>
@@ -9998,7 +10016,7 @@
       <c r="I808" s="2"/>
       <c r="J808" s="48"/>
     </row>
-    <row r="809" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:10" ht="12">
       <c r="A809" s="2"/>
       <c r="D809" s="2"/>
       <c r="E809" s="2"/>
@@ -10008,7 +10026,7 @@
       <c r="I809" s="2"/>
       <c r="J809" s="48"/>
     </row>
-    <row r="810" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:10" ht="12">
       <c r="A810" s="2"/>
       <c r="D810" s="2"/>
       <c r="E810" s="2"/>
@@ -10018,7 +10036,7 @@
       <c r="I810" s="2"/>
       <c r="J810" s="48"/>
     </row>
-    <row r="811" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:10" ht="12">
       <c r="A811" s="2"/>
       <c r="D811" s="2"/>
       <c r="E811" s="2"/>
@@ -10028,7 +10046,7 @@
       <c r="I811" s="2"/>
       <c r="J811" s="48"/>
     </row>
-    <row r="812" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:10" ht="12">
       <c r="A812" s="2"/>
       <c r="D812" s="2"/>
       <c r="E812" s="2"/>
@@ -10038,7 +10056,7 @@
       <c r="I812" s="2"/>
       <c r="J812" s="48"/>
     </row>
-    <row r="813" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:10" ht="12">
       <c r="A813" s="2"/>
       <c r="D813" s="2"/>
       <c r="E813" s="2"/>
@@ -10048,7 +10066,7 @@
       <c r="I813" s="2"/>
       <c r="J813" s="48"/>
     </row>
-    <row r="814" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:10" ht="12">
       <c r="A814" s="2"/>
       <c r="D814" s="2"/>
       <c r="E814" s="2"/>
@@ -10058,7 +10076,7 @@
       <c r="I814" s="2"/>
       <c r="J814" s="48"/>
     </row>
-    <row r="815" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:10" ht="12">
       <c r="A815" s="2"/>
       <c r="D815" s="2"/>
       <c r="E815" s="2"/>
@@ -10068,7 +10086,7 @@
       <c r="I815" s="2"/>
       <c r="J815" s="48"/>
     </row>
-    <row r="816" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:10" ht="12">
       <c r="A816" s="2"/>
       <c r="D816" s="2"/>
       <c r="E816" s="2"/>
@@ -10078,7 +10096,7 @@
       <c r="I816" s="2"/>
       <c r="J816" s="48"/>
     </row>
-    <row r="817" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:10" ht="12">
       <c r="A817" s="2"/>
       <c r="D817" s="2"/>
       <c r="E817" s="2"/>
@@ -10088,7 +10106,7 @@
       <c r="I817" s="2"/>
       <c r="J817" s="48"/>
     </row>
-    <row r="818" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:10" ht="12">
       <c r="A818" s="2"/>
       <c r="D818" s="2"/>
       <c r="E818" s="2"/>
@@ -10098,7 +10116,7 @@
       <c r="I818" s="2"/>
       <c r="J818" s="48"/>
     </row>
-    <row r="819" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:10" ht="12">
       <c r="A819" s="2"/>
       <c r="D819" s="2"/>
       <c r="E819" s="2"/>
@@ -10108,7 +10126,7 @@
       <c r="I819" s="2"/>
       <c r="J819" s="48"/>
     </row>
-    <row r="820" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:10" ht="12">
       <c r="A820" s="2"/>
       <c r="D820" s="2"/>
       <c r="E820" s="2"/>
@@ -10118,7 +10136,7 @@
       <c r="I820" s="2"/>
       <c r="J820" s="48"/>
     </row>
-    <row r="821" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:10" ht="12">
       <c r="A821" s="2"/>
       <c r="D821" s="2"/>
       <c r="E821" s="2"/>
@@ -10128,7 +10146,7 @@
       <c r="I821" s="2"/>
       <c r="J821" s="48"/>
     </row>
-    <row r="822" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:10" ht="12">
       <c r="A822" s="2"/>
       <c r="D822" s="2"/>
       <c r="E822" s="2"/>
@@ -10138,7 +10156,7 @@
       <c r="I822" s="2"/>
       <c r="J822" s="48"/>
     </row>
-    <row r="823" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:10" ht="12">
       <c r="A823" s="2"/>
       <c r="D823" s="2"/>
       <c r="E823" s="2"/>
@@ -10148,7 +10166,7 @@
       <c r="I823" s="2"/>
       <c r="J823" s="48"/>
     </row>
-    <row r="824" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:10" ht="12">
       <c r="A824" s="2"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
@@ -10158,7 +10176,7 @@
       <c r="I824" s="2"/>
       <c r="J824" s="48"/>
     </row>
-    <row r="825" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:10" ht="12">
       <c r="A825" s="2"/>
       <c r="D825" s="2"/>
       <c r="E825" s="2"/>
@@ -10168,7 +10186,7 @@
       <c r="I825" s="2"/>
       <c r="J825" s="48"/>
     </row>
-    <row r="826" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:10" ht="12">
       <c r="A826" s="2"/>
       <c r="D826" s="2"/>
       <c r="E826" s="2"/>
@@ -10178,7 +10196,7 @@
       <c r="I826" s="2"/>
       <c r="J826" s="48"/>
     </row>
-    <row r="827" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:10" ht="12">
       <c r="A827" s="2"/>
       <c r="D827" s="2"/>
       <c r="E827" s="2"/>
@@ -10188,7 +10206,7 @@
       <c r="I827" s="2"/>
       <c r="J827" s="48"/>
     </row>
-    <row r="828" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:10" ht="12">
       <c r="A828" s="2"/>
       <c r="D828" s="2"/>
       <c r="E828" s="2"/>
@@ -10198,7 +10216,7 @@
       <c r="I828" s="2"/>
       <c r="J828" s="48"/>
     </row>
-    <row r="829" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:10" ht="12">
       <c r="A829" s="2"/>
       <c r="D829" s="2"/>
       <c r="E829" s="2"/>
@@ -10208,7 +10226,7 @@
       <c r="I829" s="2"/>
       <c r="J829" s="48"/>
     </row>
-    <row r="830" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:10" ht="12">
       <c r="A830" s="2"/>
       <c r="D830" s="2"/>
       <c r="E830" s="2"/>
@@ -10218,7 +10236,7 @@
       <c r="I830" s="2"/>
       <c r="J830" s="48"/>
     </row>
-    <row r="831" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:10" ht="12">
       <c r="A831" s="2"/>
       <c r="D831" s="2"/>
       <c r="E831" s="2"/>
@@ -10228,7 +10246,7 @@
       <c r="I831" s="2"/>
       <c r="J831" s="48"/>
     </row>
-    <row r="832" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:10" ht="12">
       <c r="A832" s="2"/>
       <c r="D832" s="2"/>
       <c r="E832" s="2"/>
@@ -10238,7 +10256,7 @@
       <c r="I832" s="2"/>
       <c r="J832" s="48"/>
     </row>
-    <row r="833" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:10" ht="12">
       <c r="A833" s="2"/>
       <c r="D833" s="2"/>
       <c r="E833" s="2"/>
@@ -10248,7 +10266,7 @@
       <c r="I833" s="2"/>
       <c r="J833" s="48"/>
     </row>
-    <row r="834" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:10" ht="12">
       <c r="A834" s="2"/>
       <c r="D834" s="2"/>
       <c r="E834" s="2"/>
@@ -10258,7 +10276,7 @@
       <c r="I834" s="2"/>
       <c r="J834" s="48"/>
     </row>
-    <row r="835" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:10" ht="12">
       <c r="A835" s="2"/>
       <c r="D835" s="2"/>
       <c r="E835" s="2"/>
@@ -10268,7 +10286,7 @@
       <c r="I835" s="2"/>
       <c r="J835" s="48"/>
     </row>
-    <row r="836" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:10" ht="12">
       <c r="A836" s="2"/>
       <c r="D836" s="2"/>
       <c r="E836" s="2"/>
@@ -10278,7 +10296,7 @@
       <c r="I836" s="2"/>
       <c r="J836" s="48"/>
     </row>
-    <row r="837" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:10" ht="12">
       <c r="A837" s="2"/>
       <c r="D837" s="2"/>
       <c r="E837" s="2"/>
@@ -10288,7 +10306,7 @@
       <c r="I837" s="2"/>
       <c r="J837" s="48"/>
     </row>
-    <row r="838" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:10" ht="12">
       <c r="A838" s="2"/>
       <c r="D838" s="2"/>
       <c r="E838" s="2"/>
@@ -10298,7 +10316,7 @@
       <c r="I838" s="2"/>
       <c r="J838" s="48"/>
     </row>
-    <row r="839" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:10" ht="12">
       <c r="A839" s="2"/>
       <c r="D839" s="2"/>
       <c r="E839" s="2"/>
@@ -10308,7 +10326,7 @@
       <c r="I839" s="2"/>
       <c r="J839" s="48"/>
     </row>
-    <row r="840" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:10" ht="12">
       <c r="A840" s="2"/>
       <c r="D840" s="2"/>
       <c r="E840" s="2"/>
@@ -10318,7 +10336,7 @@
       <c r="I840" s="2"/>
       <c r="J840" s="48"/>
     </row>
-    <row r="841" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:10" ht="12">
       <c r="A841" s="2"/>
       <c r="D841" s="2"/>
       <c r="E841" s="2"/>
@@ -10328,7 +10346,7 @@
       <c r="I841" s="2"/>
       <c r="J841" s="48"/>
     </row>
-    <row r="842" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:10" ht="12">
       <c r="A842" s="2"/>
       <c r="D842" s="2"/>
       <c r="E842" s="2"/>
@@ -10338,7 +10356,7 @@
       <c r="I842" s="2"/>
       <c r="J842" s="48"/>
     </row>
-    <row r="843" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:10" ht="12">
       <c r="A843" s="2"/>
       <c r="D843" s="2"/>
       <c r="E843" s="2"/>
@@ -10348,7 +10366,7 @@
       <c r="I843" s="2"/>
       <c r="J843" s="48"/>
     </row>
-    <row r="844" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:10" ht="12">
       <c r="A844" s="2"/>
       <c r="D844" s="2"/>
       <c r="E844" s="2"/>
@@ -10358,7 +10376,7 @@
       <c r="I844" s="2"/>
       <c r="J844" s="48"/>
     </row>
-    <row r="845" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:10" ht="12">
       <c r="A845" s="2"/>
       <c r="D845" s="2"/>
       <c r="E845" s="2"/>
@@ -10368,7 +10386,7 @@
       <c r="I845" s="2"/>
       <c r="J845" s="48"/>
     </row>
-    <row r="846" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:10" ht="12">
       <c r="A846" s="2"/>
       <c r="D846" s="2"/>
       <c r="E846" s="2"/>
@@ -10378,7 +10396,7 @@
       <c r="I846" s="2"/>
       <c r="J846" s="48"/>
     </row>
-    <row r="847" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:10" ht="12">
       <c r="A847" s="2"/>
       <c r="D847" s="2"/>
       <c r="E847" s="2"/>
@@ -10388,7 +10406,7 @@
       <c r="I847" s="2"/>
       <c r="J847" s="48"/>
     </row>
-    <row r="848" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:10" ht="12">
       <c r="A848" s="2"/>
       <c r="D848" s="2"/>
       <c r="E848" s="2"/>
@@ -10398,7 +10416,7 @@
       <c r="I848" s="2"/>
       <c r="J848" s="48"/>
     </row>
-    <row r="849" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:10" ht="12">
       <c r="A849" s="2"/>
       <c r="D849" s="2"/>
       <c r="E849" s="2"/>
@@ -10408,7 +10426,7 @@
       <c r="I849" s="2"/>
       <c r="J849" s="48"/>
     </row>
-    <row r="850" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:10" ht="12">
       <c r="A850" s="2"/>
       <c r="D850" s="2"/>
       <c r="E850" s="2"/>
@@ -10418,7 +10436,7 @@
       <c r="I850" s="2"/>
       <c r="J850" s="48"/>
     </row>
-    <row r="851" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:10" ht="12">
       <c r="A851" s="2"/>
       <c r="D851" s="2"/>
       <c r="E851" s="2"/>
@@ -10428,7 +10446,7 @@
       <c r="I851" s="2"/>
       <c r="J851" s="48"/>
     </row>
-    <row r="852" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:10" ht="12">
       <c r="A852" s="2"/>
       <c r="D852" s="2"/>
       <c r="E852" s="2"/>
@@ -10438,7 +10456,7 @@
       <c r="I852" s="2"/>
       <c r="J852" s="48"/>
     </row>
-    <row r="853" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:10" ht="12">
       <c r="A853" s="2"/>
       <c r="D853" s="2"/>
       <c r="E853" s="2"/>
@@ -10448,7 +10466,7 @@
       <c r="I853" s="2"/>
       <c r="J853" s="48"/>
     </row>
-    <row r="854" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:10" ht="12">
       <c r="A854" s="2"/>
       <c r="D854" s="2"/>
       <c r="E854" s="2"/>
@@ -10458,7 +10476,7 @@
       <c r="I854" s="2"/>
       <c r="J854" s="48"/>
     </row>
-    <row r="855" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:10" ht="12">
       <c r="A855" s="2"/>
       <c r="D855" s="2"/>
       <c r="E855" s="2"/>
@@ -10468,7 +10486,7 @@
       <c r="I855" s="2"/>
       <c r="J855" s="48"/>
     </row>
-    <row r="856" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:10" ht="12">
       <c r="A856" s="2"/>
       <c r="D856" s="2"/>
       <c r="E856" s="2"/>
@@ -10478,7 +10496,7 @@
       <c r="I856" s="2"/>
       <c r="J856" s="48"/>
     </row>
-    <row r="857" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:10" ht="12">
       <c r="A857" s="2"/>
       <c r="D857" s="2"/>
       <c r="E857" s="2"/>
@@ -10488,7 +10506,7 @@
       <c r="I857" s="2"/>
       <c r="J857" s="48"/>
     </row>
-    <row r="858" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:10" ht="12">
       <c r="A858" s="2"/>
       <c r="D858" s="2"/>
       <c r="E858" s="2"/>
@@ -10498,7 +10516,7 @@
       <c r="I858" s="2"/>
       <c r="J858" s="48"/>
     </row>
-    <row r="859" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:10" ht="12">
       <c r="A859" s="2"/>
       <c r="D859" s="2"/>
       <c r="E859" s="2"/>
@@ -10508,7 +10526,7 @@
       <c r="I859" s="2"/>
       <c r="J859" s="48"/>
     </row>
-    <row r="860" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:10" ht="12">
       <c r="A860" s="2"/>
       <c r="D860" s="2"/>
       <c r="E860" s="2"/>
@@ -10518,7 +10536,7 @@
       <c r="I860" s="2"/>
       <c r="J860" s="48"/>
     </row>
-    <row r="861" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:10" ht="12">
       <c r="A861" s="2"/>
       <c r="D861" s="2"/>
       <c r="E861" s="2"/>
@@ -10528,7 +10546,7 @@
       <c r="I861" s="2"/>
       <c r="J861" s="48"/>
     </row>
-    <row r="862" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:10" ht="12">
       <c r="A862" s="2"/>
       <c r="D862" s="2"/>
       <c r="E862" s="2"/>
@@ -10538,7 +10556,7 @@
       <c r="I862" s="2"/>
       <c r="J862" s="48"/>
     </row>
-    <row r="863" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:10" ht="12">
       <c r="A863" s="2"/>
       <c r="D863" s="2"/>
       <c r="E863" s="2"/>
@@ -10548,7 +10566,7 @@
       <c r="I863" s="2"/>
       <c r="J863" s="48"/>
     </row>
-    <row r="864" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:10" ht="12">
       <c r="A864" s="2"/>
       <c r="D864" s="2"/>
       <c r="E864" s="2"/>
@@ -10558,7 +10576,7 @@
       <c r="I864" s="2"/>
       <c r="J864" s="48"/>
     </row>
-    <row r="865" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:10" ht="12">
       <c r="A865" s="2"/>
       <c r="D865" s="2"/>
       <c r="E865" s="2"/>
@@ -10568,7 +10586,7 @@
       <c r="I865" s="2"/>
       <c r="J865" s="48"/>
     </row>
-    <row r="866" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:10" ht="12">
       <c r="A866" s="2"/>
       <c r="D866" s="2"/>
       <c r="E866" s="2"/>
@@ -10578,7 +10596,7 @@
       <c r="I866" s="2"/>
       <c r="J866" s="48"/>
     </row>
-    <row r="867" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:10" ht="12">
       <c r="A867" s="2"/>
       <c r="D867" s="2"/>
       <c r="E867" s="2"/>
@@ -10588,7 +10606,7 @@
       <c r="I867" s="2"/>
       <c r="J867" s="48"/>
     </row>
-    <row r="868" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:10" ht="12">
       <c r="A868" s="2"/>
       <c r="D868" s="2"/>
       <c r="E868" s="2"/>
@@ -10598,7 +10616,7 @@
       <c r="I868" s="2"/>
       <c r="J868" s="48"/>
     </row>
-    <row r="869" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:10" ht="12">
       <c r="A869" s="2"/>
       <c r="D869" s="2"/>
       <c r="E869" s="2"/>
@@ -10608,7 +10626,7 @@
       <c r="I869" s="2"/>
       <c r="J869" s="48"/>
     </row>
-    <row r="870" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:10" ht="12">
       <c r="A870" s="2"/>
       <c r="D870" s="2"/>
       <c r="E870" s="2"/>
@@ -10618,7 +10636,7 @@
       <c r="I870" s="2"/>
       <c r="J870" s="48"/>
     </row>
-    <row r="871" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:10" ht="12">
       <c r="A871" s="2"/>
       <c r="D871" s="2"/>
       <c r="E871" s="2"/>
@@ -10628,7 +10646,7 @@
       <c r="I871" s="2"/>
       <c r="J871" s="48"/>
     </row>
-    <row r="872" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:10" ht="12">
       <c r="A872" s="2"/>
       <c r="D872" s="2"/>
       <c r="E872" s="2"/>
@@ -10638,7 +10656,7 @@
       <c r="I872" s="2"/>
       <c r="J872" s="48"/>
     </row>
-    <row r="873" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:10" ht="12">
       <c r="A873" s="2"/>
       <c r="D873" s="2"/>
       <c r="E873" s="2"/>
@@ -10648,7 +10666,7 @@
       <c r="I873" s="2"/>
       <c r="J873" s="48"/>
     </row>
-    <row r="874" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:10" ht="12">
       <c r="A874" s="2"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
@@ -10658,7 +10676,7 @@
       <c r="I874" s="2"/>
       <c r="J874" s="48"/>
     </row>
-    <row r="875" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:10" ht="12">
       <c r="A875" s="2"/>
       <c r="D875" s="2"/>
       <c r="E875" s="2"/>
@@ -10668,7 +10686,7 @@
       <c r="I875" s="2"/>
       <c r="J875" s="48"/>
     </row>
-    <row r="876" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:10" ht="12">
       <c r="A876" s="2"/>
       <c r="D876" s="2"/>
       <c r="E876" s="2"/>
@@ -10678,7 +10696,7 @@
       <c r="I876" s="2"/>
       <c r="J876" s="48"/>
     </row>
-    <row r="877" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:10" ht="12">
       <c r="A877" s="2"/>
       <c r="D877" s="2"/>
       <c r="E877" s="2"/>
@@ -10688,7 +10706,7 @@
       <c r="I877" s="2"/>
       <c r="J877" s="48"/>
     </row>
-    <row r="878" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:10" ht="12">
       <c r="A878" s="2"/>
       <c r="D878" s="2"/>
       <c r="E878" s="2"/>
@@ -10698,7 +10716,7 @@
       <c r="I878" s="2"/>
       <c r="J878" s="48"/>
     </row>
-    <row r="879" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:10" ht="12">
       <c r="A879" s="2"/>
       <c r="D879" s="2"/>
       <c r="E879" s="2"/>
@@ -10708,7 +10726,7 @@
       <c r="I879" s="2"/>
       <c r="J879" s="48"/>
     </row>
-    <row r="880" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:10" ht="12">
       <c r="A880" s="2"/>
       <c r="D880" s="2"/>
       <c r="E880" s="2"/>
@@ -10718,7 +10736,7 @@
       <c r="I880" s="2"/>
       <c r="J880" s="48"/>
     </row>
-    <row r="881" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:10" ht="12">
       <c r="A881" s="2"/>
       <c r="D881" s="2"/>
       <c r="E881" s="2"/>
@@ -10728,7 +10746,7 @@
       <c r="I881" s="2"/>
       <c r="J881" s="48"/>
     </row>
-    <row r="882" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:10" ht="12">
       <c r="A882" s="2"/>
       <c r="D882" s="2"/>
       <c r="E882" s="2"/>
@@ -10738,7 +10756,7 @@
       <c r="I882" s="2"/>
       <c r="J882" s="48"/>
     </row>
-    <row r="883" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:10" ht="12">
       <c r="A883" s="2"/>
       <c r="D883" s="2"/>
       <c r="E883" s="2"/>
@@ -10748,7 +10766,7 @@
       <c r="I883" s="2"/>
       <c r="J883" s="48"/>
     </row>
-    <row r="884" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:10" ht="12">
       <c r="A884" s="2"/>
       <c r="D884" s="2"/>
       <c r="E884" s="2"/>
@@ -10758,7 +10776,7 @@
       <c r="I884" s="2"/>
       <c r="J884" s="48"/>
     </row>
-    <row r="885" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:10" ht="12">
       <c r="A885" s="2"/>
       <c r="D885" s="2"/>
       <c r="E885" s="2"/>
@@ -10768,7 +10786,7 @@
       <c r="I885" s="2"/>
       <c r="J885" s="48"/>
     </row>
-    <row r="886" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:10" ht="12">
       <c r="A886" s="2"/>
       <c r="D886" s="2"/>
       <c r="E886" s="2"/>
@@ -10778,7 +10796,7 @@
       <c r="I886" s="2"/>
       <c r="J886" s="48"/>
     </row>
-    <row r="887" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:10" ht="12">
       <c r="A887" s="2"/>
       <c r="D887" s="2"/>
       <c r="E887" s="2"/>
@@ -10788,7 +10806,7 @@
       <c r="I887" s="2"/>
       <c r="J887" s="48"/>
     </row>
-    <row r="888" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:10" ht="12">
       <c r="A888" s="2"/>
       <c r="D888" s="2"/>
       <c r="E888" s="2"/>
@@ -10798,7 +10816,7 @@
       <c r="I888" s="2"/>
       <c r="J888" s="48"/>
     </row>
-    <row r="889" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:10" ht="12">
       <c r="A889" s="2"/>
       <c r="D889" s="2"/>
       <c r="E889" s="2"/>
@@ -10808,7 +10826,7 @@
       <c r="I889" s="2"/>
       <c r="J889" s="48"/>
     </row>
-    <row r="890" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:10" ht="12">
       <c r="A890" s="2"/>
       <c r="D890" s="2"/>
       <c r="E890" s="2"/>
@@ -10818,7 +10836,7 @@
       <c r="I890" s="2"/>
       <c r="J890" s="48"/>
     </row>
-    <row r="891" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:10" ht="12">
       <c r="A891" s="2"/>
       <c r="D891" s="2"/>
       <c r="E891" s="2"/>
@@ -10828,7 +10846,7 @@
       <c r="I891" s="2"/>
       <c r="J891" s="48"/>
     </row>
-    <row r="892" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:10" ht="12">
       <c r="A892" s="2"/>
       <c r="D892" s="2"/>
       <c r="E892" s="2"/>
@@ -10838,7 +10856,7 @@
       <c r="I892" s="2"/>
       <c r="J892" s="48"/>
     </row>
-    <row r="893" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:10" ht="12">
       <c r="A893" s="2"/>
       <c r="D893" s="2"/>
       <c r="E893" s="2"/>
@@ -10848,7 +10866,7 @@
       <c r="I893" s="2"/>
       <c r="J893" s="48"/>
     </row>
-    <row r="894" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:10" ht="12">
       <c r="A894" s="2"/>
       <c r="D894" s="2"/>
       <c r="E894" s="2"/>
@@ -10858,7 +10876,7 @@
       <c r="I894" s="2"/>
       <c r="J894" s="48"/>
     </row>
-    <row r="895" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:10" ht="12">
       <c r="A895" s="2"/>
       <c r="D895" s="2"/>
       <c r="E895" s="2"/>
@@ -10868,7 +10886,7 @@
       <c r="I895" s="2"/>
       <c r="J895" s="48"/>
     </row>
-    <row r="896" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:10" ht="12">
       <c r="A896" s="2"/>
       <c r="D896" s="2"/>
       <c r="E896" s="2"/>
@@ -10878,7 +10896,7 @@
       <c r="I896" s="2"/>
       <c r="J896" s="48"/>
     </row>
-    <row r="897" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:10" ht="12">
       <c r="A897" s="2"/>
       <c r="D897" s="2"/>
       <c r="E897" s="2"/>
@@ -10888,7 +10906,7 @@
       <c r="I897" s="2"/>
       <c r="J897" s="48"/>
     </row>
-    <row r="898" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:10" ht="12">
       <c r="A898" s="2"/>
       <c r="D898" s="2"/>
       <c r="E898" s="2"/>
@@ -10898,7 +10916,7 @@
       <c r="I898" s="2"/>
       <c r="J898" s="48"/>
     </row>
-    <row r="899" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:10" ht="12">
       <c r="A899" s="2"/>
       <c r="D899" s="2"/>
       <c r="E899" s="2"/>
@@ -10908,7 +10926,7 @@
       <c r="I899" s="2"/>
       <c r="J899" s="48"/>
     </row>
-    <row r="900" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:10" ht="12">
       <c r="A900" s="2"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
@@ -10918,7 +10936,7 @@
       <c r="I900" s="2"/>
       <c r="J900" s="48"/>
     </row>
-    <row r="901" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:10" ht="12">
       <c r="A901" s="2"/>
       <c r="D901" s="2"/>
       <c r="E901" s="2"/>
@@ -10928,7 +10946,7 @@
       <c r="I901" s="2"/>
       <c r="J901" s="48"/>
     </row>
-    <row r="902" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:10" ht="12">
       <c r="A902" s="2"/>
       <c r="D902" s="2"/>
       <c r="E902" s="2"/>
@@ -10938,7 +10956,7 @@
       <c r="I902" s="2"/>
       <c r="J902" s="48"/>
     </row>
-    <row r="903" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:10" ht="12">
       <c r="A903" s="2"/>
       <c r="D903" s="2"/>
       <c r="E903" s="2"/>
@@ -10948,7 +10966,7 @@
       <c r="I903" s="2"/>
       <c r="J903" s="48"/>
     </row>
-    <row r="904" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:10" ht="12">
       <c r="A904" s="2"/>
       <c r="D904" s="2"/>
       <c r="E904" s="2"/>
@@ -10958,7 +10976,7 @@
       <c r="I904" s="2"/>
       <c r="J904" s="48"/>
     </row>
-    <row r="905" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:10" ht="12">
       <c r="A905" s="2"/>
       <c r="D905" s="2"/>
       <c r="E905" s="2"/>
@@ -10968,7 +10986,7 @@
       <c r="I905" s="2"/>
       <c r="J905" s="48"/>
     </row>
-    <row r="906" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:10" ht="12">
       <c r="A906" s="2"/>
       <c r="D906" s="2"/>
       <c r="E906" s="2"/>
@@ -10978,7 +10996,7 @@
       <c r="I906" s="2"/>
       <c r="J906" s="48"/>
     </row>
-    <row r="907" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:10" ht="12">
       <c r="A907" s="2"/>
       <c r="D907" s="2"/>
       <c r="E907" s="2"/>
@@ -10988,7 +11006,7 @@
       <c r="I907" s="2"/>
       <c r="J907" s="48"/>
     </row>
-    <row r="908" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:10" ht="12">
       <c r="A908" s="2"/>
       <c r="D908" s="2"/>
       <c r="E908" s="2"/>
@@ -10998,7 +11016,7 @@
       <c r="I908" s="2"/>
       <c r="J908" s="48"/>
     </row>
-    <row r="909" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:10" ht="12">
       <c r="A909" s="2"/>
       <c r="D909" s="2"/>
       <c r="E909" s="2"/>
@@ -11008,7 +11026,7 @@
       <c r="I909" s="2"/>
       <c r="J909" s="48"/>
     </row>
-    <row r="910" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:10" ht="12">
       <c r="A910" s="2"/>
       <c r="D910" s="2"/>
       <c r="E910" s="2"/>
@@ -11018,7 +11036,7 @@
       <c r="I910" s="2"/>
       <c r="J910" s="48"/>
     </row>
-    <row r="911" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:10" ht="12">
       <c r="A911" s="2"/>
       <c r="D911" s="2"/>
       <c r="E911" s="2"/>
@@ -11028,7 +11046,7 @@
       <c r="I911" s="2"/>
       <c r="J911" s="48"/>
     </row>
-    <row r="912" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:10" ht="12">
       <c r="A912" s="2"/>
       <c r="D912" s="2"/>
       <c r="E912" s="2"/>
@@ -11038,7 +11056,7 @@
       <c r="I912" s="2"/>
       <c r="J912" s="48"/>
     </row>
-    <row r="913" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:10" ht="12">
       <c r="A913" s="2"/>
       <c r="D913" s="2"/>
       <c r="E913" s="2"/>
@@ -11048,7 +11066,7 @@
       <c r="I913" s="2"/>
       <c r="J913" s="48"/>
     </row>
-    <row r="914" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:10" ht="12">
       <c r="A914" s="2"/>
       <c r="D914" s="2"/>
       <c r="E914" s="2"/>
@@ -11058,7 +11076,7 @@
       <c r="I914" s="2"/>
       <c r="J914" s="48"/>
     </row>
-    <row r="915" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:10" ht="12">
       <c r="A915" s="2"/>
       <c r="D915" s="2"/>
       <c r="E915" s="2"/>
@@ -11068,7 +11086,7 @@
       <c r="I915" s="2"/>
       <c r="J915" s="48"/>
     </row>
-    <row r="916" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:10" ht="12">
       <c r="A916" s="2"/>
       <c r="D916" s="2"/>
       <c r="E916" s="2"/>
@@ -11078,7 +11096,7 @@
       <c r="I916" s="2"/>
       <c r="J916" s="48"/>
     </row>
-    <row r="917" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:10" ht="12">
       <c r="A917" s="2"/>
       <c r="D917" s="2"/>
       <c r="E917" s="2"/>
@@ -11088,7 +11106,7 @@
       <c r="I917" s="2"/>
       <c r="J917" s="48"/>
     </row>
-    <row r="918" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:10" ht="12">
       <c r="A918" s="2"/>
       <c r="D918" s="2"/>
       <c r="E918" s="2"/>
@@ -11098,7 +11116,7 @@
       <c r="I918" s="2"/>
       <c r="J918" s="48"/>
     </row>
-    <row r="919" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:10" ht="12">
       <c r="A919" s="2"/>
       <c r="D919" s="2"/>
       <c r="E919" s="2"/>
@@ -11108,7 +11126,7 @@
       <c r="I919" s="2"/>
       <c r="J919" s="48"/>
     </row>
-    <row r="920" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:10" ht="12">
       <c r="A920" s="2"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
@@ -11118,7 +11136,7 @@
       <c r="I920" s="2"/>
       <c r="J920" s="48"/>
     </row>
-    <row r="921" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:10" ht="12">
       <c r="A921" s="2"/>
       <c r="D921" s="2"/>
       <c r="E921" s="2"/>
@@ -11128,7 +11146,7 @@
       <c r="I921" s="2"/>
       <c r="J921" s="48"/>
     </row>
-    <row r="922" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:10" ht="12">
       <c r="A922" s="2"/>
       <c r="D922" s="2"/>
       <c r="E922" s="2"/>
@@ -11138,7 +11156,7 @@
       <c r="I922" s="2"/>
       <c r="J922" s="48"/>
     </row>
-    <row r="923" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:10" ht="12">
       <c r="A923" s="2"/>
       <c r="D923" s="2"/>
       <c r="E923" s="2"/>
@@ -11148,7 +11166,7 @@
       <c r="I923" s="2"/>
       <c r="J923" s="48"/>
     </row>
-    <row r="924" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:10" ht="12">
       <c r="A924" s="2"/>
       <c r="D924" s="2"/>
       <c r="E924" s="2"/>
@@ -11158,7 +11176,7 @@
       <c r="I924" s="2"/>
       <c r="J924" s="48"/>
     </row>
-    <row r="925" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:10" ht="12">
       <c r="A925" s="2"/>
       <c r="D925" s="2"/>
       <c r="E925" s="2"/>
@@ -11168,7 +11186,7 @@
       <c r="I925" s="2"/>
       <c r="J925" s="48"/>
     </row>
-    <row r="926" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:10" ht="12">
       <c r="A926" s="2"/>
       <c r="D926" s="2"/>
       <c r="E926" s="2"/>
@@ -11178,7 +11196,7 @@
       <c r="I926" s="2"/>
       <c r="J926" s="48"/>
     </row>
-    <row r="927" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:10" ht="12">
       <c r="A927" s="2"/>
       <c r="D927" s="2"/>
       <c r="E927" s="2"/>
@@ -11188,7 +11206,7 @@
       <c r="I927" s="2"/>
       <c r="J927" s="48"/>
     </row>
-    <row r="928" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:10" ht="12">
       <c r="A928" s="2"/>
       <c r="D928" s="2"/>
       <c r="E928" s="2"/>
@@ -11198,7 +11216,7 @@
       <c r="I928" s="2"/>
       <c r="J928" s="48"/>
     </row>
-    <row r="929" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:10" ht="12">
       <c r="A929" s="2"/>
       <c r="D929" s="2"/>
       <c r="E929" s="2"/>
@@ -11208,7 +11226,7 @@
       <c r="I929" s="2"/>
       <c r="J929" s="48"/>
     </row>
-    <row r="930" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:10" ht="12">
       <c r="A930" s="2"/>
       <c r="D930" s="2"/>
       <c r="E930" s="2"/>
@@ -11218,7 +11236,7 @@
       <c r="I930" s="2"/>
       <c r="J930" s="48"/>
     </row>
-    <row r="931" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:10" ht="12">
       <c r="A931" s="2"/>
       <c r="D931" s="2"/>
       <c r="E931" s="2"/>
@@ -11228,7 +11246,7 @@
       <c r="I931" s="2"/>
       <c r="J931" s="48"/>
     </row>
-    <row r="932" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:10" ht="12">
       <c r="A932" s="2"/>
       <c r="D932" s="2"/>
       <c r="E932" s="2"/>
@@ -11238,7 +11256,7 @@
       <c r="I932" s="2"/>
       <c r="J932" s="48"/>
     </row>
-    <row r="933" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:10" ht="12">
       <c r="A933" s="2"/>
       <c r="D933" s="2"/>
       <c r="E933" s="2"/>
@@ -11248,7 +11266,7 @@
       <c r="I933" s="2"/>
       <c r="J933" s="48"/>
     </row>
-    <row r="934" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:10" ht="12">
       <c r="A934" s="2"/>
       <c r="D934" s="2"/>
       <c r="E934" s="2"/>
@@ -11258,7 +11276,7 @@
       <c r="I934" s="2"/>
       <c r="J934" s="48"/>
     </row>
-    <row r="935" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:10" ht="12">
       <c r="A935" s="2"/>
       <c r="D935" s="2"/>
       <c r="E935" s="2"/>
@@ -11268,7 +11286,7 @@
       <c r="I935" s="2"/>
       <c r="J935" s="48"/>
     </row>
-    <row r="936" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:10" ht="12">
       <c r="A936" s="2"/>
       <c r="D936" s="2"/>
       <c r="E936" s="2"/>
@@ -11278,7 +11296,7 @@
       <c r="I936" s="2"/>
       <c r="J936" s="48"/>
     </row>
-    <row r="937" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:10" ht="12">
       <c r="A937" s="2"/>
       <c r="D937" s="2"/>
       <c r="E937" s="2"/>
@@ -11288,7 +11306,7 @@
       <c r="I937" s="2"/>
       <c r="J937" s="48"/>
     </row>
-    <row r="938" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:10" ht="12">
       <c r="A938" s="2"/>
       <c r="D938" s="2"/>
       <c r="E938" s="2"/>
@@ -11298,7 +11316,7 @@
       <c r="I938" s="2"/>
       <c r="J938" s="48"/>
     </row>
-    <row r="939" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:10" ht="12">
       <c r="A939" s="2"/>
       <c r="D939" s="2"/>
       <c r="E939" s="2"/>
@@ -11308,7 +11326,7 @@
       <c r="I939" s="2"/>
       <c r="J939" s="48"/>
     </row>
-    <row r="940" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:10" ht="12">
       <c r="A940" s="2"/>
       <c r="D940" s="2"/>
       <c r="E940" s="2"/>
@@ -11318,7 +11336,7 @@
       <c r="I940" s="2"/>
       <c r="J940" s="48"/>
     </row>
-    <row r="941" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:10" ht="12">
       <c r="A941" s="2"/>
       <c r="D941" s="2"/>
       <c r="E941" s="2"/>
@@ -11328,7 +11346,7 @@
       <c r="I941" s="2"/>
       <c r="J941" s="48"/>
     </row>
-    <row r="942" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:10" ht="12">
       <c r="A942" s="2"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
@@ -11338,7 +11356,7 @@
       <c r="I942" s="2"/>
       <c r="J942" s="48"/>
     </row>
-    <row r="943" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:10" ht="12">
       <c r="A943" s="2"/>
       <c r="D943" s="2"/>
       <c r="E943" s="2"/>
@@ -11348,7 +11366,7 @@
       <c r="I943" s="2"/>
       <c r="J943" s="48"/>
     </row>
-    <row r="944" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:10" ht="12">
       <c r="A944" s="2"/>
       <c r="D944" s="2"/>
       <c r="E944" s="2"/>
@@ -11358,7 +11376,7 @@
       <c r="I944" s="2"/>
       <c r="J944" s="48"/>
     </row>
-    <row r="945" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:10" ht="12">
       <c r="A945" s="2"/>
       <c r="D945" s="2"/>
       <c r="E945" s="2"/>
@@ -11368,7 +11386,7 @@
       <c r="I945" s="2"/>
       <c r="J945" s="48"/>
     </row>
-    <row r="946" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:10" ht="12">
       <c r="A946" s="2"/>
       <c r="D946" s="2"/>
       <c r="E946" s="2"/>
@@ -11378,7 +11396,7 @@
       <c r="I946" s="2"/>
       <c r="J946" s="48"/>
     </row>
-    <row r="947" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:10" ht="12">
       <c r="A947" s="2"/>
       <c r="D947" s="2"/>
       <c r="E947" s="2"/>
@@ -11388,7 +11406,7 @@
       <c r="I947" s="2"/>
       <c r="J947" s="48"/>
     </row>
-    <row r="948" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:10" ht="12">
       <c r="A948" s="2"/>
       <c r="D948" s="2"/>
       <c r="E948" s="2"/>
@@ -11398,11 +11416,13 @@
       <c r="I948" s="2"/>
       <c r="J948" s="48"/>
     </row>
-    <row r="949" spans="1:10" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="950" spans="1:10" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="951" spans="1:10" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="949" spans="1:10" ht="12"/>
+    <row r="950" spans="1:10" ht="12"/>
+    <row r="951" spans="1:10" ht="12"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="A2:A3"/>
@@ -11419,11 +11439,14 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11433,10 +11456,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11446,16 +11474,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="2" max="2" width="59.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="A1" s="49"/>
       <c r="B1" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>23</v>
@@ -11482,79 +11510,84 @@
       <c r="W1" s="50"/>
       <c r="X1" s="50"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24">
       <c r="A2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11564,18 +11597,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="A1" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>23</v>
@@ -11602,69 +11635,74 @@
       <c r="W1" s="50"/>
       <c r="X1" s="50"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24">
       <c r="A2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11672,20 +11710,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="72.6640625" customWidth="1"/>
     <col min="3" max="3" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="A1" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>14</v>
@@ -11715,58 +11753,58 @@
       <c r="W1" s="50"/>
       <c r="X1" s="50"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24">
       <c r="A2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="51"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="53"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B7" s="57"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24">
       <c r="C13" s="4"/>
     </row>
   </sheetData>
@@ -11775,6 +11813,11 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11784,16 +11827,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="72.6640625" customWidth="1"/>
     <col min="3" max="3" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="A1" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>14</v>
@@ -11823,80 +11866,85 @@
       <c r="W1" s="50"/>
       <c r="X1" s="50"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24">
       <c r="A2" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24">
       <c r="A4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24">
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24">
       <c r="C11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/SSNoC REST API.xlsx
+++ b/docs/SSNoC REST API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines and Notes" sheetId="1" r:id="rId1"/>
@@ -887,30 +887,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1263,12 +1263,12 @@
       <c r="D11" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="43" t="s">
@@ -1295,9 +1295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1361,48 +1361,48 @@
       <c r="Y1" s="35"/>
     </row>
     <row r="2" spans="1:25" ht="12">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="47" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="24" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:25" ht="12">
       <c r="A4" s="14" t="s">
@@ -1553,7 +1553,7 @@
       <c r="I8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="54"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1592,7 +1592,7 @@
       <c r="I9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="47"/>
+      <c r="J9" s="50"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
@@ -1934,29 +1934,29 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" ht="12">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="51"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="51" t="s">
         <v>29</v>
       </c>
       <c r="H18" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="48" t="s">
+      <c r="I18" s="53" t="s">
         <v>79</v>
       </c>
       <c r="J18" s="36"/>
@@ -1977,15 +1977,15 @@
       <c r="Y18" s="37"/>
     </row>
     <row r="19" spans="1:25" ht="12">
-      <c r="A19" s="47"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
       <c r="J19" s="36"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2159,10 +2159,10 @@
       <c r="A24" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="44" t="s">
         <v>151</v>
       </c>
       <c r="D24" s="5"/>
@@ -2185,10 +2185,10 @@
       <c r="A25" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="44" t="s">
         <v>155</v>
       </c>
       <c r="D25" s="5"/>
@@ -2211,10 +2211,10 @@
       <c r="A26" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="44" t="s">
         <v>158</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2241,10 +2241,10 @@
       <c r="A27" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B27" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="55" t="s">
+      <c r="B27" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="44" t="s">
         <v>158</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -2279,10 +2279,10 @@
       <c r="A29" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="44" t="s">
         <v>165</v>
       </c>
       <c r="D29" s="5"/>
@@ -2305,10 +2305,10 @@
       <c r="A30" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="44" t="s">
         <v>165</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -2335,10 +2335,10 @@
       <c r="A31" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B31" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="55" t="s">
+      <c r="B31" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="44" t="s">
         <v>165</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2377,10 +2377,10 @@
       <c r="A33" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="44" t="s">
         <v>175</v>
       </c>
       <c r="D33" s="5"/>
@@ -2403,10 +2403,10 @@
       <c r="A34" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="44" t="s">
         <v>178</v>
       </c>
       <c r="D34" s="5"/>
@@ -11570,6 +11570,17 @@
     <row r="951" spans="1:10" ht="12"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="G18:G19"/>
@@ -11577,17 +11588,6 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -11937,10 +11937,10 @@
       <c r="D5" s="3"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="46"/>
     </row>
     <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="C11" s="5"/>

--- a/docs/SSNoC REST API.xlsx
+++ b/docs/SSNoC REST API.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kid7st/Dropbox/myCoding/ECE2016Spring/18652/S16-A2-SSNoC/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines and Notes" sheetId="1" r:id="rId1"/>
@@ -17,6 +22,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="206">
   <si>
     <t>Rules</t>
   </si>
@@ -582,12 +590,110 @@
   <si>
     <t>No content: 422</t>
   </si>
+  <si>
+    <t>Send a agency contact request</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a member</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgencyContact</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reply a agency contact request</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/request/{username}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>array of members</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reply/{username}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgencyContact</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get all one's agency contact</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agencyContact/{username}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get all one's agency contact request</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agencyContactRequest/{username}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a member</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No content: 422</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgencyContact</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get the statistic record</t>
+  </si>
+  <si>
+    <t>/dashboard/request</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>a object contain the statistic record</t>
+  </si>
+  <si>
+    <t>No content: 404</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -629,6 +735,18 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -785,8 +903,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -912,11 +1039,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="10">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1182,42 +1323,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
@@ -1226,14 +1367,14 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -1241,28 +1382,28 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="45" t="s">
         <v>12</v>
       </c>
@@ -1270,7 +1411,7 @@
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="43" t="s">
         <v>13</v>
       </c>
@@ -1279,15 +1420,11 @@
   <mergeCells count="1">
     <mergeCell ref="A14:D14"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1296,11 +1433,11 @@
   <dimension ref="A1:Y951"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
@@ -1313,7 +1450,7 @@
     <col min="10" max="10" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="36">
+    <row r="1" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -1360,7 +1497,7 @@
       <c r="X1" s="35"/>
       <c r="Y1" s="35"/>
     </row>
-    <row r="2" spans="1:25" ht="12">
+    <row r="2" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="55" t="s">
         <v>24</v>
       </c>
@@ -1388,7 +1525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1">
+    <row r="3" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
@@ -1404,7 +1541,7 @@
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
     </row>
-    <row r="4" spans="1:25" ht="12">
+    <row r="4" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -1428,7 +1565,7 @@
       </c>
       <c r="J4" s="36"/>
     </row>
-    <row r="5" spans="1:25" ht="19" customHeight="1">
+    <row r="5" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>38</v>
       </c>
@@ -1452,7 +1589,7 @@
       </c>
       <c r="J5" s="36"/>
     </row>
-    <row r="6" spans="1:25" ht="24">
+    <row r="6" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -1480,7 +1617,7 @@
       </c>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="1:25" ht="24">
+    <row r="7" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
         <v>46</v>
       </c>
@@ -1525,7 +1662,7 @@
       <c r="X7" s="37"/>
       <c r="Y7" s="37"/>
     </row>
-    <row r="8" spans="1:25" ht="33" customHeight="1">
+    <row r="8" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>52</v>
       </c>
@@ -1570,7 +1707,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" ht="24">
+    <row r="9" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>58</v>
       </c>
@@ -1609,7 +1746,7 @@
       <c r="X9" s="37"/>
       <c r="Y9" s="37"/>
     </row>
-    <row r="10" spans="1:25" ht="24">
+    <row r="10" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
         <v>61</v>
       </c>
@@ -1644,7 +1781,7 @@
       <c r="X10" s="37"/>
       <c r="Y10" s="37"/>
     </row>
-    <row r="11" spans="1:25" ht="36">
+    <row r="11" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
         <v>62</v>
       </c>
@@ -1689,7 +1826,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:25" ht="24">
+    <row r="12" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
         <v>67</v>
       </c>
@@ -1730,7 +1867,7 @@
       <c r="X12" s="37"/>
       <c r="Y12" s="37"/>
     </row>
-    <row r="13" spans="1:25" ht="24">
+    <row r="13" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>69</v>
       </c>
@@ -1771,7 +1908,7 @@
       <c r="X13" s="37"/>
       <c r="Y13" s="37"/>
     </row>
-    <row r="14" spans="1:25" ht="24">
+    <row r="14" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>71</v>
       </c>
@@ -1812,7 +1949,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25" ht="24">
+    <row r="15" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
         <v>75</v>
       </c>
@@ -1851,7 +1988,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:25" ht="24">
+    <row r="16" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>76</v>
       </c>
@@ -1892,7 +2029,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="24">
+    <row r="17" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>80</v>
       </c>
@@ -1933,7 +2070,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="12">
+    <row r="18" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="53" t="s">
         <v>83</v>
       </c>
@@ -1976,7 +2113,7 @@
       <c r="X18" s="37"/>
       <c r="Y18" s="37"/>
     </row>
-    <row r="19" spans="1:25" ht="12">
+    <row r="19" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="50"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
@@ -2003,7 +2140,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="24">
+    <row r="20" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
         <v>86</v>
       </c>
@@ -2042,7 +2179,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="24">
+    <row r="21" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A21" s="22" t="s">
         <v>88</v>
       </c>
@@ -2081,7 +2218,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="81" customHeight="1">
+    <row r="22" spans="1:25" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25" t="s">
         <v>90</v>
       </c>
@@ -2126,7 +2263,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="12">
+    <row r="23" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>162</v>
       </c>
@@ -2155,7 +2292,7 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25" ht="12">
+    <row r="24" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>150</v>
       </c>
@@ -2181,7 +2318,7 @@
       </c>
       <c r="J24" s="40"/>
     </row>
-    <row r="25" spans="1:25" ht="12">
+    <row r="25" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>154</v>
       </c>
@@ -2207,7 +2344,7 @@
       </c>
       <c r="J25" s="40"/>
     </row>
-    <row r="26" spans="1:25" ht="36">
+    <row r="26" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>157</v>
       </c>
@@ -2237,7 +2374,7 @@
       </c>
       <c r="J26" s="40"/>
     </row>
-    <row r="27" spans="1:25" ht="12">
+    <row r="27" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>161</v>
       </c>
@@ -2263,7 +2400,7 @@
       </c>
       <c r="J27" s="40"/>
     </row>
-    <row r="28" spans="1:25" ht="12">
+    <row r="28" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>163</v>
       </c>
@@ -2275,7 +2412,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="40"/>
     </row>
-    <row r="29" spans="1:25" ht="12">
+    <row r="29" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>164</v>
       </c>
@@ -2301,7 +2438,7 @@
       </c>
       <c r="J29" s="40"/>
     </row>
-    <row r="30" spans="1:25" ht="12">
+    <row r="30" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>167</v>
       </c>
@@ -2331,7 +2468,7 @@
       </c>
       <c r="J30" s="40"/>
     </row>
-    <row r="31" spans="1:25" ht="12">
+    <row r="31" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>171</v>
       </c>
@@ -2361,7 +2498,7 @@
       </c>
       <c r="J31" s="40"/>
     </row>
-    <row r="32" spans="1:25" ht="12">
+    <row r="32" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>173</v>
       </c>
@@ -2373,7 +2510,7 @@
       <c r="I32" s="5"/>
       <c r="J32" s="40"/>
     </row>
-    <row r="33" spans="1:10" ht="12">
+    <row r="33" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>174</v>
       </c>
@@ -2399,7 +2536,7 @@
       </c>
       <c r="J33" s="40"/>
     </row>
-    <row r="34" spans="1:10" ht="12">
+    <row r="34" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>177</v>
       </c>
@@ -2425,57 +2562,153 @@
       </c>
       <c r="J34" s="40"/>
     </row>
-    <row r="35" spans="1:10" ht="12">
-      <c r="A35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="5"/>
+    <row r="35" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="33">
+        <v>201</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="H35" s="33"/>
-      <c r="I35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="J35" s="40"/>
     </row>
-    <row r="36" spans="1:10" ht="12">
-      <c r="A36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="5"/>
+    <row r="36" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="33">
+        <v>201</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="H36" s="33"/>
-      <c r="I36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="J36" s="40"/>
     </row>
-    <row r="37" spans="1:10" ht="12">
-      <c r="A37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="5"/>
+    <row r="37" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="33">
+        <v>200</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="J37" s="40"/>
     </row>
-    <row r="38" spans="1:10" ht="12">
-      <c r="A38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="5"/>
+    <row r="38" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" s="33">
+        <v>200</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="J38" s="40"/>
     </row>
-    <row r="39" spans="1:10" ht="12">
-      <c r="A39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="5"/>
+    <row r="39" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="33">
+        <v>200</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="J39" s="40"/>
     </row>
-    <row r="40" spans="1:10" ht="12">
+    <row r="40" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2485,7 +2718,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="40"/>
     </row>
-    <row r="41" spans="1:10" ht="12">
+    <row r="41" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2495,7 +2728,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="40"/>
     </row>
-    <row r="42" spans="1:10" ht="12">
+    <row r="42" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2505,7 +2738,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="40"/>
     </row>
-    <row r="43" spans="1:10" ht="12">
+    <row r="43" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2515,7 +2748,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="40"/>
     </row>
-    <row r="44" spans="1:10" ht="12">
+    <row r="44" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2525,7 +2758,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="40"/>
     </row>
-    <row r="45" spans="1:10" ht="12">
+    <row r="45" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2535,7 +2768,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="40"/>
     </row>
-    <row r="46" spans="1:10" ht="12">
+    <row r="46" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -2545,7 +2778,7 @@
       <c r="I46" s="5"/>
       <c r="J46" s="40"/>
     </row>
-    <row r="47" spans="1:10" ht="12">
+    <row r="47" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2555,7 +2788,7 @@
       <c r="I47" s="5"/>
       <c r="J47" s="40"/>
     </row>
-    <row r="48" spans="1:10" ht="12">
+    <row r="48" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2565,7 +2798,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="40"/>
     </row>
-    <row r="49" spans="1:10" ht="12">
+    <row r="49" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2575,7 +2808,7 @@
       <c r="I49" s="5"/>
       <c r="J49" s="40"/>
     </row>
-    <row r="50" spans="1:10" ht="12">
+    <row r="50" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -2585,7 +2818,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="40"/>
     </row>
-    <row r="51" spans="1:10" ht="12">
+    <row r="51" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -2595,7 +2828,7 @@
       <c r="I51" s="5"/>
       <c r="J51" s="40"/>
     </row>
-    <row r="52" spans="1:10" ht="12">
+    <row r="52" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2605,7 +2838,7 @@
       <c r="I52" s="5"/>
       <c r="J52" s="40"/>
     </row>
-    <row r="53" spans="1:10" ht="12">
+    <row r="53" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2615,7 +2848,7 @@
       <c r="I53" s="5"/>
       <c r="J53" s="40"/>
     </row>
-    <row r="54" spans="1:10" ht="12">
+    <row r="54" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2625,7 +2858,7 @@
       <c r="I54" s="5"/>
       <c r="J54" s="40"/>
     </row>
-    <row r="55" spans="1:10" ht="12">
+    <row r="55" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -2635,7 +2868,7 @@
       <c r="I55" s="5"/>
       <c r="J55" s="40"/>
     </row>
-    <row r="56" spans="1:10" ht="12">
+    <row r="56" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -2645,7 +2878,7 @@
       <c r="I56" s="5"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10" ht="12">
+    <row r="57" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -2655,7 +2888,7 @@
       <c r="I57" s="5"/>
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10" ht="12">
+    <row r="58" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2665,7 +2898,7 @@
       <c r="I58" s="5"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10" ht="12">
+    <row r="59" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -2675,7 +2908,7 @@
       <c r="I59" s="5"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10" ht="12">
+    <row r="60" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -2685,7 +2918,7 @@
       <c r="I60" s="5"/>
       <c r="J60" s="40"/>
     </row>
-    <row r="61" spans="1:10" ht="12">
+    <row r="61" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -2695,7 +2928,7 @@
       <c r="I61" s="5"/>
       <c r="J61" s="40"/>
     </row>
-    <row r="62" spans="1:10" ht="12">
+    <row r="62" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -2705,7 +2938,7 @@
       <c r="I62" s="5"/>
       <c r="J62" s="40"/>
     </row>
-    <row r="63" spans="1:10" ht="12">
+    <row r="63" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -2715,7 +2948,7 @@
       <c r="I63" s="5"/>
       <c r="J63" s="40"/>
     </row>
-    <row r="64" spans="1:10" ht="12">
+    <row r="64" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -2725,7 +2958,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="40"/>
     </row>
-    <row r="65" spans="1:10" ht="12">
+    <row r="65" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -2735,7 +2968,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="40"/>
     </row>
-    <row r="66" spans="1:10" ht="12">
+    <row r="66" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -2745,7 +2978,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="40"/>
     </row>
-    <row r="67" spans="1:10" ht="12">
+    <row r="67" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -2755,7 +2988,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="40"/>
     </row>
-    <row r="68" spans="1:10" ht="12">
+    <row r="68" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -2765,7 +2998,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="40"/>
     </row>
-    <row r="69" spans="1:10" ht="12">
+    <row r="69" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -2775,7 +3008,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="40"/>
     </row>
-    <row r="70" spans="1:10" ht="12">
+    <row r="70" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -2785,7 +3018,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="40"/>
     </row>
-    <row r="71" spans="1:10" ht="12">
+    <row r="71" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -2795,7 +3028,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="40"/>
     </row>
-    <row r="72" spans="1:10" ht="12">
+    <row r="72" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -2805,7 +3038,7 @@
       <c r="I72" s="5"/>
       <c r="J72" s="40"/>
     </row>
-    <row r="73" spans="1:10" ht="12">
+    <row r="73" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -2815,7 +3048,7 @@
       <c r="I73" s="5"/>
       <c r="J73" s="40"/>
     </row>
-    <row r="74" spans="1:10" ht="12">
+    <row r="74" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -2825,7 +3058,7 @@
       <c r="I74" s="5"/>
       <c r="J74" s="40"/>
     </row>
-    <row r="75" spans="1:10" ht="12">
+    <row r="75" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -2835,7 +3068,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="40"/>
     </row>
-    <row r="76" spans="1:10" ht="12">
+    <row r="76" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -2845,7 +3078,7 @@
       <c r="I76" s="5"/>
       <c r="J76" s="40"/>
     </row>
-    <row r="77" spans="1:10" ht="12">
+    <row r="77" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -2855,7 +3088,7 @@
       <c r="I77" s="5"/>
       <c r="J77" s="40"/>
     </row>
-    <row r="78" spans="1:10" ht="12">
+    <row r="78" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -2865,7 +3098,7 @@
       <c r="I78" s="5"/>
       <c r="J78" s="40"/>
     </row>
-    <row r="79" spans="1:10" ht="12">
+    <row r="79" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -2875,7 +3108,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="40"/>
     </row>
-    <row r="80" spans="1:10" ht="12">
+    <row r="80" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -2885,7 +3118,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="40"/>
     </row>
-    <row r="81" spans="1:10" ht="12">
+    <row r="81" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -2895,7 +3128,7 @@
       <c r="I81" s="5"/>
       <c r="J81" s="40"/>
     </row>
-    <row r="82" spans="1:10" ht="12">
+    <row r="82" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -2905,7 +3138,7 @@
       <c r="I82" s="5"/>
       <c r="J82" s="40"/>
     </row>
-    <row r="83" spans="1:10" ht="12">
+    <row r="83" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -2915,7 +3148,7 @@
       <c r="I83" s="5"/>
       <c r="J83" s="40"/>
     </row>
-    <row r="84" spans="1:10" ht="12">
+    <row r="84" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -2925,7 +3158,7 @@
       <c r="I84" s="5"/>
       <c r="J84" s="40"/>
     </row>
-    <row r="85" spans="1:10" ht="12">
+    <row r="85" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -2935,7 +3168,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="40"/>
     </row>
-    <row r="86" spans="1:10" ht="12">
+    <row r="86" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -2945,7 +3178,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="40"/>
     </row>
-    <row r="87" spans="1:10" ht="12">
+    <row r="87" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -2955,7 +3188,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="40"/>
     </row>
-    <row r="88" spans="1:10" ht="12">
+    <row r="88" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -2965,7 +3198,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="40"/>
     </row>
-    <row r="89" spans="1:10" ht="12">
+    <row r="89" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -2975,7 +3208,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="40"/>
     </row>
-    <row r="90" spans="1:10" ht="12">
+    <row r="90" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -2985,7 +3218,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="40"/>
     </row>
-    <row r="91" spans="1:10" ht="12">
+    <row r="91" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -2995,7 +3228,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="40"/>
     </row>
-    <row r="92" spans="1:10" ht="12">
+    <row r="92" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -3005,7 +3238,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="40"/>
     </row>
-    <row r="93" spans="1:10" ht="12">
+    <row r="93" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -3015,7 +3248,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="40"/>
     </row>
-    <row r="94" spans="1:10" ht="12">
+    <row r="94" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -3025,7 +3258,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="40"/>
     </row>
-    <row r="95" spans="1:10" ht="12">
+    <row r="95" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -3035,7 +3268,7 @@
       <c r="I95" s="5"/>
       <c r="J95" s="40"/>
     </row>
-    <row r="96" spans="1:10" ht="12">
+    <row r="96" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -3045,7 +3278,7 @@
       <c r="I96" s="5"/>
       <c r="J96" s="40"/>
     </row>
-    <row r="97" spans="1:10" ht="12">
+    <row r="97" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -3055,7 +3288,7 @@
       <c r="I97" s="5"/>
       <c r="J97" s="40"/>
     </row>
-    <row r="98" spans="1:10" ht="12">
+    <row r="98" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -3065,7 +3298,7 @@
       <c r="I98" s="5"/>
       <c r="J98" s="40"/>
     </row>
-    <row r="99" spans="1:10" ht="12">
+    <row r="99" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -3075,7 +3308,7 @@
       <c r="I99" s="5"/>
       <c r="J99" s="40"/>
     </row>
-    <row r="100" spans="1:10" ht="12">
+    <row r="100" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -3085,7 +3318,7 @@
       <c r="I100" s="5"/>
       <c r="J100" s="40"/>
     </row>
-    <row r="101" spans="1:10" ht="12">
+    <row r="101" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -3095,7 +3328,7 @@
       <c r="I101" s="5"/>
       <c r="J101" s="40"/>
     </row>
-    <row r="102" spans="1:10" ht="12">
+    <row r="102" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -3105,7 +3338,7 @@
       <c r="I102" s="5"/>
       <c r="J102" s="40"/>
     </row>
-    <row r="103" spans="1:10" ht="12">
+    <row r="103" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -3115,7 +3348,7 @@
       <c r="I103" s="5"/>
       <c r="J103" s="40"/>
     </row>
-    <row r="104" spans="1:10" ht="12">
+    <row r="104" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -3125,7 +3358,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="40"/>
     </row>
-    <row r="105" spans="1:10" ht="12">
+    <row r="105" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -3135,7 +3368,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="40"/>
     </row>
-    <row r="106" spans="1:10" ht="12">
+    <row r="106" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -3145,7 +3378,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="40"/>
     </row>
-    <row r="107" spans="1:10" ht="12">
+    <row r="107" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -3155,7 +3388,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="40"/>
     </row>
-    <row r="108" spans="1:10" ht="12">
+    <row r="108" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -3165,7 +3398,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="40"/>
     </row>
-    <row r="109" spans="1:10" ht="12">
+    <row r="109" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -3175,7 +3408,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="40"/>
     </row>
-    <row r="110" spans="1:10" ht="12">
+    <row r="110" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -3185,7 +3418,7 @@
       <c r="I110" s="5"/>
       <c r="J110" s="40"/>
     </row>
-    <row r="111" spans="1:10" ht="12">
+    <row r="111" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -3195,7 +3428,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="40"/>
     </row>
-    <row r="112" spans="1:10" ht="12">
+    <row r="112" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -3205,7 +3438,7 @@
       <c r="I112" s="5"/>
       <c r="J112" s="40"/>
     </row>
-    <row r="113" spans="1:10" ht="12">
+    <row r="113" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -3215,7 +3448,7 @@
       <c r="I113" s="5"/>
       <c r="J113" s="40"/>
     </row>
-    <row r="114" spans="1:10" ht="12">
+    <row r="114" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -3225,7 +3458,7 @@
       <c r="I114" s="5"/>
       <c r="J114" s="40"/>
     </row>
-    <row r="115" spans="1:10" ht="12">
+    <row r="115" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -3235,7 +3468,7 @@
       <c r="I115" s="5"/>
       <c r="J115" s="40"/>
     </row>
-    <row r="116" spans="1:10" ht="12">
+    <row r="116" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -3245,7 +3478,7 @@
       <c r="I116" s="5"/>
       <c r="J116" s="40"/>
     </row>
-    <row r="117" spans="1:10" ht="12">
+    <row r="117" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -3255,7 +3488,7 @@
       <c r="I117" s="5"/>
       <c r="J117" s="40"/>
     </row>
-    <row r="118" spans="1:10" ht="12">
+    <row r="118" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -3265,7 +3498,7 @@
       <c r="I118" s="5"/>
       <c r="J118" s="40"/>
     </row>
-    <row r="119" spans="1:10" ht="12">
+    <row r="119" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -3275,7 +3508,7 @@
       <c r="I119" s="5"/>
       <c r="J119" s="40"/>
     </row>
-    <row r="120" spans="1:10" ht="12">
+    <row r="120" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -3285,7 +3518,7 @@
       <c r="I120" s="5"/>
       <c r="J120" s="40"/>
     </row>
-    <row r="121" spans="1:10" ht="12">
+    <row r="121" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -3295,7 +3528,7 @@
       <c r="I121" s="5"/>
       <c r="J121" s="40"/>
     </row>
-    <row r="122" spans="1:10" ht="12">
+    <row r="122" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -3305,7 +3538,7 @@
       <c r="I122" s="5"/>
       <c r="J122" s="40"/>
     </row>
-    <row r="123" spans="1:10" ht="12">
+    <row r="123" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -3315,7 +3548,7 @@
       <c r="I123" s="5"/>
       <c r="J123" s="40"/>
     </row>
-    <row r="124" spans="1:10" ht="12">
+    <row r="124" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -3325,7 +3558,7 @@
       <c r="I124" s="5"/>
       <c r="J124" s="40"/>
     </row>
-    <row r="125" spans="1:10" ht="12">
+    <row r="125" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -3335,7 +3568,7 @@
       <c r="I125" s="5"/>
       <c r="J125" s="40"/>
     </row>
-    <row r="126" spans="1:10" ht="12">
+    <row r="126" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -3345,7 +3578,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="40"/>
     </row>
-    <row r="127" spans="1:10" ht="12">
+    <row r="127" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -3355,7 +3588,7 @@
       <c r="I127" s="5"/>
       <c r="J127" s="40"/>
     </row>
-    <row r="128" spans="1:10" ht="12">
+    <row r="128" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -3365,7 +3598,7 @@
       <c r="I128" s="5"/>
       <c r="J128" s="40"/>
     </row>
-    <row r="129" spans="1:10" ht="12">
+    <row r="129" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -3375,7 +3608,7 @@
       <c r="I129" s="5"/>
       <c r="J129" s="40"/>
     </row>
-    <row r="130" spans="1:10" ht="12">
+    <row r="130" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -3385,7 +3618,7 @@
       <c r="I130" s="5"/>
       <c r="J130" s="40"/>
     </row>
-    <row r="131" spans="1:10" ht="12">
+    <row r="131" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -3395,7 +3628,7 @@
       <c r="I131" s="5"/>
       <c r="J131" s="40"/>
     </row>
-    <row r="132" spans="1:10" ht="12">
+    <row r="132" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -3405,7 +3638,7 @@
       <c r="I132" s="5"/>
       <c r="J132" s="40"/>
     </row>
-    <row r="133" spans="1:10" ht="12">
+    <row r="133" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -3415,7 +3648,7 @@
       <c r="I133" s="5"/>
       <c r="J133" s="40"/>
     </row>
-    <row r="134" spans="1:10" ht="12">
+    <row r="134" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -3425,7 +3658,7 @@
       <c r="I134" s="5"/>
       <c r="J134" s="40"/>
     </row>
-    <row r="135" spans="1:10" ht="12">
+    <row r="135" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -3435,7 +3668,7 @@
       <c r="I135" s="5"/>
       <c r="J135" s="40"/>
     </row>
-    <row r="136" spans="1:10" ht="12">
+    <row r="136" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -3445,7 +3678,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="40"/>
     </row>
-    <row r="137" spans="1:10" ht="12">
+    <row r="137" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -3455,7 +3688,7 @@
       <c r="I137" s="5"/>
       <c r="J137" s="40"/>
     </row>
-    <row r="138" spans="1:10" ht="12">
+    <row r="138" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -3465,7 +3698,7 @@
       <c r="I138" s="5"/>
       <c r="J138" s="40"/>
     </row>
-    <row r="139" spans="1:10" ht="12">
+    <row r="139" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -3475,7 +3708,7 @@
       <c r="I139" s="5"/>
       <c r="J139" s="40"/>
     </row>
-    <row r="140" spans="1:10" ht="12">
+    <row r="140" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -3485,7 +3718,7 @@
       <c r="I140" s="5"/>
       <c r="J140" s="40"/>
     </row>
-    <row r="141" spans="1:10" ht="12">
+    <row r="141" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -3495,7 +3728,7 @@
       <c r="I141" s="5"/>
       <c r="J141" s="40"/>
     </row>
-    <row r="142" spans="1:10" ht="12">
+    <row r="142" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -3505,7 +3738,7 @@
       <c r="I142" s="5"/>
       <c r="J142" s="40"/>
     </row>
-    <row r="143" spans="1:10" ht="12">
+    <row r="143" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -3515,7 +3748,7 @@
       <c r="I143" s="5"/>
       <c r="J143" s="40"/>
     </row>
-    <row r="144" spans="1:10" ht="12">
+    <row r="144" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -3525,7 +3758,7 @@
       <c r="I144" s="5"/>
       <c r="J144" s="40"/>
     </row>
-    <row r="145" spans="1:10" ht="12">
+    <row r="145" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -3535,7 +3768,7 @@
       <c r="I145" s="5"/>
       <c r="J145" s="40"/>
     </row>
-    <row r="146" spans="1:10" ht="12">
+    <row r="146" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -3545,7 +3778,7 @@
       <c r="I146" s="5"/>
       <c r="J146" s="40"/>
     </row>
-    <row r="147" spans="1:10" ht="12">
+    <row r="147" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -3555,7 +3788,7 @@
       <c r="I147" s="5"/>
       <c r="J147" s="40"/>
     </row>
-    <row r="148" spans="1:10" ht="12">
+    <row r="148" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -3565,7 +3798,7 @@
       <c r="I148" s="5"/>
       <c r="J148" s="40"/>
     </row>
-    <row r="149" spans="1:10" ht="12">
+    <row r="149" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -3575,7 +3808,7 @@
       <c r="I149" s="5"/>
       <c r="J149" s="40"/>
     </row>
-    <row r="150" spans="1:10" ht="12">
+    <row r="150" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -3585,7 +3818,7 @@
       <c r="I150" s="5"/>
       <c r="J150" s="40"/>
     </row>
-    <row r="151" spans="1:10" ht="12">
+    <row r="151" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -3595,7 +3828,7 @@
       <c r="I151" s="5"/>
       <c r="J151" s="40"/>
     </row>
-    <row r="152" spans="1:10" ht="12">
+    <row r="152" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -3605,7 +3838,7 @@
       <c r="I152" s="5"/>
       <c r="J152" s="40"/>
     </row>
-    <row r="153" spans="1:10" ht="12">
+    <row r="153" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -3615,7 +3848,7 @@
       <c r="I153" s="5"/>
       <c r="J153" s="40"/>
     </row>
-    <row r="154" spans="1:10" ht="12">
+    <row r="154" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -3625,7 +3858,7 @@
       <c r="I154" s="5"/>
       <c r="J154" s="40"/>
     </row>
-    <row r="155" spans="1:10" ht="12">
+    <row r="155" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -3635,7 +3868,7 @@
       <c r="I155" s="5"/>
       <c r="J155" s="40"/>
     </row>
-    <row r="156" spans="1:10" ht="12">
+    <row r="156" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -3645,7 +3878,7 @@
       <c r="I156" s="5"/>
       <c r="J156" s="40"/>
     </row>
-    <row r="157" spans="1:10" ht="12">
+    <row r="157" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -3655,7 +3888,7 @@
       <c r="I157" s="5"/>
       <c r="J157" s="40"/>
     </row>
-    <row r="158" spans="1:10" ht="12">
+    <row r="158" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -3665,7 +3898,7 @@
       <c r="I158" s="5"/>
       <c r="J158" s="40"/>
     </row>
-    <row r="159" spans="1:10" ht="12">
+    <row r="159" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -3675,7 +3908,7 @@
       <c r="I159" s="5"/>
       <c r="J159" s="40"/>
     </row>
-    <row r="160" spans="1:10" ht="12">
+    <row r="160" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -3685,7 +3918,7 @@
       <c r="I160" s="5"/>
       <c r="J160" s="40"/>
     </row>
-    <row r="161" spans="1:10" ht="12">
+    <row r="161" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -3695,7 +3928,7 @@
       <c r="I161" s="5"/>
       <c r="J161" s="40"/>
     </row>
-    <row r="162" spans="1:10" ht="12">
+    <row r="162" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -3705,7 +3938,7 @@
       <c r="I162" s="5"/>
       <c r="J162" s="40"/>
     </row>
-    <row r="163" spans="1:10" ht="12">
+    <row r="163" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -3715,7 +3948,7 @@
       <c r="I163" s="5"/>
       <c r="J163" s="40"/>
     </row>
-    <row r="164" spans="1:10" ht="12">
+    <row r="164" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -3725,7 +3958,7 @@
       <c r="I164" s="5"/>
       <c r="J164" s="40"/>
     </row>
-    <row r="165" spans="1:10" ht="12">
+    <row r="165" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -3735,7 +3968,7 @@
       <c r="I165" s="5"/>
       <c r="J165" s="40"/>
     </row>
-    <row r="166" spans="1:10" ht="12">
+    <row r="166" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -3745,7 +3978,7 @@
       <c r="I166" s="5"/>
       <c r="J166" s="40"/>
     </row>
-    <row r="167" spans="1:10" ht="12">
+    <row r="167" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -3755,7 +3988,7 @@
       <c r="I167" s="5"/>
       <c r="J167" s="40"/>
     </row>
-    <row r="168" spans="1:10" ht="12">
+    <row r="168" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -3765,7 +3998,7 @@
       <c r="I168" s="5"/>
       <c r="J168" s="40"/>
     </row>
-    <row r="169" spans="1:10" ht="12">
+    <row r="169" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -3775,7 +4008,7 @@
       <c r="I169" s="5"/>
       <c r="J169" s="40"/>
     </row>
-    <row r="170" spans="1:10" ht="12">
+    <row r="170" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -3785,7 +4018,7 @@
       <c r="I170" s="5"/>
       <c r="J170" s="40"/>
     </row>
-    <row r="171" spans="1:10" ht="12">
+    <row r="171" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -3795,7 +4028,7 @@
       <c r="I171" s="5"/>
       <c r="J171" s="40"/>
     </row>
-    <row r="172" spans="1:10" ht="12">
+    <row r="172" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -3805,7 +4038,7 @@
       <c r="I172" s="5"/>
       <c r="J172" s="40"/>
     </row>
-    <row r="173" spans="1:10" ht="12">
+    <row r="173" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -3815,7 +4048,7 @@
       <c r="I173" s="5"/>
       <c r="J173" s="40"/>
     </row>
-    <row r="174" spans="1:10" ht="12">
+    <row r="174" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -3825,7 +4058,7 @@
       <c r="I174" s="5"/>
       <c r="J174" s="40"/>
     </row>
-    <row r="175" spans="1:10" ht="12">
+    <row r="175" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -3835,7 +4068,7 @@
       <c r="I175" s="5"/>
       <c r="J175" s="40"/>
     </row>
-    <row r="176" spans="1:10" ht="12">
+    <row r="176" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -3845,7 +4078,7 @@
       <c r="I176" s="5"/>
       <c r="J176" s="40"/>
     </row>
-    <row r="177" spans="1:10" ht="12">
+    <row r="177" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -3855,7 +4088,7 @@
       <c r="I177" s="5"/>
       <c r="J177" s="40"/>
     </row>
-    <row r="178" spans="1:10" ht="12">
+    <row r="178" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -3865,7 +4098,7 @@
       <c r="I178" s="5"/>
       <c r="J178" s="40"/>
     </row>
-    <row r="179" spans="1:10" ht="12">
+    <row r="179" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -3875,7 +4108,7 @@
       <c r="I179" s="5"/>
       <c r="J179" s="40"/>
     </row>
-    <row r="180" spans="1:10" ht="12">
+    <row r="180" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -3885,7 +4118,7 @@
       <c r="I180" s="5"/>
       <c r="J180" s="40"/>
     </row>
-    <row r="181" spans="1:10" ht="12">
+    <row r="181" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -3895,7 +4128,7 @@
       <c r="I181" s="5"/>
       <c r="J181" s="40"/>
     </row>
-    <row r="182" spans="1:10" ht="12">
+    <row r="182" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -3905,7 +4138,7 @@
       <c r="I182" s="5"/>
       <c r="J182" s="40"/>
     </row>
-    <row r="183" spans="1:10" ht="12">
+    <row r="183" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -3915,7 +4148,7 @@
       <c r="I183" s="5"/>
       <c r="J183" s="40"/>
     </row>
-    <row r="184" spans="1:10" ht="12">
+    <row r="184" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -3925,7 +4158,7 @@
       <c r="I184" s="5"/>
       <c r="J184" s="40"/>
     </row>
-    <row r="185" spans="1:10" ht="12">
+    <row r="185" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -3935,7 +4168,7 @@
       <c r="I185" s="5"/>
       <c r="J185" s="40"/>
     </row>
-    <row r="186" spans="1:10" ht="12">
+    <row r="186" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -3945,7 +4178,7 @@
       <c r="I186" s="5"/>
       <c r="J186" s="40"/>
     </row>
-    <row r="187" spans="1:10" ht="12">
+    <row r="187" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -3955,7 +4188,7 @@
       <c r="I187" s="5"/>
       <c r="J187" s="40"/>
     </row>
-    <row r="188" spans="1:10" ht="12">
+    <row r="188" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -3965,7 +4198,7 @@
       <c r="I188" s="5"/>
       <c r="J188" s="40"/>
     </row>
-    <row r="189" spans="1:10" ht="12">
+    <row r="189" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -3975,7 +4208,7 @@
       <c r="I189" s="5"/>
       <c r="J189" s="40"/>
     </row>
-    <row r="190" spans="1:10" ht="12">
+    <row r="190" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -3985,7 +4218,7 @@
       <c r="I190" s="5"/>
       <c r="J190" s="40"/>
     </row>
-    <row r="191" spans="1:10" ht="12">
+    <row r="191" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -3995,7 +4228,7 @@
       <c r="I191" s="5"/>
       <c r="J191" s="40"/>
     </row>
-    <row r="192" spans="1:10" ht="12">
+    <row r="192" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -4005,7 +4238,7 @@
       <c r="I192" s="5"/>
       <c r="J192" s="40"/>
     </row>
-    <row r="193" spans="1:10" ht="12">
+    <row r="193" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -4015,7 +4248,7 @@
       <c r="I193" s="5"/>
       <c r="J193" s="40"/>
     </row>
-    <row r="194" spans="1:10" ht="12">
+    <row r="194" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -4025,7 +4258,7 @@
       <c r="I194" s="5"/>
       <c r="J194" s="40"/>
     </row>
-    <row r="195" spans="1:10" ht="12">
+    <row r="195" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -4035,7 +4268,7 @@
       <c r="I195" s="5"/>
       <c r="J195" s="40"/>
     </row>
-    <row r="196" spans="1:10" ht="12">
+    <row r="196" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -4045,7 +4278,7 @@
       <c r="I196" s="5"/>
       <c r="J196" s="40"/>
     </row>
-    <row r="197" spans="1:10" ht="12">
+    <row r="197" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -4055,7 +4288,7 @@
       <c r="I197" s="5"/>
       <c r="J197" s="40"/>
     </row>
-    <row r="198" spans="1:10" ht="12">
+    <row r="198" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -4065,7 +4298,7 @@
       <c r="I198" s="5"/>
       <c r="J198" s="40"/>
     </row>
-    <row r="199" spans="1:10" ht="12">
+    <row r="199" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -4075,7 +4308,7 @@
       <c r="I199" s="5"/>
       <c r="J199" s="40"/>
     </row>
-    <row r="200" spans="1:10" ht="12">
+    <row r="200" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -4085,7 +4318,7 @@
       <c r="I200" s="5"/>
       <c r="J200" s="40"/>
     </row>
-    <row r="201" spans="1:10" ht="12">
+    <row r="201" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -4095,7 +4328,7 @@
       <c r="I201" s="5"/>
       <c r="J201" s="40"/>
     </row>
-    <row r="202" spans="1:10" ht="12">
+    <row r="202" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -4105,7 +4338,7 @@
       <c r="I202" s="5"/>
       <c r="J202" s="40"/>
     </row>
-    <row r="203" spans="1:10" ht="12">
+    <row r="203" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -4115,7 +4348,7 @@
       <c r="I203" s="5"/>
       <c r="J203" s="40"/>
     </row>
-    <row r="204" spans="1:10" ht="12">
+    <row r="204" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -4125,7 +4358,7 @@
       <c r="I204" s="5"/>
       <c r="J204" s="40"/>
     </row>
-    <row r="205" spans="1:10" ht="12">
+    <row r="205" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -4135,7 +4368,7 @@
       <c r="I205" s="5"/>
       <c r="J205" s="40"/>
     </row>
-    <row r="206" spans="1:10" ht="12">
+    <row r="206" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -4145,7 +4378,7 @@
       <c r="I206" s="5"/>
       <c r="J206" s="40"/>
     </row>
-    <row r="207" spans="1:10" ht="12">
+    <row r="207" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -4155,7 +4388,7 @@
       <c r="I207" s="5"/>
       <c r="J207" s="40"/>
     </row>
-    <row r="208" spans="1:10" ht="12">
+    <row r="208" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -4165,7 +4398,7 @@
       <c r="I208" s="5"/>
       <c r="J208" s="40"/>
     </row>
-    <row r="209" spans="1:10" ht="12">
+    <row r="209" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -4175,7 +4408,7 @@
       <c r="I209" s="5"/>
       <c r="J209" s="40"/>
     </row>
-    <row r="210" spans="1:10" ht="12">
+    <row r="210" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -4185,7 +4418,7 @@
       <c r="I210" s="5"/>
       <c r="J210" s="40"/>
     </row>
-    <row r="211" spans="1:10" ht="12">
+    <row r="211" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -4195,7 +4428,7 @@
       <c r="I211" s="5"/>
       <c r="J211" s="40"/>
     </row>
-    <row r="212" spans="1:10" ht="12">
+    <row r="212" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -4205,7 +4438,7 @@
       <c r="I212" s="5"/>
       <c r="J212" s="40"/>
     </row>
-    <row r="213" spans="1:10" ht="12">
+    <row r="213" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -4215,7 +4448,7 @@
       <c r="I213" s="5"/>
       <c r="J213" s="40"/>
     </row>
-    <row r="214" spans="1:10" ht="12">
+    <row r="214" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -4225,7 +4458,7 @@
       <c r="I214" s="5"/>
       <c r="J214" s="40"/>
     </row>
-    <row r="215" spans="1:10" ht="12">
+    <row r="215" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -4235,7 +4468,7 @@
       <c r="I215" s="5"/>
       <c r="J215" s="40"/>
     </row>
-    <row r="216" spans="1:10" ht="12">
+    <row r="216" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -4245,7 +4478,7 @@
       <c r="I216" s="5"/>
       <c r="J216" s="40"/>
     </row>
-    <row r="217" spans="1:10" ht="12">
+    <row r="217" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -4255,7 +4488,7 @@
       <c r="I217" s="5"/>
       <c r="J217" s="40"/>
     </row>
-    <row r="218" spans="1:10" ht="12">
+    <row r="218" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -4265,7 +4498,7 @@
       <c r="I218" s="5"/>
       <c r="J218" s="40"/>
     </row>
-    <row r="219" spans="1:10" ht="12">
+    <row r="219" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -4275,7 +4508,7 @@
       <c r="I219" s="5"/>
       <c r="J219" s="40"/>
     </row>
-    <row r="220" spans="1:10" ht="12">
+    <row r="220" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -4285,7 +4518,7 @@
       <c r="I220" s="5"/>
       <c r="J220" s="40"/>
     </row>
-    <row r="221" spans="1:10" ht="12">
+    <row r="221" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -4295,7 +4528,7 @@
       <c r="I221" s="5"/>
       <c r="J221" s="40"/>
     </row>
-    <row r="222" spans="1:10" ht="12">
+    <row r="222" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -4305,7 +4538,7 @@
       <c r="I222" s="5"/>
       <c r="J222" s="40"/>
     </row>
-    <row r="223" spans="1:10" ht="12">
+    <row r="223" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -4315,7 +4548,7 @@
       <c r="I223" s="5"/>
       <c r="J223" s="40"/>
     </row>
-    <row r="224" spans="1:10" ht="12">
+    <row r="224" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -4325,7 +4558,7 @@
       <c r="I224" s="5"/>
       <c r="J224" s="40"/>
     </row>
-    <row r="225" spans="1:10" ht="12">
+    <row r="225" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -4335,7 +4568,7 @@
       <c r="I225" s="5"/>
       <c r="J225" s="40"/>
     </row>
-    <row r="226" spans="1:10" ht="12">
+    <row r="226" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -4345,7 +4578,7 @@
       <c r="I226" s="5"/>
       <c r="J226" s="40"/>
     </row>
-    <row r="227" spans="1:10" ht="12">
+    <row r="227" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -4355,7 +4588,7 @@
       <c r="I227" s="5"/>
       <c r="J227" s="40"/>
     </row>
-    <row r="228" spans="1:10" ht="12">
+    <row r="228" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -4365,7 +4598,7 @@
       <c r="I228" s="5"/>
       <c r="J228" s="40"/>
     </row>
-    <row r="229" spans="1:10" ht="12">
+    <row r="229" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -4375,7 +4608,7 @@
       <c r="I229" s="5"/>
       <c r="J229" s="40"/>
     </row>
-    <row r="230" spans="1:10" ht="12">
+    <row r="230" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -4385,7 +4618,7 @@
       <c r="I230" s="5"/>
       <c r="J230" s="40"/>
     </row>
-    <row r="231" spans="1:10" ht="12">
+    <row r="231" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -4395,7 +4628,7 @@
       <c r="I231" s="5"/>
       <c r="J231" s="40"/>
     </row>
-    <row r="232" spans="1:10" ht="12">
+    <row r="232" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -4405,7 +4638,7 @@
       <c r="I232" s="5"/>
       <c r="J232" s="40"/>
     </row>
-    <row r="233" spans="1:10" ht="12">
+    <row r="233" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -4415,7 +4648,7 @@
       <c r="I233" s="5"/>
       <c r="J233" s="40"/>
     </row>
-    <row r="234" spans="1:10" ht="12">
+    <row r="234" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -4425,7 +4658,7 @@
       <c r="I234" s="5"/>
       <c r="J234" s="40"/>
     </row>
-    <row r="235" spans="1:10" ht="12">
+    <row r="235" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -4435,7 +4668,7 @@
       <c r="I235" s="5"/>
       <c r="J235" s="40"/>
     </row>
-    <row r="236" spans="1:10" ht="12">
+    <row r="236" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -4445,7 +4678,7 @@
       <c r="I236" s="5"/>
       <c r="J236" s="40"/>
     </row>
-    <row r="237" spans="1:10" ht="12">
+    <row r="237" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -4455,7 +4688,7 @@
       <c r="I237" s="5"/>
       <c r="J237" s="40"/>
     </row>
-    <row r="238" spans="1:10" ht="12">
+    <row r="238" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -4465,7 +4698,7 @@
       <c r="I238" s="5"/>
       <c r="J238" s="40"/>
     </row>
-    <row r="239" spans="1:10" ht="12">
+    <row r="239" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -4475,7 +4708,7 @@
       <c r="I239" s="5"/>
       <c r="J239" s="40"/>
     </row>
-    <row r="240" spans="1:10" ht="12">
+    <row r="240" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -4485,7 +4718,7 @@
       <c r="I240" s="5"/>
       <c r="J240" s="40"/>
     </row>
-    <row r="241" spans="1:10" ht="12">
+    <row r="241" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -4495,7 +4728,7 @@
       <c r="I241" s="5"/>
       <c r="J241" s="40"/>
     </row>
-    <row r="242" spans="1:10" ht="12">
+    <row r="242" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -4505,7 +4738,7 @@
       <c r="I242" s="5"/>
       <c r="J242" s="40"/>
     </row>
-    <row r="243" spans="1:10" ht="12">
+    <row r="243" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -4515,7 +4748,7 @@
       <c r="I243" s="5"/>
       <c r="J243" s="40"/>
     </row>
-    <row r="244" spans="1:10" ht="12">
+    <row r="244" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -4525,7 +4758,7 @@
       <c r="I244" s="5"/>
       <c r="J244" s="40"/>
     </row>
-    <row r="245" spans="1:10" ht="12">
+    <row r="245" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -4535,7 +4768,7 @@
       <c r="I245" s="5"/>
       <c r="J245" s="40"/>
     </row>
-    <row r="246" spans="1:10" ht="12">
+    <row r="246" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -4545,7 +4778,7 @@
       <c r="I246" s="5"/>
       <c r="J246" s="40"/>
     </row>
-    <row r="247" spans="1:10" ht="12">
+    <row r="247" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -4555,7 +4788,7 @@
       <c r="I247" s="5"/>
       <c r="J247" s="40"/>
     </row>
-    <row r="248" spans="1:10" ht="12">
+    <row r="248" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -4565,7 +4798,7 @@
       <c r="I248" s="5"/>
       <c r="J248" s="40"/>
     </row>
-    <row r="249" spans="1:10" ht="12">
+    <row r="249" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -4575,7 +4808,7 @@
       <c r="I249" s="5"/>
       <c r="J249" s="40"/>
     </row>
-    <row r="250" spans="1:10" ht="12">
+    <row r="250" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -4585,7 +4818,7 @@
       <c r="I250" s="5"/>
       <c r="J250" s="40"/>
     </row>
-    <row r="251" spans="1:10" ht="12">
+    <row r="251" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -4595,7 +4828,7 @@
       <c r="I251" s="5"/>
       <c r="J251" s="40"/>
     </row>
-    <row r="252" spans="1:10" ht="12">
+    <row r="252" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -4605,7 +4838,7 @@
       <c r="I252" s="5"/>
       <c r="J252" s="40"/>
     </row>
-    <row r="253" spans="1:10" ht="12">
+    <row r="253" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -4615,7 +4848,7 @@
       <c r="I253" s="5"/>
       <c r="J253" s="40"/>
     </row>
-    <row r="254" spans="1:10" ht="12">
+    <row r="254" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -4625,7 +4858,7 @@
       <c r="I254" s="5"/>
       <c r="J254" s="40"/>
     </row>
-    <row r="255" spans="1:10" ht="12">
+    <row r="255" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -4635,7 +4868,7 @@
       <c r="I255" s="5"/>
       <c r="J255" s="40"/>
     </row>
-    <row r="256" spans="1:10" ht="12">
+    <row r="256" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -4645,7 +4878,7 @@
       <c r="I256" s="5"/>
       <c r="J256" s="40"/>
     </row>
-    <row r="257" spans="1:10" ht="12">
+    <row r="257" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -4655,7 +4888,7 @@
       <c r="I257" s="5"/>
       <c r="J257" s="40"/>
     </row>
-    <row r="258" spans="1:10" ht="12">
+    <row r="258" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -4665,7 +4898,7 @@
       <c r="I258" s="5"/>
       <c r="J258" s="40"/>
     </row>
-    <row r="259" spans="1:10" ht="12">
+    <row r="259" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -4675,7 +4908,7 @@
       <c r="I259" s="5"/>
       <c r="J259" s="40"/>
     </row>
-    <row r="260" spans="1:10" ht="12">
+    <row r="260" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -4685,7 +4918,7 @@
       <c r="I260" s="5"/>
       <c r="J260" s="40"/>
     </row>
-    <row r="261" spans="1:10" ht="12">
+    <row r="261" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -4695,7 +4928,7 @@
       <c r="I261" s="5"/>
       <c r="J261" s="40"/>
     </row>
-    <row r="262" spans="1:10" ht="12">
+    <row r="262" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -4705,7 +4938,7 @@
       <c r="I262" s="5"/>
       <c r="J262" s="40"/>
     </row>
-    <row r="263" spans="1:10" ht="12">
+    <row r="263" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -4715,7 +4948,7 @@
       <c r="I263" s="5"/>
       <c r="J263" s="40"/>
     </row>
-    <row r="264" spans="1:10" ht="12">
+    <row r="264" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -4725,7 +4958,7 @@
       <c r="I264" s="5"/>
       <c r="J264" s="40"/>
     </row>
-    <row r="265" spans="1:10" ht="12">
+    <row r="265" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -4735,7 +4968,7 @@
       <c r="I265" s="5"/>
       <c r="J265" s="40"/>
     </row>
-    <row r="266" spans="1:10" ht="12">
+    <row r="266" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -4745,7 +4978,7 @@
       <c r="I266" s="5"/>
       <c r="J266" s="40"/>
     </row>
-    <row r="267" spans="1:10" ht="12">
+    <row r="267" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -4755,7 +4988,7 @@
       <c r="I267" s="5"/>
       <c r="J267" s="40"/>
     </row>
-    <row r="268" spans="1:10" ht="12">
+    <row r="268" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -4765,7 +4998,7 @@
       <c r="I268" s="5"/>
       <c r="J268" s="40"/>
     </row>
-    <row r="269" spans="1:10" ht="12">
+    <row r="269" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -4775,7 +5008,7 @@
       <c r="I269" s="5"/>
       <c r="J269" s="40"/>
     </row>
-    <row r="270" spans="1:10" ht="12">
+    <row r="270" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -4785,7 +5018,7 @@
       <c r="I270" s="5"/>
       <c r="J270" s="40"/>
     </row>
-    <row r="271" spans="1:10" ht="12">
+    <row r="271" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -4795,7 +5028,7 @@
       <c r="I271" s="5"/>
       <c r="J271" s="40"/>
     </row>
-    <row r="272" spans="1:10" ht="12">
+    <row r="272" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -4805,7 +5038,7 @@
       <c r="I272" s="5"/>
       <c r="J272" s="40"/>
     </row>
-    <row r="273" spans="1:10" ht="12">
+    <row r="273" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -4815,7 +5048,7 @@
       <c r="I273" s="5"/>
       <c r="J273" s="40"/>
     </row>
-    <row r="274" spans="1:10" ht="12">
+    <row r="274" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -4825,7 +5058,7 @@
       <c r="I274" s="5"/>
       <c r="J274" s="40"/>
     </row>
-    <row r="275" spans="1:10" ht="12">
+    <row r="275" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -4835,7 +5068,7 @@
       <c r="I275" s="5"/>
       <c r="J275" s="40"/>
     </row>
-    <row r="276" spans="1:10" ht="12">
+    <row r="276" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -4845,7 +5078,7 @@
       <c r="I276" s="5"/>
       <c r="J276" s="40"/>
     </row>
-    <row r="277" spans="1:10" ht="12">
+    <row r="277" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -4855,7 +5088,7 @@
       <c r="I277" s="5"/>
       <c r="J277" s="40"/>
     </row>
-    <row r="278" spans="1:10" ht="12">
+    <row r="278" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -4865,7 +5098,7 @@
       <c r="I278" s="5"/>
       <c r="J278" s="40"/>
     </row>
-    <row r="279" spans="1:10" ht="12">
+    <row r="279" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -4875,7 +5108,7 @@
       <c r="I279" s="5"/>
       <c r="J279" s="40"/>
     </row>
-    <row r="280" spans="1:10" ht="12">
+    <row r="280" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -4885,7 +5118,7 @@
       <c r="I280" s="5"/>
       <c r="J280" s="40"/>
     </row>
-    <row r="281" spans="1:10" ht="12">
+    <row r="281" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -4895,7 +5128,7 @@
       <c r="I281" s="5"/>
       <c r="J281" s="40"/>
     </row>
-    <row r="282" spans="1:10" ht="12">
+    <row r="282" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -4905,7 +5138,7 @@
       <c r="I282" s="5"/>
       <c r="J282" s="40"/>
     </row>
-    <row r="283" spans="1:10" ht="12">
+    <row r="283" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -4915,7 +5148,7 @@
       <c r="I283" s="5"/>
       <c r="J283" s="40"/>
     </row>
-    <row r="284" spans="1:10" ht="12">
+    <row r="284" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -4925,7 +5158,7 @@
       <c r="I284" s="5"/>
       <c r="J284" s="40"/>
     </row>
-    <row r="285" spans="1:10" ht="12">
+    <row r="285" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -4935,7 +5168,7 @@
       <c r="I285" s="5"/>
       <c r="J285" s="40"/>
     </row>
-    <row r="286" spans="1:10" ht="12">
+    <row r="286" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -4945,7 +5178,7 @@
       <c r="I286" s="5"/>
       <c r="J286" s="40"/>
     </row>
-    <row r="287" spans="1:10" ht="12">
+    <row r="287" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -4955,7 +5188,7 @@
       <c r="I287" s="5"/>
       <c r="J287" s="40"/>
     </row>
-    <row r="288" spans="1:10" ht="12">
+    <row r="288" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -4965,7 +5198,7 @@
       <c r="I288" s="5"/>
       <c r="J288" s="40"/>
     </row>
-    <row r="289" spans="1:10" ht="12">
+    <row r="289" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -4975,7 +5208,7 @@
       <c r="I289" s="5"/>
       <c r="J289" s="40"/>
     </row>
-    <row r="290" spans="1:10" ht="12">
+    <row r="290" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -4985,7 +5218,7 @@
       <c r="I290" s="5"/>
       <c r="J290" s="40"/>
     </row>
-    <row r="291" spans="1:10" ht="12">
+    <row r="291" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -4995,7 +5228,7 @@
       <c r="I291" s="5"/>
       <c r="J291" s="40"/>
     </row>
-    <row r="292" spans="1:10" ht="12">
+    <row r="292" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -5005,7 +5238,7 @@
       <c r="I292" s="5"/>
       <c r="J292" s="40"/>
     </row>
-    <row r="293" spans="1:10" ht="12">
+    <row r="293" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -5015,7 +5248,7 @@
       <c r="I293" s="5"/>
       <c r="J293" s="40"/>
     </row>
-    <row r="294" spans="1:10" ht="12">
+    <row r="294" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -5025,7 +5258,7 @@
       <c r="I294" s="5"/>
       <c r="J294" s="40"/>
     </row>
-    <row r="295" spans="1:10" ht="12">
+    <row r="295" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -5035,7 +5268,7 @@
       <c r="I295" s="5"/>
       <c r="J295" s="40"/>
     </row>
-    <row r="296" spans="1:10" ht="12">
+    <row r="296" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -5045,7 +5278,7 @@
       <c r="I296" s="5"/>
       <c r="J296" s="40"/>
     </row>
-    <row r="297" spans="1:10" ht="12">
+    <row r="297" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
@@ -5055,7 +5288,7 @@
       <c r="I297" s="5"/>
       <c r="J297" s="40"/>
     </row>
-    <row r="298" spans="1:10" ht="12">
+    <row r="298" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
@@ -5065,7 +5298,7 @@
       <c r="I298" s="5"/>
       <c r="J298" s="40"/>
     </row>
-    <row r="299" spans="1:10" ht="12">
+    <row r="299" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -5075,7 +5308,7 @@
       <c r="I299" s="5"/>
       <c r="J299" s="40"/>
     </row>
-    <row r="300" spans="1:10" ht="12">
+    <row r="300" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -5085,7 +5318,7 @@
       <c r="I300" s="5"/>
       <c r="J300" s="40"/>
     </row>
-    <row r="301" spans="1:10" ht="12">
+    <row r="301" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -5095,7 +5328,7 @@
       <c r="I301" s="5"/>
       <c r="J301" s="40"/>
     </row>
-    <row r="302" spans="1:10" ht="12">
+    <row r="302" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
@@ -5105,7 +5338,7 @@
       <c r="I302" s="5"/>
       <c r="J302" s="40"/>
     </row>
-    <row r="303" spans="1:10" ht="12">
+    <row r="303" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -5115,7 +5348,7 @@
       <c r="I303" s="5"/>
       <c r="J303" s="40"/>
     </row>
-    <row r="304" spans="1:10" ht="12">
+    <row r="304" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
@@ -5125,7 +5358,7 @@
       <c r="I304" s="5"/>
       <c r="J304" s="40"/>
     </row>
-    <row r="305" spans="1:10" ht="12">
+    <row r="305" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -5135,7 +5368,7 @@
       <c r="I305" s="5"/>
       <c r="J305" s="40"/>
     </row>
-    <row r="306" spans="1:10" ht="12">
+    <row r="306" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -5145,7 +5378,7 @@
       <c r="I306" s="5"/>
       <c r="J306" s="40"/>
     </row>
-    <row r="307" spans="1:10" ht="12">
+    <row r="307" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -5155,7 +5388,7 @@
       <c r="I307" s="5"/>
       <c r="J307" s="40"/>
     </row>
-    <row r="308" spans="1:10" ht="12">
+    <row r="308" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -5165,7 +5398,7 @@
       <c r="I308" s="5"/>
       <c r="J308" s="40"/>
     </row>
-    <row r="309" spans="1:10" ht="12">
+    <row r="309" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -5175,7 +5408,7 @@
       <c r="I309" s="5"/>
       <c r="J309" s="40"/>
     </row>
-    <row r="310" spans="1:10" ht="12">
+    <row r="310" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -5185,7 +5418,7 @@
       <c r="I310" s="5"/>
       <c r="J310" s="40"/>
     </row>
-    <row r="311" spans="1:10" ht="12">
+    <row r="311" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -5195,7 +5428,7 @@
       <c r="I311" s="5"/>
       <c r="J311" s="40"/>
     </row>
-    <row r="312" spans="1:10" ht="12">
+    <row r="312" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -5205,7 +5438,7 @@
       <c r="I312" s="5"/>
       <c r="J312" s="40"/>
     </row>
-    <row r="313" spans="1:10" ht="12">
+    <row r="313" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -5215,7 +5448,7 @@
       <c r="I313" s="5"/>
       <c r="J313" s="40"/>
     </row>
-    <row r="314" spans="1:10" ht="12">
+    <row r="314" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -5225,7 +5458,7 @@
       <c r="I314" s="5"/>
       <c r="J314" s="40"/>
     </row>
-    <row r="315" spans="1:10" ht="12">
+    <row r="315" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -5235,7 +5468,7 @@
       <c r="I315" s="5"/>
       <c r="J315" s="40"/>
     </row>
-    <row r="316" spans="1:10" ht="12">
+    <row r="316" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -5245,7 +5478,7 @@
       <c r="I316" s="5"/>
       <c r="J316" s="40"/>
     </row>
-    <row r="317" spans="1:10" ht="12">
+    <row r="317" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -5255,7 +5488,7 @@
       <c r="I317" s="5"/>
       <c r="J317" s="40"/>
     </row>
-    <row r="318" spans="1:10" ht="12">
+    <row r="318" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -5265,7 +5498,7 @@
       <c r="I318" s="5"/>
       <c r="J318" s="40"/>
     </row>
-    <row r="319" spans="1:10" ht="12">
+    <row r="319" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -5275,7 +5508,7 @@
       <c r="I319" s="5"/>
       <c r="J319" s="40"/>
     </row>
-    <row r="320" spans="1:10" ht="12">
+    <row r="320" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -5285,7 +5518,7 @@
       <c r="I320" s="5"/>
       <c r="J320" s="40"/>
     </row>
-    <row r="321" spans="1:10" ht="12">
+    <row r="321" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -5295,7 +5528,7 @@
       <c r="I321" s="5"/>
       <c r="J321" s="40"/>
     </row>
-    <row r="322" spans="1:10" ht="12">
+    <row r="322" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
@@ -5305,7 +5538,7 @@
       <c r="I322" s="5"/>
       <c r="J322" s="40"/>
     </row>
-    <row r="323" spans="1:10" ht="12">
+    <row r="323" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -5315,7 +5548,7 @@
       <c r="I323" s="5"/>
       <c r="J323" s="40"/>
     </row>
-    <row r="324" spans="1:10" ht="12">
+    <row r="324" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
@@ -5325,7 +5558,7 @@
       <c r="I324" s="5"/>
       <c r="J324" s="40"/>
     </row>
-    <row r="325" spans="1:10" ht="12">
+    <row r="325" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
@@ -5335,7 +5568,7 @@
       <c r="I325" s="5"/>
       <c r="J325" s="40"/>
     </row>
-    <row r="326" spans="1:10" ht="12">
+    <row r="326" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
@@ -5345,7 +5578,7 @@
       <c r="I326" s="5"/>
       <c r="J326" s="40"/>
     </row>
-    <row r="327" spans="1:10" ht="12">
+    <row r="327" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -5355,7 +5588,7 @@
       <c r="I327" s="5"/>
       <c r="J327" s="40"/>
     </row>
-    <row r="328" spans="1:10" ht="12">
+    <row r="328" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -5365,7 +5598,7 @@
       <c r="I328" s="5"/>
       <c r="J328" s="40"/>
     </row>
-    <row r="329" spans="1:10" ht="12">
+    <row r="329" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -5375,7 +5608,7 @@
       <c r="I329" s="5"/>
       <c r="J329" s="40"/>
     </row>
-    <row r="330" spans="1:10" ht="12">
+    <row r="330" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -5385,7 +5618,7 @@
       <c r="I330" s="5"/>
       <c r="J330" s="40"/>
     </row>
-    <row r="331" spans="1:10" ht="12">
+    <row r="331" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
@@ -5395,7 +5628,7 @@
       <c r="I331" s="5"/>
       <c r="J331" s="40"/>
     </row>
-    <row r="332" spans="1:10" ht="12">
+    <row r="332" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
@@ -5405,7 +5638,7 @@
       <c r="I332" s="5"/>
       <c r="J332" s="40"/>
     </row>
-    <row r="333" spans="1:10" ht="12">
+    <row r="333" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
@@ -5415,7 +5648,7 @@
       <c r="I333" s="5"/>
       <c r="J333" s="40"/>
     </row>
-    <row r="334" spans="1:10" ht="12">
+    <row r="334" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
@@ -5425,7 +5658,7 @@
       <c r="I334" s="5"/>
       <c r="J334" s="40"/>
     </row>
-    <row r="335" spans="1:10" ht="12">
+    <row r="335" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
@@ -5435,7 +5668,7 @@
       <c r="I335" s="5"/>
       <c r="J335" s="40"/>
     </row>
-    <row r="336" spans="1:10" ht="12">
+    <row r="336" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
@@ -5445,7 +5678,7 @@
       <c r="I336" s="5"/>
       <c r="J336" s="40"/>
     </row>
-    <row r="337" spans="1:10" ht="12">
+    <row r="337" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -5455,7 +5688,7 @@
       <c r="I337" s="5"/>
       <c r="J337" s="40"/>
     </row>
-    <row r="338" spans="1:10" ht="12">
+    <row r="338" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
@@ -5465,7 +5698,7 @@
       <c r="I338" s="5"/>
       <c r="J338" s="40"/>
     </row>
-    <row r="339" spans="1:10" ht="12">
+    <row r="339" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -5475,7 +5708,7 @@
       <c r="I339" s="5"/>
       <c r="J339" s="40"/>
     </row>
-    <row r="340" spans="1:10" ht="12">
+    <row r="340" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -5485,7 +5718,7 @@
       <c r="I340" s="5"/>
       <c r="J340" s="40"/>
     </row>
-    <row r="341" spans="1:10" ht="12">
+    <row r="341" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -5495,7 +5728,7 @@
       <c r="I341" s="5"/>
       <c r="J341" s="40"/>
     </row>
-    <row r="342" spans="1:10" ht="12">
+    <row r="342" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -5505,7 +5738,7 @@
       <c r="I342" s="5"/>
       <c r="J342" s="40"/>
     </row>
-    <row r="343" spans="1:10" ht="12">
+    <row r="343" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
@@ -5515,7 +5748,7 @@
       <c r="I343" s="5"/>
       <c r="J343" s="40"/>
     </row>
-    <row r="344" spans="1:10" ht="12">
+    <row r="344" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
@@ -5525,7 +5758,7 @@
       <c r="I344" s="5"/>
       <c r="J344" s="40"/>
     </row>
-    <row r="345" spans="1:10" ht="12">
+    <row r="345" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
@@ -5535,7 +5768,7 @@
       <c r="I345" s="5"/>
       <c r="J345" s="40"/>
     </row>
-    <row r="346" spans="1:10" ht="12">
+    <row r="346" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
@@ -5545,7 +5778,7 @@
       <c r="I346" s="5"/>
       <c r="J346" s="40"/>
     </row>
-    <row r="347" spans="1:10" ht="12">
+    <row r="347" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
@@ -5555,7 +5788,7 @@
       <c r="I347" s="5"/>
       <c r="J347" s="40"/>
     </row>
-    <row r="348" spans="1:10" ht="12">
+    <row r="348" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -5565,7 +5798,7 @@
       <c r="I348" s="5"/>
       <c r="J348" s="40"/>
     </row>
-    <row r="349" spans="1:10" ht="12">
+    <row r="349" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
@@ -5575,7 +5808,7 @@
       <c r="I349" s="5"/>
       <c r="J349" s="40"/>
     </row>
-    <row r="350" spans="1:10" ht="12">
+    <row r="350" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
@@ -5585,7 +5818,7 @@
       <c r="I350" s="5"/>
       <c r="J350" s="40"/>
     </row>
-    <row r="351" spans="1:10" ht="12">
+    <row r="351" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
@@ -5595,7 +5828,7 @@
       <c r="I351" s="5"/>
       <c r="J351" s="40"/>
     </row>
-    <row r="352" spans="1:10" ht="12">
+    <row r="352" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
@@ -5605,7 +5838,7 @@
       <c r="I352" s="5"/>
       <c r="J352" s="40"/>
     </row>
-    <row r="353" spans="1:10" ht="12">
+    <row r="353" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
@@ -5615,7 +5848,7 @@
       <c r="I353" s="5"/>
       <c r="J353" s="40"/>
     </row>
-    <row r="354" spans="1:10" ht="12">
+    <row r="354" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
@@ -5625,7 +5858,7 @@
       <c r="I354" s="5"/>
       <c r="J354" s="40"/>
     </row>
-    <row r="355" spans="1:10" ht="12">
+    <row r="355" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
@@ -5635,7 +5868,7 @@
       <c r="I355" s="5"/>
       <c r="J355" s="40"/>
     </row>
-    <row r="356" spans="1:10" ht="12">
+    <row r="356" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
@@ -5645,7 +5878,7 @@
       <c r="I356" s="5"/>
       <c r="J356" s="40"/>
     </row>
-    <row r="357" spans="1:10" ht="12">
+    <row r="357" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
@@ -5655,7 +5888,7 @@
       <c r="I357" s="5"/>
       <c r="J357" s="40"/>
     </row>
-    <row r="358" spans="1:10" ht="12">
+    <row r="358" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
@@ -5665,7 +5898,7 @@
       <c r="I358" s="5"/>
       <c r="J358" s="40"/>
     </row>
-    <row r="359" spans="1:10" ht="12">
+    <row r="359" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
@@ -5675,7 +5908,7 @@
       <c r="I359" s="5"/>
       <c r="J359" s="40"/>
     </row>
-    <row r="360" spans="1:10" ht="12">
+    <row r="360" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
@@ -5685,7 +5918,7 @@
       <c r="I360" s="5"/>
       <c r="J360" s="40"/>
     </row>
-    <row r="361" spans="1:10" ht="12">
+    <row r="361" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
@@ -5695,7 +5928,7 @@
       <c r="I361" s="5"/>
       <c r="J361" s="40"/>
     </row>
-    <row r="362" spans="1:10" ht="12">
+    <row r="362" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
@@ -5705,7 +5938,7 @@
       <c r="I362" s="5"/>
       <c r="J362" s="40"/>
     </row>
-    <row r="363" spans="1:10" ht="12">
+    <row r="363" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
@@ -5715,7 +5948,7 @@
       <c r="I363" s="5"/>
       <c r="J363" s="40"/>
     </row>
-    <row r="364" spans="1:10" ht="12">
+    <row r="364" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
@@ -5725,7 +5958,7 @@
       <c r="I364" s="5"/>
       <c r="J364" s="40"/>
     </row>
-    <row r="365" spans="1:10" ht="12">
+    <row r="365" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
@@ -5735,7 +5968,7 @@
       <c r="I365" s="5"/>
       <c r="J365" s="40"/>
     </row>
-    <row r="366" spans="1:10" ht="12">
+    <row r="366" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
@@ -5745,7 +5978,7 @@
       <c r="I366" s="5"/>
       <c r="J366" s="40"/>
     </row>
-    <row r="367" spans="1:10" ht="12">
+    <row r="367" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
@@ -5755,7 +5988,7 @@
       <c r="I367" s="5"/>
       <c r="J367" s="40"/>
     </row>
-    <row r="368" spans="1:10" ht="12">
+    <row r="368" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
@@ -5765,7 +5998,7 @@
       <c r="I368" s="5"/>
       <c r="J368" s="40"/>
     </row>
-    <row r="369" spans="1:10" ht="12">
+    <row r="369" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
@@ -5775,7 +6008,7 @@
       <c r="I369" s="5"/>
       <c r="J369" s="40"/>
     </row>
-    <row r="370" spans="1:10" ht="12">
+    <row r="370" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
@@ -5785,7 +6018,7 @@
       <c r="I370" s="5"/>
       <c r="J370" s="40"/>
     </row>
-    <row r="371" spans="1:10" ht="12">
+    <row r="371" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
@@ -5795,7 +6028,7 @@
       <c r="I371" s="5"/>
       <c r="J371" s="40"/>
     </row>
-    <row r="372" spans="1:10" ht="12">
+    <row r="372" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
@@ -5805,7 +6038,7 @@
       <c r="I372" s="5"/>
       <c r="J372" s="40"/>
     </row>
-    <row r="373" spans="1:10" ht="12">
+    <row r="373" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
@@ -5815,7 +6048,7 @@
       <c r="I373" s="5"/>
       <c r="J373" s="40"/>
     </row>
-    <row r="374" spans="1:10" ht="12">
+    <row r="374" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -5825,7 +6058,7 @@
       <c r="I374" s="5"/>
       <c r="J374" s="40"/>
     </row>
-    <row r="375" spans="1:10" ht="12">
+    <row r="375" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
@@ -5835,7 +6068,7 @@
       <c r="I375" s="5"/>
       <c r="J375" s="40"/>
     </row>
-    <row r="376" spans="1:10" ht="12">
+    <row r="376" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
@@ -5845,7 +6078,7 @@
       <c r="I376" s="5"/>
       <c r="J376" s="40"/>
     </row>
-    <row r="377" spans="1:10" ht="12">
+    <row r="377" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
@@ -5855,7 +6088,7 @@
       <c r="I377" s="5"/>
       <c r="J377" s="40"/>
     </row>
-    <row r="378" spans="1:10" ht="12">
+    <row r="378" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
@@ -5865,7 +6098,7 @@
       <c r="I378" s="5"/>
       <c r="J378" s="40"/>
     </row>
-    <row r="379" spans="1:10" ht="12">
+    <row r="379" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
@@ -5875,7 +6108,7 @@
       <c r="I379" s="5"/>
       <c r="J379" s="40"/>
     </row>
-    <row r="380" spans="1:10" ht="12">
+    <row r="380" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
@@ -5885,7 +6118,7 @@
       <c r="I380" s="5"/>
       <c r="J380" s="40"/>
     </row>
-    <row r="381" spans="1:10" ht="12">
+    <row r="381" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
@@ -5895,7 +6128,7 @@
       <c r="I381" s="5"/>
       <c r="J381" s="40"/>
     </row>
-    <row r="382" spans="1:10" ht="12">
+    <row r="382" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
@@ -5905,7 +6138,7 @@
       <c r="I382" s="5"/>
       <c r="J382" s="40"/>
     </row>
-    <row r="383" spans="1:10" ht="12">
+    <row r="383" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
@@ -5915,7 +6148,7 @@
       <c r="I383" s="5"/>
       <c r="J383" s="40"/>
     </row>
-    <row r="384" spans="1:10" ht="12">
+    <row r="384" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
@@ -5925,7 +6158,7 @@
       <c r="I384" s="5"/>
       <c r="J384" s="40"/>
     </row>
-    <row r="385" spans="1:10" ht="12">
+    <row r="385" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
@@ -5935,7 +6168,7 @@
       <c r="I385" s="5"/>
       <c r="J385" s="40"/>
     </row>
-    <row r="386" spans="1:10" ht="12">
+    <row r="386" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
@@ -5945,7 +6178,7 @@
       <c r="I386" s="5"/>
       <c r="J386" s="40"/>
     </row>
-    <row r="387" spans="1:10" ht="12">
+    <row r="387" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
@@ -5955,7 +6188,7 @@
       <c r="I387" s="5"/>
       <c r="J387" s="40"/>
     </row>
-    <row r="388" spans="1:10" ht="12">
+    <row r="388" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
@@ -5965,7 +6198,7 @@
       <c r="I388" s="5"/>
       <c r="J388" s="40"/>
     </row>
-    <row r="389" spans="1:10" ht="12">
+    <row r="389" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
@@ -5975,7 +6208,7 @@
       <c r="I389" s="5"/>
       <c r="J389" s="40"/>
     </row>
-    <row r="390" spans="1:10" ht="12">
+    <row r="390" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
@@ -5985,7 +6218,7 @@
       <c r="I390" s="5"/>
       <c r="J390" s="40"/>
     </row>
-    <row r="391" spans="1:10" ht="12">
+    <row r="391" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
@@ -5995,7 +6228,7 @@
       <c r="I391" s="5"/>
       <c r="J391" s="40"/>
     </row>
-    <row r="392" spans="1:10" ht="12">
+    <row r="392" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
@@ -6005,7 +6238,7 @@
       <c r="I392" s="5"/>
       <c r="J392" s="40"/>
     </row>
-    <row r="393" spans="1:10" ht="12">
+    <row r="393" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
@@ -6015,7 +6248,7 @@
       <c r="I393" s="5"/>
       <c r="J393" s="40"/>
     </row>
-    <row r="394" spans="1:10" ht="12">
+    <row r="394" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -6025,7 +6258,7 @@
       <c r="I394" s="5"/>
       <c r="J394" s="40"/>
     </row>
-    <row r="395" spans="1:10" ht="12">
+    <row r="395" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
@@ -6035,7 +6268,7 @@
       <c r="I395" s="5"/>
       <c r="J395" s="40"/>
     </row>
-    <row r="396" spans="1:10" ht="12">
+    <row r="396" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
@@ -6045,7 +6278,7 @@
       <c r="I396" s="5"/>
       <c r="J396" s="40"/>
     </row>
-    <row r="397" spans="1:10" ht="12">
+    <row r="397" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
@@ -6055,7 +6288,7 @@
       <c r="I397" s="5"/>
       <c r="J397" s="40"/>
     </row>
-    <row r="398" spans="1:10" ht="12">
+    <row r="398" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
@@ -6065,7 +6298,7 @@
       <c r="I398" s="5"/>
       <c r="J398" s="40"/>
     </row>
-    <row r="399" spans="1:10" ht="12">
+    <row r="399" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="5"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
@@ -6075,7 +6308,7 @@
       <c r="I399" s="5"/>
       <c r="J399" s="40"/>
     </row>
-    <row r="400" spans="1:10" ht="12">
+    <row r="400" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
@@ -6085,7 +6318,7 @@
       <c r="I400" s="5"/>
       <c r="J400" s="40"/>
     </row>
-    <row r="401" spans="1:10" ht="12">
+    <row r="401" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="5"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
@@ -6095,7 +6328,7 @@
       <c r="I401" s="5"/>
       <c r="J401" s="40"/>
     </row>
-    <row r="402" spans="1:10" ht="12">
+    <row r="402" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A402" s="5"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
@@ -6105,7 +6338,7 @@
       <c r="I402" s="5"/>
       <c r="J402" s="40"/>
     </row>
-    <row r="403" spans="1:10" ht="12">
+    <row r="403" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
@@ -6115,7 +6348,7 @@
       <c r="I403" s="5"/>
       <c r="J403" s="40"/>
     </row>
-    <row r="404" spans="1:10" ht="12">
+    <row r="404" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
@@ -6125,7 +6358,7 @@
       <c r="I404" s="5"/>
       <c r="J404" s="40"/>
     </row>
-    <row r="405" spans="1:10" ht="12">
+    <row r="405" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
@@ -6135,7 +6368,7 @@
       <c r="I405" s="5"/>
       <c r="J405" s="40"/>
     </row>
-    <row r="406" spans="1:10" ht="12">
+    <row r="406" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
@@ -6145,7 +6378,7 @@
       <c r="I406" s="5"/>
       <c r="J406" s="40"/>
     </row>
-    <row r="407" spans="1:10" ht="12">
+    <row r="407" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
@@ -6155,7 +6388,7 @@
       <c r="I407" s="5"/>
       <c r="J407" s="40"/>
     </row>
-    <row r="408" spans="1:10" ht="12">
+    <row r="408" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
@@ -6165,7 +6398,7 @@
       <c r="I408" s="5"/>
       <c r="J408" s="40"/>
     </row>
-    <row r="409" spans="1:10" ht="12">
+    <row r="409" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="5"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
@@ -6175,7 +6408,7 @@
       <c r="I409" s="5"/>
       <c r="J409" s="40"/>
     </row>
-    <row r="410" spans="1:10" ht="12">
+    <row r="410" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="5"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
@@ -6185,7 +6418,7 @@
       <c r="I410" s="5"/>
       <c r="J410" s="40"/>
     </row>
-    <row r="411" spans="1:10" ht="12">
+    <row r="411" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="5"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
@@ -6195,7 +6428,7 @@
       <c r="I411" s="5"/>
       <c r="J411" s="40"/>
     </row>
-    <row r="412" spans="1:10" ht="12">
+    <row r="412" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
@@ -6205,7 +6438,7 @@
       <c r="I412" s="5"/>
       <c r="J412" s="40"/>
     </row>
-    <row r="413" spans="1:10" ht="12">
+    <row r="413" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
@@ -6215,7 +6448,7 @@
       <c r="I413" s="5"/>
       <c r="J413" s="40"/>
     </row>
-    <row r="414" spans="1:10" ht="12">
+    <row r="414" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="5"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
@@ -6225,7 +6458,7 @@
       <c r="I414" s="5"/>
       <c r="J414" s="40"/>
     </row>
-    <row r="415" spans="1:10" ht="12">
+    <row r="415" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="5"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
@@ -6235,7 +6468,7 @@
       <c r="I415" s="5"/>
       <c r="J415" s="40"/>
     </row>
-    <row r="416" spans="1:10" ht="12">
+    <row r="416" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
@@ -6245,7 +6478,7 @@
       <c r="I416" s="5"/>
       <c r="J416" s="40"/>
     </row>
-    <row r="417" spans="1:10" ht="12">
+    <row r="417" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="5"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
@@ -6255,7 +6488,7 @@
       <c r="I417" s="5"/>
       <c r="J417" s="40"/>
     </row>
-    <row r="418" spans="1:10" ht="12">
+    <row r="418" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="5"/>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
@@ -6265,7 +6498,7 @@
       <c r="I418" s="5"/>
       <c r="J418" s="40"/>
     </row>
-    <row r="419" spans="1:10" ht="12">
+    <row r="419" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="5"/>
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
@@ -6275,7 +6508,7 @@
       <c r="I419" s="5"/>
       <c r="J419" s="40"/>
     </row>
-    <row r="420" spans="1:10" ht="12">
+    <row r="420" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="5"/>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
@@ -6285,7 +6518,7 @@
       <c r="I420" s="5"/>
       <c r="J420" s="40"/>
     </row>
-    <row r="421" spans="1:10" ht="12">
+    <row r="421" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="5"/>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
@@ -6295,7 +6528,7 @@
       <c r="I421" s="5"/>
       <c r="J421" s="40"/>
     </row>
-    <row r="422" spans="1:10" ht="12">
+    <row r="422" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
@@ -6305,7 +6538,7 @@
       <c r="I422" s="5"/>
       <c r="J422" s="40"/>
     </row>
-    <row r="423" spans="1:10" ht="12">
+    <row r="423" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A423" s="5"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
@@ -6315,7 +6548,7 @@
       <c r="I423" s="5"/>
       <c r="J423" s="40"/>
     </row>
-    <row r="424" spans="1:10" ht="12">
+    <row r="424" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A424" s="5"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
@@ -6325,7 +6558,7 @@
       <c r="I424" s="5"/>
       <c r="J424" s="40"/>
     </row>
-    <row r="425" spans="1:10" ht="12">
+    <row r="425" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A425" s="5"/>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
@@ -6335,7 +6568,7 @@
       <c r="I425" s="5"/>
       <c r="J425" s="40"/>
     </row>
-    <row r="426" spans="1:10" ht="12">
+    <row r="426" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A426" s="5"/>
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
@@ -6345,7 +6578,7 @@
       <c r="I426" s="5"/>
       <c r="J426" s="40"/>
     </row>
-    <row r="427" spans="1:10" ht="12">
+    <row r="427" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A427" s="5"/>
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
@@ -6355,7 +6588,7 @@
       <c r="I427" s="5"/>
       <c r="J427" s="40"/>
     </row>
-    <row r="428" spans="1:10" ht="12">
+    <row r="428" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A428" s="5"/>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
@@ -6365,7 +6598,7 @@
       <c r="I428" s="5"/>
       <c r="J428" s="40"/>
     </row>
-    <row r="429" spans="1:10" ht="12">
+    <row r="429" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A429" s="5"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
@@ -6375,7 +6608,7 @@
       <c r="I429" s="5"/>
       <c r="J429" s="40"/>
     </row>
-    <row r="430" spans="1:10" ht="12">
+    <row r="430" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A430" s="5"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
@@ -6385,7 +6618,7 @@
       <c r="I430" s="5"/>
       <c r="J430" s="40"/>
     </row>
-    <row r="431" spans="1:10" ht="12">
+    <row r="431" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A431" s="5"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
@@ -6395,7 +6628,7 @@
       <c r="I431" s="5"/>
       <c r="J431" s="40"/>
     </row>
-    <row r="432" spans="1:10" ht="12">
+    <row r="432" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A432" s="5"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
@@ -6405,7 +6638,7 @@
       <c r="I432" s="5"/>
       <c r="J432" s="40"/>
     </row>
-    <row r="433" spans="1:10" ht="12">
+    <row r="433" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A433" s="5"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
@@ -6415,7 +6648,7 @@
       <c r="I433" s="5"/>
       <c r="J433" s="40"/>
     </row>
-    <row r="434" spans="1:10" ht="12">
+    <row r="434" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A434" s="5"/>
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
@@ -6425,7 +6658,7 @@
       <c r="I434" s="5"/>
       <c r="J434" s="40"/>
     </row>
-    <row r="435" spans="1:10" ht="12">
+    <row r="435" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A435" s="5"/>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
@@ -6435,7 +6668,7 @@
       <c r="I435" s="5"/>
       <c r="J435" s="40"/>
     </row>
-    <row r="436" spans="1:10" ht="12">
+    <row r="436" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A436" s="5"/>
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
@@ -6445,7 +6678,7 @@
       <c r="I436" s="5"/>
       <c r="J436" s="40"/>
     </row>
-    <row r="437" spans="1:10" ht="12">
+    <row r="437" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A437" s="5"/>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
@@ -6455,7 +6688,7 @@
       <c r="I437" s="5"/>
       <c r="J437" s="40"/>
     </row>
-    <row r="438" spans="1:10" ht="12">
+    <row r="438" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A438" s="5"/>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
@@ -6465,7 +6698,7 @@
       <c r="I438" s="5"/>
       <c r="J438" s="40"/>
     </row>
-    <row r="439" spans="1:10" ht="12">
+    <row r="439" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A439" s="5"/>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
@@ -6475,7 +6708,7 @@
       <c r="I439" s="5"/>
       <c r="J439" s="40"/>
     </row>
-    <row r="440" spans="1:10" ht="12">
+    <row r="440" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A440" s="5"/>
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
@@ -6485,7 +6718,7 @@
       <c r="I440" s="5"/>
       <c r="J440" s="40"/>
     </row>
-    <row r="441" spans="1:10" ht="12">
+    <row r="441" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A441" s="5"/>
       <c r="D441" s="5"/>
       <c r="E441" s="5"/>
@@ -6495,7 +6728,7 @@
       <c r="I441" s="5"/>
       <c r="J441" s="40"/>
     </row>
-    <row r="442" spans="1:10" ht="12">
+    <row r="442" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A442" s="5"/>
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
@@ -6505,7 +6738,7 @@
       <c r="I442" s="5"/>
       <c r="J442" s="40"/>
     </row>
-    <row r="443" spans="1:10" ht="12">
+    <row r="443" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A443" s="5"/>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
@@ -6515,7 +6748,7 @@
       <c r="I443" s="5"/>
       <c r="J443" s="40"/>
     </row>
-    <row r="444" spans="1:10" ht="12">
+    <row r="444" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A444" s="5"/>
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
@@ -6525,7 +6758,7 @@
       <c r="I444" s="5"/>
       <c r="J444" s="40"/>
     </row>
-    <row r="445" spans="1:10" ht="12">
+    <row r="445" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A445" s="5"/>
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
@@ -6535,7 +6768,7 @@
       <c r="I445" s="5"/>
       <c r="J445" s="40"/>
     </row>
-    <row r="446" spans="1:10" ht="12">
+    <row r="446" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A446" s="5"/>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
@@ -6545,7 +6778,7 @@
       <c r="I446" s="5"/>
       <c r="J446" s="40"/>
     </row>
-    <row r="447" spans="1:10" ht="12">
+    <row r="447" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A447" s="5"/>
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
@@ -6555,7 +6788,7 @@
       <c r="I447" s="5"/>
       <c r="J447" s="40"/>
     </row>
-    <row r="448" spans="1:10" ht="12">
+    <row r="448" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A448" s="5"/>
       <c r="D448" s="5"/>
       <c r="E448" s="5"/>
@@ -6565,7 +6798,7 @@
       <c r="I448" s="5"/>
       <c r="J448" s="40"/>
     </row>
-    <row r="449" spans="1:10" ht="12">
+    <row r="449" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A449" s="5"/>
       <c r="D449" s="5"/>
       <c r="E449" s="5"/>
@@ -6575,7 +6808,7 @@
       <c r="I449" s="5"/>
       <c r="J449" s="40"/>
     </row>
-    <row r="450" spans="1:10" ht="12">
+    <row r="450" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A450" s="5"/>
       <c r="D450" s="5"/>
       <c r="E450" s="5"/>
@@ -6585,7 +6818,7 @@
       <c r="I450" s="5"/>
       <c r="J450" s="40"/>
     </row>
-    <row r="451" spans="1:10" ht="12">
+    <row r="451" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A451" s="5"/>
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
@@ -6595,7 +6828,7 @@
       <c r="I451" s="5"/>
       <c r="J451" s="40"/>
     </row>
-    <row r="452" spans="1:10" ht="12">
+    <row r="452" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A452" s="5"/>
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
@@ -6605,7 +6838,7 @@
       <c r="I452" s="5"/>
       <c r="J452" s="40"/>
     </row>
-    <row r="453" spans="1:10" ht="12">
+    <row r="453" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A453" s="5"/>
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
@@ -6615,7 +6848,7 @@
       <c r="I453" s="5"/>
       <c r="J453" s="40"/>
     </row>
-    <row r="454" spans="1:10" ht="12">
+    <row r="454" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A454" s="5"/>
       <c r="D454" s="5"/>
       <c r="E454" s="5"/>
@@ -6625,7 +6858,7 @@
       <c r="I454" s="5"/>
       <c r="J454" s="40"/>
     </row>
-    <row r="455" spans="1:10" ht="12">
+    <row r="455" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A455" s="5"/>
       <c r="D455" s="5"/>
       <c r="E455" s="5"/>
@@ -6635,7 +6868,7 @@
       <c r="I455" s="5"/>
       <c r="J455" s="40"/>
     </row>
-    <row r="456" spans="1:10" ht="12">
+    <row r="456" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A456" s="5"/>
       <c r="D456" s="5"/>
       <c r="E456" s="5"/>
@@ -6645,7 +6878,7 @@
       <c r="I456" s="5"/>
       <c r="J456" s="40"/>
     </row>
-    <row r="457" spans="1:10" ht="12">
+    <row r="457" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A457" s="5"/>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
@@ -6655,7 +6888,7 @@
       <c r="I457" s="5"/>
       <c r="J457" s="40"/>
     </row>
-    <row r="458" spans="1:10" ht="12">
+    <row r="458" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A458" s="5"/>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
@@ -6665,7 +6898,7 @@
       <c r="I458" s="5"/>
       <c r="J458" s="40"/>
     </row>
-    <row r="459" spans="1:10" ht="12">
+    <row r="459" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A459" s="5"/>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
@@ -6675,7 +6908,7 @@
       <c r="I459" s="5"/>
       <c r="J459" s="40"/>
     </row>
-    <row r="460" spans="1:10" ht="12">
+    <row r="460" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A460" s="5"/>
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
@@ -6685,7 +6918,7 @@
       <c r="I460" s="5"/>
       <c r="J460" s="40"/>
     </row>
-    <row r="461" spans="1:10" ht="12">
+    <row r="461" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A461" s="5"/>
       <c r="D461" s="5"/>
       <c r="E461" s="5"/>
@@ -6695,7 +6928,7 @@
       <c r="I461" s="5"/>
       <c r="J461" s="40"/>
     </row>
-    <row r="462" spans="1:10" ht="12">
+    <row r="462" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A462" s="5"/>
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
@@ -6705,7 +6938,7 @@
       <c r="I462" s="5"/>
       <c r="J462" s="40"/>
     </row>
-    <row r="463" spans="1:10" ht="12">
+    <row r="463" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A463" s="5"/>
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
@@ -6715,7 +6948,7 @@
       <c r="I463" s="5"/>
       <c r="J463" s="40"/>
     </row>
-    <row r="464" spans="1:10" ht="12">
+    <row r="464" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A464" s="5"/>
       <c r="D464" s="5"/>
       <c r="E464" s="5"/>
@@ -6725,7 +6958,7 @@
       <c r="I464" s="5"/>
       <c r="J464" s="40"/>
     </row>
-    <row r="465" spans="1:10" ht="12">
+    <row r="465" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A465" s="5"/>
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
@@ -6735,7 +6968,7 @@
       <c r="I465" s="5"/>
       <c r="J465" s="40"/>
     </row>
-    <row r="466" spans="1:10" ht="12">
+    <row r="466" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A466" s="5"/>
       <c r="D466" s="5"/>
       <c r="E466" s="5"/>
@@ -6745,7 +6978,7 @@
       <c r="I466" s="5"/>
       <c r="J466" s="40"/>
     </row>
-    <row r="467" spans="1:10" ht="12">
+    <row r="467" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A467" s="5"/>
       <c r="D467" s="5"/>
       <c r="E467" s="5"/>
@@ -6755,7 +6988,7 @@
       <c r="I467" s="5"/>
       <c r="J467" s="40"/>
     </row>
-    <row r="468" spans="1:10" ht="12">
+    <row r="468" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A468" s="5"/>
       <c r="D468" s="5"/>
       <c r="E468" s="5"/>
@@ -6765,7 +6998,7 @@
       <c r="I468" s="5"/>
       <c r="J468" s="40"/>
     </row>
-    <row r="469" spans="1:10" ht="12">
+    <row r="469" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A469" s="5"/>
       <c r="D469" s="5"/>
       <c r="E469" s="5"/>
@@ -6775,7 +7008,7 @@
       <c r="I469" s="5"/>
       <c r="J469" s="40"/>
     </row>
-    <row r="470" spans="1:10" ht="12">
+    <row r="470" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A470" s="5"/>
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
@@ -6785,7 +7018,7 @@
       <c r="I470" s="5"/>
       <c r="J470" s="40"/>
     </row>
-    <row r="471" spans="1:10" ht="12">
+    <row r="471" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A471" s="5"/>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
@@ -6795,7 +7028,7 @@
       <c r="I471" s="5"/>
       <c r="J471" s="40"/>
     </row>
-    <row r="472" spans="1:10" ht="12">
+    <row r="472" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A472" s="5"/>
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
@@ -6805,7 +7038,7 @@
       <c r="I472" s="5"/>
       <c r="J472" s="40"/>
     </row>
-    <row r="473" spans="1:10" ht="12">
+    <row r="473" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A473" s="5"/>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
@@ -6815,7 +7048,7 @@
       <c r="I473" s="5"/>
       <c r="J473" s="40"/>
     </row>
-    <row r="474" spans="1:10" ht="12">
+    <row r="474" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A474" s="5"/>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
@@ -6825,7 +7058,7 @@
       <c r="I474" s="5"/>
       <c r="J474" s="40"/>
     </row>
-    <row r="475" spans="1:10" ht="12">
+    <row r="475" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A475" s="5"/>
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
@@ -6835,7 +7068,7 @@
       <c r="I475" s="5"/>
       <c r="J475" s="40"/>
     </row>
-    <row r="476" spans="1:10" ht="12">
+    <row r="476" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A476" s="5"/>
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
@@ -6845,7 +7078,7 @@
       <c r="I476" s="5"/>
       <c r="J476" s="40"/>
     </row>
-    <row r="477" spans="1:10" ht="12">
+    <row r="477" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A477" s="5"/>
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
@@ -6855,7 +7088,7 @@
       <c r="I477" s="5"/>
       <c r="J477" s="40"/>
     </row>
-    <row r="478" spans="1:10" ht="12">
+    <row r="478" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A478" s="5"/>
       <c r="D478" s="5"/>
       <c r="E478" s="5"/>
@@ -6865,7 +7098,7 @@
       <c r="I478" s="5"/>
       <c r="J478" s="40"/>
     </row>
-    <row r="479" spans="1:10" ht="12">
+    <row r="479" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A479" s="5"/>
       <c r="D479" s="5"/>
       <c r="E479" s="5"/>
@@ -6875,7 +7108,7 @@
       <c r="I479" s="5"/>
       <c r="J479" s="40"/>
     </row>
-    <row r="480" spans="1:10" ht="12">
+    <row r="480" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A480" s="5"/>
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
@@ -6885,7 +7118,7 @@
       <c r="I480" s="5"/>
       <c r="J480" s="40"/>
     </row>
-    <row r="481" spans="1:10" ht="12">
+    <row r="481" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A481" s="5"/>
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
@@ -6895,7 +7128,7 @@
       <c r="I481" s="5"/>
       <c r="J481" s="40"/>
     </row>
-    <row r="482" spans="1:10" ht="12">
+    <row r="482" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A482" s="5"/>
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
@@ -6905,7 +7138,7 @@
       <c r="I482" s="5"/>
       <c r="J482" s="40"/>
     </row>
-    <row r="483" spans="1:10" ht="12">
+    <row r="483" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A483" s="5"/>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
@@ -6915,7 +7148,7 @@
       <c r="I483" s="5"/>
       <c r="J483" s="40"/>
     </row>
-    <row r="484" spans="1:10" ht="12">
+    <row r="484" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A484" s="5"/>
       <c r="D484" s="5"/>
       <c r="E484" s="5"/>
@@ -6925,7 +7158,7 @@
       <c r="I484" s="5"/>
       <c r="J484" s="40"/>
     </row>
-    <row r="485" spans="1:10" ht="12">
+    <row r="485" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A485" s="5"/>
       <c r="D485" s="5"/>
       <c r="E485" s="5"/>
@@ -6935,7 +7168,7 @@
       <c r="I485" s="5"/>
       <c r="J485" s="40"/>
     </row>
-    <row r="486" spans="1:10" ht="12">
+    <row r="486" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A486" s="5"/>
       <c r="D486" s="5"/>
       <c r="E486" s="5"/>
@@ -6945,7 +7178,7 @@
       <c r="I486" s="5"/>
       <c r="J486" s="40"/>
     </row>
-    <row r="487" spans="1:10" ht="12">
+    <row r="487" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A487" s="5"/>
       <c r="D487" s="5"/>
       <c r="E487" s="5"/>
@@ -6955,7 +7188,7 @@
       <c r="I487" s="5"/>
       <c r="J487" s="40"/>
     </row>
-    <row r="488" spans="1:10" ht="12">
+    <row r="488" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A488" s="5"/>
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
@@ -6965,7 +7198,7 @@
       <c r="I488" s="5"/>
       <c r="J488" s="40"/>
     </row>
-    <row r="489" spans="1:10" ht="12">
+    <row r="489" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A489" s="5"/>
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
@@ -6975,7 +7208,7 @@
       <c r="I489" s="5"/>
       <c r="J489" s="40"/>
     </row>
-    <row r="490" spans="1:10" ht="12">
+    <row r="490" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A490" s="5"/>
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
@@ -6985,7 +7218,7 @@
       <c r="I490" s="5"/>
       <c r="J490" s="40"/>
     </row>
-    <row r="491" spans="1:10" ht="12">
+    <row r="491" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A491" s="5"/>
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
@@ -6995,7 +7228,7 @@
       <c r="I491" s="5"/>
       <c r="J491" s="40"/>
     </row>
-    <row r="492" spans="1:10" ht="12">
+    <row r="492" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A492" s="5"/>
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
@@ -7005,7 +7238,7 @@
       <c r="I492" s="5"/>
       <c r="J492" s="40"/>
     </row>
-    <row r="493" spans="1:10" ht="12">
+    <row r="493" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A493" s="5"/>
       <c r="D493" s="5"/>
       <c r="E493" s="5"/>
@@ -7015,7 +7248,7 @@
       <c r="I493" s="5"/>
       <c r="J493" s="40"/>
     </row>
-    <row r="494" spans="1:10" ht="12">
+    <row r="494" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A494" s="5"/>
       <c r="D494" s="5"/>
       <c r="E494" s="5"/>
@@ -7025,7 +7258,7 @@
       <c r="I494" s="5"/>
       <c r="J494" s="40"/>
     </row>
-    <row r="495" spans="1:10" ht="12">
+    <row r="495" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A495" s="5"/>
       <c r="D495" s="5"/>
       <c r="E495" s="5"/>
@@ -7035,7 +7268,7 @@
       <c r="I495" s="5"/>
       <c r="J495" s="40"/>
     </row>
-    <row r="496" spans="1:10" ht="12">
+    <row r="496" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A496" s="5"/>
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
@@ -7045,7 +7278,7 @@
       <c r="I496" s="5"/>
       <c r="J496" s="40"/>
     </row>
-    <row r="497" spans="1:10" ht="12">
+    <row r="497" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A497" s="5"/>
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
@@ -7055,7 +7288,7 @@
       <c r="I497" s="5"/>
       <c r="J497" s="40"/>
     </row>
-    <row r="498" spans="1:10" ht="12">
+    <row r="498" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A498" s="5"/>
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
@@ -7065,7 +7298,7 @@
       <c r="I498" s="5"/>
       <c r="J498" s="40"/>
     </row>
-    <row r="499" spans="1:10" ht="12">
+    <row r="499" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A499" s="5"/>
       <c r="D499" s="5"/>
       <c r="E499" s="5"/>
@@ -7075,7 +7308,7 @@
       <c r="I499" s="5"/>
       <c r="J499" s="40"/>
     </row>
-    <row r="500" spans="1:10" ht="12">
+    <row r="500" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A500" s="5"/>
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
@@ -7085,7 +7318,7 @@
       <c r="I500" s="5"/>
       <c r="J500" s="40"/>
     </row>
-    <row r="501" spans="1:10" ht="12">
+    <row r="501" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A501" s="5"/>
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
@@ -7095,7 +7328,7 @@
       <c r="I501" s="5"/>
       <c r="J501" s="40"/>
     </row>
-    <row r="502" spans="1:10" ht="12">
+    <row r="502" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A502" s="5"/>
       <c r="D502" s="5"/>
       <c r="E502" s="5"/>
@@ -7105,7 +7338,7 @@
       <c r="I502" s="5"/>
       <c r="J502" s="40"/>
     </row>
-    <row r="503" spans="1:10" ht="12">
+    <row r="503" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A503" s="5"/>
       <c r="D503" s="5"/>
       <c r="E503" s="5"/>
@@ -7115,7 +7348,7 @@
       <c r="I503" s="5"/>
       <c r="J503" s="40"/>
     </row>
-    <row r="504" spans="1:10" ht="12">
+    <row r="504" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A504" s="5"/>
       <c r="D504" s="5"/>
       <c r="E504" s="5"/>
@@ -7125,7 +7358,7 @@
       <c r="I504" s="5"/>
       <c r="J504" s="40"/>
     </row>
-    <row r="505" spans="1:10" ht="12">
+    <row r="505" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A505" s="5"/>
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
@@ -7135,7 +7368,7 @@
       <c r="I505" s="5"/>
       <c r="J505" s="40"/>
     </row>
-    <row r="506" spans="1:10" ht="12">
+    <row r="506" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A506" s="5"/>
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
@@ -7145,7 +7378,7 @@
       <c r="I506" s="5"/>
       <c r="J506" s="40"/>
     </row>
-    <row r="507" spans="1:10" ht="12">
+    <row r="507" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A507" s="5"/>
       <c r="D507" s="5"/>
       <c r="E507" s="5"/>
@@ -7155,7 +7388,7 @@
       <c r="I507" s="5"/>
       <c r="J507" s="40"/>
     </row>
-    <row r="508" spans="1:10" ht="12">
+    <row r="508" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A508" s="5"/>
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
@@ -7165,7 +7398,7 @@
       <c r="I508" s="5"/>
       <c r="J508" s="40"/>
     </row>
-    <row r="509" spans="1:10" ht="12">
+    <row r="509" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A509" s="5"/>
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
@@ -7175,7 +7408,7 @@
       <c r="I509" s="5"/>
       <c r="J509" s="40"/>
     </row>
-    <row r="510" spans="1:10" ht="12">
+    <row r="510" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A510" s="5"/>
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
@@ -7185,7 +7418,7 @@
       <c r="I510" s="5"/>
       <c r="J510" s="40"/>
     </row>
-    <row r="511" spans="1:10" ht="12">
+    <row r="511" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A511" s="5"/>
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
@@ -7195,7 +7428,7 @@
       <c r="I511" s="5"/>
       <c r="J511" s="40"/>
     </row>
-    <row r="512" spans="1:10" ht="12">
+    <row r="512" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A512" s="5"/>
       <c r="D512" s="5"/>
       <c r="E512" s="5"/>
@@ -7205,7 +7438,7 @@
       <c r="I512" s="5"/>
       <c r="J512" s="40"/>
     </row>
-    <row r="513" spans="1:10" ht="12">
+    <row r="513" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A513" s="5"/>
       <c r="D513" s="5"/>
       <c r="E513" s="5"/>
@@ -7215,7 +7448,7 @@
       <c r="I513" s="5"/>
       <c r="J513" s="40"/>
     </row>
-    <row r="514" spans="1:10" ht="12">
+    <row r="514" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A514" s="5"/>
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
@@ -7225,7 +7458,7 @@
       <c r="I514" s="5"/>
       <c r="J514" s="40"/>
     </row>
-    <row r="515" spans="1:10" ht="12">
+    <row r="515" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A515" s="5"/>
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
@@ -7235,7 +7468,7 @@
       <c r="I515" s="5"/>
       <c r="J515" s="40"/>
     </row>
-    <row r="516" spans="1:10" ht="12">
+    <row r="516" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A516" s="5"/>
       <c r="D516" s="5"/>
       <c r="E516" s="5"/>
@@ -7245,7 +7478,7 @@
       <c r="I516" s="5"/>
       <c r="J516" s="40"/>
     </row>
-    <row r="517" spans="1:10" ht="12">
+    <row r="517" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A517" s="5"/>
       <c r="D517" s="5"/>
       <c r="E517" s="5"/>
@@ -7255,7 +7488,7 @@
       <c r="I517" s="5"/>
       <c r="J517" s="40"/>
     </row>
-    <row r="518" spans="1:10" ht="12">
+    <row r="518" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A518" s="5"/>
       <c r="D518" s="5"/>
       <c r="E518" s="5"/>
@@ -7265,7 +7498,7 @@
       <c r="I518" s="5"/>
       <c r="J518" s="40"/>
     </row>
-    <row r="519" spans="1:10" ht="12">
+    <row r="519" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A519" s="5"/>
       <c r="D519" s="5"/>
       <c r="E519" s="5"/>
@@ -7275,7 +7508,7 @@
       <c r="I519" s="5"/>
       <c r="J519" s="40"/>
     </row>
-    <row r="520" spans="1:10" ht="12">
+    <row r="520" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A520" s="5"/>
       <c r="D520" s="5"/>
       <c r="E520" s="5"/>
@@ -7285,7 +7518,7 @@
       <c r="I520" s="5"/>
       <c r="J520" s="40"/>
     </row>
-    <row r="521" spans="1:10" ht="12">
+    <row r="521" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A521" s="5"/>
       <c r="D521" s="5"/>
       <c r="E521" s="5"/>
@@ -7295,7 +7528,7 @@
       <c r="I521" s="5"/>
       <c r="J521" s="40"/>
     </row>
-    <row r="522" spans="1:10" ht="12">
+    <row r="522" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A522" s="5"/>
       <c r="D522" s="5"/>
       <c r="E522" s="5"/>
@@ -7305,7 +7538,7 @@
       <c r="I522" s="5"/>
       <c r="J522" s="40"/>
     </row>
-    <row r="523" spans="1:10" ht="12">
+    <row r="523" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A523" s="5"/>
       <c r="D523" s="5"/>
       <c r="E523" s="5"/>
@@ -7315,7 +7548,7 @@
       <c r="I523" s="5"/>
       <c r="J523" s="40"/>
     </row>
-    <row r="524" spans="1:10" ht="12">
+    <row r="524" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A524" s="5"/>
       <c r="D524" s="5"/>
       <c r="E524" s="5"/>
@@ -7325,7 +7558,7 @@
       <c r="I524" s="5"/>
       <c r="J524" s="40"/>
     </row>
-    <row r="525" spans="1:10" ht="12">
+    <row r="525" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A525" s="5"/>
       <c r="D525" s="5"/>
       <c r="E525" s="5"/>
@@ -7335,7 +7568,7 @@
       <c r="I525" s="5"/>
       <c r="J525" s="40"/>
     </row>
-    <row r="526" spans="1:10" ht="12">
+    <row r="526" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A526" s="5"/>
       <c r="D526" s="5"/>
       <c r="E526" s="5"/>
@@ -7345,7 +7578,7 @@
       <c r="I526" s="5"/>
       <c r="J526" s="40"/>
     </row>
-    <row r="527" spans="1:10" ht="12">
+    <row r="527" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A527" s="5"/>
       <c r="D527" s="5"/>
       <c r="E527" s="5"/>
@@ -7355,7 +7588,7 @@
       <c r="I527" s="5"/>
       <c r="J527" s="40"/>
     </row>
-    <row r="528" spans="1:10" ht="12">
+    <row r="528" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A528" s="5"/>
       <c r="D528" s="5"/>
       <c r="E528" s="5"/>
@@ -7365,7 +7598,7 @@
       <c r="I528" s="5"/>
       <c r="J528" s="40"/>
     </row>
-    <row r="529" spans="1:10" ht="12">
+    <row r="529" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A529" s="5"/>
       <c r="D529" s="5"/>
       <c r="E529" s="5"/>
@@ -7375,7 +7608,7 @@
       <c r="I529" s="5"/>
       <c r="J529" s="40"/>
     </row>
-    <row r="530" spans="1:10" ht="12">
+    <row r="530" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A530" s="5"/>
       <c r="D530" s="5"/>
       <c r="E530" s="5"/>
@@ -7385,7 +7618,7 @@
       <c r="I530" s="5"/>
       <c r="J530" s="40"/>
     </row>
-    <row r="531" spans="1:10" ht="12">
+    <row r="531" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A531" s="5"/>
       <c r="D531" s="5"/>
       <c r="E531" s="5"/>
@@ -7395,7 +7628,7 @@
       <c r="I531" s="5"/>
       <c r="J531" s="40"/>
     </row>
-    <row r="532" spans="1:10" ht="12">
+    <row r="532" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A532" s="5"/>
       <c r="D532" s="5"/>
       <c r="E532" s="5"/>
@@ -7405,7 +7638,7 @@
       <c r="I532" s="5"/>
       <c r="J532" s="40"/>
     </row>
-    <row r="533" spans="1:10" ht="12">
+    <row r="533" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A533" s="5"/>
       <c r="D533" s="5"/>
       <c r="E533" s="5"/>
@@ -7415,7 +7648,7 @@
       <c r="I533" s="5"/>
       <c r="J533" s="40"/>
     </row>
-    <row r="534" spans="1:10" ht="12">
+    <row r="534" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A534" s="5"/>
       <c r="D534" s="5"/>
       <c r="E534" s="5"/>
@@ -7425,7 +7658,7 @@
       <c r="I534" s="5"/>
       <c r="J534" s="40"/>
     </row>
-    <row r="535" spans="1:10" ht="12">
+    <row r="535" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A535" s="5"/>
       <c r="D535" s="5"/>
       <c r="E535" s="5"/>
@@ -7435,7 +7668,7 @@
       <c r="I535" s="5"/>
       <c r="J535" s="40"/>
     </row>
-    <row r="536" spans="1:10" ht="12">
+    <row r="536" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A536" s="5"/>
       <c r="D536" s="5"/>
       <c r="E536" s="5"/>
@@ -7445,7 +7678,7 @@
       <c r="I536" s="5"/>
       <c r="J536" s="40"/>
     </row>
-    <row r="537" spans="1:10" ht="12">
+    <row r="537" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A537" s="5"/>
       <c r="D537" s="5"/>
       <c r="E537" s="5"/>
@@ -7455,7 +7688,7 @@
       <c r="I537" s="5"/>
       <c r="J537" s="40"/>
     </row>
-    <row r="538" spans="1:10" ht="12">
+    <row r="538" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A538" s="5"/>
       <c r="D538" s="5"/>
       <c r="E538" s="5"/>
@@ -7465,7 +7698,7 @@
       <c r="I538" s="5"/>
       <c r="J538" s="40"/>
     </row>
-    <row r="539" spans="1:10" ht="12">
+    <row r="539" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A539" s="5"/>
       <c r="D539" s="5"/>
       <c r="E539" s="5"/>
@@ -7475,7 +7708,7 @@
       <c r="I539" s="5"/>
       <c r="J539" s="40"/>
     </row>
-    <row r="540" spans="1:10" ht="12">
+    <row r="540" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A540" s="5"/>
       <c r="D540" s="5"/>
       <c r="E540" s="5"/>
@@ -7485,7 +7718,7 @@
       <c r="I540" s="5"/>
       <c r="J540" s="40"/>
     </row>
-    <row r="541" spans="1:10" ht="12">
+    <row r="541" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A541" s="5"/>
       <c r="D541" s="5"/>
       <c r="E541" s="5"/>
@@ -7495,7 +7728,7 @@
       <c r="I541" s="5"/>
       <c r="J541" s="40"/>
     </row>
-    <row r="542" spans="1:10" ht="12">
+    <row r="542" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A542" s="5"/>
       <c r="D542" s="5"/>
       <c r="E542" s="5"/>
@@ -7505,7 +7738,7 @@
       <c r="I542" s="5"/>
       <c r="J542" s="40"/>
     </row>
-    <row r="543" spans="1:10" ht="12">
+    <row r="543" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A543" s="5"/>
       <c r="D543" s="5"/>
       <c r="E543" s="5"/>
@@ -7515,7 +7748,7 @@
       <c r="I543" s="5"/>
       <c r="J543" s="40"/>
     </row>
-    <row r="544" spans="1:10" ht="12">
+    <row r="544" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A544" s="5"/>
       <c r="D544" s="5"/>
       <c r="E544" s="5"/>
@@ -7525,7 +7758,7 @@
       <c r="I544" s="5"/>
       <c r="J544" s="40"/>
     </row>
-    <row r="545" spans="1:10" ht="12">
+    <row r="545" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A545" s="5"/>
       <c r="D545" s="5"/>
       <c r="E545" s="5"/>
@@ -7535,7 +7768,7 @@
       <c r="I545" s="5"/>
       <c r="J545" s="40"/>
     </row>
-    <row r="546" spans="1:10" ht="12">
+    <row r="546" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A546" s="5"/>
       <c r="D546" s="5"/>
       <c r="E546" s="5"/>
@@ -7545,7 +7778,7 @@
       <c r="I546" s="5"/>
       <c r="J546" s="40"/>
     </row>
-    <row r="547" spans="1:10" ht="12">
+    <row r="547" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A547" s="5"/>
       <c r="D547" s="5"/>
       <c r="E547" s="5"/>
@@ -7555,7 +7788,7 @@
       <c r="I547" s="5"/>
       <c r="J547" s="40"/>
     </row>
-    <row r="548" spans="1:10" ht="12">
+    <row r="548" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A548" s="5"/>
       <c r="D548" s="5"/>
       <c r="E548" s="5"/>
@@ -7565,7 +7798,7 @@
       <c r="I548" s="5"/>
       <c r="J548" s="40"/>
     </row>
-    <row r="549" spans="1:10" ht="12">
+    <row r="549" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A549" s="5"/>
       <c r="D549" s="5"/>
       <c r="E549" s="5"/>
@@ -7575,7 +7808,7 @@
       <c r="I549" s="5"/>
       <c r="J549" s="40"/>
     </row>
-    <row r="550" spans="1:10" ht="12">
+    <row r="550" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A550" s="5"/>
       <c r="D550" s="5"/>
       <c r="E550" s="5"/>
@@ -7585,7 +7818,7 @@
       <c r="I550" s="5"/>
       <c r="J550" s="40"/>
     </row>
-    <row r="551" spans="1:10" ht="12">
+    <row r="551" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A551" s="5"/>
       <c r="D551" s="5"/>
       <c r="E551" s="5"/>
@@ -7595,7 +7828,7 @@
       <c r="I551" s="5"/>
       <c r="J551" s="40"/>
     </row>
-    <row r="552" spans="1:10" ht="12">
+    <row r="552" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A552" s="5"/>
       <c r="D552" s="5"/>
       <c r="E552" s="5"/>
@@ -7605,7 +7838,7 @@
       <c r="I552" s="5"/>
       <c r="J552" s="40"/>
     </row>
-    <row r="553" spans="1:10" ht="12">
+    <row r="553" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A553" s="5"/>
       <c r="D553" s="5"/>
       <c r="E553" s="5"/>
@@ -7615,7 +7848,7 @@
       <c r="I553" s="5"/>
       <c r="J553" s="40"/>
     </row>
-    <row r="554" spans="1:10" ht="12">
+    <row r="554" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A554" s="5"/>
       <c r="D554" s="5"/>
       <c r="E554" s="5"/>
@@ -7625,7 +7858,7 @@
       <c r="I554" s="5"/>
       <c r="J554" s="40"/>
     </row>
-    <row r="555" spans="1:10" ht="12">
+    <row r="555" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A555" s="5"/>
       <c r="D555" s="5"/>
       <c r="E555" s="5"/>
@@ -7635,7 +7868,7 @@
       <c r="I555" s="5"/>
       <c r="J555" s="40"/>
     </row>
-    <row r="556" spans="1:10" ht="12">
+    <row r="556" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A556" s="5"/>
       <c r="D556" s="5"/>
       <c r="E556" s="5"/>
@@ -7645,7 +7878,7 @@
       <c r="I556" s="5"/>
       <c r="J556" s="40"/>
     </row>
-    <row r="557" spans="1:10" ht="12">
+    <row r="557" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A557" s="5"/>
       <c r="D557" s="5"/>
       <c r="E557" s="5"/>
@@ -7655,7 +7888,7 @@
       <c r="I557" s="5"/>
       <c r="J557" s="40"/>
     </row>
-    <row r="558" spans="1:10" ht="12">
+    <row r="558" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A558" s="5"/>
       <c r="D558" s="5"/>
       <c r="E558" s="5"/>
@@ -7665,7 +7898,7 @@
       <c r="I558" s="5"/>
       <c r="J558" s="40"/>
     </row>
-    <row r="559" spans="1:10" ht="12">
+    <row r="559" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A559" s="5"/>
       <c r="D559" s="5"/>
       <c r="E559" s="5"/>
@@ -7675,7 +7908,7 @@
       <c r="I559" s="5"/>
       <c r="J559" s="40"/>
     </row>
-    <row r="560" spans="1:10" ht="12">
+    <row r="560" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A560" s="5"/>
       <c r="D560" s="5"/>
       <c r="E560" s="5"/>
@@ -7685,7 +7918,7 @@
       <c r="I560" s="5"/>
       <c r="J560" s="40"/>
     </row>
-    <row r="561" spans="1:10" ht="12">
+    <row r="561" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A561" s="5"/>
       <c r="D561" s="5"/>
       <c r="E561" s="5"/>
@@ -7695,7 +7928,7 @@
       <c r="I561" s="5"/>
       <c r="J561" s="40"/>
     </row>
-    <row r="562" spans="1:10" ht="12">
+    <row r="562" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A562" s="5"/>
       <c r="D562" s="5"/>
       <c r="E562" s="5"/>
@@ -7705,7 +7938,7 @@
       <c r="I562" s="5"/>
       <c r="J562" s="40"/>
     </row>
-    <row r="563" spans="1:10" ht="12">
+    <row r="563" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A563" s="5"/>
       <c r="D563" s="5"/>
       <c r="E563" s="5"/>
@@ -7715,7 +7948,7 @@
       <c r="I563" s="5"/>
       <c r="J563" s="40"/>
     </row>
-    <row r="564" spans="1:10" ht="12">
+    <row r="564" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A564" s="5"/>
       <c r="D564" s="5"/>
       <c r="E564" s="5"/>
@@ -7725,7 +7958,7 @@
       <c r="I564" s="5"/>
       <c r="J564" s="40"/>
     </row>
-    <row r="565" spans="1:10" ht="12">
+    <row r="565" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A565" s="5"/>
       <c r="D565" s="5"/>
       <c r="E565" s="5"/>
@@ -7735,7 +7968,7 @@
       <c r="I565" s="5"/>
       <c r="J565" s="40"/>
     </row>
-    <row r="566" spans="1:10" ht="12">
+    <row r="566" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A566" s="5"/>
       <c r="D566" s="5"/>
       <c r="E566" s="5"/>
@@ -7745,7 +7978,7 @@
       <c r="I566" s="5"/>
       <c r="J566" s="40"/>
     </row>
-    <row r="567" spans="1:10" ht="12">
+    <row r="567" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A567" s="5"/>
       <c r="D567" s="5"/>
       <c r="E567" s="5"/>
@@ -7755,7 +7988,7 @@
       <c r="I567" s="5"/>
       <c r="J567" s="40"/>
     </row>
-    <row r="568" spans="1:10" ht="12">
+    <row r="568" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A568" s="5"/>
       <c r="D568" s="5"/>
       <c r="E568" s="5"/>
@@ -7765,7 +7998,7 @@
       <c r="I568" s="5"/>
       <c r="J568" s="40"/>
     </row>
-    <row r="569" spans="1:10" ht="12">
+    <row r="569" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A569" s="5"/>
       <c r="D569" s="5"/>
       <c r="E569" s="5"/>
@@ -7775,7 +8008,7 @@
       <c r="I569" s="5"/>
       <c r="J569" s="40"/>
     </row>
-    <row r="570" spans="1:10" ht="12">
+    <row r="570" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A570" s="5"/>
       <c r="D570" s="5"/>
       <c r="E570" s="5"/>
@@ -7785,7 +8018,7 @@
       <c r="I570" s="5"/>
       <c r="J570" s="40"/>
     </row>
-    <row r="571" spans="1:10" ht="12">
+    <row r="571" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A571" s="5"/>
       <c r="D571" s="5"/>
       <c r="E571" s="5"/>
@@ -7795,7 +8028,7 @@
       <c r="I571" s="5"/>
       <c r="J571" s="40"/>
     </row>
-    <row r="572" spans="1:10" ht="12">
+    <row r="572" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A572" s="5"/>
       <c r="D572" s="5"/>
       <c r="E572" s="5"/>
@@ -7805,7 +8038,7 @@
       <c r="I572" s="5"/>
       <c r="J572" s="40"/>
     </row>
-    <row r="573" spans="1:10" ht="12">
+    <row r="573" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A573" s="5"/>
       <c r="D573" s="5"/>
       <c r="E573" s="5"/>
@@ -7815,7 +8048,7 @@
       <c r="I573" s="5"/>
       <c r="J573" s="40"/>
     </row>
-    <row r="574" spans="1:10" ht="12">
+    <row r="574" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A574" s="5"/>
       <c r="D574" s="5"/>
       <c r="E574" s="5"/>
@@ -7825,7 +8058,7 @@
       <c r="I574" s="5"/>
       <c r="J574" s="40"/>
     </row>
-    <row r="575" spans="1:10" ht="12">
+    <row r="575" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A575" s="5"/>
       <c r="D575" s="5"/>
       <c r="E575" s="5"/>
@@ -7835,7 +8068,7 @@
       <c r="I575" s="5"/>
       <c r="J575" s="40"/>
     </row>
-    <row r="576" spans="1:10" ht="12">
+    <row r="576" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A576" s="5"/>
       <c r="D576" s="5"/>
       <c r="E576" s="5"/>
@@ -7845,7 +8078,7 @@
       <c r="I576" s="5"/>
       <c r="J576" s="40"/>
     </row>
-    <row r="577" spans="1:10" ht="12">
+    <row r="577" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A577" s="5"/>
       <c r="D577" s="5"/>
       <c r="E577" s="5"/>
@@ -7855,7 +8088,7 @@
       <c r="I577" s="5"/>
       <c r="J577" s="40"/>
     </row>
-    <row r="578" spans="1:10" ht="12">
+    <row r="578" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A578" s="5"/>
       <c r="D578" s="5"/>
       <c r="E578" s="5"/>
@@ -7865,7 +8098,7 @@
       <c r="I578" s="5"/>
       <c r="J578" s="40"/>
     </row>
-    <row r="579" spans="1:10" ht="12">
+    <row r="579" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A579" s="5"/>
       <c r="D579" s="5"/>
       <c r="E579" s="5"/>
@@ -7875,7 +8108,7 @@
       <c r="I579" s="5"/>
       <c r="J579" s="40"/>
     </row>
-    <row r="580" spans="1:10" ht="12">
+    <row r="580" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A580" s="5"/>
       <c r="D580" s="5"/>
       <c r="E580" s="5"/>
@@ -7885,7 +8118,7 @@
       <c r="I580" s="5"/>
       <c r="J580" s="40"/>
     </row>
-    <row r="581" spans="1:10" ht="12">
+    <row r="581" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A581" s="5"/>
       <c r="D581" s="5"/>
       <c r="E581" s="5"/>
@@ -7895,7 +8128,7 @@
       <c r="I581" s="5"/>
       <c r="J581" s="40"/>
     </row>
-    <row r="582" spans="1:10" ht="12">
+    <row r="582" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A582" s="5"/>
       <c r="D582" s="5"/>
       <c r="E582" s="5"/>
@@ -7905,7 +8138,7 @@
       <c r="I582" s="5"/>
       <c r="J582" s="40"/>
     </row>
-    <row r="583" spans="1:10" ht="12">
+    <row r="583" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A583" s="5"/>
       <c r="D583" s="5"/>
       <c r="E583" s="5"/>
@@ -7915,7 +8148,7 @@
       <c r="I583" s="5"/>
       <c r="J583" s="40"/>
     </row>
-    <row r="584" spans="1:10" ht="12">
+    <row r="584" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A584" s="5"/>
       <c r="D584" s="5"/>
       <c r="E584" s="5"/>
@@ -7925,7 +8158,7 @@
       <c r="I584" s="5"/>
       <c r="J584" s="40"/>
     </row>
-    <row r="585" spans="1:10" ht="12">
+    <row r="585" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A585" s="5"/>
       <c r="D585" s="5"/>
       <c r="E585" s="5"/>
@@ -7935,7 +8168,7 @@
       <c r="I585" s="5"/>
       <c r="J585" s="40"/>
     </row>
-    <row r="586" spans="1:10" ht="12">
+    <row r="586" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A586" s="5"/>
       <c r="D586" s="5"/>
       <c r="E586" s="5"/>
@@ -7945,7 +8178,7 @@
       <c r="I586" s="5"/>
       <c r="J586" s="40"/>
     </row>
-    <row r="587" spans="1:10" ht="12">
+    <row r="587" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A587" s="5"/>
       <c r="D587" s="5"/>
       <c r="E587" s="5"/>
@@ -7955,7 +8188,7 @@
       <c r="I587" s="5"/>
       <c r="J587" s="40"/>
     </row>
-    <row r="588" spans="1:10" ht="12">
+    <row r="588" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A588" s="5"/>
       <c r="D588" s="5"/>
       <c r="E588" s="5"/>
@@ -7965,7 +8198,7 @@
       <c r="I588" s="5"/>
       <c r="J588" s="40"/>
     </row>
-    <row r="589" spans="1:10" ht="12">
+    <row r="589" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A589" s="5"/>
       <c r="D589" s="5"/>
       <c r="E589" s="5"/>
@@ -7975,7 +8208,7 @@
       <c r="I589" s="5"/>
       <c r="J589" s="40"/>
     </row>
-    <row r="590" spans="1:10" ht="12">
+    <row r="590" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A590" s="5"/>
       <c r="D590" s="5"/>
       <c r="E590" s="5"/>
@@ -7985,7 +8218,7 @@
       <c r="I590" s="5"/>
       <c r="J590" s="40"/>
     </row>
-    <row r="591" spans="1:10" ht="12">
+    <row r="591" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A591" s="5"/>
       <c r="D591" s="5"/>
       <c r="E591" s="5"/>
@@ -7995,7 +8228,7 @@
       <c r="I591" s="5"/>
       <c r="J591" s="40"/>
     </row>
-    <row r="592" spans="1:10" ht="12">
+    <row r="592" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A592" s="5"/>
       <c r="D592" s="5"/>
       <c r="E592" s="5"/>
@@ -8005,7 +8238,7 @@
       <c r="I592" s="5"/>
       <c r="J592" s="40"/>
     </row>
-    <row r="593" spans="1:10" ht="12">
+    <row r="593" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A593" s="5"/>
       <c r="D593" s="5"/>
       <c r="E593" s="5"/>
@@ -8015,7 +8248,7 @@
       <c r="I593" s="5"/>
       <c r="J593" s="40"/>
     </row>
-    <row r="594" spans="1:10" ht="12">
+    <row r="594" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A594" s="5"/>
       <c r="D594" s="5"/>
       <c r="E594" s="5"/>
@@ -8025,7 +8258,7 @@
       <c r="I594" s="5"/>
       <c r="J594" s="40"/>
     </row>
-    <row r="595" spans="1:10" ht="12">
+    <row r="595" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A595" s="5"/>
       <c r="D595" s="5"/>
       <c r="E595" s="5"/>
@@ -8035,7 +8268,7 @@
       <c r="I595" s="5"/>
       <c r="J595" s="40"/>
     </row>
-    <row r="596" spans="1:10" ht="12">
+    <row r="596" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A596" s="5"/>
       <c r="D596" s="5"/>
       <c r="E596" s="5"/>
@@ -8045,7 +8278,7 @@
       <c r="I596" s="5"/>
       <c r="J596" s="40"/>
     </row>
-    <row r="597" spans="1:10" ht="12">
+    <row r="597" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A597" s="5"/>
       <c r="D597" s="5"/>
       <c r="E597" s="5"/>
@@ -8055,7 +8288,7 @@
       <c r="I597" s="5"/>
       <c r="J597" s="40"/>
     </row>
-    <row r="598" spans="1:10" ht="12">
+    <row r="598" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A598" s="5"/>
       <c r="D598" s="5"/>
       <c r="E598" s="5"/>
@@ -8065,7 +8298,7 @@
       <c r="I598" s="5"/>
       <c r="J598" s="40"/>
     </row>
-    <row r="599" spans="1:10" ht="12">
+    <row r="599" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A599" s="5"/>
       <c r="D599" s="5"/>
       <c r="E599" s="5"/>
@@ -8075,7 +8308,7 @@
       <c r="I599" s="5"/>
       <c r="J599" s="40"/>
     </row>
-    <row r="600" spans="1:10" ht="12">
+    <row r="600" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A600" s="5"/>
       <c r="D600" s="5"/>
       <c r="E600" s="5"/>
@@ -8085,7 +8318,7 @@
       <c r="I600" s="5"/>
       <c r="J600" s="40"/>
     </row>
-    <row r="601" spans="1:10" ht="12">
+    <row r="601" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A601" s="5"/>
       <c r="D601" s="5"/>
       <c r="E601" s="5"/>
@@ -8095,7 +8328,7 @@
       <c r="I601" s="5"/>
       <c r="J601" s="40"/>
     </row>
-    <row r="602" spans="1:10" ht="12">
+    <row r="602" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A602" s="5"/>
       <c r="D602" s="5"/>
       <c r="E602" s="5"/>
@@ -8105,7 +8338,7 @@
       <c r="I602" s="5"/>
       <c r="J602" s="40"/>
     </row>
-    <row r="603" spans="1:10" ht="12">
+    <row r="603" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A603" s="5"/>
       <c r="D603" s="5"/>
       <c r="E603" s="5"/>
@@ -8115,7 +8348,7 @@
       <c r="I603" s="5"/>
       <c r="J603" s="40"/>
     </row>
-    <row r="604" spans="1:10" ht="12">
+    <row r="604" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A604" s="5"/>
       <c r="D604" s="5"/>
       <c r="E604" s="5"/>
@@ -8125,7 +8358,7 @@
       <c r="I604" s="5"/>
       <c r="J604" s="40"/>
     </row>
-    <row r="605" spans="1:10" ht="12">
+    <row r="605" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A605" s="5"/>
       <c r="D605" s="5"/>
       <c r="E605" s="5"/>
@@ -8135,7 +8368,7 @@
       <c r="I605" s="5"/>
       <c r="J605" s="40"/>
     </row>
-    <row r="606" spans="1:10" ht="12">
+    <row r="606" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A606" s="5"/>
       <c r="D606" s="5"/>
       <c r="E606" s="5"/>
@@ -8145,7 +8378,7 @@
       <c r="I606" s="5"/>
       <c r="J606" s="40"/>
     </row>
-    <row r="607" spans="1:10" ht="12">
+    <row r="607" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A607" s="5"/>
       <c r="D607" s="5"/>
       <c r="E607" s="5"/>
@@ -8155,7 +8388,7 @@
       <c r="I607" s="5"/>
       <c r="J607" s="40"/>
     </row>
-    <row r="608" spans="1:10" ht="12">
+    <row r="608" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A608" s="5"/>
       <c r="D608" s="5"/>
       <c r="E608" s="5"/>
@@ -8165,7 +8398,7 @@
       <c r="I608" s="5"/>
       <c r="J608" s="40"/>
     </row>
-    <row r="609" spans="1:10" ht="12">
+    <row r="609" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A609" s="5"/>
       <c r="D609" s="5"/>
       <c r="E609" s="5"/>
@@ -8175,7 +8408,7 @@
       <c r="I609" s="5"/>
       <c r="J609" s="40"/>
     </row>
-    <row r="610" spans="1:10" ht="12">
+    <row r="610" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A610" s="5"/>
       <c r="D610" s="5"/>
       <c r="E610" s="5"/>
@@ -8185,7 +8418,7 @@
       <c r="I610" s="5"/>
       <c r="J610" s="40"/>
     </row>
-    <row r="611" spans="1:10" ht="12">
+    <row r="611" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A611" s="5"/>
       <c r="D611" s="5"/>
       <c r="E611" s="5"/>
@@ -8195,7 +8428,7 @@
       <c r="I611" s="5"/>
       <c r="J611" s="40"/>
     </row>
-    <row r="612" spans="1:10" ht="12">
+    <row r="612" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A612" s="5"/>
       <c r="D612" s="5"/>
       <c r="E612" s="5"/>
@@ -8205,7 +8438,7 @@
       <c r="I612" s="5"/>
       <c r="J612" s="40"/>
     </row>
-    <row r="613" spans="1:10" ht="12">
+    <row r="613" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A613" s="5"/>
       <c r="D613" s="5"/>
       <c r="E613" s="5"/>
@@ -8215,7 +8448,7 @@
       <c r="I613" s="5"/>
       <c r="J613" s="40"/>
     </row>
-    <row r="614" spans="1:10" ht="12">
+    <row r="614" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A614" s="5"/>
       <c r="D614" s="5"/>
       <c r="E614" s="5"/>
@@ -8225,7 +8458,7 @@
       <c r="I614" s="5"/>
       <c r="J614" s="40"/>
     </row>
-    <row r="615" spans="1:10" ht="12">
+    <row r="615" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A615" s="5"/>
       <c r="D615" s="5"/>
       <c r="E615" s="5"/>
@@ -8235,7 +8468,7 @@
       <c r="I615" s="5"/>
       <c r="J615" s="40"/>
     </row>
-    <row r="616" spans="1:10" ht="12">
+    <row r="616" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A616" s="5"/>
       <c r="D616" s="5"/>
       <c r="E616" s="5"/>
@@ -8245,7 +8478,7 @@
       <c r="I616" s="5"/>
       <c r="J616" s="40"/>
     </row>
-    <row r="617" spans="1:10" ht="12">
+    <row r="617" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A617" s="5"/>
       <c r="D617" s="5"/>
       <c r="E617" s="5"/>
@@ -8255,7 +8488,7 @@
       <c r="I617" s="5"/>
       <c r="J617" s="40"/>
     </row>
-    <row r="618" spans="1:10" ht="12">
+    <row r="618" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A618" s="5"/>
       <c r="D618" s="5"/>
       <c r="E618" s="5"/>
@@ -8265,7 +8498,7 @@
       <c r="I618" s="5"/>
       <c r="J618" s="40"/>
     </row>
-    <row r="619" spans="1:10" ht="12">
+    <row r="619" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A619" s="5"/>
       <c r="D619" s="5"/>
       <c r="E619" s="5"/>
@@ -8275,7 +8508,7 @@
       <c r="I619" s="5"/>
       <c r="J619" s="40"/>
     </row>
-    <row r="620" spans="1:10" ht="12">
+    <row r="620" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A620" s="5"/>
       <c r="D620" s="5"/>
       <c r="E620" s="5"/>
@@ -8285,7 +8518,7 @@
       <c r="I620" s="5"/>
       <c r="J620" s="40"/>
     </row>
-    <row r="621" spans="1:10" ht="12">
+    <row r="621" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A621" s="5"/>
       <c r="D621" s="5"/>
       <c r="E621" s="5"/>
@@ -8295,7 +8528,7 @@
       <c r="I621" s="5"/>
       <c r="J621" s="40"/>
     </row>
-    <row r="622" spans="1:10" ht="12">
+    <row r="622" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A622" s="5"/>
       <c r="D622" s="5"/>
       <c r="E622" s="5"/>
@@ -8305,7 +8538,7 @@
       <c r="I622" s="5"/>
       <c r="J622" s="40"/>
     </row>
-    <row r="623" spans="1:10" ht="12">
+    <row r="623" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A623" s="5"/>
       <c r="D623" s="5"/>
       <c r="E623" s="5"/>
@@ -8315,7 +8548,7 @@
       <c r="I623" s="5"/>
       <c r="J623" s="40"/>
     </row>
-    <row r="624" spans="1:10" ht="12">
+    <row r="624" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A624" s="5"/>
       <c r="D624" s="5"/>
       <c r="E624" s="5"/>
@@ -8325,7 +8558,7 @@
       <c r="I624" s="5"/>
       <c r="J624" s="40"/>
     </row>
-    <row r="625" spans="1:10" ht="12">
+    <row r="625" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A625" s="5"/>
       <c r="D625" s="5"/>
       <c r="E625" s="5"/>
@@ -8335,7 +8568,7 @@
       <c r="I625" s="5"/>
       <c r="J625" s="40"/>
     </row>
-    <row r="626" spans="1:10" ht="12">
+    <row r="626" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A626" s="5"/>
       <c r="D626" s="5"/>
       <c r="E626" s="5"/>
@@ -8345,7 +8578,7 @@
       <c r="I626" s="5"/>
       <c r="J626" s="40"/>
     </row>
-    <row r="627" spans="1:10" ht="12">
+    <row r="627" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A627" s="5"/>
       <c r="D627" s="5"/>
       <c r="E627" s="5"/>
@@ -8355,7 +8588,7 @@
       <c r="I627" s="5"/>
       <c r="J627" s="40"/>
     </row>
-    <row r="628" spans="1:10" ht="12">
+    <row r="628" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A628" s="5"/>
       <c r="D628" s="5"/>
       <c r="E628" s="5"/>
@@ -8365,7 +8598,7 @@
       <c r="I628" s="5"/>
       <c r="J628" s="40"/>
     </row>
-    <row r="629" spans="1:10" ht="12">
+    <row r="629" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A629" s="5"/>
       <c r="D629" s="5"/>
       <c r="E629" s="5"/>
@@ -8375,7 +8608,7 @@
       <c r="I629" s="5"/>
       <c r="J629" s="40"/>
     </row>
-    <row r="630" spans="1:10" ht="12">
+    <row r="630" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A630" s="5"/>
       <c r="D630" s="5"/>
       <c r="E630" s="5"/>
@@ -8385,7 +8618,7 @@
       <c r="I630" s="5"/>
       <c r="J630" s="40"/>
     </row>
-    <row r="631" spans="1:10" ht="12">
+    <row r="631" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A631" s="5"/>
       <c r="D631" s="5"/>
       <c r="E631" s="5"/>
@@ -8395,7 +8628,7 @@
       <c r="I631" s="5"/>
       <c r="J631" s="40"/>
     </row>
-    <row r="632" spans="1:10" ht="12">
+    <row r="632" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A632" s="5"/>
       <c r="D632" s="5"/>
       <c r="E632" s="5"/>
@@ -8405,7 +8638,7 @@
       <c r="I632" s="5"/>
       <c r="J632" s="40"/>
     </row>
-    <row r="633" spans="1:10" ht="12">
+    <row r="633" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A633" s="5"/>
       <c r="D633" s="5"/>
       <c r="E633" s="5"/>
@@ -8415,7 +8648,7 @@
       <c r="I633" s="5"/>
       <c r="J633" s="40"/>
     </row>
-    <row r="634" spans="1:10" ht="12">
+    <row r="634" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A634" s="5"/>
       <c r="D634" s="5"/>
       <c r="E634" s="5"/>
@@ -8425,7 +8658,7 @@
       <c r="I634" s="5"/>
       <c r="J634" s="40"/>
     </row>
-    <row r="635" spans="1:10" ht="12">
+    <row r="635" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A635" s="5"/>
       <c r="D635" s="5"/>
       <c r="E635" s="5"/>
@@ -8435,7 +8668,7 @@
       <c r="I635" s="5"/>
       <c r="J635" s="40"/>
     </row>
-    <row r="636" spans="1:10" ht="12">
+    <row r="636" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A636" s="5"/>
       <c r="D636" s="5"/>
       <c r="E636" s="5"/>
@@ -8445,7 +8678,7 @@
       <c r="I636" s="5"/>
       <c r="J636" s="40"/>
     </row>
-    <row r="637" spans="1:10" ht="12">
+    <row r="637" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A637" s="5"/>
       <c r="D637" s="5"/>
       <c r="E637" s="5"/>
@@ -8455,7 +8688,7 @@
       <c r="I637" s="5"/>
       <c r="J637" s="40"/>
     </row>
-    <row r="638" spans="1:10" ht="12">
+    <row r="638" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A638" s="5"/>
       <c r="D638" s="5"/>
       <c r="E638" s="5"/>
@@ -8465,7 +8698,7 @@
       <c r="I638" s="5"/>
       <c r="J638" s="40"/>
     </row>
-    <row r="639" spans="1:10" ht="12">
+    <row r="639" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A639" s="5"/>
       <c r="D639" s="5"/>
       <c r="E639" s="5"/>
@@ -8475,7 +8708,7 @@
       <c r="I639" s="5"/>
       <c r="J639" s="40"/>
     </row>
-    <row r="640" spans="1:10" ht="12">
+    <row r="640" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A640" s="5"/>
       <c r="D640" s="5"/>
       <c r="E640" s="5"/>
@@ -8485,7 +8718,7 @@
       <c r="I640" s="5"/>
       <c r="J640" s="40"/>
     </row>
-    <row r="641" spans="1:10" ht="12">
+    <row r="641" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A641" s="5"/>
       <c r="D641" s="5"/>
       <c r="E641" s="5"/>
@@ -8495,7 +8728,7 @@
       <c r="I641" s="5"/>
       <c r="J641" s="40"/>
     </row>
-    <row r="642" spans="1:10" ht="12">
+    <row r="642" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A642" s="5"/>
       <c r="D642" s="5"/>
       <c r="E642" s="5"/>
@@ -8505,7 +8738,7 @@
       <c r="I642" s="5"/>
       <c r="J642" s="40"/>
     </row>
-    <row r="643" spans="1:10" ht="12">
+    <row r="643" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A643" s="5"/>
       <c r="D643" s="5"/>
       <c r="E643" s="5"/>
@@ -8515,7 +8748,7 @@
       <c r="I643" s="5"/>
       <c r="J643" s="40"/>
     </row>
-    <row r="644" spans="1:10" ht="12">
+    <row r="644" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A644" s="5"/>
       <c r="D644" s="5"/>
       <c r="E644" s="5"/>
@@ -8525,7 +8758,7 @@
       <c r="I644" s="5"/>
       <c r="J644" s="40"/>
     </row>
-    <row r="645" spans="1:10" ht="12">
+    <row r="645" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A645" s="5"/>
       <c r="D645" s="5"/>
       <c r="E645" s="5"/>
@@ -8535,7 +8768,7 @@
       <c r="I645" s="5"/>
       <c r="J645" s="40"/>
     </row>
-    <row r="646" spans="1:10" ht="12">
+    <row r="646" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A646" s="5"/>
       <c r="D646" s="5"/>
       <c r="E646" s="5"/>
@@ -8545,7 +8778,7 @@
       <c r="I646" s="5"/>
       <c r="J646" s="40"/>
     </row>
-    <row r="647" spans="1:10" ht="12">
+    <row r="647" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A647" s="5"/>
       <c r="D647" s="5"/>
       <c r="E647" s="5"/>
@@ -8555,7 +8788,7 @@
       <c r="I647" s="5"/>
       <c r="J647" s="40"/>
     </row>
-    <row r="648" spans="1:10" ht="12">
+    <row r="648" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A648" s="5"/>
       <c r="D648" s="5"/>
       <c r="E648" s="5"/>
@@ -8565,7 +8798,7 @@
       <c r="I648" s="5"/>
       <c r="J648" s="40"/>
     </row>
-    <row r="649" spans="1:10" ht="12">
+    <row r="649" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A649" s="5"/>
       <c r="D649" s="5"/>
       <c r="E649" s="5"/>
@@ -8575,7 +8808,7 @@
       <c r="I649" s="5"/>
       <c r="J649" s="40"/>
     </row>
-    <row r="650" spans="1:10" ht="12">
+    <row r="650" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A650" s="5"/>
       <c r="D650" s="5"/>
       <c r="E650" s="5"/>
@@ -8585,7 +8818,7 @@
       <c r="I650" s="5"/>
       <c r="J650" s="40"/>
     </row>
-    <row r="651" spans="1:10" ht="12">
+    <row r="651" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A651" s="5"/>
       <c r="D651" s="5"/>
       <c r="E651" s="5"/>
@@ -8595,7 +8828,7 @@
       <c r="I651" s="5"/>
       <c r="J651" s="40"/>
     </row>
-    <row r="652" spans="1:10" ht="12">
+    <row r="652" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A652" s="5"/>
       <c r="D652" s="5"/>
       <c r="E652" s="5"/>
@@ -8605,7 +8838,7 @@
       <c r="I652" s="5"/>
       <c r="J652" s="40"/>
     </row>
-    <row r="653" spans="1:10" ht="12">
+    <row r="653" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A653" s="5"/>
       <c r="D653" s="5"/>
       <c r="E653" s="5"/>
@@ -8615,7 +8848,7 @@
       <c r="I653" s="5"/>
       <c r="J653" s="40"/>
     </row>
-    <row r="654" spans="1:10" ht="12">
+    <row r="654" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A654" s="5"/>
       <c r="D654" s="5"/>
       <c r="E654" s="5"/>
@@ -8625,7 +8858,7 @@
       <c r="I654" s="5"/>
       <c r="J654" s="40"/>
     </row>
-    <row r="655" spans="1:10" ht="12">
+    <row r="655" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A655" s="5"/>
       <c r="D655" s="5"/>
       <c r="E655" s="5"/>
@@ -8635,7 +8868,7 @@
       <c r="I655" s="5"/>
       <c r="J655" s="40"/>
     </row>
-    <row r="656" spans="1:10" ht="12">
+    <row r="656" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A656" s="5"/>
       <c r="D656" s="5"/>
       <c r="E656" s="5"/>
@@ -8645,7 +8878,7 @@
       <c r="I656" s="5"/>
       <c r="J656" s="40"/>
     </row>
-    <row r="657" spans="1:10" ht="12">
+    <row r="657" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A657" s="5"/>
       <c r="D657" s="5"/>
       <c r="E657" s="5"/>
@@ -8655,7 +8888,7 @@
       <c r="I657" s="5"/>
       <c r="J657" s="40"/>
     </row>
-    <row r="658" spans="1:10" ht="12">
+    <row r="658" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A658" s="5"/>
       <c r="D658" s="5"/>
       <c r="E658" s="5"/>
@@ -8665,7 +8898,7 @@
       <c r="I658" s="5"/>
       <c r="J658" s="40"/>
     </row>
-    <row r="659" spans="1:10" ht="12">
+    <row r="659" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A659" s="5"/>
       <c r="D659" s="5"/>
       <c r="E659" s="5"/>
@@ -8675,7 +8908,7 @@
       <c r="I659" s="5"/>
       <c r="J659" s="40"/>
     </row>
-    <row r="660" spans="1:10" ht="12">
+    <row r="660" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A660" s="5"/>
       <c r="D660" s="5"/>
       <c r="E660" s="5"/>
@@ -8685,7 +8918,7 @@
       <c r="I660" s="5"/>
       <c r="J660" s="40"/>
     </row>
-    <row r="661" spans="1:10" ht="12">
+    <row r="661" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A661" s="5"/>
       <c r="D661" s="5"/>
       <c r="E661" s="5"/>
@@ -8695,7 +8928,7 @@
       <c r="I661" s="5"/>
       <c r="J661" s="40"/>
     </row>
-    <row r="662" spans="1:10" ht="12">
+    <row r="662" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A662" s="5"/>
       <c r="D662" s="5"/>
       <c r="E662" s="5"/>
@@ -8705,7 +8938,7 @@
       <c r="I662" s="5"/>
       <c r="J662" s="40"/>
     </row>
-    <row r="663" spans="1:10" ht="12">
+    <row r="663" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A663" s="5"/>
       <c r="D663" s="5"/>
       <c r="E663" s="5"/>
@@ -8715,7 +8948,7 @@
       <c r="I663" s="5"/>
       <c r="J663" s="40"/>
     </row>
-    <row r="664" spans="1:10" ht="12">
+    <row r="664" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A664" s="5"/>
       <c r="D664" s="5"/>
       <c r="E664" s="5"/>
@@ -8725,7 +8958,7 @@
       <c r="I664" s="5"/>
       <c r="J664" s="40"/>
     </row>
-    <row r="665" spans="1:10" ht="12">
+    <row r="665" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A665" s="5"/>
       <c r="D665" s="5"/>
       <c r="E665" s="5"/>
@@ -8735,7 +8968,7 @@
       <c r="I665" s="5"/>
       <c r="J665" s="40"/>
     </row>
-    <row r="666" spans="1:10" ht="12">
+    <row r="666" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A666" s="5"/>
       <c r="D666" s="5"/>
       <c r="E666" s="5"/>
@@ -8745,7 +8978,7 @@
       <c r="I666" s="5"/>
       <c r="J666" s="40"/>
     </row>
-    <row r="667" spans="1:10" ht="12">
+    <row r="667" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A667" s="5"/>
       <c r="D667" s="5"/>
       <c r="E667" s="5"/>
@@ -8755,7 +8988,7 @@
       <c r="I667" s="5"/>
       <c r="J667" s="40"/>
     </row>
-    <row r="668" spans="1:10" ht="12">
+    <row r="668" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A668" s="5"/>
       <c r="D668" s="5"/>
       <c r="E668" s="5"/>
@@ -8765,7 +8998,7 @@
       <c r="I668" s="5"/>
       <c r="J668" s="40"/>
     </row>
-    <row r="669" spans="1:10" ht="12">
+    <row r="669" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A669" s="5"/>
       <c r="D669" s="5"/>
       <c r="E669" s="5"/>
@@ -8775,7 +9008,7 @@
       <c r="I669" s="5"/>
       <c r="J669" s="40"/>
     </row>
-    <row r="670" spans="1:10" ht="12">
+    <row r="670" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A670" s="5"/>
       <c r="D670" s="5"/>
       <c r="E670" s="5"/>
@@ -8785,7 +9018,7 @@
       <c r="I670" s="5"/>
       <c r="J670" s="40"/>
     </row>
-    <row r="671" spans="1:10" ht="12">
+    <row r="671" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A671" s="5"/>
       <c r="D671" s="5"/>
       <c r="E671" s="5"/>
@@ -8795,7 +9028,7 @@
       <c r="I671" s="5"/>
       <c r="J671" s="40"/>
     </row>
-    <row r="672" spans="1:10" ht="12">
+    <row r="672" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A672" s="5"/>
       <c r="D672" s="5"/>
       <c r="E672" s="5"/>
@@ -8805,7 +9038,7 @@
       <c r="I672" s="5"/>
       <c r="J672" s="40"/>
     </row>
-    <row r="673" spans="1:10" ht="12">
+    <row r="673" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A673" s="5"/>
       <c r="D673" s="5"/>
       <c r="E673" s="5"/>
@@ -8815,7 +9048,7 @@
       <c r="I673" s="5"/>
       <c r="J673" s="40"/>
     </row>
-    <row r="674" spans="1:10" ht="12">
+    <row r="674" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A674" s="5"/>
       <c r="D674" s="5"/>
       <c r="E674" s="5"/>
@@ -8825,7 +9058,7 @@
       <c r="I674" s="5"/>
       <c r="J674" s="40"/>
     </row>
-    <row r="675" spans="1:10" ht="12">
+    <row r="675" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A675" s="5"/>
       <c r="D675" s="5"/>
       <c r="E675" s="5"/>
@@ -8835,7 +9068,7 @@
       <c r="I675" s="5"/>
       <c r="J675" s="40"/>
     </row>
-    <row r="676" spans="1:10" ht="12">
+    <row r="676" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A676" s="5"/>
       <c r="D676" s="5"/>
       <c r="E676" s="5"/>
@@ -8845,7 +9078,7 @@
       <c r="I676" s="5"/>
       <c r="J676" s="40"/>
     </row>
-    <row r="677" spans="1:10" ht="12">
+    <row r="677" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A677" s="5"/>
       <c r="D677" s="5"/>
       <c r="E677" s="5"/>
@@ -8855,7 +9088,7 @@
       <c r="I677" s="5"/>
       <c r="J677" s="40"/>
     </row>
-    <row r="678" spans="1:10" ht="12">
+    <row r="678" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A678" s="5"/>
       <c r="D678" s="5"/>
       <c r="E678" s="5"/>
@@ -8865,7 +9098,7 @@
       <c r="I678" s="5"/>
       <c r="J678" s="40"/>
     </row>
-    <row r="679" spans="1:10" ht="12">
+    <row r="679" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A679" s="5"/>
       <c r="D679" s="5"/>
       <c r="E679" s="5"/>
@@ -8875,7 +9108,7 @@
       <c r="I679" s="5"/>
       <c r="J679" s="40"/>
     </row>
-    <row r="680" spans="1:10" ht="12">
+    <row r="680" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A680" s="5"/>
       <c r="D680" s="5"/>
       <c r="E680" s="5"/>
@@ -8885,7 +9118,7 @@
       <c r="I680" s="5"/>
       <c r="J680" s="40"/>
     </row>
-    <row r="681" spans="1:10" ht="12">
+    <row r="681" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A681" s="5"/>
       <c r="D681" s="5"/>
       <c r="E681" s="5"/>
@@ -8895,7 +9128,7 @@
       <c r="I681" s="5"/>
       <c r="J681" s="40"/>
     </row>
-    <row r="682" spans="1:10" ht="12">
+    <row r="682" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A682" s="5"/>
       <c r="D682" s="5"/>
       <c r="E682" s="5"/>
@@ -8905,7 +9138,7 @@
       <c r="I682" s="5"/>
       <c r="J682" s="40"/>
     </row>
-    <row r="683" spans="1:10" ht="12">
+    <row r="683" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A683" s="5"/>
       <c r="D683" s="5"/>
       <c r="E683" s="5"/>
@@ -8915,7 +9148,7 @@
       <c r="I683" s="5"/>
       <c r="J683" s="40"/>
     </row>
-    <row r="684" spans="1:10" ht="12">
+    <row r="684" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A684" s="5"/>
       <c r="D684" s="5"/>
       <c r="E684" s="5"/>
@@ -8925,7 +9158,7 @@
       <c r="I684" s="5"/>
       <c r="J684" s="40"/>
     </row>
-    <row r="685" spans="1:10" ht="12">
+    <row r="685" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A685" s="5"/>
       <c r="D685" s="5"/>
       <c r="E685" s="5"/>
@@ -8935,7 +9168,7 @@
       <c r="I685" s="5"/>
       <c r="J685" s="40"/>
     </row>
-    <row r="686" spans="1:10" ht="12">
+    <row r="686" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A686" s="5"/>
       <c r="D686" s="5"/>
       <c r="E686" s="5"/>
@@ -8945,7 +9178,7 @@
       <c r="I686" s="5"/>
       <c r="J686" s="40"/>
     </row>
-    <row r="687" spans="1:10" ht="12">
+    <row r="687" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A687" s="5"/>
       <c r="D687" s="5"/>
       <c r="E687" s="5"/>
@@ -8955,7 +9188,7 @@
       <c r="I687" s="5"/>
       <c r="J687" s="40"/>
     </row>
-    <row r="688" spans="1:10" ht="12">
+    <row r="688" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A688" s="5"/>
       <c r="D688" s="5"/>
       <c r="E688" s="5"/>
@@ -8965,7 +9198,7 @@
       <c r="I688" s="5"/>
       <c r="J688" s="40"/>
     </row>
-    <row r="689" spans="1:10" ht="12">
+    <row r="689" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A689" s="5"/>
       <c r="D689" s="5"/>
       <c r="E689" s="5"/>
@@ -8975,7 +9208,7 @@
       <c r="I689" s="5"/>
       <c r="J689" s="40"/>
     </row>
-    <row r="690" spans="1:10" ht="12">
+    <row r="690" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A690" s="5"/>
       <c r="D690" s="5"/>
       <c r="E690" s="5"/>
@@ -8985,7 +9218,7 @@
       <c r="I690" s="5"/>
       <c r="J690" s="40"/>
     </row>
-    <row r="691" spans="1:10" ht="12">
+    <row r="691" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A691" s="5"/>
       <c r="D691" s="5"/>
       <c r="E691" s="5"/>
@@ -8995,7 +9228,7 @@
       <c r="I691" s="5"/>
       <c r="J691" s="40"/>
     </row>
-    <row r="692" spans="1:10" ht="12">
+    <row r="692" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A692" s="5"/>
       <c r="D692" s="5"/>
       <c r="E692" s="5"/>
@@ -9005,7 +9238,7 @@
       <c r="I692" s="5"/>
       <c r="J692" s="40"/>
     </row>
-    <row r="693" spans="1:10" ht="12">
+    <row r="693" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A693" s="5"/>
       <c r="D693" s="5"/>
       <c r="E693" s="5"/>
@@ -9015,7 +9248,7 @@
       <c r="I693" s="5"/>
       <c r="J693" s="40"/>
     </row>
-    <row r="694" spans="1:10" ht="12">
+    <row r="694" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A694" s="5"/>
       <c r="D694" s="5"/>
       <c r="E694" s="5"/>
@@ -9025,7 +9258,7 @@
       <c r="I694" s="5"/>
       <c r="J694" s="40"/>
     </row>
-    <row r="695" spans="1:10" ht="12">
+    <row r="695" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A695" s="5"/>
       <c r="D695" s="5"/>
       <c r="E695" s="5"/>
@@ -9035,7 +9268,7 @@
       <c r="I695" s="5"/>
       <c r="J695" s="40"/>
     </row>
-    <row r="696" spans="1:10" ht="12">
+    <row r="696" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A696" s="5"/>
       <c r="D696" s="5"/>
       <c r="E696" s="5"/>
@@ -9045,7 +9278,7 @@
       <c r="I696" s="5"/>
       <c r="J696" s="40"/>
     </row>
-    <row r="697" spans="1:10" ht="12">
+    <row r="697" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A697" s="5"/>
       <c r="D697" s="5"/>
       <c r="E697" s="5"/>
@@ -9055,7 +9288,7 @@
       <c r="I697" s="5"/>
       <c r="J697" s="40"/>
     </row>
-    <row r="698" spans="1:10" ht="12">
+    <row r="698" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A698" s="5"/>
       <c r="D698" s="5"/>
       <c r="E698" s="5"/>
@@ -9065,7 +9298,7 @@
       <c r="I698" s="5"/>
       <c r="J698" s="40"/>
     </row>
-    <row r="699" spans="1:10" ht="12">
+    <row r="699" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A699" s="5"/>
       <c r="D699" s="5"/>
       <c r="E699" s="5"/>
@@ -9075,7 +9308,7 @@
       <c r="I699" s="5"/>
       <c r="J699" s="40"/>
     </row>
-    <row r="700" spans="1:10" ht="12">
+    <row r="700" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A700" s="5"/>
       <c r="D700" s="5"/>
       <c r="E700" s="5"/>
@@ -9085,7 +9318,7 @@
       <c r="I700" s="5"/>
       <c r="J700" s="40"/>
     </row>
-    <row r="701" spans="1:10" ht="12">
+    <row r="701" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A701" s="5"/>
       <c r="D701" s="5"/>
       <c r="E701" s="5"/>
@@ -9095,7 +9328,7 @@
       <c r="I701" s="5"/>
       <c r="J701" s="40"/>
     </row>
-    <row r="702" spans="1:10" ht="12">
+    <row r="702" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A702" s="5"/>
       <c r="D702" s="5"/>
       <c r="E702" s="5"/>
@@ -9105,7 +9338,7 @@
       <c r="I702" s="5"/>
       <c r="J702" s="40"/>
     </row>
-    <row r="703" spans="1:10" ht="12">
+    <row r="703" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A703" s="5"/>
       <c r="D703" s="5"/>
       <c r="E703" s="5"/>
@@ -9115,7 +9348,7 @@
       <c r="I703" s="5"/>
       <c r="J703" s="40"/>
     </row>
-    <row r="704" spans="1:10" ht="12">
+    <row r="704" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A704" s="5"/>
       <c r="D704" s="5"/>
       <c r="E704" s="5"/>
@@ -9125,7 +9358,7 @@
       <c r="I704" s="5"/>
       <c r="J704" s="40"/>
     </row>
-    <row r="705" spans="1:10" ht="12">
+    <row r="705" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A705" s="5"/>
       <c r="D705" s="5"/>
       <c r="E705" s="5"/>
@@ -9135,7 +9368,7 @@
       <c r="I705" s="5"/>
       <c r="J705" s="40"/>
     </row>
-    <row r="706" spans="1:10" ht="12">
+    <row r="706" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A706" s="5"/>
       <c r="D706" s="5"/>
       <c r="E706" s="5"/>
@@ -9145,7 +9378,7 @@
       <c r="I706" s="5"/>
       <c r="J706" s="40"/>
     </row>
-    <row r="707" spans="1:10" ht="12">
+    <row r="707" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A707" s="5"/>
       <c r="D707" s="5"/>
       <c r="E707" s="5"/>
@@ -9155,7 +9388,7 @@
       <c r="I707" s="5"/>
       <c r="J707" s="40"/>
     </row>
-    <row r="708" spans="1:10" ht="12">
+    <row r="708" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A708" s="5"/>
       <c r="D708" s="5"/>
       <c r="E708" s="5"/>
@@ -9165,7 +9398,7 @@
       <c r="I708" s="5"/>
       <c r="J708" s="40"/>
     </row>
-    <row r="709" spans="1:10" ht="12">
+    <row r="709" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A709" s="5"/>
       <c r="D709" s="5"/>
       <c r="E709" s="5"/>
@@ -9175,7 +9408,7 @@
       <c r="I709" s="5"/>
       <c r="J709" s="40"/>
     </row>
-    <row r="710" spans="1:10" ht="12">
+    <row r="710" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A710" s="5"/>
       <c r="D710" s="5"/>
       <c r="E710" s="5"/>
@@ -9185,7 +9418,7 @@
       <c r="I710" s="5"/>
       <c r="J710" s="40"/>
     </row>
-    <row r="711" spans="1:10" ht="12">
+    <row r="711" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A711" s="5"/>
       <c r="D711" s="5"/>
       <c r="E711" s="5"/>
@@ -9195,7 +9428,7 @@
       <c r="I711" s="5"/>
       <c r="J711" s="40"/>
     </row>
-    <row r="712" spans="1:10" ht="12">
+    <row r="712" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A712" s="5"/>
       <c r="D712" s="5"/>
       <c r="E712" s="5"/>
@@ -9205,7 +9438,7 @@
       <c r="I712" s="5"/>
       <c r="J712" s="40"/>
     </row>
-    <row r="713" spans="1:10" ht="12">
+    <row r="713" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A713" s="5"/>
       <c r="D713" s="5"/>
       <c r="E713" s="5"/>
@@ -9215,7 +9448,7 @@
       <c r="I713" s="5"/>
       <c r="J713" s="40"/>
     </row>
-    <row r="714" spans="1:10" ht="12">
+    <row r="714" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A714" s="5"/>
       <c r="D714" s="5"/>
       <c r="E714" s="5"/>
@@ -9225,7 +9458,7 @@
       <c r="I714" s="5"/>
       <c r="J714" s="40"/>
     </row>
-    <row r="715" spans="1:10" ht="12">
+    <row r="715" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A715" s="5"/>
       <c r="D715" s="5"/>
       <c r="E715" s="5"/>
@@ -9235,7 +9468,7 @@
       <c r="I715" s="5"/>
       <c r="J715" s="40"/>
     </row>
-    <row r="716" spans="1:10" ht="12">
+    <row r="716" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A716" s="5"/>
       <c r="D716" s="5"/>
       <c r="E716" s="5"/>
@@ -9245,7 +9478,7 @@
       <c r="I716" s="5"/>
       <c r="J716" s="40"/>
     </row>
-    <row r="717" spans="1:10" ht="12">
+    <row r="717" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A717" s="5"/>
       <c r="D717" s="5"/>
       <c r="E717" s="5"/>
@@ -9255,7 +9488,7 @@
       <c r="I717" s="5"/>
       <c r="J717" s="40"/>
     </row>
-    <row r="718" spans="1:10" ht="12">
+    <row r="718" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A718" s="5"/>
       <c r="D718" s="5"/>
       <c r="E718" s="5"/>
@@ -9265,7 +9498,7 @@
       <c r="I718" s="5"/>
       <c r="J718" s="40"/>
     </row>
-    <row r="719" spans="1:10" ht="12">
+    <row r="719" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A719" s="5"/>
       <c r="D719" s="5"/>
       <c r="E719" s="5"/>
@@ -9275,7 +9508,7 @@
       <c r="I719" s="5"/>
       <c r="J719" s="40"/>
     </row>
-    <row r="720" spans="1:10" ht="12">
+    <row r="720" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A720" s="5"/>
       <c r="D720" s="5"/>
       <c r="E720" s="5"/>
@@ -9285,7 +9518,7 @@
       <c r="I720" s="5"/>
       <c r="J720" s="40"/>
     </row>
-    <row r="721" spans="1:10" ht="12">
+    <row r="721" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A721" s="5"/>
       <c r="D721" s="5"/>
       <c r="E721" s="5"/>
@@ -9295,7 +9528,7 @@
       <c r="I721" s="5"/>
       <c r="J721" s="40"/>
     </row>
-    <row r="722" spans="1:10" ht="12">
+    <row r="722" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A722" s="5"/>
       <c r="D722" s="5"/>
       <c r="E722" s="5"/>
@@ -9305,7 +9538,7 @@
       <c r="I722" s="5"/>
       <c r="J722" s="40"/>
     </row>
-    <row r="723" spans="1:10" ht="12">
+    <row r="723" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A723" s="5"/>
       <c r="D723" s="5"/>
       <c r="E723" s="5"/>
@@ -9315,7 +9548,7 @@
       <c r="I723" s="5"/>
       <c r="J723" s="40"/>
     </row>
-    <row r="724" spans="1:10" ht="12">
+    <row r="724" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A724" s="5"/>
       <c r="D724" s="5"/>
       <c r="E724" s="5"/>
@@ -9325,7 +9558,7 @@
       <c r="I724" s="5"/>
       <c r="J724" s="40"/>
     </row>
-    <row r="725" spans="1:10" ht="12">
+    <row r="725" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A725" s="5"/>
       <c r="D725" s="5"/>
       <c r="E725" s="5"/>
@@ -9335,7 +9568,7 @@
       <c r="I725" s="5"/>
       <c r="J725" s="40"/>
     </row>
-    <row r="726" spans="1:10" ht="12">
+    <row r="726" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A726" s="5"/>
       <c r="D726" s="5"/>
       <c r="E726" s="5"/>
@@ -9345,7 +9578,7 @@
       <c r="I726" s="5"/>
       <c r="J726" s="40"/>
     </row>
-    <row r="727" spans="1:10" ht="12">
+    <row r="727" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A727" s="5"/>
       <c r="D727" s="5"/>
       <c r="E727" s="5"/>
@@ -9355,7 +9588,7 @@
       <c r="I727" s="5"/>
       <c r="J727" s="40"/>
     </row>
-    <row r="728" spans="1:10" ht="12">
+    <row r="728" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A728" s="5"/>
       <c r="D728" s="5"/>
       <c r="E728" s="5"/>
@@ -9365,7 +9598,7 @@
       <c r="I728" s="5"/>
       <c r="J728" s="40"/>
     </row>
-    <row r="729" spans="1:10" ht="12">
+    <row r="729" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A729" s="5"/>
       <c r="D729" s="5"/>
       <c r="E729" s="5"/>
@@ -9375,7 +9608,7 @@
       <c r="I729" s="5"/>
       <c r="J729" s="40"/>
     </row>
-    <row r="730" spans="1:10" ht="12">
+    <row r="730" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A730" s="5"/>
       <c r="D730" s="5"/>
       <c r="E730" s="5"/>
@@ -9385,7 +9618,7 @@
       <c r="I730" s="5"/>
       <c r="J730" s="40"/>
     </row>
-    <row r="731" spans="1:10" ht="12">
+    <row r="731" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A731" s="5"/>
       <c r="D731" s="5"/>
       <c r="E731" s="5"/>
@@ -9395,7 +9628,7 @@
       <c r="I731" s="5"/>
       <c r="J731" s="40"/>
     </row>
-    <row r="732" spans="1:10" ht="12">
+    <row r="732" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A732" s="5"/>
       <c r="D732" s="5"/>
       <c r="E732" s="5"/>
@@ -9405,7 +9638,7 @@
       <c r="I732" s="5"/>
       <c r="J732" s="40"/>
     </row>
-    <row r="733" spans="1:10" ht="12">
+    <row r="733" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A733" s="5"/>
       <c r="D733" s="5"/>
       <c r="E733" s="5"/>
@@ -9415,7 +9648,7 @@
       <c r="I733" s="5"/>
       <c r="J733" s="40"/>
     </row>
-    <row r="734" spans="1:10" ht="12">
+    <row r="734" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A734" s="5"/>
       <c r="D734" s="5"/>
       <c r="E734" s="5"/>
@@ -9425,7 +9658,7 @@
       <c r="I734" s="5"/>
       <c r="J734" s="40"/>
     </row>
-    <row r="735" spans="1:10" ht="12">
+    <row r="735" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A735" s="5"/>
       <c r="D735" s="5"/>
       <c r="E735" s="5"/>
@@ -9435,7 +9668,7 @@
       <c r="I735" s="5"/>
       <c r="J735" s="40"/>
     </row>
-    <row r="736" spans="1:10" ht="12">
+    <row r="736" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A736" s="5"/>
       <c r="D736" s="5"/>
       <c r="E736" s="5"/>
@@ -9445,7 +9678,7 @@
       <c r="I736" s="5"/>
       <c r="J736" s="40"/>
     </row>
-    <row r="737" spans="1:10" ht="12">
+    <row r="737" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A737" s="5"/>
       <c r="D737" s="5"/>
       <c r="E737" s="5"/>
@@ -9455,7 +9688,7 @@
       <c r="I737" s="5"/>
       <c r="J737" s="40"/>
     </row>
-    <row r="738" spans="1:10" ht="12">
+    <row r="738" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A738" s="5"/>
       <c r="D738" s="5"/>
       <c r="E738" s="5"/>
@@ -9465,7 +9698,7 @@
       <c r="I738" s="5"/>
       <c r="J738" s="40"/>
     </row>
-    <row r="739" spans="1:10" ht="12">
+    <row r="739" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A739" s="5"/>
       <c r="D739" s="5"/>
       <c r="E739" s="5"/>
@@ -9475,7 +9708,7 @@
       <c r="I739" s="5"/>
       <c r="J739" s="40"/>
     </row>
-    <row r="740" spans="1:10" ht="12">
+    <row r="740" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A740" s="5"/>
       <c r="D740" s="5"/>
       <c r="E740" s="5"/>
@@ -9485,7 +9718,7 @@
       <c r="I740" s="5"/>
       <c r="J740" s="40"/>
     </row>
-    <row r="741" spans="1:10" ht="12">
+    <row r="741" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A741" s="5"/>
       <c r="D741" s="5"/>
       <c r="E741" s="5"/>
@@ -9495,7 +9728,7 @@
       <c r="I741" s="5"/>
       <c r="J741" s="40"/>
     </row>
-    <row r="742" spans="1:10" ht="12">
+    <row r="742" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A742" s="5"/>
       <c r="D742" s="5"/>
       <c r="E742" s="5"/>
@@ -9505,7 +9738,7 @@
       <c r="I742" s="5"/>
       <c r="J742" s="40"/>
     </row>
-    <row r="743" spans="1:10" ht="12">
+    <row r="743" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A743" s="5"/>
       <c r="D743" s="5"/>
       <c r="E743" s="5"/>
@@ -9515,7 +9748,7 @@
       <c r="I743" s="5"/>
       <c r="J743" s="40"/>
     </row>
-    <row r="744" spans="1:10" ht="12">
+    <row r="744" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A744" s="5"/>
       <c r="D744" s="5"/>
       <c r="E744" s="5"/>
@@ -9525,7 +9758,7 @@
       <c r="I744" s="5"/>
       <c r="J744" s="40"/>
     </row>
-    <row r="745" spans="1:10" ht="12">
+    <row r="745" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A745" s="5"/>
       <c r="D745" s="5"/>
       <c r="E745" s="5"/>
@@ -9535,7 +9768,7 @@
       <c r="I745" s="5"/>
       <c r="J745" s="40"/>
     </row>
-    <row r="746" spans="1:10" ht="12">
+    <row r="746" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A746" s="5"/>
       <c r="D746" s="5"/>
       <c r="E746" s="5"/>
@@ -9545,7 +9778,7 @@
       <c r="I746" s="5"/>
       <c r="J746" s="40"/>
     </row>
-    <row r="747" spans="1:10" ht="12">
+    <row r="747" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A747" s="5"/>
       <c r="D747" s="5"/>
       <c r="E747" s="5"/>
@@ -9555,7 +9788,7 @@
       <c r="I747" s="5"/>
       <c r="J747" s="40"/>
     </row>
-    <row r="748" spans="1:10" ht="12">
+    <row r="748" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A748" s="5"/>
       <c r="D748" s="5"/>
       <c r="E748" s="5"/>
@@ -9565,7 +9798,7 @@
       <c r="I748" s="5"/>
       <c r="J748" s="40"/>
     </row>
-    <row r="749" spans="1:10" ht="12">
+    <row r="749" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A749" s="5"/>
       <c r="D749" s="5"/>
       <c r="E749" s="5"/>
@@ -9575,7 +9808,7 @@
       <c r="I749" s="5"/>
       <c r="J749" s="40"/>
     </row>
-    <row r="750" spans="1:10" ht="12">
+    <row r="750" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A750" s="5"/>
       <c r="D750" s="5"/>
       <c r="E750" s="5"/>
@@ -9585,7 +9818,7 @@
       <c r="I750" s="5"/>
       <c r="J750" s="40"/>
     </row>
-    <row r="751" spans="1:10" ht="12">
+    <row r="751" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A751" s="5"/>
       <c r="D751" s="5"/>
       <c r="E751" s="5"/>
@@ -9595,7 +9828,7 @@
       <c r="I751" s="5"/>
       <c r="J751" s="40"/>
     </row>
-    <row r="752" spans="1:10" ht="12">
+    <row r="752" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A752" s="5"/>
       <c r="D752" s="5"/>
       <c r="E752" s="5"/>
@@ -9605,7 +9838,7 @@
       <c r="I752" s="5"/>
       <c r="J752" s="40"/>
     </row>
-    <row r="753" spans="1:10" ht="12">
+    <row r="753" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A753" s="5"/>
       <c r="D753" s="5"/>
       <c r="E753" s="5"/>
@@ -9615,7 +9848,7 @@
       <c r="I753" s="5"/>
       <c r="J753" s="40"/>
     </row>
-    <row r="754" spans="1:10" ht="12">
+    <row r="754" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A754" s="5"/>
       <c r="D754" s="5"/>
       <c r="E754" s="5"/>
@@ -9625,7 +9858,7 @@
       <c r="I754" s="5"/>
       <c r="J754" s="40"/>
     </row>
-    <row r="755" spans="1:10" ht="12">
+    <row r="755" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A755" s="5"/>
       <c r="D755" s="5"/>
       <c r="E755" s="5"/>
@@ -9635,7 +9868,7 @@
       <c r="I755" s="5"/>
       <c r="J755" s="40"/>
     </row>
-    <row r="756" spans="1:10" ht="12">
+    <row r="756" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A756" s="5"/>
       <c r="D756" s="5"/>
       <c r="E756" s="5"/>
@@ -9645,7 +9878,7 @@
       <c r="I756" s="5"/>
       <c r="J756" s="40"/>
     </row>
-    <row r="757" spans="1:10" ht="12">
+    <row r="757" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A757" s="5"/>
       <c r="D757" s="5"/>
       <c r="E757" s="5"/>
@@ -9655,7 +9888,7 @@
       <c r="I757" s="5"/>
       <c r="J757" s="40"/>
     </row>
-    <row r="758" spans="1:10" ht="12">
+    <row r="758" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A758" s="5"/>
       <c r="D758" s="5"/>
       <c r="E758" s="5"/>
@@ -9665,7 +9898,7 @@
       <c r="I758" s="5"/>
       <c r="J758" s="40"/>
     </row>
-    <row r="759" spans="1:10" ht="12">
+    <row r="759" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A759" s="5"/>
       <c r="D759" s="5"/>
       <c r="E759" s="5"/>
@@ -9675,7 +9908,7 @@
       <c r="I759" s="5"/>
       <c r="J759" s="40"/>
     </row>
-    <row r="760" spans="1:10" ht="12">
+    <row r="760" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A760" s="5"/>
       <c r="D760" s="5"/>
       <c r="E760" s="5"/>
@@ -9685,7 +9918,7 @@
       <c r="I760" s="5"/>
       <c r="J760" s="40"/>
     </row>
-    <row r="761" spans="1:10" ht="12">
+    <row r="761" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A761" s="5"/>
       <c r="D761" s="5"/>
       <c r="E761" s="5"/>
@@ -9695,7 +9928,7 @@
       <c r="I761" s="5"/>
       <c r="J761" s="40"/>
     </row>
-    <row r="762" spans="1:10" ht="12">
+    <row r="762" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A762" s="5"/>
       <c r="D762" s="5"/>
       <c r="E762" s="5"/>
@@ -9705,7 +9938,7 @@
       <c r="I762" s="5"/>
       <c r="J762" s="40"/>
     </row>
-    <row r="763" spans="1:10" ht="12">
+    <row r="763" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A763" s="5"/>
       <c r="D763" s="5"/>
       <c r="E763" s="5"/>
@@ -9715,7 +9948,7 @@
       <c r="I763" s="5"/>
       <c r="J763" s="40"/>
     </row>
-    <row r="764" spans="1:10" ht="12">
+    <row r="764" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A764" s="5"/>
       <c r="D764" s="5"/>
       <c r="E764" s="5"/>
@@ -9725,7 +9958,7 @@
       <c r="I764" s="5"/>
       <c r="J764" s="40"/>
     </row>
-    <row r="765" spans="1:10" ht="12">
+    <row r="765" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A765" s="5"/>
       <c r="D765" s="5"/>
       <c r="E765" s="5"/>
@@ -9735,7 +9968,7 @@
       <c r="I765" s="5"/>
       <c r="J765" s="40"/>
     </row>
-    <row r="766" spans="1:10" ht="12">
+    <row r="766" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A766" s="5"/>
       <c r="D766" s="5"/>
       <c r="E766" s="5"/>
@@ -9745,7 +9978,7 @@
       <c r="I766" s="5"/>
       <c r="J766" s="40"/>
     </row>
-    <row r="767" spans="1:10" ht="12">
+    <row r="767" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A767" s="5"/>
       <c r="D767" s="5"/>
       <c r="E767" s="5"/>
@@ -9755,7 +9988,7 @@
       <c r="I767" s="5"/>
       <c r="J767" s="40"/>
     </row>
-    <row r="768" spans="1:10" ht="12">
+    <row r="768" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A768" s="5"/>
       <c r="D768" s="5"/>
       <c r="E768" s="5"/>
@@ -9765,7 +9998,7 @@
       <c r="I768" s="5"/>
       <c r="J768" s="40"/>
     </row>
-    <row r="769" spans="1:10" ht="12">
+    <row r="769" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A769" s="5"/>
       <c r="D769" s="5"/>
       <c r="E769" s="5"/>
@@ -9775,7 +10008,7 @@
       <c r="I769" s="5"/>
       <c r="J769" s="40"/>
     </row>
-    <row r="770" spans="1:10" ht="12">
+    <row r="770" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A770" s="5"/>
       <c r="D770" s="5"/>
       <c r="E770" s="5"/>
@@ -9785,7 +10018,7 @@
       <c r="I770" s="5"/>
       <c r="J770" s="40"/>
     </row>
-    <row r="771" spans="1:10" ht="12">
+    <row r="771" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A771" s="5"/>
       <c r="D771" s="5"/>
       <c r="E771" s="5"/>
@@ -9795,7 +10028,7 @@
       <c r="I771" s="5"/>
       <c r="J771" s="40"/>
     </row>
-    <row r="772" spans="1:10" ht="12">
+    <row r="772" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A772" s="5"/>
       <c r="D772" s="5"/>
       <c r="E772" s="5"/>
@@ -9805,7 +10038,7 @@
       <c r="I772" s="5"/>
       <c r="J772" s="40"/>
     </row>
-    <row r="773" spans="1:10" ht="12">
+    <row r="773" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A773" s="5"/>
       <c r="D773" s="5"/>
       <c r="E773" s="5"/>
@@ -9815,7 +10048,7 @@
       <c r="I773" s="5"/>
       <c r="J773" s="40"/>
     </row>
-    <row r="774" spans="1:10" ht="12">
+    <row r="774" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A774" s="5"/>
       <c r="D774" s="5"/>
       <c r="E774" s="5"/>
@@ -9825,7 +10058,7 @@
       <c r="I774" s="5"/>
       <c r="J774" s="40"/>
     </row>
-    <row r="775" spans="1:10" ht="12">
+    <row r="775" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A775" s="5"/>
       <c r="D775" s="5"/>
       <c r="E775" s="5"/>
@@ -9835,7 +10068,7 @@
       <c r="I775" s="5"/>
       <c r="J775" s="40"/>
     </row>
-    <row r="776" spans="1:10" ht="12">
+    <row r="776" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A776" s="5"/>
       <c r="D776" s="5"/>
       <c r="E776" s="5"/>
@@ -9845,7 +10078,7 @@
       <c r="I776" s="5"/>
       <c r="J776" s="40"/>
     </row>
-    <row r="777" spans="1:10" ht="12">
+    <row r="777" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A777" s="5"/>
       <c r="D777" s="5"/>
       <c r="E777" s="5"/>
@@ -9855,7 +10088,7 @@
       <c r="I777" s="5"/>
       <c r="J777" s="40"/>
     </row>
-    <row r="778" spans="1:10" ht="12">
+    <row r="778" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A778" s="5"/>
       <c r="D778" s="5"/>
       <c r="E778" s="5"/>
@@ -9865,7 +10098,7 @@
       <c r="I778" s="5"/>
       <c r="J778" s="40"/>
     </row>
-    <row r="779" spans="1:10" ht="12">
+    <row r="779" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A779" s="5"/>
       <c r="D779" s="5"/>
       <c r="E779" s="5"/>
@@ -9875,7 +10108,7 @@
       <c r="I779" s="5"/>
       <c r="J779" s="40"/>
     </row>
-    <row r="780" spans="1:10" ht="12">
+    <row r="780" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A780" s="5"/>
       <c r="D780" s="5"/>
       <c r="E780" s="5"/>
@@ -9885,7 +10118,7 @@
       <c r="I780" s="5"/>
       <c r="J780" s="40"/>
     </row>
-    <row r="781" spans="1:10" ht="12">
+    <row r="781" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A781" s="5"/>
       <c r="D781" s="5"/>
       <c r="E781" s="5"/>
@@ -9895,7 +10128,7 @@
       <c r="I781" s="5"/>
       <c r="J781" s="40"/>
     </row>
-    <row r="782" spans="1:10" ht="12">
+    <row r="782" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A782" s="5"/>
       <c r="D782" s="5"/>
       <c r="E782" s="5"/>
@@ -9905,7 +10138,7 @@
       <c r="I782" s="5"/>
       <c r="J782" s="40"/>
     </row>
-    <row r="783" spans="1:10" ht="12">
+    <row r="783" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A783" s="5"/>
       <c r="D783" s="5"/>
       <c r="E783" s="5"/>
@@ -9915,7 +10148,7 @@
       <c r="I783" s="5"/>
       <c r="J783" s="40"/>
     </row>
-    <row r="784" spans="1:10" ht="12">
+    <row r="784" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A784" s="5"/>
       <c r="D784" s="5"/>
       <c r="E784" s="5"/>
@@ -9925,7 +10158,7 @@
       <c r="I784" s="5"/>
       <c r="J784" s="40"/>
     </row>
-    <row r="785" spans="1:10" ht="12">
+    <row r="785" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A785" s="5"/>
       <c r="D785" s="5"/>
       <c r="E785" s="5"/>
@@ -9935,7 +10168,7 @@
       <c r="I785" s="5"/>
       <c r="J785" s="40"/>
     </row>
-    <row r="786" spans="1:10" ht="12">
+    <row r="786" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A786" s="5"/>
       <c r="D786" s="5"/>
       <c r="E786" s="5"/>
@@ -9945,7 +10178,7 @@
       <c r="I786" s="5"/>
       <c r="J786" s="40"/>
     </row>
-    <row r="787" spans="1:10" ht="12">
+    <row r="787" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A787" s="5"/>
       <c r="D787" s="5"/>
       <c r="E787" s="5"/>
@@ -9955,7 +10188,7 @@
       <c r="I787" s="5"/>
       <c r="J787" s="40"/>
     </row>
-    <row r="788" spans="1:10" ht="12">
+    <row r="788" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A788" s="5"/>
       <c r="D788" s="5"/>
       <c r="E788" s="5"/>
@@ -9965,7 +10198,7 @@
       <c r="I788" s="5"/>
       <c r="J788" s="40"/>
     </row>
-    <row r="789" spans="1:10" ht="12">
+    <row r="789" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A789" s="5"/>
       <c r="D789" s="5"/>
       <c r="E789" s="5"/>
@@ -9975,7 +10208,7 @@
       <c r="I789" s="5"/>
       <c r="J789" s="40"/>
     </row>
-    <row r="790" spans="1:10" ht="12">
+    <row r="790" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A790" s="5"/>
       <c r="D790" s="5"/>
       <c r="E790" s="5"/>
@@ -9985,7 +10218,7 @@
       <c r="I790" s="5"/>
       <c r="J790" s="40"/>
     </row>
-    <row r="791" spans="1:10" ht="12">
+    <row r="791" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A791" s="5"/>
       <c r="D791" s="5"/>
       <c r="E791" s="5"/>
@@ -9995,7 +10228,7 @@
       <c r="I791" s="5"/>
       <c r="J791" s="40"/>
     </row>
-    <row r="792" spans="1:10" ht="12">
+    <row r="792" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A792" s="5"/>
       <c r="D792" s="5"/>
       <c r="E792" s="5"/>
@@ -10005,7 +10238,7 @@
       <c r="I792" s="5"/>
       <c r="J792" s="40"/>
     </row>
-    <row r="793" spans="1:10" ht="12">
+    <row r="793" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A793" s="5"/>
       <c r="D793" s="5"/>
       <c r="E793" s="5"/>
@@ -10015,7 +10248,7 @@
       <c r="I793" s="5"/>
       <c r="J793" s="40"/>
     </row>
-    <row r="794" spans="1:10" ht="12">
+    <row r="794" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A794" s="5"/>
       <c r="D794" s="5"/>
       <c r="E794" s="5"/>
@@ -10025,7 +10258,7 @@
       <c r="I794" s="5"/>
       <c r="J794" s="40"/>
     </row>
-    <row r="795" spans="1:10" ht="12">
+    <row r="795" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A795" s="5"/>
       <c r="D795" s="5"/>
       <c r="E795" s="5"/>
@@ -10035,7 +10268,7 @@
       <c r="I795" s="5"/>
       <c r="J795" s="40"/>
     </row>
-    <row r="796" spans="1:10" ht="12">
+    <row r="796" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A796" s="5"/>
       <c r="D796" s="5"/>
       <c r="E796" s="5"/>
@@ -10045,7 +10278,7 @@
       <c r="I796" s="5"/>
       <c r="J796" s="40"/>
     </row>
-    <row r="797" spans="1:10" ht="12">
+    <row r="797" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A797" s="5"/>
       <c r="D797" s="5"/>
       <c r="E797" s="5"/>
@@ -10055,7 +10288,7 @@
       <c r="I797" s="5"/>
       <c r="J797" s="40"/>
     </row>
-    <row r="798" spans="1:10" ht="12">
+    <row r="798" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A798" s="5"/>
       <c r="D798" s="5"/>
       <c r="E798" s="5"/>
@@ -10065,7 +10298,7 @@
       <c r="I798" s="5"/>
       <c r="J798" s="40"/>
     </row>
-    <row r="799" spans="1:10" ht="12">
+    <row r="799" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A799" s="5"/>
       <c r="D799" s="5"/>
       <c r="E799" s="5"/>
@@ -10075,7 +10308,7 @@
       <c r="I799" s="5"/>
       <c r="J799" s="40"/>
     </row>
-    <row r="800" spans="1:10" ht="12">
+    <row r="800" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A800" s="5"/>
       <c r="D800" s="5"/>
       <c r="E800" s="5"/>
@@ -10085,7 +10318,7 @@
       <c r="I800" s="5"/>
       <c r="J800" s="40"/>
     </row>
-    <row r="801" spans="1:10" ht="12">
+    <row r="801" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A801" s="5"/>
       <c r="D801" s="5"/>
       <c r="E801" s="5"/>
@@ -10095,7 +10328,7 @@
       <c r="I801" s="5"/>
       <c r="J801" s="40"/>
     </row>
-    <row r="802" spans="1:10" ht="12">
+    <row r="802" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A802" s="5"/>
       <c r="D802" s="5"/>
       <c r="E802" s="5"/>
@@ -10105,7 +10338,7 @@
       <c r="I802" s="5"/>
       <c r="J802" s="40"/>
     </row>
-    <row r="803" spans="1:10" ht="12">
+    <row r="803" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A803" s="5"/>
       <c r="D803" s="5"/>
       <c r="E803" s="5"/>
@@ -10115,7 +10348,7 @@
       <c r="I803" s="5"/>
       <c r="J803" s="40"/>
     </row>
-    <row r="804" spans="1:10" ht="12">
+    <row r="804" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A804" s="5"/>
       <c r="D804" s="5"/>
       <c r="E804" s="5"/>
@@ -10125,7 +10358,7 @@
       <c r="I804" s="5"/>
       <c r="J804" s="40"/>
     </row>
-    <row r="805" spans="1:10" ht="12">
+    <row r="805" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A805" s="5"/>
       <c r="D805" s="5"/>
       <c r="E805" s="5"/>
@@ -10135,7 +10368,7 @@
       <c r="I805" s="5"/>
       <c r="J805" s="40"/>
     </row>
-    <row r="806" spans="1:10" ht="12">
+    <row r="806" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A806" s="5"/>
       <c r="D806" s="5"/>
       <c r="E806" s="5"/>
@@ -10145,7 +10378,7 @@
       <c r="I806" s="5"/>
       <c r="J806" s="40"/>
     </row>
-    <row r="807" spans="1:10" ht="12">
+    <row r="807" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A807" s="5"/>
       <c r="D807" s="5"/>
       <c r="E807" s="5"/>
@@ -10155,7 +10388,7 @@
       <c r="I807" s="5"/>
       <c r="J807" s="40"/>
     </row>
-    <row r="808" spans="1:10" ht="12">
+    <row r="808" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A808" s="5"/>
       <c r="D808" s="5"/>
       <c r="E808" s="5"/>
@@ -10165,7 +10398,7 @@
       <c r="I808" s="5"/>
       <c r="J808" s="40"/>
     </row>
-    <row r="809" spans="1:10" ht="12">
+    <row r="809" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A809" s="5"/>
       <c r="D809" s="5"/>
       <c r="E809" s="5"/>
@@ -10175,7 +10408,7 @@
       <c r="I809" s="5"/>
       <c r="J809" s="40"/>
     </row>
-    <row r="810" spans="1:10" ht="12">
+    <row r="810" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A810" s="5"/>
       <c r="D810" s="5"/>
       <c r="E810" s="5"/>
@@ -10185,7 +10418,7 @@
       <c r="I810" s="5"/>
       <c r="J810" s="40"/>
     </row>
-    <row r="811" spans="1:10" ht="12">
+    <row r="811" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A811" s="5"/>
       <c r="D811" s="5"/>
       <c r="E811" s="5"/>
@@ -10195,7 +10428,7 @@
       <c r="I811" s="5"/>
       <c r="J811" s="40"/>
     </row>
-    <row r="812" spans="1:10" ht="12">
+    <row r="812" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A812" s="5"/>
       <c r="D812" s="5"/>
       <c r="E812" s="5"/>
@@ -10205,7 +10438,7 @@
       <c r="I812" s="5"/>
       <c r="J812" s="40"/>
     </row>
-    <row r="813" spans="1:10" ht="12">
+    <row r="813" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A813" s="5"/>
       <c r="D813" s="5"/>
       <c r="E813" s="5"/>
@@ -10215,7 +10448,7 @@
       <c r="I813" s="5"/>
       <c r="J813" s="40"/>
     </row>
-    <row r="814" spans="1:10" ht="12">
+    <row r="814" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A814" s="5"/>
       <c r="D814" s="5"/>
       <c r="E814" s="5"/>
@@ -10225,7 +10458,7 @@
       <c r="I814" s="5"/>
       <c r="J814" s="40"/>
     </row>
-    <row r="815" spans="1:10" ht="12">
+    <row r="815" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A815" s="5"/>
       <c r="D815" s="5"/>
       <c r="E815" s="5"/>
@@ -10235,7 +10468,7 @@
       <c r="I815" s="5"/>
       <c r="J815" s="40"/>
     </row>
-    <row r="816" spans="1:10" ht="12">
+    <row r="816" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A816" s="5"/>
       <c r="D816" s="5"/>
       <c r="E816" s="5"/>
@@ -10245,7 +10478,7 @@
       <c r="I816" s="5"/>
       <c r="J816" s="40"/>
     </row>
-    <row r="817" spans="1:10" ht="12">
+    <row r="817" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A817" s="5"/>
       <c r="D817" s="5"/>
       <c r="E817" s="5"/>
@@ -10255,7 +10488,7 @@
       <c r="I817" s="5"/>
       <c r="J817" s="40"/>
     </row>
-    <row r="818" spans="1:10" ht="12">
+    <row r="818" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A818" s="5"/>
       <c r="D818" s="5"/>
       <c r="E818" s="5"/>
@@ -10265,7 +10498,7 @@
       <c r="I818" s="5"/>
       <c r="J818" s="40"/>
     </row>
-    <row r="819" spans="1:10" ht="12">
+    <row r="819" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A819" s="5"/>
       <c r="D819" s="5"/>
       <c r="E819" s="5"/>
@@ -10275,7 +10508,7 @@
       <c r="I819" s="5"/>
       <c r="J819" s="40"/>
     </row>
-    <row r="820" spans="1:10" ht="12">
+    <row r="820" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A820" s="5"/>
       <c r="D820" s="5"/>
       <c r="E820" s="5"/>
@@ -10285,7 +10518,7 @@
       <c r="I820" s="5"/>
       <c r="J820" s="40"/>
     </row>
-    <row r="821" spans="1:10" ht="12">
+    <row r="821" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A821" s="5"/>
       <c r="D821" s="5"/>
       <c r="E821" s="5"/>
@@ -10295,7 +10528,7 @@
       <c r="I821" s="5"/>
       <c r="J821" s="40"/>
     </row>
-    <row r="822" spans="1:10" ht="12">
+    <row r="822" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A822" s="5"/>
       <c r="D822" s="5"/>
       <c r="E822" s="5"/>
@@ -10305,7 +10538,7 @@
       <c r="I822" s="5"/>
       <c r="J822" s="40"/>
     </row>
-    <row r="823" spans="1:10" ht="12">
+    <row r="823" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A823" s="5"/>
       <c r="D823" s="5"/>
       <c r="E823" s="5"/>
@@ -10315,7 +10548,7 @@
       <c r="I823" s="5"/>
       <c r="J823" s="40"/>
     </row>
-    <row r="824" spans="1:10" ht="12">
+    <row r="824" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A824" s="5"/>
       <c r="D824" s="5"/>
       <c r="E824" s="5"/>
@@ -10325,7 +10558,7 @@
       <c r="I824" s="5"/>
       <c r="J824" s="40"/>
     </row>
-    <row r="825" spans="1:10" ht="12">
+    <row r="825" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A825" s="5"/>
       <c r="D825" s="5"/>
       <c r="E825" s="5"/>
@@ -10335,7 +10568,7 @@
       <c r="I825" s="5"/>
       <c r="J825" s="40"/>
     </row>
-    <row r="826" spans="1:10" ht="12">
+    <row r="826" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A826" s="5"/>
       <c r="D826" s="5"/>
       <c r="E826" s="5"/>
@@ -10345,7 +10578,7 @@
       <c r="I826" s="5"/>
       <c r="J826" s="40"/>
     </row>
-    <row r="827" spans="1:10" ht="12">
+    <row r="827" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A827" s="5"/>
       <c r="D827" s="5"/>
       <c r="E827" s="5"/>
@@ -10355,7 +10588,7 @@
       <c r="I827" s="5"/>
       <c r="J827" s="40"/>
     </row>
-    <row r="828" spans="1:10" ht="12">
+    <row r="828" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A828" s="5"/>
       <c r="D828" s="5"/>
       <c r="E828" s="5"/>
@@ -10365,7 +10598,7 @@
       <c r="I828" s="5"/>
       <c r="J828" s="40"/>
     </row>
-    <row r="829" spans="1:10" ht="12">
+    <row r="829" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A829" s="5"/>
       <c r="D829" s="5"/>
       <c r="E829" s="5"/>
@@ -10375,7 +10608,7 @@
       <c r="I829" s="5"/>
       <c r="J829" s="40"/>
     </row>
-    <row r="830" spans="1:10" ht="12">
+    <row r="830" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A830" s="5"/>
       <c r="D830" s="5"/>
       <c r="E830" s="5"/>
@@ -10385,7 +10618,7 @@
       <c r="I830" s="5"/>
       <c r="J830" s="40"/>
     </row>
-    <row r="831" spans="1:10" ht="12">
+    <row r="831" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A831" s="5"/>
       <c r="D831" s="5"/>
       <c r="E831" s="5"/>
@@ -10395,7 +10628,7 @@
       <c r="I831" s="5"/>
       <c r="J831" s="40"/>
     </row>
-    <row r="832" spans="1:10" ht="12">
+    <row r="832" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A832" s="5"/>
       <c r="D832" s="5"/>
       <c r="E832" s="5"/>
@@ -10405,7 +10638,7 @@
       <c r="I832" s="5"/>
       <c r="J832" s="40"/>
     </row>
-    <row r="833" spans="1:10" ht="12">
+    <row r="833" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A833" s="5"/>
       <c r="D833" s="5"/>
       <c r="E833" s="5"/>
@@ -10415,7 +10648,7 @@
       <c r="I833" s="5"/>
       <c r="J833" s="40"/>
     </row>
-    <row r="834" spans="1:10" ht="12">
+    <row r="834" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A834" s="5"/>
       <c r="D834" s="5"/>
       <c r="E834" s="5"/>
@@ -10425,7 +10658,7 @@
       <c r="I834" s="5"/>
       <c r="J834" s="40"/>
     </row>
-    <row r="835" spans="1:10" ht="12">
+    <row r="835" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A835" s="5"/>
       <c r="D835" s="5"/>
       <c r="E835" s="5"/>
@@ -10435,7 +10668,7 @@
       <c r="I835" s="5"/>
       <c r="J835" s="40"/>
     </row>
-    <row r="836" spans="1:10" ht="12">
+    <row r="836" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A836" s="5"/>
       <c r="D836" s="5"/>
       <c r="E836" s="5"/>
@@ -10445,7 +10678,7 @@
       <c r="I836" s="5"/>
       <c r="J836" s="40"/>
     </row>
-    <row r="837" spans="1:10" ht="12">
+    <row r="837" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A837" s="5"/>
       <c r="D837" s="5"/>
       <c r="E837" s="5"/>
@@ -10455,7 +10688,7 @@
       <c r="I837" s="5"/>
       <c r="J837" s="40"/>
     </row>
-    <row r="838" spans="1:10" ht="12">
+    <row r="838" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A838" s="5"/>
       <c r="D838" s="5"/>
       <c r="E838" s="5"/>
@@ -10465,7 +10698,7 @@
       <c r="I838" s="5"/>
       <c r="J838" s="40"/>
     </row>
-    <row r="839" spans="1:10" ht="12">
+    <row r="839" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A839" s="5"/>
       <c r="D839" s="5"/>
       <c r="E839" s="5"/>
@@ -10475,7 +10708,7 @@
       <c r="I839" s="5"/>
       <c r="J839" s="40"/>
     </row>
-    <row r="840" spans="1:10" ht="12">
+    <row r="840" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A840" s="5"/>
       <c r="D840" s="5"/>
       <c r="E840" s="5"/>
@@ -10485,7 +10718,7 @@
       <c r="I840" s="5"/>
       <c r="J840" s="40"/>
     </row>
-    <row r="841" spans="1:10" ht="12">
+    <row r="841" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A841" s="5"/>
       <c r="D841" s="5"/>
       <c r="E841" s="5"/>
@@ -10495,7 +10728,7 @@
       <c r="I841" s="5"/>
       <c r="J841" s="40"/>
     </row>
-    <row r="842" spans="1:10" ht="12">
+    <row r="842" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A842" s="5"/>
       <c r="D842" s="5"/>
       <c r="E842" s="5"/>
@@ -10505,7 +10738,7 @@
       <c r="I842" s="5"/>
       <c r="J842" s="40"/>
     </row>
-    <row r="843" spans="1:10" ht="12">
+    <row r="843" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A843" s="5"/>
       <c r="D843" s="5"/>
       <c r="E843" s="5"/>
@@ -10515,7 +10748,7 @@
       <c r="I843" s="5"/>
       <c r="J843" s="40"/>
     </row>
-    <row r="844" spans="1:10" ht="12">
+    <row r="844" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A844" s="5"/>
       <c r="D844" s="5"/>
       <c r="E844" s="5"/>
@@ -10525,7 +10758,7 @@
       <c r="I844" s="5"/>
       <c r="J844" s="40"/>
     </row>
-    <row r="845" spans="1:10" ht="12">
+    <row r="845" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A845" s="5"/>
       <c r="D845" s="5"/>
       <c r="E845" s="5"/>
@@ -10535,7 +10768,7 @@
       <c r="I845" s="5"/>
       <c r="J845" s="40"/>
     </row>
-    <row r="846" spans="1:10" ht="12">
+    <row r="846" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A846" s="5"/>
       <c r="D846" s="5"/>
       <c r="E846" s="5"/>
@@ -10545,7 +10778,7 @@
       <c r="I846" s="5"/>
       <c r="J846" s="40"/>
     </row>
-    <row r="847" spans="1:10" ht="12">
+    <row r="847" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A847" s="5"/>
       <c r="D847" s="5"/>
       <c r="E847" s="5"/>
@@ -10555,7 +10788,7 @@
       <c r="I847" s="5"/>
       <c r="J847" s="40"/>
     </row>
-    <row r="848" spans="1:10" ht="12">
+    <row r="848" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A848" s="5"/>
       <c r="D848" s="5"/>
       <c r="E848" s="5"/>
@@ -10565,7 +10798,7 @@
       <c r="I848" s="5"/>
       <c r="J848" s="40"/>
     </row>
-    <row r="849" spans="1:10" ht="12">
+    <row r="849" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A849" s="5"/>
       <c r="D849" s="5"/>
       <c r="E849" s="5"/>
@@ -10575,7 +10808,7 @@
       <c r="I849" s="5"/>
       <c r="J849" s="40"/>
     </row>
-    <row r="850" spans="1:10" ht="12">
+    <row r="850" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A850" s="5"/>
       <c r="D850" s="5"/>
       <c r="E850" s="5"/>
@@ -10585,7 +10818,7 @@
       <c r="I850" s="5"/>
       <c r="J850" s="40"/>
     </row>
-    <row r="851" spans="1:10" ht="12">
+    <row r="851" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A851" s="5"/>
       <c r="D851" s="5"/>
       <c r="E851" s="5"/>
@@ -10595,7 +10828,7 @@
       <c r="I851" s="5"/>
       <c r="J851" s="40"/>
     </row>
-    <row r="852" spans="1:10" ht="12">
+    <row r="852" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A852" s="5"/>
       <c r="D852" s="5"/>
       <c r="E852" s="5"/>
@@ -10605,7 +10838,7 @@
       <c r="I852" s="5"/>
       <c r="J852" s="40"/>
     </row>
-    <row r="853" spans="1:10" ht="12">
+    <row r="853" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A853" s="5"/>
       <c r="D853" s="5"/>
       <c r="E853" s="5"/>
@@ -10615,7 +10848,7 @@
       <c r="I853" s="5"/>
       <c r="J853" s="40"/>
     </row>
-    <row r="854" spans="1:10" ht="12">
+    <row r="854" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A854" s="5"/>
       <c r="D854" s="5"/>
       <c r="E854" s="5"/>
@@ -10625,7 +10858,7 @@
       <c r="I854" s="5"/>
       <c r="J854" s="40"/>
     </row>
-    <row r="855" spans="1:10" ht="12">
+    <row r="855" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A855" s="5"/>
       <c r="D855" s="5"/>
       <c r="E855" s="5"/>
@@ -10635,7 +10868,7 @@
       <c r="I855" s="5"/>
       <c r="J855" s="40"/>
     </row>
-    <row r="856" spans="1:10" ht="12">
+    <row r="856" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A856" s="5"/>
       <c r="D856" s="5"/>
       <c r="E856" s="5"/>
@@ -10645,7 +10878,7 @@
       <c r="I856" s="5"/>
       <c r="J856" s="40"/>
     </row>
-    <row r="857" spans="1:10" ht="12">
+    <row r="857" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A857" s="5"/>
       <c r="D857" s="5"/>
       <c r="E857" s="5"/>
@@ -10655,7 +10888,7 @@
       <c r="I857" s="5"/>
       <c r="J857" s="40"/>
     </row>
-    <row r="858" spans="1:10" ht="12">
+    <row r="858" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A858" s="5"/>
       <c r="D858" s="5"/>
       <c r="E858" s="5"/>
@@ -10665,7 +10898,7 @@
       <c r="I858" s="5"/>
       <c r="J858" s="40"/>
     </row>
-    <row r="859" spans="1:10" ht="12">
+    <row r="859" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A859" s="5"/>
       <c r="D859" s="5"/>
       <c r="E859" s="5"/>
@@ -10675,7 +10908,7 @@
       <c r="I859" s="5"/>
       <c r="J859" s="40"/>
     </row>
-    <row r="860" spans="1:10" ht="12">
+    <row r="860" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A860" s="5"/>
       <c r="D860" s="5"/>
       <c r="E860" s="5"/>
@@ -10685,7 +10918,7 @@
       <c r="I860" s="5"/>
       <c r="J860" s="40"/>
     </row>
-    <row r="861" spans="1:10" ht="12">
+    <row r="861" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A861" s="5"/>
       <c r="D861" s="5"/>
       <c r="E861" s="5"/>
@@ -10695,7 +10928,7 @@
       <c r="I861" s="5"/>
       <c r="J861" s="40"/>
     </row>
-    <row r="862" spans="1:10" ht="12">
+    <row r="862" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A862" s="5"/>
       <c r="D862" s="5"/>
       <c r="E862" s="5"/>
@@ -10705,7 +10938,7 @@
       <c r="I862" s="5"/>
       <c r="J862" s="40"/>
     </row>
-    <row r="863" spans="1:10" ht="12">
+    <row r="863" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A863" s="5"/>
       <c r="D863" s="5"/>
       <c r="E863" s="5"/>
@@ -10715,7 +10948,7 @@
       <c r="I863" s="5"/>
       <c r="J863" s="40"/>
     </row>
-    <row r="864" spans="1:10" ht="12">
+    <row r="864" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A864" s="5"/>
       <c r="D864" s="5"/>
       <c r="E864" s="5"/>
@@ -10725,7 +10958,7 @@
       <c r="I864" s="5"/>
       <c r="J864" s="40"/>
     </row>
-    <row r="865" spans="1:10" ht="12">
+    <row r="865" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A865" s="5"/>
       <c r="D865" s="5"/>
       <c r="E865" s="5"/>
@@ -10735,7 +10968,7 @@
       <c r="I865" s="5"/>
       <c r="J865" s="40"/>
     </row>
-    <row r="866" spans="1:10" ht="12">
+    <row r="866" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A866" s="5"/>
       <c r="D866" s="5"/>
       <c r="E866" s="5"/>
@@ -10745,7 +10978,7 @@
       <c r="I866" s="5"/>
       <c r="J866" s="40"/>
     </row>
-    <row r="867" spans="1:10" ht="12">
+    <row r="867" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A867" s="5"/>
       <c r="D867" s="5"/>
       <c r="E867" s="5"/>
@@ -10755,7 +10988,7 @@
       <c r="I867" s="5"/>
       <c r="J867" s="40"/>
     </row>
-    <row r="868" spans="1:10" ht="12">
+    <row r="868" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A868" s="5"/>
       <c r="D868" s="5"/>
       <c r="E868" s="5"/>
@@ -10765,7 +10998,7 @@
       <c r="I868" s="5"/>
       <c r="J868" s="40"/>
     </row>
-    <row r="869" spans="1:10" ht="12">
+    <row r="869" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A869" s="5"/>
       <c r="D869" s="5"/>
       <c r="E869" s="5"/>
@@ -10775,7 +11008,7 @@
       <c r="I869" s="5"/>
       <c r="J869" s="40"/>
     </row>
-    <row r="870" spans="1:10" ht="12">
+    <row r="870" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A870" s="5"/>
       <c r="D870" s="5"/>
       <c r="E870" s="5"/>
@@ -10785,7 +11018,7 @@
       <c r="I870" s="5"/>
       <c r="J870" s="40"/>
     </row>
-    <row r="871" spans="1:10" ht="12">
+    <row r="871" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A871" s="5"/>
       <c r="D871" s="5"/>
       <c r="E871" s="5"/>
@@ -10795,7 +11028,7 @@
       <c r="I871" s="5"/>
       <c r="J871" s="40"/>
     </row>
-    <row r="872" spans="1:10" ht="12">
+    <row r="872" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A872" s="5"/>
       <c r="D872" s="5"/>
       <c r="E872" s="5"/>
@@ -10805,7 +11038,7 @@
       <c r="I872" s="5"/>
       <c r="J872" s="40"/>
     </row>
-    <row r="873" spans="1:10" ht="12">
+    <row r="873" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A873" s="5"/>
       <c r="D873" s="5"/>
       <c r="E873" s="5"/>
@@ -10815,7 +11048,7 @@
       <c r="I873" s="5"/>
       <c r="J873" s="40"/>
     </row>
-    <row r="874" spans="1:10" ht="12">
+    <row r="874" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A874" s="5"/>
       <c r="D874" s="5"/>
       <c r="E874" s="5"/>
@@ -10825,7 +11058,7 @@
       <c r="I874" s="5"/>
       <c r="J874" s="40"/>
     </row>
-    <row r="875" spans="1:10" ht="12">
+    <row r="875" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A875" s="5"/>
       <c r="D875" s="5"/>
       <c r="E875" s="5"/>
@@ -10835,7 +11068,7 @@
       <c r="I875" s="5"/>
       <c r="J875" s="40"/>
     </row>
-    <row r="876" spans="1:10" ht="12">
+    <row r="876" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A876" s="5"/>
       <c r="D876" s="5"/>
       <c r="E876" s="5"/>
@@ -10845,7 +11078,7 @@
       <c r="I876" s="5"/>
       <c r="J876" s="40"/>
     </row>
-    <row r="877" spans="1:10" ht="12">
+    <row r="877" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A877" s="5"/>
       <c r="D877" s="5"/>
       <c r="E877" s="5"/>
@@ -10855,7 +11088,7 @@
       <c r="I877" s="5"/>
       <c r="J877" s="40"/>
     </row>
-    <row r="878" spans="1:10" ht="12">
+    <row r="878" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A878" s="5"/>
       <c r="D878" s="5"/>
       <c r="E878" s="5"/>
@@ -10865,7 +11098,7 @@
       <c r="I878" s="5"/>
       <c r="J878" s="40"/>
     </row>
-    <row r="879" spans="1:10" ht="12">
+    <row r="879" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A879" s="5"/>
       <c r="D879" s="5"/>
       <c r="E879" s="5"/>
@@ -10875,7 +11108,7 @@
       <c r="I879" s="5"/>
       <c r="J879" s="40"/>
     </row>
-    <row r="880" spans="1:10" ht="12">
+    <row r="880" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A880" s="5"/>
       <c r="D880" s="5"/>
       <c r="E880" s="5"/>
@@ -10885,7 +11118,7 @@
       <c r="I880" s="5"/>
       <c r="J880" s="40"/>
     </row>
-    <row r="881" spans="1:10" ht="12">
+    <row r="881" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A881" s="5"/>
       <c r="D881" s="5"/>
       <c r="E881" s="5"/>
@@ -10895,7 +11128,7 @@
       <c r="I881" s="5"/>
       <c r="J881" s="40"/>
     </row>
-    <row r="882" spans="1:10" ht="12">
+    <row r="882" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A882" s="5"/>
       <c r="D882" s="5"/>
       <c r="E882" s="5"/>
@@ -10905,7 +11138,7 @@
       <c r="I882" s="5"/>
       <c r="J882" s="40"/>
     </row>
-    <row r="883" spans="1:10" ht="12">
+    <row r="883" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A883" s="5"/>
       <c r="D883" s="5"/>
       <c r="E883" s="5"/>
@@ -10915,7 +11148,7 @@
       <c r="I883" s="5"/>
       <c r="J883" s="40"/>
     </row>
-    <row r="884" spans="1:10" ht="12">
+    <row r="884" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A884" s="5"/>
       <c r="D884" s="5"/>
       <c r="E884" s="5"/>
@@ -10925,7 +11158,7 @@
       <c r="I884" s="5"/>
       <c r="J884" s="40"/>
     </row>
-    <row r="885" spans="1:10" ht="12">
+    <row r="885" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A885" s="5"/>
       <c r="D885" s="5"/>
       <c r="E885" s="5"/>
@@ -10935,7 +11168,7 @@
       <c r="I885" s="5"/>
       <c r="J885" s="40"/>
     </row>
-    <row r="886" spans="1:10" ht="12">
+    <row r="886" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A886" s="5"/>
       <c r="D886" s="5"/>
       <c r="E886" s="5"/>
@@ -10945,7 +11178,7 @@
       <c r="I886" s="5"/>
       <c r="J886" s="40"/>
     </row>
-    <row r="887" spans="1:10" ht="12">
+    <row r="887" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A887" s="5"/>
       <c r="D887" s="5"/>
       <c r="E887" s="5"/>
@@ -10955,7 +11188,7 @@
       <c r="I887" s="5"/>
       <c r="J887" s="40"/>
     </row>
-    <row r="888" spans="1:10" ht="12">
+    <row r="888" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A888" s="5"/>
       <c r="D888" s="5"/>
       <c r="E888" s="5"/>
@@ -10965,7 +11198,7 @@
       <c r="I888" s="5"/>
       <c r="J888" s="40"/>
     </row>
-    <row r="889" spans="1:10" ht="12">
+    <row r="889" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A889" s="5"/>
       <c r="D889" s="5"/>
       <c r="E889" s="5"/>
@@ -10975,7 +11208,7 @@
       <c r="I889" s="5"/>
       <c r="J889" s="40"/>
     </row>
-    <row r="890" spans="1:10" ht="12">
+    <row r="890" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A890" s="5"/>
       <c r="D890" s="5"/>
       <c r="E890" s="5"/>
@@ -10985,7 +11218,7 @@
       <c r="I890" s="5"/>
       <c r="J890" s="40"/>
     </row>
-    <row r="891" spans="1:10" ht="12">
+    <row r="891" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A891" s="5"/>
       <c r="D891" s="5"/>
       <c r="E891" s="5"/>
@@ -10995,7 +11228,7 @@
       <c r="I891" s="5"/>
       <c r="J891" s="40"/>
     </row>
-    <row r="892" spans="1:10" ht="12">
+    <row r="892" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A892" s="5"/>
       <c r="D892" s="5"/>
       <c r="E892" s="5"/>
@@ -11005,7 +11238,7 @@
       <c r="I892" s="5"/>
       <c r="J892" s="40"/>
     </row>
-    <row r="893" spans="1:10" ht="12">
+    <row r="893" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A893" s="5"/>
       <c r="D893" s="5"/>
       <c r="E893" s="5"/>
@@ -11015,7 +11248,7 @@
       <c r="I893" s="5"/>
       <c r="J893" s="40"/>
     </row>
-    <row r="894" spans="1:10" ht="12">
+    <row r="894" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A894" s="5"/>
       <c r="D894" s="5"/>
       <c r="E894" s="5"/>
@@ -11025,7 +11258,7 @@
       <c r="I894" s="5"/>
       <c r="J894" s="40"/>
     </row>
-    <row r="895" spans="1:10" ht="12">
+    <row r="895" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A895" s="5"/>
       <c r="D895" s="5"/>
       <c r="E895" s="5"/>
@@ -11035,7 +11268,7 @@
       <c r="I895" s="5"/>
       <c r="J895" s="40"/>
     </row>
-    <row r="896" spans="1:10" ht="12">
+    <row r="896" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A896" s="5"/>
       <c r="D896" s="5"/>
       <c r="E896" s="5"/>
@@ -11045,7 +11278,7 @@
       <c r="I896" s="5"/>
       <c r="J896" s="40"/>
     </row>
-    <row r="897" spans="1:10" ht="12">
+    <row r="897" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A897" s="5"/>
       <c r="D897" s="5"/>
       <c r="E897" s="5"/>
@@ -11055,7 +11288,7 @@
       <c r="I897" s="5"/>
       <c r="J897" s="40"/>
     </row>
-    <row r="898" spans="1:10" ht="12">
+    <row r="898" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A898" s="5"/>
       <c r="D898" s="5"/>
       <c r="E898" s="5"/>
@@ -11065,7 +11298,7 @@
       <c r="I898" s="5"/>
       <c r="J898" s="40"/>
     </row>
-    <row r="899" spans="1:10" ht="12">
+    <row r="899" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A899" s="5"/>
       <c r="D899" s="5"/>
       <c r="E899" s="5"/>
@@ -11075,7 +11308,7 @@
       <c r="I899" s="5"/>
       <c r="J899" s="40"/>
     </row>
-    <row r="900" spans="1:10" ht="12">
+    <row r="900" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A900" s="5"/>
       <c r="D900" s="5"/>
       <c r="E900" s="5"/>
@@ -11085,7 +11318,7 @@
       <c r="I900" s="5"/>
       <c r="J900" s="40"/>
     </row>
-    <row r="901" spans="1:10" ht="12">
+    <row r="901" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A901" s="5"/>
       <c r="D901" s="5"/>
       <c r="E901" s="5"/>
@@ -11095,7 +11328,7 @@
       <c r="I901" s="5"/>
       <c r="J901" s="40"/>
     </row>
-    <row r="902" spans="1:10" ht="12">
+    <row r="902" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A902" s="5"/>
       <c r="D902" s="5"/>
       <c r="E902" s="5"/>
@@ -11105,7 +11338,7 @@
       <c r="I902" s="5"/>
       <c r="J902" s="40"/>
     </row>
-    <row r="903" spans="1:10" ht="12">
+    <row r="903" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A903" s="5"/>
       <c r="D903" s="5"/>
       <c r="E903" s="5"/>
@@ -11115,7 +11348,7 @@
       <c r="I903" s="5"/>
       <c r="J903" s="40"/>
     </row>
-    <row r="904" spans="1:10" ht="12">
+    <row r="904" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A904" s="5"/>
       <c r="D904" s="5"/>
       <c r="E904" s="5"/>
@@ -11125,7 +11358,7 @@
       <c r="I904" s="5"/>
       <c r="J904" s="40"/>
     </row>
-    <row r="905" spans="1:10" ht="12">
+    <row r="905" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A905" s="5"/>
       <c r="D905" s="5"/>
       <c r="E905" s="5"/>
@@ -11135,7 +11368,7 @@
       <c r="I905" s="5"/>
       <c r="J905" s="40"/>
     </row>
-    <row r="906" spans="1:10" ht="12">
+    <row r="906" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A906" s="5"/>
       <c r="D906" s="5"/>
       <c r="E906" s="5"/>
@@ -11145,7 +11378,7 @@
       <c r="I906" s="5"/>
       <c r="J906" s="40"/>
     </row>
-    <row r="907" spans="1:10" ht="12">
+    <row r="907" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A907" s="5"/>
       <c r="D907" s="5"/>
       <c r="E907" s="5"/>
@@ -11155,7 +11388,7 @@
       <c r="I907" s="5"/>
       <c r="J907" s="40"/>
     </row>
-    <row r="908" spans="1:10" ht="12">
+    <row r="908" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A908" s="5"/>
       <c r="D908" s="5"/>
       <c r="E908" s="5"/>
@@ -11165,7 +11398,7 @@
       <c r="I908" s="5"/>
       <c r="J908" s="40"/>
     </row>
-    <row r="909" spans="1:10" ht="12">
+    <row r="909" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A909" s="5"/>
       <c r="D909" s="5"/>
       <c r="E909" s="5"/>
@@ -11175,7 +11408,7 @@
       <c r="I909" s="5"/>
       <c r="J909" s="40"/>
     </row>
-    <row r="910" spans="1:10" ht="12">
+    <row r="910" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A910" s="5"/>
       <c r="D910" s="5"/>
       <c r="E910" s="5"/>
@@ -11185,7 +11418,7 @@
       <c r="I910" s="5"/>
       <c r="J910" s="40"/>
     </row>
-    <row r="911" spans="1:10" ht="12">
+    <row r="911" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A911" s="5"/>
       <c r="D911" s="5"/>
       <c r="E911" s="5"/>
@@ -11195,7 +11428,7 @@
       <c r="I911" s="5"/>
       <c r="J911" s="40"/>
     </row>
-    <row r="912" spans="1:10" ht="12">
+    <row r="912" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A912" s="5"/>
       <c r="D912" s="5"/>
       <c r="E912" s="5"/>
@@ -11205,7 +11438,7 @@
       <c r="I912" s="5"/>
       <c r="J912" s="40"/>
     </row>
-    <row r="913" spans="1:10" ht="12">
+    <row r="913" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A913" s="5"/>
       <c r="D913" s="5"/>
       <c r="E913" s="5"/>
@@ -11215,7 +11448,7 @@
       <c r="I913" s="5"/>
       <c r="J913" s="40"/>
     </row>
-    <row r="914" spans="1:10" ht="12">
+    <row r="914" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A914" s="5"/>
       <c r="D914" s="5"/>
       <c r="E914" s="5"/>
@@ -11225,7 +11458,7 @@
       <c r="I914" s="5"/>
       <c r="J914" s="40"/>
     </row>
-    <row r="915" spans="1:10" ht="12">
+    <row r="915" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A915" s="5"/>
       <c r="D915" s="5"/>
       <c r="E915" s="5"/>
@@ -11235,7 +11468,7 @@
       <c r="I915" s="5"/>
       <c r="J915" s="40"/>
     </row>
-    <row r="916" spans="1:10" ht="12">
+    <row r="916" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A916" s="5"/>
       <c r="D916" s="5"/>
       <c r="E916" s="5"/>
@@ -11245,7 +11478,7 @@
       <c r="I916" s="5"/>
       <c r="J916" s="40"/>
     </row>
-    <row r="917" spans="1:10" ht="12">
+    <row r="917" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A917" s="5"/>
       <c r="D917" s="5"/>
       <c r="E917" s="5"/>
@@ -11255,7 +11488,7 @@
       <c r="I917" s="5"/>
       <c r="J917" s="40"/>
     </row>
-    <row r="918" spans="1:10" ht="12">
+    <row r="918" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A918" s="5"/>
       <c r="D918" s="5"/>
       <c r="E918" s="5"/>
@@ -11265,7 +11498,7 @@
       <c r="I918" s="5"/>
       <c r="J918" s="40"/>
     </row>
-    <row r="919" spans="1:10" ht="12">
+    <row r="919" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A919" s="5"/>
       <c r="D919" s="5"/>
       <c r="E919" s="5"/>
@@ -11275,7 +11508,7 @@
       <c r="I919" s="5"/>
       <c r="J919" s="40"/>
     </row>
-    <row r="920" spans="1:10" ht="12">
+    <row r="920" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A920" s="5"/>
       <c r="D920" s="5"/>
       <c r="E920" s="5"/>
@@ -11285,7 +11518,7 @@
       <c r="I920" s="5"/>
       <c r="J920" s="40"/>
     </row>
-    <row r="921" spans="1:10" ht="12">
+    <row r="921" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A921" s="5"/>
       <c r="D921" s="5"/>
       <c r="E921" s="5"/>
@@ -11295,7 +11528,7 @@
       <c r="I921" s="5"/>
       <c r="J921" s="40"/>
     </row>
-    <row r="922" spans="1:10" ht="12">
+    <row r="922" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A922" s="5"/>
       <c r="D922" s="5"/>
       <c r="E922" s="5"/>
@@ -11305,7 +11538,7 @@
       <c r="I922" s="5"/>
       <c r="J922" s="40"/>
     </row>
-    <row r="923" spans="1:10" ht="12">
+    <row r="923" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A923" s="5"/>
       <c r="D923" s="5"/>
       <c r="E923" s="5"/>
@@ -11315,7 +11548,7 @@
       <c r="I923" s="5"/>
       <c r="J923" s="40"/>
     </row>
-    <row r="924" spans="1:10" ht="12">
+    <row r="924" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A924" s="5"/>
       <c r="D924" s="5"/>
       <c r="E924" s="5"/>
@@ -11325,7 +11558,7 @@
       <c r="I924" s="5"/>
       <c r="J924" s="40"/>
     </row>
-    <row r="925" spans="1:10" ht="12">
+    <row r="925" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A925" s="5"/>
       <c r="D925" s="5"/>
       <c r="E925" s="5"/>
@@ -11335,7 +11568,7 @@
       <c r="I925" s="5"/>
       <c r="J925" s="40"/>
     </row>
-    <row r="926" spans="1:10" ht="12">
+    <row r="926" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A926" s="5"/>
       <c r="D926" s="5"/>
       <c r="E926" s="5"/>
@@ -11345,7 +11578,7 @@
       <c r="I926" s="5"/>
       <c r="J926" s="40"/>
     </row>
-    <row r="927" spans="1:10" ht="12">
+    <row r="927" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A927" s="5"/>
       <c r="D927" s="5"/>
       <c r="E927" s="5"/>
@@ -11355,7 +11588,7 @@
       <c r="I927" s="5"/>
       <c r="J927" s="40"/>
     </row>
-    <row r="928" spans="1:10" ht="12">
+    <row r="928" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A928" s="5"/>
       <c r="D928" s="5"/>
       <c r="E928" s="5"/>
@@ -11365,7 +11598,7 @@
       <c r="I928" s="5"/>
       <c r="J928" s="40"/>
     </row>
-    <row r="929" spans="1:10" ht="12">
+    <row r="929" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A929" s="5"/>
       <c r="D929" s="5"/>
       <c r="E929" s="5"/>
@@ -11375,7 +11608,7 @@
       <c r="I929" s="5"/>
       <c r="J929" s="40"/>
     </row>
-    <row r="930" spans="1:10" ht="12">
+    <row r="930" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A930" s="5"/>
       <c r="D930" s="5"/>
       <c r="E930" s="5"/>
@@ -11385,7 +11618,7 @@
       <c r="I930" s="5"/>
       <c r="J930" s="40"/>
     </row>
-    <row r="931" spans="1:10" ht="12">
+    <row r="931" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A931" s="5"/>
       <c r="D931" s="5"/>
       <c r="E931" s="5"/>
@@ -11395,7 +11628,7 @@
       <c r="I931" s="5"/>
       <c r="J931" s="40"/>
     </row>
-    <row r="932" spans="1:10" ht="12">
+    <row r="932" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A932" s="5"/>
       <c r="D932" s="5"/>
       <c r="E932" s="5"/>
@@ -11405,7 +11638,7 @@
       <c r="I932" s="5"/>
       <c r="J932" s="40"/>
     </row>
-    <row r="933" spans="1:10" ht="12">
+    <row r="933" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A933" s="5"/>
       <c r="D933" s="5"/>
       <c r="E933" s="5"/>
@@ -11415,7 +11648,7 @@
       <c r="I933" s="5"/>
       <c r="J933" s="40"/>
     </row>
-    <row r="934" spans="1:10" ht="12">
+    <row r="934" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A934" s="5"/>
       <c r="D934" s="5"/>
       <c r="E934" s="5"/>
@@ -11425,7 +11658,7 @@
       <c r="I934" s="5"/>
       <c r="J934" s="40"/>
     </row>
-    <row r="935" spans="1:10" ht="12">
+    <row r="935" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A935" s="5"/>
       <c r="D935" s="5"/>
       <c r="E935" s="5"/>
@@ -11435,7 +11668,7 @@
       <c r="I935" s="5"/>
       <c r="J935" s="40"/>
     </row>
-    <row r="936" spans="1:10" ht="12">
+    <row r="936" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A936" s="5"/>
       <c r="D936" s="5"/>
       <c r="E936" s="5"/>
@@ -11445,7 +11678,7 @@
       <c r="I936" s="5"/>
       <c r="J936" s="40"/>
     </row>
-    <row r="937" spans="1:10" ht="12">
+    <row r="937" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A937" s="5"/>
       <c r="D937" s="5"/>
       <c r="E937" s="5"/>
@@ -11455,7 +11688,7 @@
       <c r="I937" s="5"/>
       <c r="J937" s="40"/>
     </row>
-    <row r="938" spans="1:10" ht="12">
+    <row r="938" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A938" s="5"/>
       <c r="D938" s="5"/>
       <c r="E938" s="5"/>
@@ -11465,7 +11698,7 @@
       <c r="I938" s="5"/>
       <c r="J938" s="40"/>
     </row>
-    <row r="939" spans="1:10" ht="12">
+    <row r="939" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A939" s="5"/>
       <c r="D939" s="5"/>
       <c r="E939" s="5"/>
@@ -11475,7 +11708,7 @@
       <c r="I939" s="5"/>
       <c r="J939" s="40"/>
     </row>
-    <row r="940" spans="1:10" ht="12">
+    <row r="940" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A940" s="5"/>
       <c r="D940" s="5"/>
       <c r="E940" s="5"/>
@@ -11485,7 +11718,7 @@
       <c r="I940" s="5"/>
       <c r="J940" s="40"/>
     </row>
-    <row r="941" spans="1:10" ht="12">
+    <row r="941" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A941" s="5"/>
       <c r="D941" s="5"/>
       <c r="E941" s="5"/>
@@ -11495,7 +11728,7 @@
       <c r="I941" s="5"/>
       <c r="J941" s="40"/>
     </row>
-    <row r="942" spans="1:10" ht="12">
+    <row r="942" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A942" s="5"/>
       <c r="D942" s="5"/>
       <c r="E942" s="5"/>
@@ -11505,7 +11738,7 @@
       <c r="I942" s="5"/>
       <c r="J942" s="40"/>
     </row>
-    <row r="943" spans="1:10" ht="12">
+    <row r="943" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A943" s="5"/>
       <c r="D943" s="5"/>
       <c r="E943" s="5"/>
@@ -11515,7 +11748,7 @@
       <c r="I943" s="5"/>
       <c r="J943" s="40"/>
     </row>
-    <row r="944" spans="1:10" ht="12">
+    <row r="944" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A944" s="5"/>
       <c r="D944" s="5"/>
       <c r="E944" s="5"/>
@@ -11525,7 +11758,7 @@
       <c r="I944" s="5"/>
       <c r="J944" s="40"/>
     </row>
-    <row r="945" spans="1:10" ht="12">
+    <row r="945" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A945" s="5"/>
       <c r="D945" s="5"/>
       <c r="E945" s="5"/>
@@ -11535,7 +11768,7 @@
       <c r="I945" s="5"/>
       <c r="J945" s="40"/>
     </row>
-    <row r="946" spans="1:10" ht="12">
+    <row r="946" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A946" s="5"/>
       <c r="D946" s="5"/>
       <c r="E946" s="5"/>
@@ -11545,7 +11778,7 @@
       <c r="I946" s="5"/>
       <c r="J946" s="40"/>
     </row>
-    <row r="947" spans="1:10" ht="12">
+    <row r="947" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A947" s="5"/>
       <c r="D947" s="5"/>
       <c r="E947" s="5"/>
@@ -11555,7 +11788,7 @@
       <c r="I947" s="5"/>
       <c r="J947" s="40"/>
     </row>
-    <row r="948" spans="1:10" ht="12">
+    <row r="948" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A948" s="5"/>
       <c r="D948" s="5"/>
       <c r="E948" s="5"/>
@@ -11565,9 +11798,9 @@
       <c r="I948" s="5"/>
       <c r="J948" s="40"/>
     </row>
-    <row r="949" spans="1:10" ht="12"/>
-    <row r="950" spans="1:10" ht="12"/>
-    <row r="951" spans="1:10" ht="12"/>
+    <row r="949" spans="1:10" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="950" spans="1:10" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="951" spans="1:10" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A2:A3"/>
@@ -11589,12 +11822,9 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I18:I19"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
@@ -11604,14 +11834,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11621,13 +11847,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="2" max="2" width="59.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>97</v>
@@ -11657,7 +11883,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>98</v>
       </c>
@@ -11668,7 +11894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>101</v>
       </c>
@@ -11676,7 +11902,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
@@ -11684,7 +11910,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>105</v>
       </c>
@@ -11695,7 +11921,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>108</v>
       </c>
@@ -11704,7 +11930,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>110</v>
       </c>
@@ -11716,7 +11942,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>113</v>
       </c>
@@ -11728,12 +11954,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11743,13 +11965,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -11781,7 +12003,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>117</v>
       </c>
@@ -11789,7 +12011,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>119</v>
       </c>
@@ -11800,7 +12022,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>122</v>
       </c>
@@ -11811,7 +12033,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>124</v>
       </c>
@@ -11822,7 +12044,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>126</v>
       </c>
@@ -11830,7 +12052,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>128</v>
       </c>
@@ -11842,12 +12064,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11859,14 +12077,14 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="72.6640625" customWidth="1"/>
     <col min="3" max="3" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -11898,7 +12116,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>98</v>
       </c>
@@ -11906,7 +12124,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>132</v>
       </c>
@@ -11915,7 +12133,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
@@ -11924,7 +12142,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>135</v>
       </c>
@@ -11936,32 +12154,28 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="45" t="s">
         <v>138</v>
       </c>
       <c r="B7" s="46"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A7:B7"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11971,14 +12185,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="72.6640625" customWidth="1"/>
     <col min="3" max="3" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -12010,7 +12224,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>103</v>
       </c>
@@ -12019,7 +12233,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>135</v>
       </c>
@@ -12029,7 +12243,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>141</v>
       </c>
@@ -12040,7 +12254,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>144</v>
       </c>
@@ -12051,7 +12265,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>146</v>
       </c>
@@ -12062,7 +12276,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>148</v>
       </c>
@@ -12073,21 +12287,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/docs/SSNoC REST API.xlsx
+++ b/docs/SSNoC REST API.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kid7st/Dropbox/myCoding/ECE2016Spring/18652/S16-A2-SSNoC/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyu/Documents/S16-A2-SSNoC/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="24940" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines and Notes" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="238">
   <si>
     <t>Rules</t>
   </si>
@@ -258,7 +255,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">author, </t>
     </r>
@@ -266,7 +262,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
       </rPr>
       <t>content, postedAt</t>
     </r>
@@ -687,6 +682,129 @@
   </si>
   <si>
     <t>Dashboard</t>
+  </si>
+  <si>
+    <t>User History</t>
+  </si>
+  <si>
+    <t>/userhistory/:username</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>an array of histories, each is {timestamp: date, username: string, type: int, content: string}. For type: 1 represents log in/out event; 2 represents change status event; 3 represents chat public event; 4 represents post announcement event</t>
+  </si>
+  <si>
+    <t>Not login: 401</t>
+  </si>
+  <si>
+    <t>upload image</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/image</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>image file</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error 404</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/announcements</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator Profile</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator Profile</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profile</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/profile/:username</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profile Page</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/profile/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>username, status, avatar, company, gender, location, email, phone</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error 401: No user exists</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profile Page</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/:userid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>username, password, account status(active, or inactive), privilege. The password could be empty if you don’t want to modify the password</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No privilege:  441, Invalid Input: 403</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>An json of users's profile. Including username, status, avatar, company, gender, location, email, phone，</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -705,50 +823,42 @@
       <u/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -915,7 +1025,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1018,6 +1128,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1040,16 +1153,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1404,12 +1517,12 @@
       <c r="D11" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="43" t="s">
@@ -1432,9 +1545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y951"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1498,48 +1611,48 @@
       <c r="Y1" s="35"/>
     </row>
     <row r="2" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="51"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="48" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
@@ -1690,7 +1803,7 @@
       <c r="I8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="49"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1729,7 +1842,7 @@
       <c r="I9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
@@ -1916,7 +2029,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>73</v>
@@ -2071,29 +2184,29 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="52" t="s">
+      <c r="E18" s="55"/>
+      <c r="F18" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="52" t="s">
+      <c r="H18" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="54" t="s">
         <v>79</v>
       </c>
       <c r="J18" s="36"/>
@@ -2114,15 +2227,15 @@
       <c r="Y18" s="37"/>
     </row>
     <row r="19" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="50"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="36"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2718,54 +2831,146 @@
       <c r="I40" s="5"/>
       <c r="J40" s="40"/>
     </row>
-    <row r="41" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="5"/>
+    <row r="41" spans="1:10" ht="91" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="33">
+        <v>200</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="J41" s="40"/>
     </row>
     <row r="42" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="A42" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="5"/>
+      <c r="F42" s="33">
+        <v>200</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="J42" s="40"/>
     </row>
-    <row r="43" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="D43" s="5"/>
+    <row r="43" spans="1:10" ht="52" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="5"/>
+      <c r="F43" s="33">
+        <v>200</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="J43" s="40"/>
     </row>
-    <row r="44" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="5"/>
+    <row r="44" spans="1:10" ht="39" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F44" s="33">
+        <v>200</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="H44" s="33"/>
-      <c r="I44" s="5"/>
+      <c r="I44" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="J44" s="40"/>
     </row>
-    <row r="45" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="D45" s="5"/>
+    <row r="45" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>230</v>
+      </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="5"/>
+      <c r="F45" s="33">
+        <v>200</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="J45" s="40"/>
     </row>
     <row r="46" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -12155,10 +12360,10 @@
       <c r="D5" s="3"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="47"/>
     </row>
     <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="5"/>
